--- a/data/output/연결 재무상태표.xlsx
+++ b/data/output/연결 재무상태표.xlsx
@@ -649,50 +649,80 @@
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n"/>
-      <c r="E4" s="1" t="n">
-        <v/>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v/>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v/>
-      </c>
-      <c r="H4" s="1" t="n">
-        <v/>
-      </c>
-      <c r="I4" s="1" t="n">
-        <v/>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v/>
-      </c>
-      <c r="K4" s="1" t="n">
-        <v/>
-      </c>
-      <c r="L4" s="1" t="n">
-        <v/>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v/>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v/>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v/>
-      </c>
-      <c r="P4" s="1" t="n">
-        <v/>
-      </c>
-      <c r="Q4" s="1" t="n">
-        <v/>
-      </c>
-      <c r="R4" s="1" t="n">
-        <v/>
-      </c>
-      <c r="S4" s="1" t="n">
-        <v/>
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -4166,50 +4196,80 @@
       <c r="B53" s="1" t="n"/>
       <c r="C53" s="1" t="n"/>
       <c r="D53" s="1" t="n"/>
-      <c r="E53" s="1" t="n">
-        <v/>
-      </c>
-      <c r="F53" s="1" t="n">
-        <v/>
-      </c>
-      <c r="G53" s="1" t="n">
-        <v/>
-      </c>
-      <c r="H53" s="1" t="n">
-        <v/>
-      </c>
-      <c r="I53" s="1" t="n">
-        <v/>
-      </c>
-      <c r="J53" s="1" t="n">
-        <v/>
-      </c>
-      <c r="K53" s="1" t="n">
-        <v/>
-      </c>
-      <c r="L53" s="1" t="n">
-        <v/>
-      </c>
-      <c r="M53" s="1" t="n">
-        <v/>
-      </c>
-      <c r="N53" s="1" t="n">
-        <v/>
-      </c>
-      <c r="O53" s="1" t="n">
-        <v/>
-      </c>
-      <c r="P53" s="1" t="n">
-        <v/>
-      </c>
-      <c r="Q53" s="1" t="n">
-        <v/>
-      </c>
-      <c r="R53" s="1" t="n">
-        <v/>
-      </c>
-      <c r="S53" s="1" t="n">
-        <v/>
+      <c r="E53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -5317,8 +5377,10 @@
       <c r="I69" s="1" t="n">
         <v>5365</v>
       </c>
-      <c r="J69" s="1" t="n">
-        <v/>
+      <c r="J69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K69" s="7" t="inlineStr">
         <is>
@@ -5341,8 +5403,10 @@
       <c r="O69" s="1" t="n">
         <v>5365</v>
       </c>
-      <c r="P69" s="1" t="n">
-        <v/>
+      <c r="P69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q69" s="1" t="n">
         <v>122851</v>
@@ -5350,8 +5414,10 @@
       <c r="R69" s="1" t="n">
         <v>5365</v>
       </c>
-      <c r="S69" s="1" t="n">
-        <v/>
+      <c r="S69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -7026,50 +7092,80 @@
       <c r="B93" s="1" t="n"/>
       <c r="C93" s="1" t="n"/>
       <c r="D93" s="1" t="n"/>
-      <c r="E93" s="1" t="n">
-        <v/>
-      </c>
-      <c r="F93" s="1" t="n">
-        <v/>
-      </c>
-      <c r="G93" s="1" t="n">
-        <v/>
-      </c>
-      <c r="H93" s="1" t="n">
-        <v/>
-      </c>
-      <c r="I93" s="1" t="n">
-        <v/>
-      </c>
-      <c r="J93" s="1" t="n">
-        <v/>
-      </c>
-      <c r="K93" s="1" t="n">
-        <v/>
-      </c>
-      <c r="L93" s="1" t="n">
-        <v/>
-      </c>
-      <c r="M93" s="1" t="n">
-        <v/>
-      </c>
-      <c r="N93" s="1" t="n">
-        <v/>
-      </c>
-      <c r="O93" s="1" t="n">
-        <v/>
-      </c>
-      <c r="P93" s="1" t="n">
-        <v/>
-      </c>
-      <c r="Q93" s="1" t="n">
-        <v/>
-      </c>
-      <c r="R93" s="1" t="n">
-        <v/>
-      </c>
-      <c r="S93" s="1" t="n">
-        <v/>
+      <c r="E93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="94">

--- a/data/output/연결 재무상태표.xlsx
+++ b/data/output/연결 재무상태표.xlsx
@@ -504,21 +504,21 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="4" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="4" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Kepco</t>
         </is>
       </c>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="4" t="inlineStr">
         <is>
-          <t>Kepco</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="L1" s="1" t="n"/>
@@ -739,31 +739,31 @@
       <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="n"/>
       <c r="E5" s="1" t="n">
+        <v>101724717</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>96389273</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>88565366</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>29536215</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>29750545</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>22050845</v>
+      </c>
+      <c r="K5" s="1" t="n">
         <v>195936557</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="L5" s="1" t="n">
         <v>218470581</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="M5" s="1" t="n">
         <v>218163185</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <v>101724717</v>
-      </c>
-      <c r="I5" s="1" t="n">
-        <v>96389273</v>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>88565366</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>29536215</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>29750545</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>22050845</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>327197489</v>
@@ -802,31 +802,31 @@
       </c>
       <c r="D6" s="1" t="n"/>
       <c r="E6" s="1" t="n">
+        <v>19166619</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>20864879</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>12795554</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>4342887</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>3234780</v>
+      </c>
+      <c r="J6" s="1" t="n">
+        <v>2635238</v>
+      </c>
+      <c r="K6" s="1" t="n">
         <v>69080893</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="L6" s="1" t="n">
         <v>49680710</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="M6" s="1" t="n">
         <v>39031415</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>19166619</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>20864879</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>12795554</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>4342887</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>3234780</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>2635238</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>92590399</v>
@@ -865,37 +865,37 @@
       </c>
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n">
+        <v>7339968</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>5774597</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>6949333</v>
+      </c>
+      <c r="H7" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I7" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J7" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K7" s="1" t="n">
         <v>22690924</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="L7" s="1" t="n">
         <v>65102886</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="M7" s="1" t="n">
         <v>81708986</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>7339968</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>5774597</v>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>6949333</v>
-      </c>
-      <c r="K7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="N7" s="1" t="n">
         <v>30030892</v>
@@ -929,18 +929,18 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>단기상각후원가금융자산</t>
+          <t>기타금융자산</t>
         </is>
       </c>
       <c r="D8" s="1" t="n"/>
       <c r="E8" s="1" t="n">
-        <v>608281</v>
+        <v>2802611</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>414610</v>
+        <v>5934745</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>3369034</v>
+        <v>12396646</v>
       </c>
       <c r="H8" s="7" t="inlineStr">
         <is>
@@ -973,22 +973,22 @@
         </is>
       </c>
       <c r="N8" s="1" t="n">
-        <v>608281</v>
+        <v>2802611</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>414610</v>
+        <v>5934745</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>3369034</v>
+        <v>12396646</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>608281</v>
+        <v>2802611</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>414610</v>
+        <v>5934745</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>3369034</v>
+        <v>12396646</v>
       </c>
     </row>
     <row r="9">
@@ -1004,18 +1004,18 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>단기당기손익-공정가치금융자산</t>
+          <t>매출채권</t>
         </is>
       </c>
       <c r="D9" s="1" t="n"/>
       <c r="E9" s="1" t="n">
-        <v>27112</v>
+        <v>4682182</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>29080</v>
+        <v>4279057</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>40757</v>
+        <v>3147296</v>
       </c>
       <c r="H9" s="7" t="inlineStr">
         <is>
@@ -1032,38 +1032,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K9" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L9" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M9" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K9" s="1" t="n">
+        <v>36647393</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>35721563</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>40713415</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>27112</v>
+        <v>41329575</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>29080</v>
+        <v>40000620</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>40757</v>
+        <v>43860711</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>27112</v>
+        <v>20664787.5</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>29080</v>
+        <v>20000310</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>40757</v>
+        <v>21930355.5</v>
       </c>
     </row>
     <row r="10">
@@ -1079,27 +1073,33 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>매출채권</t>
+          <t>기타채권</t>
         </is>
       </c>
       <c r="D10" s="1" t="n"/>
       <c r="E10" s="1" t="n">
-        <v>36647393</v>
+        <v>3431169</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>35721563</v>
+        <v>4458689</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>40713415</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>4682182</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>4279057</v>
-      </c>
-      <c r="J10" s="1" t="n">
-        <v>3147296</v>
+        <v>4220970</v>
+      </c>
+      <c r="H10" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K10" s="7" t="inlineStr">
         <is>
@@ -1117,22 +1117,22 @@
         </is>
       </c>
       <c r="N10" s="1" t="n">
-        <v>41329575</v>
+        <v>3431169</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>40000620</v>
+        <v>4458689</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>43860711</v>
+        <v>4220970</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>20664787.5</v>
+        <v>3431169</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>20000310</v>
+        <v>4458689</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>21930355.5</v>
+        <v>4220970</v>
       </c>
     </row>
     <row r="11">
@@ -1148,66 +1148,54 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>미수금</t>
+          <t>재고자산</t>
         </is>
       </c>
       <c r="D11" s="1" t="n"/>
       <c r="E11" s="1" t="n">
-        <v>6633248</v>
+        <v>17400346</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>6149209</v>
+        <v>14291216</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>4497257</v>
-      </c>
-      <c r="H11" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J11" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K11" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L11" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M11" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>11645641</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>8875615</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>9930732</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>7608182</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>51625874</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>52187866</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>41384404</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>6633248</v>
+        <v>77901835</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>6149209</v>
+        <v>76409814</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>4497257</v>
+        <v>60638227</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>6633248</v>
+        <v>25967278.33333333</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>6149209</v>
+        <v>25469938</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>4497257</v>
+        <v>20212742.33333333</v>
       </c>
     </row>
     <row r="12">
@@ -1223,18 +1211,18 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>선급비용</t>
+          <t>기타자산</t>
         </is>
       </c>
       <c r="D12" s="1" t="n"/>
       <c r="E12" s="1" t="n">
-        <v>3366130</v>
+        <v>3150939</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>2867823</v>
+        <v>2640553</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>2336252</v>
+        <v>2081853</v>
       </c>
       <c r="H12" s="7" t="inlineStr">
         <is>
@@ -1267,22 +1255,22 @@
         </is>
       </c>
       <c r="N12" s="1" t="n">
-        <v>3366130</v>
+        <v>3150939</v>
       </c>
       <c r="O12" s="1" t="n">
-        <v>2867823</v>
+        <v>2640553</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>2336252</v>
+        <v>2081853</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>3366130</v>
+        <v>3150939</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>2867823</v>
+        <v>2640553</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>2336252</v>
+        <v>2081853</v>
       </c>
     </row>
     <row r="13">
@@ -1298,54 +1286,60 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>재고자산</t>
+          <t>당기법인세자산</t>
         </is>
       </c>
       <c r="D13" s="1" t="n"/>
       <c r="E13" s="1" t="n">
-        <v>51625874</v>
+        <v>195696</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>52187866</v>
+        <v>85867</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>41384404</v>
+        <v>47346</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>17400346</v>
+        <v>69612</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>14291216</v>
+        <v>46619</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>11645641</v>
-      </c>
-      <c r="K13" s="1" t="n">
-        <v>8875615</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>9930732</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <v>7608182</v>
+        <v>41344</v>
+      </c>
+      <c r="K13" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L13" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M13" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N13" s="1" t="n">
-        <v>77901835</v>
+        <v>265308</v>
       </c>
       <c r="O13" s="1" t="n">
-        <v>76409814</v>
+        <v>132486</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>60638227</v>
+        <v>88690</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>25967278.33333333</v>
+        <v>132654</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>25469938</v>
+        <v>66243</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>20212742.33333333</v>
+        <v>44345</v>
       </c>
     </row>
     <row r="14">
@@ -1361,18 +1355,18 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>기타유동자산</t>
+          <t>금융업채권</t>
         </is>
       </c>
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="n">
-        <v>5038838</v>
+        <v>43120684</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>6316834</v>
+        <v>38037368</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>5081665</v>
+        <v>35252606</v>
       </c>
       <c r="H14" s="7" t="inlineStr">
         <is>
@@ -1405,22 +1399,22 @@
         </is>
       </c>
       <c r="N14" s="1" t="n">
-        <v>5038838</v>
+        <v>43120684</v>
       </c>
       <c r="O14" s="1" t="n">
-        <v>6316834</v>
+        <v>38037368</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>5081665</v>
+        <v>35252606</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>5038838</v>
+        <v>43120684</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>6316834</v>
+        <v>38037368</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>5081665</v>
+        <v>35252606</v>
       </c>
     </row>
     <row r="15">
@@ -1436,18 +1430,18 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>매각예정분류자산</t>
+          <t>매각예정비유동자산</t>
         </is>
       </c>
       <c r="D15" s="1" t="n"/>
       <c r="E15" s="1" t="n">
-        <v>217864</v>
+        <v>434503</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>0</v>
+        <v>22302</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>0</v>
+        <v>28121</v>
       </c>
       <c r="H15" s="7" t="inlineStr">
         <is>
@@ -1480,22 +1474,22 @@
         </is>
       </c>
       <c r="N15" s="1" t="n">
-        <v>217864</v>
+        <v>434503</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>0</v>
+        <v>22302</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>0</v>
+        <v>28121</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>217864</v>
+        <v>434503</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>0</v>
+        <v>22302</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>0</v>
+        <v>28121</v>
       </c>
     </row>
     <row r="16">
@@ -1511,7 +1505,7 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>기타금융자산</t>
+          <t>유동금융자산</t>
         </is>
       </c>
       <c r="D16" s="1" t="n"/>
@@ -1531,13 +1525,13 @@
         </is>
       </c>
       <c r="H16" s="1" t="n">
-        <v>2802611</v>
+        <v>3107397</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>5934745</v>
+        <v>4286975</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>12396646</v>
+        <v>1868796</v>
       </c>
       <c r="K16" s="7" t="inlineStr">
         <is>
@@ -1555,22 +1549,22 @@
         </is>
       </c>
       <c r="N16" s="1" t="n">
-        <v>2802611</v>
+        <v>3107397</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>5934745</v>
+        <v>4286975</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>12396646</v>
+        <v>1868796</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>2802611</v>
+        <v>3107397</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>5934745</v>
+        <v>4286975</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>12396646</v>
+        <v>1868796</v>
       </c>
     </row>
     <row r="17">
@@ -1586,7 +1580,7 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>기타채권</t>
+          <t>매출채권및기타채권</t>
         </is>
       </c>
       <c r="D17" s="1" t="n"/>
@@ -1606,13 +1600,13 @@
         </is>
       </c>
       <c r="H17" s="1" t="n">
-        <v>3431169</v>
+        <v>11985735</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>4458689</v>
+        <v>10461822</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>4220970</v>
+        <v>8122415</v>
       </c>
       <c r="K17" s="7" t="inlineStr">
         <is>
@@ -1630,22 +1624,22 @@
         </is>
       </c>
       <c r="N17" s="1" t="n">
-        <v>3431169</v>
+        <v>11985735</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>4458689</v>
+        <v>10461822</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>4220970</v>
+        <v>8122415</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>3431169</v>
+        <v>11985735</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>4458689</v>
+        <v>10461822</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>4220970</v>
+        <v>8122415</v>
       </c>
     </row>
     <row r="18">
@@ -1661,7 +1655,7 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>기타자산</t>
+          <t>유동비금융자산</t>
         </is>
       </c>
       <c r="D18" s="1" t="n"/>
@@ -1681,13 +1675,13 @@
         </is>
       </c>
       <c r="H18" s="1" t="n">
-        <v>3150939</v>
+        <v>1109321</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>2640553</v>
+        <v>1744869</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>2081853</v>
+        <v>1758991</v>
       </c>
       <c r="K18" s="7" t="inlineStr">
         <is>
@@ -1705,22 +1699,22 @@
         </is>
       </c>
       <c r="N18" s="1" t="n">
-        <v>3150939</v>
+        <v>1109321</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>2640553</v>
+        <v>1744869</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>2081853</v>
+        <v>1758991</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>3150939</v>
+        <v>1109321</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>2640553</v>
+        <v>1744869</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>2081853</v>
+        <v>1758991</v>
       </c>
     </row>
     <row r="19">
@@ -1736,7 +1730,7 @@
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>당기법인세자산</t>
+          <t>매각예정자산</t>
         </is>
       </c>
       <c r="D19" s="1" t="n"/>
@@ -1756,40 +1750,46 @@
         </is>
       </c>
       <c r="H19" s="1" t="n">
-        <v>195696</v>
+        <v>45648</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>85867</v>
+        <v>44748</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>47346</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>69612</v>
-      </c>
-      <c r="L19" s="1" t="n">
-        <v>46619</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <v>41344</v>
+        <v>15879</v>
+      </c>
+      <c r="K19" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L19" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M19" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N19" s="1" t="n">
-        <v>265308</v>
+        <v>45648</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>132486</v>
+        <v>44748</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>88690</v>
+        <v>15879</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>132654</v>
+        <v>45648</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>66243</v>
+        <v>44748</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>44345</v>
+        <v>15879</v>
       </c>
     </row>
     <row r="20">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>금융업채권</t>
+          <t>단기상각후원가금융자산</t>
         </is>
       </c>
       <c r="D20" s="1" t="n"/>
@@ -1824,47 +1824,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H20" s="1" t="n">
-        <v>43120684</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>38037368</v>
-      </c>
-      <c r="J20" s="1" t="n">
-        <v>35252606</v>
-      </c>
-      <c r="K20" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L20" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M20" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H20" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>608281</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>414610</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>3369034</v>
       </c>
       <c r="N20" s="1" t="n">
-        <v>43120684</v>
+        <v>608281</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>38037368</v>
+        <v>414610</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>35252606</v>
+        <v>3369034</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>43120684</v>
+        <v>608281</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>38037368</v>
+        <v>414610</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>35252606</v>
+        <v>3369034</v>
       </c>
     </row>
     <row r="21">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>매각예정비유동자산</t>
+          <t>단기당기손익-공정가치금융자산</t>
         </is>
       </c>
       <c r="D21" s="1" t="n"/>
@@ -1899,47 +1899,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H21" s="1" t="n">
-        <v>434503</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>22302</v>
-      </c>
-      <c r="J21" s="1" t="n">
-        <v>28121</v>
-      </c>
-      <c r="K21" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L21" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M21" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>27112</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>29080</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>40757</v>
       </c>
       <c r="N21" s="1" t="n">
-        <v>434503</v>
+        <v>27112</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>22302</v>
+        <v>29080</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>28121</v>
+        <v>40757</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>434503</v>
+        <v>27112</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>22302</v>
+        <v>29080</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>28121</v>
+        <v>40757</v>
       </c>
     </row>
     <row r="22">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>유동금융자산</t>
+          <t>미수금</t>
         </is>
       </c>
       <c r="D22" s="1" t="n"/>
@@ -1990,31 +1990,31 @@
         </is>
       </c>
       <c r="K22" s="1" t="n">
-        <v>3107397</v>
+        <v>6633248</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>4286975</v>
+        <v>6149209</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>1868796</v>
+        <v>4497257</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>3107397</v>
+        <v>6633248</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>4286975</v>
+        <v>6149209</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>1868796</v>
+        <v>4497257</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>3107397</v>
+        <v>6633248</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>4286975</v>
+        <v>6149209</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>1868796</v>
+        <v>4497257</v>
       </c>
     </row>
     <row r="23">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>매출채권및기타채권</t>
+          <t>선급비용</t>
         </is>
       </c>
       <c r="D23" s="1" t="n"/>
@@ -2065,31 +2065,31 @@
         </is>
       </c>
       <c r="K23" s="1" t="n">
-        <v>11985735</v>
+        <v>3366130</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>10461822</v>
+        <v>2867823</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>8122415</v>
+        <v>2336252</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>11985735</v>
+        <v>3366130</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>10461822</v>
+        <v>2867823</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>8122415</v>
+        <v>2336252</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>11985735</v>
+        <v>3366130</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>10461822</v>
+        <v>2867823</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>8122415</v>
+        <v>2336252</v>
       </c>
     </row>
     <row r="24">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>유동비금융자산</t>
+          <t>기타유동자산</t>
         </is>
       </c>
       <c r="D24" s="1" t="n"/>
@@ -2140,31 +2140,31 @@
         </is>
       </c>
       <c r="K24" s="1" t="n">
-        <v>1109321</v>
+        <v>5038838</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>1744869</v>
+        <v>6316834</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>1758991</v>
+        <v>5081665</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>1109321</v>
+        <v>5038838</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>1744869</v>
+        <v>6316834</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>1758991</v>
+        <v>5081665</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>1109321</v>
+        <v>5038838</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>1744869</v>
+        <v>6316834</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>1758991</v>
+        <v>5081665</v>
       </c>
     </row>
     <row r="25">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>매각예정자산</t>
+          <t>매각예정분류자산</t>
         </is>
       </c>
       <c r="D25" s="1" t="n"/>
@@ -2215,31 +2215,31 @@
         </is>
       </c>
       <c r="K25" s="1" t="n">
-        <v>45648</v>
+        <v>217864</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>44748</v>
+        <v>0</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>15879</v>
+        <v>0</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>45648</v>
+        <v>217864</v>
       </c>
       <c r="O25" s="1" t="n">
-        <v>44748</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>15879</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>45648</v>
+        <v>217864</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>44748</v>
+        <v>0</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>15879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2256,31 +2256,31 @@
       <c r="C26" s="1" t="n"/>
       <c r="D26" s="1" t="n"/>
       <c r="E26" s="1" t="n">
+        <v>180738638</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>159353189</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>145381049</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>210178750</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>205054449</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>189072882</v>
+      </c>
+      <c r="K26" s="1" t="n">
         <v>259969423</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="L26" s="1" t="n">
         <v>229953926</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="M26" s="1" t="n">
         <v>208457973</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>180738638</v>
-      </c>
-      <c r="I26" s="1" t="n">
-        <v>159353189</v>
-      </c>
-      <c r="J26" s="1" t="n">
-        <v>145381049</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <v>210178750</v>
-      </c>
-      <c r="L26" s="1" t="n">
-        <v>205054449</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <v>189072882</v>
       </c>
       <c r="N26" s="1" t="n">
         <v>650886811</v>
@@ -2314,18 +2314,18 @@
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익-공정가치 측정 비유동금융자산</t>
+          <t>장기금융상품</t>
         </is>
       </c>
       <c r="D27" s="1" t="n"/>
       <c r="E27" s="1" t="n">
-        <v>7481297</v>
+        <v>154966</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>11397012</v>
+        <v>112557</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>13965839</v>
+        <v>306410</v>
       </c>
       <c r="H27" s="7" t="inlineStr">
         <is>
@@ -2358,22 +2358,22 @@
         </is>
       </c>
       <c r="N27" s="1" t="n">
-        <v>7481297</v>
+        <v>154966</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>11397012</v>
+        <v>112557</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>13965839</v>
+        <v>306410</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>7481297</v>
+        <v>154966</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>11397012</v>
+        <v>112557</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>13965839</v>
+        <v>306410</v>
       </c>
     </row>
     <row r="28">
@@ -2389,18 +2389,18 @@
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>당기손익-공정가치금융자산</t>
+          <t>기타금융자산</t>
         </is>
       </c>
       <c r="D28" s="1" t="n"/>
       <c r="E28" s="1" t="n">
-        <v>1431394</v>
+        <v>4423388</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>1405468</v>
+        <v>3889776</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>1525344</v>
+        <v>3539286</v>
       </c>
       <c r="H28" s="7" t="inlineStr">
         <is>
@@ -2433,22 +2433,22 @@
         </is>
       </c>
       <c r="N28" s="1" t="n">
-        <v>1431394</v>
+        <v>4423388</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>1405468</v>
+        <v>3889776</v>
       </c>
       <c r="P28" s="1" t="n">
-        <v>1525344</v>
+        <v>3539286</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>1431394</v>
+        <v>4423388</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>1405468</v>
+        <v>3889776</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>1525344</v>
+        <v>3539286</v>
       </c>
     </row>
     <row r="29">
@@ -2464,18 +2464,18 @@
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>관계종속기업투자자산-지분법</t>
+          <t>장기성매출채권</t>
         </is>
       </c>
       <c r="D29" s="1" t="n"/>
       <c r="E29" s="1" t="n">
-        <v>11767444</v>
+        <v>210979</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>10893869</v>
+        <v>179781</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>8932251</v>
+        <v>137157</v>
       </c>
       <c r="H29" s="7" t="inlineStr">
         <is>
@@ -2508,22 +2508,22 @@
         </is>
       </c>
       <c r="N29" s="1" t="n">
-        <v>11767444</v>
+        <v>210979</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>10893869</v>
+        <v>179781</v>
       </c>
       <c r="P29" s="1" t="n">
-        <v>8932251</v>
+        <v>137157</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>11767444</v>
+        <v>210979</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>10893869</v>
+        <v>179781</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>8932251</v>
+        <v>137157</v>
       </c>
     </row>
     <row r="30">
@@ -2539,54 +2539,66 @@
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>유형자산</t>
+          <t>기타채권</t>
         </is>
       </c>
       <c r="D30" s="1" t="n"/>
       <c r="E30" s="1" t="n">
-        <v>187256262</v>
+        <v>855015</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>168045388</v>
+        <v>821050</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>149928539</v>
-      </c>
-      <c r="H30" s="1" t="n">
-        <v>38920900</v>
-      </c>
-      <c r="I30" s="1" t="n">
-        <v>36153190</v>
-      </c>
-      <c r="J30" s="1" t="n">
-        <v>35543083</v>
-      </c>
-      <c r="K30" s="1" t="n">
-        <v>179875535</v>
-      </c>
-      <c r="L30" s="1" t="n">
-        <v>177865308</v>
-      </c>
-      <c r="M30" s="1" t="n">
-        <v>173134638</v>
+        <v>741168</v>
+      </c>
+      <c r="H30" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I30" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J30" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K30" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L30" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M30" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N30" s="1" t="n">
-        <v>406052697</v>
+        <v>855015</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>382063886</v>
+        <v>821050</v>
       </c>
       <c r="P30" s="1" t="n">
-        <v>358606260</v>
+        <v>741168</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>135350899</v>
+        <v>855015</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>127354628.6666667</v>
+        <v>821050</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>119535420</v>
+        <v>741168</v>
       </c>
     </row>
     <row r="31">
@@ -2602,27 +2614,33 @@
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>무형자산</t>
+          <t>기타자산</t>
         </is>
       </c>
       <c r="D31" s="1" t="n"/>
       <c r="E31" s="1" t="n">
-        <v>22741862</v>
+        <v>1970119</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>20217754</v>
+        <v>1550455</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>20236244</v>
-      </c>
-      <c r="H31" s="1" t="n">
-        <v>6218585</v>
-      </c>
-      <c r="I31" s="1" t="n">
-        <v>6102377</v>
-      </c>
-      <c r="J31" s="1" t="n">
-        <v>5846986</v>
+        <v>1191284</v>
+      </c>
+      <c r="H31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K31" s="7" t="inlineStr">
         <is>
@@ -2640,22 +2658,22 @@
         </is>
       </c>
       <c r="N31" s="1" t="n">
-        <v>28960447</v>
+        <v>1970119</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>26320131</v>
+        <v>1550455</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>26083230</v>
+        <v>1191284</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>14480223.5</v>
+        <v>1970119</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>13160065.5</v>
+        <v>1550455</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>13041615</v>
+        <v>1191284</v>
       </c>
     </row>
     <row r="32">
@@ -2671,54 +2689,54 @@
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>순확정급여자산</t>
+          <t>유형자산</t>
         </is>
       </c>
       <c r="D32" s="1" t="n"/>
       <c r="E32" s="1" t="n">
-        <v>4905219</v>
+        <v>38920900</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>5851972</v>
+        <v>36153190</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>2809590</v>
+        <v>35543083</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>488181</v>
+        <v>179875535</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>837502</v>
+        <v>177865308</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>219721</v>
+        <v>173134638</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>70187</v>
+        <v>187256262</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>198626</v>
+        <v>168045388</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>20871</v>
+        <v>149928539</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>5463587</v>
+        <v>406052697</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>6888100</v>
+        <v>382063886</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>3050182</v>
+        <v>358606260</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>1821195.666666667</v>
+        <v>135350899</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>2296033.333333333</v>
+        <v>127354628.6666667</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>1016727.333333333</v>
+        <v>119535420</v>
       </c>
     </row>
     <row r="33">
@@ -2734,54 +2752,60 @@
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>이연법인세자산</t>
+          <t>투자부동산</t>
         </is>
       </c>
       <c r="D33" s="1" t="n"/>
       <c r="E33" s="1" t="n">
-        <v>10211797</v>
+        <v>146148</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>5101318</v>
+        <v>144450</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>4261214</v>
+        <v>156656</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>3604977</v>
+        <v>185527</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>3237309</v>
+        <v>208286</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>2224833</v>
-      </c>
-      <c r="K33" s="1" t="n">
-        <v>13161802</v>
-      </c>
-      <c r="L33" s="1" t="n">
-        <v>10934375</v>
-      </c>
-      <c r="M33" s="1" t="n">
-        <v>1901992</v>
+        <v>212784</v>
+      </c>
+      <c r="K33" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L33" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M33" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N33" s="1" t="n">
-        <v>26978576</v>
+        <v>331675</v>
       </c>
       <c r="O33" s="1" t="n">
-        <v>19273002</v>
+        <v>352736</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>8388039</v>
+        <v>369440</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>8992858.666666666</v>
+        <v>165837.5</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>6424334</v>
+        <v>176368</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>2796013</v>
+        <v>184720</v>
       </c>
     </row>
     <row r="34">
@@ -2797,18 +2821,18 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>기타비유동자산</t>
+          <t>무형자산</t>
         </is>
       </c>
       <c r="D34" s="1" t="n"/>
       <c r="E34" s="1" t="n">
-        <v>14174148</v>
+        <v>6218585</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>7041145</v>
+        <v>6102377</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>6798952</v>
+        <v>5846986</v>
       </c>
       <c r="H34" s="7" t="inlineStr">
         <is>
@@ -2825,38 +2849,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K34" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L34" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M34" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K34" s="1" t="n">
+        <v>22741862</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>20217754</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>20236244</v>
       </c>
       <c r="N34" s="1" t="n">
-        <v>14174148</v>
+        <v>28960447</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>7041145</v>
+        <v>26320131</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>6798952</v>
+        <v>26083230</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>14174148</v>
+        <v>14480223.5</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>7041145</v>
+        <v>13160065.5</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>6798952</v>
+        <v>13041615</v>
       </c>
     </row>
     <row r="35">
@@ -2872,33 +2890,33 @@
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>장기금융상품</t>
+          <t>공동기업 및 관계기업투자</t>
         </is>
       </c>
       <c r="D35" s="1" t="n"/>
-      <c r="E35" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F35" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G35" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H35" s="1" t="n">
-        <v>154966</v>
-      </c>
-      <c r="I35" s="1" t="n">
-        <v>112557</v>
-      </c>
-      <c r="J35" s="1" t="n">
-        <v>306410</v>
+      <c r="E35" s="1" t="n">
+        <v>28476142</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>25199437</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>22429117</v>
+      </c>
+      <c r="H35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K35" s="7" t="inlineStr">
         <is>
@@ -2916,22 +2934,22 @@
         </is>
       </c>
       <c r="N35" s="1" t="n">
-        <v>154966</v>
+        <v>28476142</v>
       </c>
       <c r="O35" s="1" t="n">
-        <v>112557</v>
+        <v>25199437</v>
       </c>
       <c r="P35" s="1" t="n">
-        <v>306410</v>
+        <v>22429117</v>
       </c>
       <c r="Q35" s="1" t="n">
-        <v>154966</v>
+        <v>28476142</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>112557</v>
+        <v>25199437</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>306410</v>
+        <v>22429117</v>
       </c>
     </row>
     <row r="36">
@@ -2947,66 +2965,54 @@
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>기타금융자산</t>
+          <t>순확정급여자산</t>
         </is>
       </c>
       <c r="D36" s="1" t="n"/>
-      <c r="E36" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F36" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G36" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E36" s="1" t="n">
+        <v>488181</v>
+      </c>
+      <c r="F36" s="1" t="n">
+        <v>837502</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>219721</v>
       </c>
       <c r="H36" s="1" t="n">
-        <v>4423388</v>
+        <v>70187</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>3889776</v>
+        <v>198626</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>3539286</v>
-      </c>
-      <c r="K36" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L36" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M36" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>20871</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>4905219</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>5851972</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>2809590</v>
       </c>
       <c r="N36" s="1" t="n">
-        <v>4423388</v>
+        <v>5463587</v>
       </c>
       <c r="O36" s="1" t="n">
-        <v>3889776</v>
+        <v>6888100</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>3539286</v>
+        <v>3050182</v>
       </c>
       <c r="Q36" s="1" t="n">
-        <v>4423388</v>
+        <v>1821195.666666667</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>3889776</v>
+        <v>2296033.333333333</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>3539286</v>
+        <v>1016727.333333333</v>
       </c>
     </row>
     <row r="37">
@@ -3022,66 +3028,54 @@
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>장기성매출채권</t>
+          <t>이연법인세자산</t>
         </is>
       </c>
       <c r="D37" s="1" t="n"/>
-      <c r="E37" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F37" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G37" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E37" s="1" t="n">
+        <v>3604977</v>
+      </c>
+      <c r="F37" s="1" t="n">
+        <v>3237309</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>2224833</v>
       </c>
       <c r="H37" s="1" t="n">
-        <v>210979</v>
+        <v>13161802</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>179781</v>
+        <v>10934375</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>137157</v>
-      </c>
-      <c r="K37" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L37" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M37" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1901992</v>
+      </c>
+      <c r="K37" s="1" t="n">
+        <v>10211797</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>5101318</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>4261214</v>
       </c>
       <c r="N37" s="1" t="n">
-        <v>210979</v>
+        <v>26978576</v>
       </c>
       <c r="O37" s="1" t="n">
-        <v>179781</v>
+        <v>19273002</v>
       </c>
       <c r="P37" s="1" t="n">
-        <v>137157</v>
+        <v>8388039</v>
       </c>
       <c r="Q37" s="1" t="n">
-        <v>210979</v>
+        <v>8992858.666666666</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>179781</v>
+        <v>6424334</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>137157</v>
+        <v>2796013</v>
       </c>
     </row>
     <row r="38">
@@ -3097,33 +3091,33 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>기타채권</t>
+          <t>금융업채권</t>
         </is>
       </c>
       <c r="D38" s="1" t="n"/>
-      <c r="E38" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F38" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G38" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H38" s="1" t="n">
-        <v>855015</v>
-      </c>
-      <c r="I38" s="1" t="n">
-        <v>821050</v>
-      </c>
-      <c r="J38" s="1" t="n">
-        <v>741168</v>
+      <c r="E38" s="1" t="n">
+        <v>64566977</v>
+      </c>
+      <c r="F38" s="1" t="n">
+        <v>52326478</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>45776526</v>
+      </c>
+      <c r="H38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K38" s="7" t="inlineStr">
         <is>
@@ -3141,22 +3135,22 @@
         </is>
       </c>
       <c r="N38" s="1" t="n">
-        <v>855015</v>
+        <v>64566977</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>821050</v>
+        <v>52326478</v>
       </c>
       <c r="P38" s="1" t="n">
-        <v>741168</v>
+        <v>45776526</v>
       </c>
       <c r="Q38" s="1" t="n">
-        <v>855015</v>
+        <v>64566977</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>821050</v>
+        <v>52326478</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>741168</v>
+        <v>45776526</v>
       </c>
     </row>
     <row r="39">
@@ -3172,33 +3166,33 @@
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>기타자산</t>
+          <t>운용리스 자산</t>
         </is>
       </c>
       <c r="D39" s="1" t="n"/>
-      <c r="E39" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F39" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G39" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H39" s="1" t="n">
-        <v>1970119</v>
-      </c>
-      <c r="I39" s="1" t="n">
-        <v>1550455</v>
-      </c>
-      <c r="J39" s="1" t="n">
-        <v>1191284</v>
+      <c r="E39" s="1" t="n">
+        <v>29664618</v>
+      </c>
+      <c r="F39" s="1" t="n">
+        <v>27681534</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>26327996</v>
+      </c>
+      <c r="H39" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K39" s="7" t="inlineStr">
         <is>
@@ -3216,22 +3210,22 @@
         </is>
       </c>
       <c r="N39" s="1" t="n">
-        <v>1970119</v>
+        <v>29664618</v>
       </c>
       <c r="O39" s="1" t="n">
-        <v>1550455</v>
+        <v>27681534</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>1191284</v>
+        <v>26327996</v>
       </c>
       <c r="Q39" s="1" t="n">
-        <v>1970119</v>
+        <v>29664618</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>1550455</v>
+        <v>27681534</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>1191284</v>
+        <v>26327996</v>
       </c>
     </row>
     <row r="40">
@@ -3247,60 +3241,66 @@
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>투자부동산</t>
+          <t>사용권자산</t>
         </is>
       </c>
       <c r="D40" s="1" t="n"/>
-      <c r="E40" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F40" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G40" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H40" s="1" t="n">
-        <v>146148</v>
-      </c>
-      <c r="I40" s="1" t="n">
-        <v>144450</v>
-      </c>
-      <c r="J40" s="1" t="n">
-        <v>156656</v>
-      </c>
-      <c r="K40" s="1" t="n">
-        <v>185527</v>
-      </c>
-      <c r="L40" s="1" t="n">
-        <v>208286</v>
-      </c>
-      <c r="M40" s="1" t="n">
-        <v>212784</v>
+      <c r="E40" s="1" t="n">
+        <v>1037643</v>
+      </c>
+      <c r="F40" s="1" t="n">
+        <v>1117293</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>940826</v>
+      </c>
+      <c r="H40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N40" s="1" t="n">
-        <v>331675</v>
+        <v>1037643</v>
       </c>
       <c r="O40" s="1" t="n">
-        <v>352736</v>
+        <v>1117293</v>
       </c>
       <c r="P40" s="1" t="n">
-        <v>369440</v>
+        <v>940826</v>
       </c>
       <c r="Q40" s="1" t="n">
-        <v>165837.5</v>
+        <v>1037643</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>176368</v>
+        <v>1117293</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>184720</v>
+        <v>940826</v>
       </c>
     </row>
     <row r="41">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>공동기업 및 관계기업투자</t>
+          <t>비유동금융자산</t>
         </is>
       </c>
       <c r="D41" s="1" t="n"/>
@@ -3336,13 +3336,13 @@
         </is>
       </c>
       <c r="H41" s="1" t="n">
-        <v>28476142</v>
+        <v>3546214</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>25199437</v>
+        <v>3336835</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>22429117</v>
+        <v>2909810</v>
       </c>
       <c r="K41" s="7" t="inlineStr">
         <is>
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="N41" s="1" t="n">
-        <v>28476142</v>
+        <v>3546214</v>
       </c>
       <c r="O41" s="1" t="n">
-        <v>25199437</v>
+        <v>3336835</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>22429117</v>
+        <v>2909810</v>
       </c>
       <c r="Q41" s="1" t="n">
-        <v>28476142</v>
+        <v>3546214</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>25199437</v>
+        <v>3336835</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>22429117</v>
+        <v>2909810</v>
       </c>
     </row>
     <row r="42">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>금융업채권</t>
+          <t>장기매출채권및기타채권</t>
         </is>
       </c>
       <c r="D42" s="1" t="n"/>
@@ -3411,13 +3411,13 @@
         </is>
       </c>
       <c r="H42" s="1" t="n">
-        <v>64566977</v>
+        <v>2193587</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>52326478</v>
+        <v>2153080</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>45776526</v>
+        <v>1906861</v>
       </c>
       <c r="K42" s="7" t="inlineStr">
         <is>
@@ -3435,22 +3435,22 @@
         </is>
       </c>
       <c r="N42" s="1" t="n">
-        <v>64566977</v>
+        <v>2193587</v>
       </c>
       <c r="O42" s="1" t="n">
-        <v>52326478</v>
+        <v>2153080</v>
       </c>
       <c r="P42" s="1" t="n">
-        <v>45776526</v>
+        <v>1906861</v>
       </c>
       <c r="Q42" s="1" t="n">
-        <v>64566977</v>
+        <v>2193587</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>52326478</v>
+        <v>2153080</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>45776526</v>
+        <v>1906861</v>
       </c>
     </row>
     <row r="43">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>운용리스 자산</t>
+          <t>영업권</t>
         </is>
       </c>
       <c r="D43" s="1" t="n"/>
@@ -3486,13 +3486,13 @@
         </is>
       </c>
       <c r="H43" s="1" t="n">
-        <v>29664618</v>
+        <v>99156</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>27681534</v>
+        <v>100093</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>26327996</v>
+        <v>105647</v>
       </c>
       <c r="K43" s="7" t="inlineStr">
         <is>
@@ -3510,22 +3510,22 @@
         </is>
       </c>
       <c r="N43" s="1" t="n">
-        <v>29664618</v>
+        <v>99156</v>
       </c>
       <c r="O43" s="1" t="n">
-        <v>27681534</v>
+        <v>100093</v>
       </c>
       <c r="P43" s="1" t="n">
-        <v>26327996</v>
+        <v>105647</v>
       </c>
       <c r="Q43" s="1" t="n">
-        <v>29664618</v>
+        <v>99156</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>27681534</v>
+        <v>100093</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>26327996</v>
+        <v>105647</v>
       </c>
     </row>
     <row r="44">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>사용권자산</t>
+          <t>영업권 이외의 무형자산</t>
         </is>
       </c>
       <c r="D44" s="1" t="n"/>
@@ -3561,13 +3561,13 @@
         </is>
       </c>
       <c r="H44" s="1" t="n">
-        <v>1037643</v>
+        <v>1033984</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>1117293</v>
+        <v>956664</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>940826</v>
+        <v>1044077</v>
       </c>
       <c r="K44" s="7" t="inlineStr">
         <is>
@@ -3585,22 +3585,22 @@
         </is>
       </c>
       <c r="N44" s="1" t="n">
-        <v>1037643</v>
+        <v>1033984</v>
       </c>
       <c r="O44" s="1" t="n">
-        <v>1117293</v>
+        <v>956664</v>
       </c>
       <c r="P44" s="1" t="n">
-        <v>940826</v>
+        <v>1044077</v>
       </c>
       <c r="Q44" s="1" t="n">
-        <v>1037643</v>
+        <v>1033984</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>1117293</v>
+        <v>956664</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>940826</v>
+        <v>1044077</v>
       </c>
     </row>
     <row r="45">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>비유동금융자산</t>
+          <t>관계기업투자지분</t>
         </is>
       </c>
       <c r="D45" s="1" t="n"/>
@@ -3635,47 +3635,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H45" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I45" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J45" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K45" s="1" t="n">
-        <v>3546214</v>
-      </c>
-      <c r="L45" s="1" t="n">
-        <v>3336835</v>
-      </c>
-      <c r="M45" s="1" t="n">
-        <v>2909810</v>
+      <c r="H45" s="1" t="n">
+        <v>6176889</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>5844464</v>
+      </c>
+      <c r="J45" s="1" t="n">
+        <v>5232373</v>
+      </c>
+      <c r="K45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N45" s="1" t="n">
-        <v>3546214</v>
+        <v>6176889</v>
       </c>
       <c r="O45" s="1" t="n">
-        <v>3336835</v>
+        <v>5844464</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>2909810</v>
+        <v>5232373</v>
       </c>
       <c r="Q45" s="1" t="n">
-        <v>3546214</v>
+        <v>6176889</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>3336835</v>
+        <v>5844464</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>2909810</v>
+        <v>5232373</v>
       </c>
     </row>
     <row r="46">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>장기매출채권및기타채권</t>
+          <t>공동기업투자지분</t>
         </is>
       </c>
       <c r="D46" s="1" t="n"/>
@@ -3710,47 +3710,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H46" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I46" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J46" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K46" s="1" t="n">
-        <v>2193587</v>
-      </c>
-      <c r="L46" s="1" t="n">
-        <v>2153080</v>
-      </c>
-      <c r="M46" s="1" t="n">
-        <v>1906861</v>
+      <c r="H46" s="1" t="n">
+        <v>3485699</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>3147584</v>
+      </c>
+      <c r="J46" s="1" t="n">
+        <v>2239011</v>
+      </c>
+      <c r="K46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N46" s="1" t="n">
-        <v>2193587</v>
+        <v>3485699</v>
       </c>
       <c r="O46" s="1" t="n">
-        <v>2153080</v>
+        <v>3147584</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>1906861</v>
+        <v>2239011</v>
       </c>
       <c r="Q46" s="1" t="n">
-        <v>2193587</v>
+        <v>3485699</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>2153080</v>
+        <v>3147584</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>1906861</v>
+        <v>2239011</v>
       </c>
     </row>
     <row r="47">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>영업권</t>
+          <t>비유동비금융자산</t>
         </is>
       </c>
       <c r="D47" s="1" t="n"/>
@@ -3785,47 +3785,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H47" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I47" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J47" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K47" s="1" t="n">
-        <v>99156</v>
-      </c>
-      <c r="L47" s="1" t="n">
-        <v>100093</v>
-      </c>
-      <c r="M47" s="1" t="n">
-        <v>105647</v>
+      <c r="H47" s="1" t="n">
+        <v>350170</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>309134</v>
+      </c>
+      <c r="J47" s="1" t="n">
+        <v>364818</v>
+      </c>
+      <c r="K47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N47" s="1" t="n">
-        <v>99156</v>
+        <v>350170</v>
       </c>
       <c r="O47" s="1" t="n">
-        <v>100093</v>
+        <v>309134</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>105647</v>
+        <v>364818</v>
       </c>
       <c r="Q47" s="1" t="n">
-        <v>99156</v>
+        <v>350170</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>100093</v>
+        <v>309134</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>105647</v>
+        <v>364818</v>
       </c>
     </row>
     <row r="48">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>영업권 이외의 무형자산</t>
+          <t>기타포괄손익-공정가치 측정 비유동금융자산</t>
         </is>
       </c>
       <c r="D48" s="1" t="n"/>
@@ -3876,31 +3876,31 @@
         </is>
       </c>
       <c r="K48" s="1" t="n">
-        <v>1033984</v>
+        <v>7481297</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>956664</v>
+        <v>11397012</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>1044077</v>
+        <v>13965839</v>
       </c>
       <c r="N48" s="1" t="n">
-        <v>1033984</v>
+        <v>7481297</v>
       </c>
       <c r="O48" s="1" t="n">
-        <v>956664</v>
+        <v>11397012</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>1044077</v>
+        <v>13965839</v>
       </c>
       <c r="Q48" s="1" t="n">
-        <v>1033984</v>
+        <v>7481297</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>956664</v>
+        <v>11397012</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>1044077</v>
+        <v>13965839</v>
       </c>
     </row>
     <row r="49">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>관계기업투자지분</t>
+          <t>당기손익-공정가치금융자산</t>
         </is>
       </c>
       <c r="D49" s="1" t="n"/>
@@ -3951,31 +3951,31 @@
         </is>
       </c>
       <c r="K49" s="1" t="n">
-        <v>6176889</v>
+        <v>1431394</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>5844464</v>
+        <v>1405468</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>5232373</v>
+        <v>1525344</v>
       </c>
       <c r="N49" s="1" t="n">
-        <v>6176889</v>
+        <v>1431394</v>
       </c>
       <c r="O49" s="1" t="n">
-        <v>5844464</v>
+        <v>1405468</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>5232373</v>
+        <v>1525344</v>
       </c>
       <c r="Q49" s="1" t="n">
-        <v>6176889</v>
+        <v>1431394</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>5844464</v>
+        <v>1405468</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>5232373</v>
+        <v>1525344</v>
       </c>
     </row>
     <row r="50">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>공동기업투자지분</t>
+          <t>관계종속기업투자자산-지분법</t>
         </is>
       </c>
       <c r="D50" s="1" t="n"/>
@@ -4026,31 +4026,31 @@
         </is>
       </c>
       <c r="K50" s="1" t="n">
-        <v>3485699</v>
+        <v>11767444</v>
       </c>
       <c r="L50" s="1" t="n">
-        <v>3147584</v>
+        <v>10893869</v>
       </c>
       <c r="M50" s="1" t="n">
-        <v>2239011</v>
+        <v>8932251</v>
       </c>
       <c r="N50" s="1" t="n">
-        <v>3485699</v>
+        <v>11767444</v>
       </c>
       <c r="O50" s="1" t="n">
-        <v>3147584</v>
+        <v>10893869</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>2239011</v>
+        <v>8932251</v>
       </c>
       <c r="Q50" s="1" t="n">
-        <v>3485699</v>
+        <v>11767444</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>3147584</v>
+        <v>10893869</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>2239011</v>
+        <v>8932251</v>
       </c>
     </row>
     <row r="51">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>비유동비금융자산</t>
+          <t>기타비유동자산</t>
         </is>
       </c>
       <c r="D51" s="1" t="n"/>
@@ -4101,31 +4101,31 @@
         </is>
       </c>
       <c r="K51" s="1" t="n">
-        <v>350170</v>
+        <v>14174148</v>
       </c>
       <c r="L51" s="1" t="n">
-        <v>309134</v>
+        <v>7041145</v>
       </c>
       <c r="M51" s="1" t="n">
-        <v>364818</v>
+        <v>6798952</v>
       </c>
       <c r="N51" s="1" t="n">
-        <v>350170</v>
+        <v>14174148</v>
       </c>
       <c r="O51" s="1" t="n">
-        <v>309134</v>
+        <v>7041145</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>364818</v>
+        <v>6798952</v>
       </c>
       <c r="Q51" s="1" t="n">
-        <v>350170</v>
+        <v>14174148</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>309134</v>
+        <v>7041145</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>364818</v>
+        <v>6798952</v>
       </c>
     </row>
     <row r="52">
@@ -4142,31 +4142,31 @@
       <c r="C52" s="1" t="n"/>
       <c r="D52" s="1" t="n"/>
       <c r="E52" s="1" t="n">
+        <v>282463355</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>255742462</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>233946415</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>239714965</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>234804994</v>
+      </c>
+      <c r="J52" s="1" t="n">
+        <v>211123727</v>
+      </c>
+      <c r="K52" s="1" t="n">
         <v>455905980</v>
       </c>
-      <c r="F52" s="1" t="n">
+      <c r="L52" s="1" t="n">
         <v>448424507</v>
       </c>
-      <c r="G52" s="1" t="n">
+      <c r="M52" s="1" t="n">
         <v>426621158</v>
-      </c>
-      <c r="H52" s="1" t="n">
-        <v>282463355</v>
-      </c>
-      <c r="I52" s="1" t="n">
-        <v>255742462</v>
-      </c>
-      <c r="J52" s="1" t="n">
-        <v>233946415</v>
-      </c>
-      <c r="K52" s="1" t="n">
-        <v>239714965</v>
-      </c>
-      <c r="L52" s="1" t="n">
-        <v>234804994</v>
-      </c>
-      <c r="M52" s="1" t="n">
-        <v>211123727</v>
       </c>
       <c r="N52" s="1" t="n">
         <v>978084300</v>
@@ -4286,31 +4286,31 @@
       <c r="C54" s="1" t="n"/>
       <c r="D54" s="1" t="n"/>
       <c r="E54" s="1" t="n">
+        <v>73362103</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>74236472</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>64236787</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>61248421</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>44518577</v>
+      </c>
+      <c r="J54" s="1" t="n">
+        <v>31732220</v>
+      </c>
+      <c r="K54" s="1" t="n">
         <v>75719452</v>
       </c>
-      <c r="F54" s="1" t="n">
+      <c r="L54" s="1" t="n">
         <v>78344852</v>
       </c>
-      <c r="G54" s="1" t="n">
+      <c r="M54" s="1" t="n">
         <v>88117133</v>
-      </c>
-      <c r="H54" s="1" t="n">
-        <v>73362103</v>
-      </c>
-      <c r="I54" s="1" t="n">
-        <v>74236472</v>
-      </c>
-      <c r="J54" s="1" t="n">
-        <v>64236787</v>
-      </c>
-      <c r="K54" s="1" t="n">
-        <v>61248421</v>
-      </c>
-      <c r="L54" s="1" t="n">
-        <v>44518577</v>
-      </c>
-      <c r="M54" s="1" t="n">
-        <v>31732220</v>
       </c>
       <c r="N54" s="1" t="n">
         <v>210329976</v>
@@ -4349,37 +4349,37 @@
       </c>
       <c r="D55" s="1" t="n"/>
       <c r="E55" s="1" t="n">
+        <v>10952046</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>10797065</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>9155255</v>
+      </c>
+      <c r="H55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K55" s="1" t="n">
         <v>11319824</v>
       </c>
-      <c r="F55" s="1" t="n">
+      <c r="L55" s="1" t="n">
         <v>10644686</v>
       </c>
-      <c r="G55" s="1" t="n">
+      <c r="M55" s="1" t="n">
         <v>13453351</v>
-      </c>
-      <c r="H55" s="1" t="n">
-        <v>10952046</v>
-      </c>
-      <c r="I55" s="1" t="n">
-        <v>10797065</v>
-      </c>
-      <c r="J55" s="1" t="n">
-        <v>9155255</v>
-      </c>
-      <c r="K55" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L55" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M55" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="N55" s="1" t="n">
         <v>22271870</v>
@@ -4413,60 +4413,60 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>단기차입금</t>
+          <t>미지급금</t>
         </is>
       </c>
       <c r="D56" s="1" t="n"/>
       <c r="E56" s="1" t="n">
-        <v>7114601</v>
+        <v>8642808</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>5147315</v>
+        <v>8277891</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>13687793</v>
-      </c>
-      <c r="H56" s="1" t="n">
-        <v>9035548</v>
-      </c>
-      <c r="I56" s="1" t="n">
-        <v>11366480</v>
-      </c>
-      <c r="J56" s="1" t="n">
-        <v>13087836</v>
-      </c>
-      <c r="K56" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L56" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M56" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>6335645</v>
+      </c>
+      <c r="H56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K56" s="1" t="n">
+        <v>15324119</v>
+      </c>
+      <c r="L56" s="1" t="n">
+        <v>17592366</v>
+      </c>
+      <c r="M56" s="1" t="n">
+        <v>15584866</v>
       </c>
       <c r="N56" s="1" t="n">
-        <v>16150149</v>
+        <v>23966927</v>
       </c>
       <c r="O56" s="1" t="n">
-        <v>16513795</v>
+        <v>25870257</v>
       </c>
       <c r="P56" s="1" t="n">
-        <v>26775629</v>
+        <v>21920511</v>
       </c>
       <c r="Q56" s="1" t="n">
-        <v>8075074.5</v>
+        <v>11983463.5</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>8256897.5</v>
+        <v>12935128.5</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>13387814.5</v>
+        <v>10960255.5</v>
       </c>
     </row>
     <row r="57">
@@ -4482,60 +4482,60 @@
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>미지급금</t>
+          <t>단기차입금</t>
         </is>
       </c>
       <c r="D57" s="1" t="n"/>
       <c r="E57" s="1" t="n">
-        <v>15324119</v>
+        <v>9035548</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>17592366</v>
+        <v>11366480</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>15584866</v>
-      </c>
-      <c r="H57" s="1" t="n">
-        <v>8642808</v>
-      </c>
-      <c r="I57" s="1" t="n">
-        <v>8277891</v>
-      </c>
-      <c r="J57" s="1" t="n">
-        <v>6335645</v>
-      </c>
-      <c r="K57" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L57" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M57" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>13087836</v>
+      </c>
+      <c r="H57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K57" s="1" t="n">
+        <v>7114601</v>
+      </c>
+      <c r="L57" s="1" t="n">
+        <v>5147315</v>
+      </c>
+      <c r="M57" s="1" t="n">
+        <v>13687793</v>
       </c>
       <c r="N57" s="1" t="n">
-        <v>23966927</v>
+        <v>16150149</v>
       </c>
       <c r="O57" s="1" t="n">
-        <v>25870257</v>
+        <v>16513795</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>21920511</v>
+        <v>26775629</v>
       </c>
       <c r="Q57" s="1" t="n">
-        <v>11983463.5</v>
+        <v>8075074.5</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>12935128.5</v>
+        <v>8256897.5</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>10960255.5</v>
+        <v>13387814.5</v>
       </c>
     </row>
     <row r="58">
@@ -4551,18 +4551,18 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>선수금</t>
+          <t>유동성장기부채</t>
         </is>
       </c>
       <c r="D58" s="1" t="n"/>
       <c r="E58" s="1" t="n">
-        <v>1492602</v>
+        <v>25109158</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>1314934</v>
+        <v>25574131</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>1224812</v>
+        <v>20578902</v>
       </c>
       <c r="H58" s="7" t="inlineStr">
         <is>
@@ -4579,38 +4579,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K58" s="1" t="n">
+        <v>1308875</v>
+      </c>
+      <c r="L58" s="1" t="n">
+        <v>1089162</v>
+      </c>
+      <c r="M58" s="1" t="n">
+        <v>1329968</v>
       </c>
       <c r="N58" s="1" t="n">
-        <v>1492602</v>
+        <v>26418033</v>
       </c>
       <c r="O58" s="1" t="n">
-        <v>1314934</v>
+        <v>26663293</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>1224812</v>
+        <v>21908870</v>
       </c>
       <c r="Q58" s="1" t="n">
-        <v>1492602</v>
+        <v>13209016.5</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>1314934</v>
+        <v>13331646.5</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>1224812</v>
+        <v>10954435</v>
       </c>
     </row>
     <row r="59">
@@ -4626,66 +4620,54 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>예수금</t>
+          <t>당기법인세부채</t>
         </is>
       </c>
       <c r="D59" s="1" t="n"/>
       <c r="E59" s="1" t="n">
-        <v>892441</v>
+        <v>1324720</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>1298244</v>
+        <v>1008506</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>1294052</v>
-      </c>
-      <c r="H59" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I59" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J59" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K59" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L59" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M59" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>751929</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>482934</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>429604</v>
+      </c>
+      <c r="J59" s="1" t="n">
+        <v>229460</v>
+      </c>
+      <c r="K59" s="1" t="n">
+        <v>3358715</v>
+      </c>
+      <c r="L59" s="1" t="n">
+        <v>4250397</v>
+      </c>
+      <c r="M59" s="1" t="n">
+        <v>6749149</v>
       </c>
       <c r="N59" s="1" t="n">
-        <v>892441</v>
+        <v>5166369</v>
       </c>
       <c r="O59" s="1" t="n">
-        <v>1298244</v>
+        <v>5688507</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>1294052</v>
+        <v>7730538</v>
       </c>
       <c r="Q59" s="1" t="n">
-        <v>892441</v>
+        <v>1722123</v>
       </c>
       <c r="R59" s="1" t="n">
-        <v>1298244</v>
+        <v>1896169</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>1294052</v>
+        <v>2576846</v>
       </c>
     </row>
     <row r="60">
@@ -4701,18 +4683,18 @@
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>미지급비용</t>
+          <t>충당부채</t>
         </is>
       </c>
       <c r="D60" s="1" t="n"/>
       <c r="E60" s="1" t="n">
-        <v>26013273</v>
+        <v>7316877</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>29211487</v>
+        <v>8102596</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>27928031</v>
+        <v>6664647</v>
       </c>
       <c r="H60" s="7" t="inlineStr">
         <is>
@@ -4729,38 +4711,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K60" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L60" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M60" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K60" s="1" t="n">
+        <v>6524876</v>
+      </c>
+      <c r="L60" s="1" t="n">
+        <v>5844907</v>
+      </c>
+      <c r="M60" s="1" t="n">
+        <v>5372872</v>
       </c>
       <c r="N60" s="1" t="n">
-        <v>26013273</v>
+        <v>13841753</v>
       </c>
       <c r="O60" s="1" t="n">
-        <v>29211487</v>
+        <v>13947503</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>27928031</v>
+        <v>12037519</v>
       </c>
       <c r="Q60" s="1" t="n">
-        <v>26013273</v>
+        <v>6920876.5</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>29211487</v>
+        <v>6973751.5</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>27928031</v>
+        <v>6018759.5</v>
       </c>
     </row>
     <row r="61">
@@ -4776,54 +4752,66 @@
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>당기법인세부채</t>
+          <t>기타금융부채</t>
         </is>
       </c>
       <c r="D61" s="1" t="n"/>
       <c r="E61" s="1" t="n">
-        <v>3358715</v>
+        <v>56712</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>4250397</v>
+        <v>99144</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>6749149</v>
-      </c>
-      <c r="H61" s="1" t="n">
-        <v>1324720</v>
-      </c>
-      <c r="I61" s="1" t="n">
-        <v>1008506</v>
-      </c>
-      <c r="J61" s="1" t="n">
-        <v>751929</v>
-      </c>
-      <c r="K61" s="1" t="n">
-        <v>482934</v>
-      </c>
-      <c r="L61" s="1" t="n">
-        <v>429604</v>
-      </c>
-      <c r="M61" s="1" t="n">
-        <v>229460</v>
+        <v>55187</v>
+      </c>
+      <c r="H61" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K61" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L61" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M61" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N61" s="1" t="n">
-        <v>5166369</v>
+        <v>56712</v>
       </c>
       <c r="O61" s="1" t="n">
-        <v>5688507</v>
+        <v>99144</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>7730538</v>
+        <v>55187</v>
       </c>
       <c r="Q61" s="1" t="n">
-        <v>1722123</v>
+        <v>56712</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>1896169</v>
+        <v>99144</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>2576846</v>
+        <v>55187</v>
       </c>
     </row>
     <row r="62">
@@ -4839,27 +4827,33 @@
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>유동성장기부채</t>
+          <t>기타부채</t>
         </is>
       </c>
       <c r="D62" s="1" t="n"/>
       <c r="E62" s="1" t="n">
-        <v>1308875</v>
+        <v>10577033</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>1089162</v>
+        <v>8600241</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>1329968</v>
-      </c>
-      <c r="H62" s="1" t="n">
-        <v>25109158</v>
-      </c>
-      <c r="I62" s="1" t="n">
-        <v>25574131</v>
-      </c>
-      <c r="J62" s="1" t="n">
-        <v>20578902</v>
+        <v>7440120</v>
+      </c>
+      <c r="H62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K62" s="7" t="inlineStr">
         <is>
@@ -4877,22 +4871,22 @@
         </is>
       </c>
       <c r="N62" s="1" t="n">
-        <v>26418033</v>
+        <v>10577033</v>
       </c>
       <c r="O62" s="1" t="n">
-        <v>26663293</v>
+        <v>8600241</v>
       </c>
       <c r="P62" s="1" t="n">
-        <v>21908870</v>
+        <v>7440120</v>
       </c>
       <c r="Q62" s="1" t="n">
-        <v>13209016.5</v>
+        <v>10577033</v>
       </c>
       <c r="R62" s="1" t="n">
-        <v>13331646.5</v>
+        <v>8600241</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>10954435</v>
+        <v>7440120</v>
       </c>
     </row>
     <row r="63">
@@ -4908,27 +4902,33 @@
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>충당부채</t>
+          <t>리스부채</t>
         </is>
       </c>
       <c r="D63" s="1" t="n"/>
       <c r="E63" s="1" t="n">
-        <v>6524876</v>
+        <v>224350</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>5844907</v>
+        <v>405053</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>5372872</v>
-      </c>
-      <c r="H63" s="1" t="n">
-        <v>7316877</v>
-      </c>
-      <c r="I63" s="1" t="n">
-        <v>8102596</v>
-      </c>
-      <c r="J63" s="1" t="n">
-        <v>6664647</v>
+        <v>167266</v>
+      </c>
+      <c r="H63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K63" s="7" t="inlineStr">
         <is>
@@ -4946,22 +4946,22 @@
         </is>
       </c>
       <c r="N63" s="1" t="n">
-        <v>13841753</v>
+        <v>224350</v>
       </c>
       <c r="O63" s="1" t="n">
-        <v>13947503</v>
+        <v>405053</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>12037519</v>
+        <v>167266</v>
       </c>
       <c r="Q63" s="1" t="n">
-        <v>6920876.5</v>
+        <v>224350</v>
       </c>
       <c r="R63" s="1" t="n">
-        <v>6973751.5</v>
+        <v>405053</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>6018759.5</v>
+        <v>167266</v>
       </c>
     </row>
     <row r="64">
@@ -4977,18 +4977,20 @@
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>기타 유동부채</t>
+          <t>매각예정비유동부채</t>
         </is>
       </c>
       <c r="D64" s="1" t="n"/>
       <c r="E64" s="1" t="n">
-        <v>2308472</v>
+        <v>122851</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>1951354</v>
-      </c>
-      <c r="G64" s="1" t="n">
-        <v>1492239</v>
+        <v>5365</v>
+      </c>
+      <c r="G64" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H64" s="7" t="inlineStr">
         <is>
@@ -5021,22 +5023,26 @@
         </is>
       </c>
       <c r="N64" s="1" t="n">
-        <v>2308472</v>
+        <v>122851</v>
       </c>
       <c r="O64" s="1" t="n">
-        <v>1951354</v>
-      </c>
-      <c r="P64" s="1" t="n">
-        <v>1492239</v>
+        <v>5365</v>
+      </c>
+      <c r="P64" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q64" s="1" t="n">
-        <v>2308472</v>
+        <v>122851</v>
       </c>
       <c r="R64" s="1" t="n">
-        <v>1951354</v>
-      </c>
-      <c r="S64" s="1" t="n">
-        <v>1492239</v>
+        <v>5365</v>
+      </c>
+      <c r="S64" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -5052,33 +5058,33 @@
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>매각예정분류부채</t>
+          <t>매입채무및기타채무</t>
         </is>
       </c>
       <c r="D65" s="1" t="n"/>
-      <c r="E65" s="1" t="n">
-        <v>61654</v>
-      </c>
-      <c r="F65" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I65" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J65" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="1" t="n">
+        <v>9089973</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>11983549</v>
+      </c>
+      <c r="J65" s="1" t="n">
+        <v>8153426</v>
       </c>
       <c r="K65" s="7" t="inlineStr">
         <is>
@@ -5096,22 +5102,22 @@
         </is>
       </c>
       <c r="N65" s="1" t="n">
-        <v>61654</v>
+        <v>9089973</v>
       </c>
       <c r="O65" s="1" t="n">
-        <v>0</v>
+        <v>11983549</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>0</v>
+        <v>8153426</v>
       </c>
       <c r="Q65" s="1" t="n">
-        <v>61654</v>
+        <v>9089973</v>
       </c>
       <c r="R65" s="1" t="n">
-        <v>0</v>
+        <v>11983549</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>0</v>
+        <v>8153426</v>
       </c>
     </row>
     <row r="66">
@@ -5127,7 +5133,7 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>기타금융부채</t>
+          <t>유동금융부채</t>
         </is>
       </c>
       <c r="D66" s="1" t="n"/>
@@ -5147,13 +5153,13 @@
         </is>
       </c>
       <c r="H66" s="1" t="n">
-        <v>56712</v>
+        <v>41139726</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>99144</v>
+        <v>22703996</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>55187</v>
+        <v>14037125</v>
       </c>
       <c r="K66" s="7" t="inlineStr">
         <is>
@@ -5171,22 +5177,22 @@
         </is>
       </c>
       <c r="N66" s="1" t="n">
-        <v>56712</v>
+        <v>41139726</v>
       </c>
       <c r="O66" s="1" t="n">
-        <v>99144</v>
+        <v>22703996</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>55187</v>
+        <v>14037125</v>
       </c>
       <c r="Q66" s="1" t="n">
-        <v>56712</v>
+        <v>41139726</v>
       </c>
       <c r="R66" s="1" t="n">
-        <v>99144</v>
+        <v>22703996</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>55187</v>
+        <v>14037125</v>
       </c>
     </row>
     <row r="67">
@@ -5202,7 +5208,7 @@
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>기타부채</t>
+          <t>유동비금융부채</t>
         </is>
       </c>
       <c r="D67" s="1" t="n"/>
@@ -5222,13 +5228,13 @@
         </is>
       </c>
       <c r="H67" s="1" t="n">
-        <v>10577033</v>
+        <v>7881663</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>8600241</v>
+        <v>6974377</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>7440120</v>
+        <v>6466333</v>
       </c>
       <c r="K67" s="7" t="inlineStr">
         <is>
@@ -5246,22 +5252,22 @@
         </is>
       </c>
       <c r="N67" s="1" t="n">
-        <v>10577033</v>
+        <v>7881663</v>
       </c>
       <c r="O67" s="1" t="n">
-        <v>8600241</v>
+        <v>6974377</v>
       </c>
       <c r="P67" s="1" t="n">
-        <v>7440120</v>
+        <v>6466333</v>
       </c>
       <c r="Q67" s="1" t="n">
-        <v>10577033</v>
+        <v>7881663</v>
       </c>
       <c r="R67" s="1" t="n">
-        <v>8600241</v>
+        <v>6974377</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>7440120</v>
+        <v>6466333</v>
       </c>
     </row>
     <row r="68">
@@ -5277,7 +5283,7 @@
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>리스부채</t>
+          <t>유동충당부채</t>
         </is>
       </c>
       <c r="D68" s="1" t="n"/>
@@ -5297,13 +5303,13 @@
         </is>
       </c>
       <c r="H68" s="1" t="n">
-        <v>224350</v>
+        <v>2654125</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>405053</v>
+        <v>2427051</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>167266</v>
+        <v>2845876</v>
       </c>
       <c r="K68" s="7" t="inlineStr">
         <is>
@@ -5321,22 +5327,22 @@
         </is>
       </c>
       <c r="N68" s="1" t="n">
-        <v>224350</v>
+        <v>2654125</v>
       </c>
       <c r="O68" s="1" t="n">
-        <v>405053</v>
+        <v>2427051</v>
       </c>
       <c r="P68" s="1" t="n">
-        <v>167266</v>
+        <v>2845876</v>
       </c>
       <c r="Q68" s="1" t="n">
-        <v>224350</v>
+        <v>2654125</v>
       </c>
       <c r="R68" s="1" t="n">
-        <v>405053</v>
+        <v>2427051</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>167266</v>
+        <v>2845876</v>
       </c>
     </row>
     <row r="69">
@@ -5352,7 +5358,7 @@
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>매각예정비유동부채</t>
+          <t>선수금</t>
         </is>
       </c>
       <c r="D69" s="1" t="n"/>
@@ -5371,53 +5377,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H69" s="1" t="n">
-        <v>122851</v>
-      </c>
-      <c r="I69" s="1" t="n">
-        <v>5365</v>
+      <c r="H69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J69" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K69" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L69" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M69" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K69" s="1" t="n">
+        <v>1492602</v>
+      </c>
+      <c r="L69" s="1" t="n">
+        <v>1314934</v>
+      </c>
+      <c r="M69" s="1" t="n">
+        <v>1224812</v>
       </c>
       <c r="N69" s="1" t="n">
-        <v>122851</v>
+        <v>1492602</v>
       </c>
       <c r="O69" s="1" t="n">
-        <v>5365</v>
-      </c>
-      <c r="P69" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1314934</v>
+      </c>
+      <c r="P69" s="1" t="n">
+        <v>1224812</v>
       </c>
       <c r="Q69" s="1" t="n">
-        <v>122851</v>
+        <v>1492602</v>
       </c>
       <c r="R69" s="1" t="n">
-        <v>5365</v>
-      </c>
-      <c r="S69" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1314934</v>
+      </c>
+      <c r="S69" s="1" t="n">
+        <v>1224812</v>
       </c>
     </row>
     <row r="70">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>매입채무및기타채무</t>
+          <t>예수금</t>
         </is>
       </c>
       <c r="D70" s="1" t="n"/>
@@ -5468,31 +5468,31 @@
         </is>
       </c>
       <c r="K70" s="1" t="n">
-        <v>9089973</v>
+        <v>892441</v>
       </c>
       <c r="L70" s="1" t="n">
-        <v>11983549</v>
+        <v>1298244</v>
       </c>
       <c r="M70" s="1" t="n">
-        <v>8153426</v>
+        <v>1294052</v>
       </c>
       <c r="N70" s="1" t="n">
-        <v>9089973</v>
+        <v>892441</v>
       </c>
       <c r="O70" s="1" t="n">
-        <v>11983549</v>
+        <v>1298244</v>
       </c>
       <c r="P70" s="1" t="n">
-        <v>8153426</v>
+        <v>1294052</v>
       </c>
       <c r="Q70" s="1" t="n">
-        <v>9089973</v>
+        <v>892441</v>
       </c>
       <c r="R70" s="1" t="n">
-        <v>11983549</v>
+        <v>1298244</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>8153426</v>
+        <v>1294052</v>
       </c>
     </row>
     <row r="71">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>유동금융부채</t>
+          <t>미지급비용</t>
         </is>
       </c>
       <c r="D71" s="1" t="n"/>
@@ -5543,31 +5543,31 @@
         </is>
       </c>
       <c r="K71" s="1" t="n">
-        <v>41139726</v>
+        <v>26013273</v>
       </c>
       <c r="L71" s="1" t="n">
-        <v>22703996</v>
+        <v>29211487</v>
       </c>
       <c r="M71" s="1" t="n">
-        <v>14037125</v>
+        <v>27928031</v>
       </c>
       <c r="N71" s="1" t="n">
-        <v>41139726</v>
+        <v>26013273</v>
       </c>
       <c r="O71" s="1" t="n">
-        <v>22703996</v>
+        <v>29211487</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>14037125</v>
+        <v>27928031</v>
       </c>
       <c r="Q71" s="1" t="n">
-        <v>41139726</v>
+        <v>26013273</v>
       </c>
       <c r="R71" s="1" t="n">
-        <v>22703996</v>
+        <v>29211487</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>14037125</v>
+        <v>27928031</v>
       </c>
     </row>
     <row r="72">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>유동비금융부채</t>
+          <t>기타 유동부채</t>
         </is>
       </c>
       <c r="D72" s="1" t="n"/>
@@ -5618,31 +5618,31 @@
         </is>
       </c>
       <c r="K72" s="1" t="n">
-        <v>7881663</v>
+        <v>2308472</v>
       </c>
       <c r="L72" s="1" t="n">
-        <v>6974377</v>
+        <v>1951354</v>
       </c>
       <c r="M72" s="1" t="n">
-        <v>6466333</v>
+        <v>1492239</v>
       </c>
       <c r="N72" s="1" t="n">
-        <v>7881663</v>
+        <v>2308472</v>
       </c>
       <c r="O72" s="1" t="n">
-        <v>6974377</v>
+        <v>1951354</v>
       </c>
       <c r="P72" s="1" t="n">
-        <v>6466333</v>
+        <v>1492239</v>
       </c>
       <c r="Q72" s="1" t="n">
-        <v>7881663</v>
+        <v>2308472</v>
       </c>
       <c r="R72" s="1" t="n">
-        <v>6974377</v>
+        <v>1951354</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>6466333</v>
+        <v>1492239</v>
       </c>
     </row>
     <row r="73">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>유동충당부채</t>
+          <t>매각예정분류부채</t>
         </is>
       </c>
       <c r="D73" s="1" t="n"/>
@@ -5693,31 +5693,31 @@
         </is>
       </c>
       <c r="K73" s="1" t="n">
-        <v>2654125</v>
+        <v>61654</v>
       </c>
       <c r="L73" s="1" t="n">
-        <v>2427051</v>
+        <v>0</v>
       </c>
       <c r="M73" s="1" t="n">
-        <v>2845876</v>
+        <v>0</v>
       </c>
       <c r="N73" s="1" t="n">
-        <v>2654125</v>
+        <v>61654</v>
       </c>
       <c r="O73" s="1" t="n">
-        <v>2427051</v>
+        <v>0</v>
       </c>
       <c r="P73" s="1" t="n">
-        <v>2845876</v>
+        <v>0</v>
       </c>
       <c r="Q73" s="1" t="n">
-        <v>2654125</v>
+        <v>61654</v>
       </c>
       <c r="R73" s="1" t="n">
-        <v>2427051</v>
+        <v>0</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>2845876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -5734,31 +5734,31 @@
       <c r="C74" s="1" t="n"/>
       <c r="D74" s="1" t="n"/>
       <c r="E74" s="1" t="n">
+        <v>107291812</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>90609445</v>
+      </c>
+      <c r="G74" s="1" t="n">
+        <v>87093839</v>
+      </c>
+      <c r="H74" s="1" t="n">
+        <v>141201794</v>
+      </c>
+      <c r="I74" s="1" t="n">
+        <v>148286161</v>
+      </c>
+      <c r="J74" s="1" t="n">
+        <v>114064801</v>
+      </c>
+      <c r="K74" s="1" t="n">
         <v>16508663</v>
       </c>
-      <c r="F74" s="1" t="n">
+      <c r="L74" s="1" t="n">
         <v>15330051</v>
       </c>
-      <c r="G74" s="1" t="n">
+      <c r="M74" s="1" t="n">
         <v>33604094</v>
-      </c>
-      <c r="H74" s="1" t="n">
-        <v>107291812</v>
-      </c>
-      <c r="I74" s="1" t="n">
-        <v>90609445</v>
-      </c>
-      <c r="J74" s="1" t="n">
-        <v>87093839</v>
-      </c>
-      <c r="K74" s="1" t="n">
-        <v>141201794</v>
-      </c>
-      <c r="L74" s="1" t="n">
-        <v>148286161</v>
-      </c>
-      <c r="M74" s="1" t="n">
-        <v>114064801</v>
       </c>
       <c r="N74" s="1" t="n">
         <v>265002269</v>
@@ -5792,27 +5792,33 @@
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>사채</t>
+          <t>장기성미지급금</t>
         </is>
       </c>
       <c r="D75" s="1" t="n"/>
       <c r="E75" s="1" t="n">
-        <v>537618</v>
+        <v>616011</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>536093</v>
+        <v>726115</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>508232</v>
-      </c>
-      <c r="H75" s="1" t="n">
-        <v>73033493</v>
-      </c>
-      <c r="I75" s="1" t="n">
-        <v>62960060</v>
-      </c>
-      <c r="J75" s="1" t="n">
-        <v>63458809</v>
+        <v>769487</v>
+      </c>
+      <c r="H75" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J75" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K75" s="7" t="inlineStr">
         <is>
@@ -5830,22 +5836,22 @@
         </is>
       </c>
       <c r="N75" s="1" t="n">
-        <v>73571111</v>
+        <v>616011</v>
       </c>
       <c r="O75" s="1" t="n">
-        <v>63496153</v>
+        <v>726115</v>
       </c>
       <c r="P75" s="1" t="n">
-        <v>63967041</v>
+        <v>769487</v>
       </c>
       <c r="Q75" s="1" t="n">
-        <v>36785555.5</v>
+        <v>616011</v>
       </c>
       <c r="R75" s="1" t="n">
-        <v>31748076.5</v>
+        <v>726115</v>
       </c>
       <c r="S75" s="1" t="n">
-        <v>31983520.5</v>
+        <v>769487</v>
       </c>
     </row>
     <row r="76">
@@ -5861,60 +5867,60 @@
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>장기차입금</t>
+          <t>사채</t>
         </is>
       </c>
       <c r="D76" s="1" t="n"/>
       <c r="E76" s="1" t="n">
-        <v>3724850</v>
+        <v>73033493</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>3560672</v>
+        <v>62960060</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>2866156</v>
-      </c>
-      <c r="H76" s="1" t="n">
-        <v>17569760</v>
-      </c>
-      <c r="I76" s="1" t="n">
-        <v>12285149</v>
-      </c>
-      <c r="J76" s="1" t="n">
-        <v>10667731</v>
-      </c>
-      <c r="K76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>63458809</v>
+      </c>
+      <c r="H76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K76" s="1" t="n">
+        <v>537618</v>
+      </c>
+      <c r="L76" s="1" t="n">
+        <v>536093</v>
+      </c>
+      <c r="M76" s="1" t="n">
+        <v>508232</v>
       </c>
       <c r="N76" s="1" t="n">
-        <v>21294610</v>
+        <v>73571111</v>
       </c>
       <c r="O76" s="1" t="n">
-        <v>15845821</v>
+        <v>63496153</v>
       </c>
       <c r="P76" s="1" t="n">
-        <v>13533887</v>
+        <v>63967041</v>
       </c>
       <c r="Q76" s="1" t="n">
-        <v>10647305</v>
+        <v>36785555.5</v>
       </c>
       <c r="R76" s="1" t="n">
-        <v>7922910.5</v>
+        <v>31748076.5</v>
       </c>
       <c r="S76" s="1" t="n">
-        <v>6766943.5</v>
+        <v>31983520.5</v>
       </c>
     </row>
     <row r="77">
@@ -5930,18 +5936,18 @@
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>장기미지급금</t>
+          <t>장기차입금</t>
         </is>
       </c>
       <c r="D77" s="1" t="n"/>
       <c r="E77" s="1" t="n">
-        <v>5488283</v>
+        <v>17569760</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>2753305</v>
+        <v>12285149</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>2991440</v>
+        <v>10667731</v>
       </c>
       <c r="H77" s="7" t="inlineStr">
         <is>
@@ -5958,38 +5964,32 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K77" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L77" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M77" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K77" s="1" t="n">
+        <v>3724850</v>
+      </c>
+      <c r="L77" s="1" t="n">
+        <v>3560672</v>
+      </c>
+      <c r="M77" s="1" t="n">
+        <v>2866156</v>
       </c>
       <c r="N77" s="1" t="n">
-        <v>5488283</v>
+        <v>21294610</v>
       </c>
       <c r="O77" s="1" t="n">
-        <v>2753305</v>
+        <v>15845821</v>
       </c>
       <c r="P77" s="1" t="n">
-        <v>2991440</v>
+        <v>13533887</v>
       </c>
       <c r="Q77" s="1" t="n">
-        <v>5488283</v>
+        <v>10647305</v>
       </c>
       <c r="R77" s="1" t="n">
-        <v>2753305</v>
+        <v>7922910.5</v>
       </c>
       <c r="S77" s="1" t="n">
-        <v>2991440</v>
+        <v>6766943.5</v>
       </c>
     </row>
     <row r="78">
@@ -6010,37 +6010,37 @@
       </c>
       <c r="D78" s="1" t="n"/>
       <c r="E78" s="1" t="n">
+        <v>77268</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>61861</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>79165</v>
+      </c>
+      <c r="H78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K78" s="1" t="n">
         <v>456557</v>
       </c>
-      <c r="F78" s="1" t="n">
+      <c r="L78" s="1" t="n">
         <v>268370</v>
       </c>
-      <c r="G78" s="1" t="n">
+      <c r="M78" s="1" t="n">
         <v>465884</v>
-      </c>
-      <c r="H78" s="1" t="n">
-        <v>77268</v>
-      </c>
-      <c r="I78" s="1" t="n">
-        <v>61861</v>
-      </c>
-      <c r="J78" s="1" t="n">
-        <v>79165</v>
-      </c>
-      <c r="K78" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L78" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M78" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
       </c>
       <c r="N78" s="1" t="n">
         <v>533825</v>
@@ -6074,54 +6074,66 @@
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>이연법인세부채</t>
+          <t>충당부채</t>
         </is>
       </c>
       <c r="D79" s="1" t="n"/>
       <c r="E79" s="1" t="n">
-        <v>620549</v>
+        <v>4333841</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>5111332</v>
+        <v>4327985</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>23198205</v>
-      </c>
-      <c r="H79" s="1" t="n">
-        <v>5438976</v>
-      </c>
-      <c r="I79" s="1" t="n">
-        <v>5027741</v>
-      </c>
-      <c r="J79" s="1" t="n">
-        <v>3689328</v>
-      </c>
-      <c r="K79" s="1" t="n">
-        <v>5163135</v>
-      </c>
-      <c r="L79" s="1" t="n">
-        <v>6457103</v>
-      </c>
-      <c r="M79" s="1" t="n">
-        <v>7100938</v>
+        <v>4214137</v>
+      </c>
+      <c r="H79" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I79" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J79" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K79" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L79" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M79" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N79" s="1" t="n">
-        <v>11222660</v>
+        <v>4333841</v>
       </c>
       <c r="O79" s="1" t="n">
-        <v>16596176</v>
+        <v>4327985</v>
       </c>
       <c r="P79" s="1" t="n">
-        <v>33988471</v>
+        <v>4214137</v>
       </c>
       <c r="Q79" s="1" t="n">
-        <v>3740886.666666667</v>
+        <v>4333841</v>
       </c>
       <c r="R79" s="1" t="n">
-        <v>5532058.666666667</v>
+        <v>4327985</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>11329490.33333333</v>
+        <v>4214137</v>
       </c>
     </row>
     <row r="80">
@@ -6137,18 +6149,18 @@
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>장기충당부채</t>
+          <t>기타금융부채</t>
         </is>
       </c>
       <c r="D80" s="1" t="n"/>
       <c r="E80" s="1" t="n">
-        <v>2878450</v>
+        <v>176399</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>1928518</v>
+        <v>262518</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>2306994</v>
+        <v>87258</v>
       </c>
       <c r="H80" s="7" t="inlineStr">
         <is>
@@ -6181,22 +6193,22 @@
         </is>
       </c>
       <c r="N80" s="1" t="n">
-        <v>2878450</v>
+        <v>176399</v>
       </c>
       <c r="O80" s="1" t="n">
-        <v>1928518</v>
+        <v>262518</v>
       </c>
       <c r="P80" s="1" t="n">
-        <v>2306994</v>
+        <v>87258</v>
       </c>
       <c r="Q80" s="1" t="n">
-        <v>2878450</v>
+        <v>176399</v>
       </c>
       <c r="R80" s="1" t="n">
-        <v>1928518</v>
+        <v>262518</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>2306994</v>
+        <v>87258</v>
       </c>
     </row>
     <row r="81">
@@ -6212,18 +6224,18 @@
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>기타 비유동 부채</t>
+          <t>기타부채</t>
         </is>
       </c>
       <c r="D81" s="1" t="n"/>
       <c r="E81" s="1" t="n">
-        <v>2802356</v>
+        <v>5212012</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>1171761</v>
+        <v>4252265</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>1267183</v>
+        <v>3344618</v>
       </c>
       <c r="H81" s="7" t="inlineStr">
         <is>
@@ -6256,22 +6268,22 @@
         </is>
       </c>
       <c r="N81" s="1" t="n">
-        <v>2802356</v>
+        <v>5212012</v>
       </c>
       <c r="O81" s="1" t="n">
-        <v>1171761</v>
+        <v>4252265</v>
       </c>
       <c r="P81" s="1" t="n">
-        <v>1267183</v>
+        <v>3344618</v>
       </c>
       <c r="Q81" s="1" t="n">
-        <v>2802356</v>
+        <v>5212012</v>
       </c>
       <c r="R81" s="1" t="n">
-        <v>1171761</v>
+        <v>4252265</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>1267183</v>
+        <v>3344618</v>
       </c>
     </row>
     <row r="82">
@@ -6287,66 +6299,54 @@
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
-          <t>장기성미지급금</t>
+          <t>이연법인세부채</t>
         </is>
       </c>
       <c r="D82" s="1" t="n"/>
-      <c r="E82" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F82" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G82" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E82" s="1" t="n">
+        <v>5438976</v>
+      </c>
+      <c r="F82" s="1" t="n">
+        <v>5027741</v>
+      </c>
+      <c r="G82" s="1" t="n">
+        <v>3689328</v>
       </c>
       <c r="H82" s="1" t="n">
-        <v>616011</v>
+        <v>5163135</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>726115</v>
+        <v>6457103</v>
       </c>
       <c r="J82" s="1" t="n">
-        <v>769487</v>
-      </c>
-      <c r="K82" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L82" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M82" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>7100938</v>
+      </c>
+      <c r="K82" s="1" t="n">
+        <v>620549</v>
+      </c>
+      <c r="L82" s="1" t="n">
+        <v>5111332</v>
+      </c>
+      <c r="M82" s="1" t="n">
+        <v>23198205</v>
       </c>
       <c r="N82" s="1" t="n">
-        <v>616011</v>
+        <v>11222660</v>
       </c>
       <c r="O82" s="1" t="n">
-        <v>726115</v>
+        <v>16596176</v>
       </c>
       <c r="P82" s="1" t="n">
-        <v>769487</v>
+        <v>33988471</v>
       </c>
       <c r="Q82" s="1" t="n">
-        <v>616011</v>
+        <v>3740886.666666667</v>
       </c>
       <c r="R82" s="1" t="n">
-        <v>726115</v>
+        <v>5532058.666666667</v>
       </c>
       <c r="S82" s="1" t="n">
-        <v>769487</v>
+        <v>11329490.33333333</v>
       </c>
     </row>
     <row r="83">
@@ -6362,33 +6362,33 @@
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>충당부채</t>
+          <t>리스부채</t>
         </is>
       </c>
       <c r="D83" s="1" t="n"/>
-      <c r="E83" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F83" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G83" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H83" s="1" t="n">
-        <v>4333841</v>
-      </c>
-      <c r="I83" s="1" t="n">
-        <v>4327985</v>
-      </c>
-      <c r="J83" s="1" t="n">
-        <v>4214137</v>
+      <c r="E83" s="1" t="n">
+        <v>834052</v>
+      </c>
+      <c r="F83" s="1" t="n">
+        <v>705751</v>
+      </c>
+      <c r="G83" s="1" t="n">
+        <v>783306</v>
+      </c>
+      <c r="H83" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I83" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J83" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K83" s="7" t="inlineStr">
         <is>
@@ -6406,22 +6406,22 @@
         </is>
       </c>
       <c r="N83" s="1" t="n">
-        <v>4333841</v>
+        <v>834052</v>
       </c>
       <c r="O83" s="1" t="n">
-        <v>4327985</v>
+        <v>705751</v>
       </c>
       <c r="P83" s="1" t="n">
-        <v>4214137</v>
+        <v>783306</v>
       </c>
       <c r="Q83" s="1" t="n">
-        <v>4333841</v>
+        <v>834052</v>
       </c>
       <c r="R83" s="1" t="n">
-        <v>4327985</v>
+        <v>705751</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>4214137</v>
+        <v>783306</v>
       </c>
     </row>
     <row r="84">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>기타금융부채</t>
+          <t>장기매입채무 및 기타비유동채무</t>
         </is>
       </c>
       <c r="D84" s="1" t="n"/>
@@ -6457,13 +6457,13 @@
         </is>
       </c>
       <c r="H84" s="1" t="n">
-        <v>176399</v>
+        <v>4981957</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>262518</v>
+        <v>5638914</v>
       </c>
       <c r="J84" s="1" t="n">
-        <v>87258</v>
+        <v>5996498</v>
       </c>
       <c r="K84" s="7" t="inlineStr">
         <is>
@@ -6481,22 +6481,22 @@
         </is>
       </c>
       <c r="N84" s="1" t="n">
-        <v>176399</v>
+        <v>4981957</v>
       </c>
       <c r="O84" s="1" t="n">
-        <v>262518</v>
+        <v>5638914</v>
       </c>
       <c r="P84" s="1" t="n">
-        <v>87258</v>
+        <v>5996498</v>
       </c>
       <c r="Q84" s="1" t="n">
-        <v>176399</v>
+        <v>4981957</v>
       </c>
       <c r="R84" s="1" t="n">
-        <v>262518</v>
+        <v>5638914</v>
       </c>
       <c r="S84" s="1" t="n">
-        <v>87258</v>
+        <v>5996498</v>
       </c>
     </row>
     <row r="85">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="C85" s="1" t="inlineStr">
         <is>
-          <t>기타부채</t>
+          <t>비유동금융부채</t>
         </is>
       </c>
       <c r="D85" s="1" t="n"/>
@@ -6532,13 +6532,13 @@
         </is>
       </c>
       <c r="H85" s="1" t="n">
-        <v>5212012</v>
+        <v>92944338</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>4252265</v>
+        <v>98334120</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>3344618</v>
+        <v>66570419</v>
       </c>
       <c r="K85" s="7" t="inlineStr">
         <is>
@@ -6556,22 +6556,22 @@
         </is>
       </c>
       <c r="N85" s="1" t="n">
-        <v>5212012</v>
+        <v>92944338</v>
       </c>
       <c r="O85" s="1" t="n">
-        <v>4252265</v>
+        <v>98334120</v>
       </c>
       <c r="P85" s="1" t="n">
-        <v>3344618</v>
+        <v>66570419</v>
       </c>
       <c r="Q85" s="1" t="n">
-        <v>5212012</v>
+        <v>92944338</v>
       </c>
       <c r="R85" s="1" t="n">
-        <v>4252265</v>
+        <v>98334120</v>
       </c>
       <c r="S85" s="1" t="n">
-        <v>3344618</v>
+        <v>66570419</v>
       </c>
     </row>
     <row r="86">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t>리스부채</t>
+          <t>비유동비금융부채</t>
         </is>
       </c>
       <c r="D86" s="1" t="n"/>
@@ -6607,13 +6607,13 @@
         </is>
       </c>
       <c r="H86" s="1" t="n">
-        <v>834052</v>
+        <v>11196000</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>705751</v>
+        <v>10662661</v>
       </c>
       <c r="J86" s="1" t="n">
-        <v>783306</v>
+        <v>10216364</v>
       </c>
       <c r="K86" s="7" t="inlineStr">
         <is>
@@ -6631,22 +6631,22 @@
         </is>
       </c>
       <c r="N86" s="1" t="n">
-        <v>834052</v>
+        <v>11196000</v>
       </c>
       <c r="O86" s="1" t="n">
-        <v>705751</v>
+        <v>10662661</v>
       </c>
       <c r="P86" s="1" t="n">
-        <v>783306</v>
+        <v>10216364</v>
       </c>
       <c r="Q86" s="1" t="n">
-        <v>834052</v>
+        <v>11196000</v>
       </c>
       <c r="R86" s="1" t="n">
-        <v>705751</v>
+        <v>10662661</v>
       </c>
       <c r="S86" s="1" t="n">
-        <v>783306</v>
+        <v>10216364</v>
       </c>
     </row>
     <row r="87">
@@ -6662,7 +6662,7 @@
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>장기매입채무 및 기타비유동채무</t>
+          <t>종업원급여채무</t>
         </is>
       </c>
       <c r="D87" s="1" t="n"/>
@@ -6681,47 +6681,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H87" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I87" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J87" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K87" s="1" t="n">
-        <v>4981957</v>
-      </c>
-      <c r="L87" s="1" t="n">
-        <v>5638914</v>
-      </c>
-      <c r="M87" s="1" t="n">
-        <v>5996498</v>
+      <c r="H87" s="1" t="n">
+        <v>1035320</v>
+      </c>
+      <c r="I87" s="1" t="n">
+        <v>828721</v>
+      </c>
+      <c r="J87" s="1" t="n">
+        <v>1679158</v>
+      </c>
+      <c r="K87" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L87" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M87" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N87" s="1" t="n">
-        <v>4981957</v>
+        <v>1035320</v>
       </c>
       <c r="O87" s="1" t="n">
-        <v>5638914</v>
+        <v>828721</v>
       </c>
       <c r="P87" s="1" t="n">
-        <v>5996498</v>
+        <v>1679158</v>
       </c>
       <c r="Q87" s="1" t="n">
-        <v>4981957</v>
+        <v>1035320</v>
       </c>
       <c r="R87" s="1" t="n">
-        <v>5638914</v>
+        <v>828721</v>
       </c>
       <c r="S87" s="1" t="n">
-        <v>5996498</v>
+        <v>1679158</v>
       </c>
     </row>
     <row r="88">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="C88" s="1" t="inlineStr">
         <is>
-          <t>비유동금융부채</t>
+          <t>비유동충당부채</t>
         </is>
       </c>
       <c r="D88" s="1" t="n"/>
@@ -6756,47 +6756,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H88" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I88" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J88" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K88" s="1" t="n">
-        <v>92944338</v>
-      </c>
-      <c r="L88" s="1" t="n">
-        <v>98334120</v>
-      </c>
-      <c r="M88" s="1" t="n">
-        <v>66570419</v>
+      <c r="H88" s="1" t="n">
+        <v>25881044</v>
+      </c>
+      <c r="I88" s="1" t="n">
+        <v>26364642</v>
+      </c>
+      <c r="J88" s="1" t="n">
+        <v>22501424</v>
+      </c>
+      <c r="K88" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L88" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M88" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N88" s="1" t="n">
-        <v>92944338</v>
+        <v>25881044</v>
       </c>
       <c r="O88" s="1" t="n">
-        <v>98334120</v>
+        <v>26364642</v>
       </c>
       <c r="P88" s="1" t="n">
-        <v>66570419</v>
+        <v>22501424</v>
       </c>
       <c r="Q88" s="1" t="n">
-        <v>92944338</v>
+        <v>25881044</v>
       </c>
       <c r="R88" s="1" t="n">
-        <v>98334120</v>
+        <v>26364642</v>
       </c>
       <c r="S88" s="1" t="n">
-        <v>66570419</v>
+        <v>22501424</v>
       </c>
     </row>
     <row r="89">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>비유동비금융부채</t>
+          <t>장기미지급금</t>
         </is>
       </c>
       <c r="D89" s="1" t="n"/>
@@ -6847,31 +6847,31 @@
         </is>
       </c>
       <c r="K89" s="1" t="n">
-        <v>11196000</v>
+        <v>5488283</v>
       </c>
       <c r="L89" s="1" t="n">
-        <v>10662661</v>
+        <v>2753305</v>
       </c>
       <c r="M89" s="1" t="n">
-        <v>10216364</v>
+        <v>2991440</v>
       </c>
       <c r="N89" s="1" t="n">
-        <v>11196000</v>
+        <v>5488283</v>
       </c>
       <c r="O89" s="1" t="n">
-        <v>10662661</v>
+        <v>2753305</v>
       </c>
       <c r="P89" s="1" t="n">
-        <v>10216364</v>
+        <v>2991440</v>
       </c>
       <c r="Q89" s="1" t="n">
-        <v>11196000</v>
+        <v>5488283</v>
       </c>
       <c r="R89" s="1" t="n">
-        <v>10662661</v>
+        <v>2753305</v>
       </c>
       <c r="S89" s="1" t="n">
-        <v>10216364</v>
+        <v>2991440</v>
       </c>
     </row>
     <row r="90">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
-          <t>종업원급여채무</t>
+          <t>장기충당부채</t>
         </is>
       </c>
       <c r="D90" s="1" t="n"/>
@@ -6922,31 +6922,31 @@
         </is>
       </c>
       <c r="K90" s="1" t="n">
-        <v>1035320</v>
+        <v>2878450</v>
       </c>
       <c r="L90" s="1" t="n">
-        <v>828721</v>
+        <v>1928518</v>
       </c>
       <c r="M90" s="1" t="n">
-        <v>1679158</v>
+        <v>2306994</v>
       </c>
       <c r="N90" s="1" t="n">
-        <v>1035320</v>
+        <v>2878450</v>
       </c>
       <c r="O90" s="1" t="n">
-        <v>828721</v>
+        <v>1928518</v>
       </c>
       <c r="P90" s="1" t="n">
-        <v>1679158</v>
+        <v>2306994</v>
       </c>
       <c r="Q90" s="1" t="n">
-        <v>1035320</v>
+        <v>2878450</v>
       </c>
       <c r="R90" s="1" t="n">
-        <v>828721</v>
+        <v>1928518</v>
       </c>
       <c r="S90" s="1" t="n">
-        <v>1679158</v>
+        <v>2306994</v>
       </c>
     </row>
     <row r="91">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="C91" s="1" t="inlineStr">
         <is>
-          <t>비유동충당부채</t>
+          <t>기타 비유동 부채</t>
         </is>
       </c>
       <c r="D91" s="1" t="n"/>
@@ -6997,31 +6997,31 @@
         </is>
       </c>
       <c r="K91" s="1" t="n">
-        <v>25881044</v>
+        <v>2802356</v>
       </c>
       <c r="L91" s="1" t="n">
-        <v>26364642</v>
+        <v>1171761</v>
       </c>
       <c r="M91" s="1" t="n">
-        <v>22501424</v>
+        <v>1267183</v>
       </c>
       <c r="N91" s="1" t="n">
-        <v>25881044</v>
+        <v>2802356</v>
       </c>
       <c r="O91" s="1" t="n">
-        <v>26364642</v>
+        <v>1171761</v>
       </c>
       <c r="P91" s="1" t="n">
-        <v>22501424</v>
+        <v>1267183</v>
       </c>
       <c r="Q91" s="1" t="n">
-        <v>25881044</v>
+        <v>2802356</v>
       </c>
       <c r="R91" s="1" t="n">
-        <v>26364642</v>
+        <v>1171761</v>
       </c>
       <c r="S91" s="1" t="n">
-        <v>22501424</v>
+        <v>1267183</v>
       </c>
     </row>
     <row r="92">
@@ -7038,31 +7038,31 @@
       <c r="C92" s="1" t="n"/>
       <c r="D92" s="1" t="n"/>
       <c r="E92" s="1" t="n">
+        <v>180653915</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <v>164845917</v>
+      </c>
+      <c r="G92" s="1" t="n">
+        <v>151330626</v>
+      </c>
+      <c r="H92" s="1" t="n">
+        <v>202450215</v>
+      </c>
+      <c r="I92" s="1" t="n">
+        <v>192804738</v>
+      </c>
+      <c r="J92" s="1" t="n">
+        <v>145797021</v>
+      </c>
+      <c r="K92" s="1" t="n">
         <v>92228115</v>
       </c>
-      <c r="F92" s="1" t="n">
+      <c r="L92" s="1" t="n">
         <v>93674903</v>
       </c>
-      <c r="G92" s="1" t="n">
+      <c r="M92" s="1" t="n">
         <v>121721227</v>
-      </c>
-      <c r="H92" s="1" t="n">
-        <v>180653915</v>
-      </c>
-      <c r="I92" s="1" t="n">
-        <v>164845917</v>
-      </c>
-      <c r="J92" s="1" t="n">
-        <v>151330626</v>
-      </c>
-      <c r="K92" s="1" t="n">
-        <v>202450215</v>
-      </c>
-      <c r="L92" s="1" t="n">
-        <v>192804738</v>
-      </c>
-      <c r="M92" s="1" t="n">
-        <v>145797021</v>
       </c>
       <c r="N92" s="1" t="n">
         <v>475332245</v>
@@ -7176,19 +7176,19 @@
       </c>
       <c r="B94" s="1" t="inlineStr">
         <is>
-          <t>지배기업 소유주지분</t>
+          <t>지배기업소유주지분</t>
         </is>
       </c>
       <c r="C94" s="1" t="n"/>
       <c r="D94" s="1" t="n"/>
       <c r="E94" s="1" t="n">
-        <v>353233775</v>
+        <v>92497311</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>345186142</v>
+        <v>82349287</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>296237697</v>
+        <v>74986122</v>
       </c>
       <c r="H94" s="7" t="inlineStr">
         <is>
@@ -7221,22 +7221,22 @@
         </is>
       </c>
       <c r="N94" s="1" t="n">
-        <v>353233775</v>
+        <v>92497311</v>
       </c>
       <c r="O94" s="1" t="n">
-        <v>345186142</v>
+        <v>82349287</v>
       </c>
       <c r="P94" s="1" t="n">
-        <v>296237697</v>
+        <v>74986122</v>
       </c>
       <c r="Q94" s="1" t="n">
-        <v>353233775</v>
+        <v>92497311</v>
       </c>
       <c r="R94" s="1" t="n">
-        <v>345186142</v>
+        <v>82349287</v>
       </c>
       <c r="S94" s="1" t="n">
-        <v>296237697</v>
+        <v>74986122</v>
       </c>
     </row>
     <row r="95">
@@ -7247,7 +7247,7 @@
       </c>
       <c r="B95" s="1" t="inlineStr">
         <is>
-          <t>지배기업 소유주지분</t>
+          <t>지배기업소유주지분</t>
         </is>
       </c>
       <c r="C95" s="1" t="inlineStr">
@@ -7257,13 +7257,13 @@
       </c>
       <c r="D95" s="1" t="n"/>
       <c r="E95" s="1" t="n">
-        <v>897514</v>
+        <v>1488993</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>897514</v>
+        <v>1488993</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>897514</v>
+        <v>1488993</v>
       </c>
       <c r="H95" s="7" t="inlineStr">
         <is>
@@ -7296,22 +7296,22 @@
         </is>
       </c>
       <c r="N95" s="1" t="n">
-        <v>897514</v>
+        <v>1488993</v>
       </c>
       <c r="O95" s="1" t="n">
-        <v>897514</v>
+        <v>1488993</v>
       </c>
       <c r="P95" s="1" t="n">
-        <v>897514</v>
+        <v>1488993</v>
       </c>
       <c r="Q95" s="1" t="n">
-        <v>897514</v>
+        <v>1488993</v>
       </c>
       <c r="R95" s="1" t="n">
-        <v>897514</v>
+        <v>1488993</v>
       </c>
       <c r="S95" s="1" t="n">
-        <v>897514</v>
+        <v>1488993</v>
       </c>
     </row>
     <row r="96">
@@ -7322,27 +7322,23 @@
       </c>
       <c r="B96" s="1" t="inlineStr">
         <is>
-          <t>지배기업 소유주지분</t>
+          <t>지배기업소유주지분</t>
         </is>
       </c>
       <c r="C96" s="1" t="inlineStr">
         <is>
-          <t>자본금</t>
-        </is>
-      </c>
-      <c r="D96" s="1" t="inlineStr">
-        <is>
-          <t>우선주자본금</t>
-        </is>
-      </c>
+          <t>자본잉여금</t>
+        </is>
+      </c>
+      <c r="D96" s="1" t="n"/>
       <c r="E96" s="1" t="n">
-        <v>119467</v>
+        <v>4378489</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>119467</v>
+        <v>4241303</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>119467</v>
+        <v>4070260</v>
       </c>
       <c r="H96" s="7" t="inlineStr">
         <is>
@@ -7375,22 +7371,22 @@
         </is>
       </c>
       <c r="N96" s="1" t="n">
-        <v>119467</v>
+        <v>4378489</v>
       </c>
       <c r="O96" s="1" t="n">
-        <v>119467</v>
+        <v>4241303</v>
       </c>
       <c r="P96" s="1" t="n">
-        <v>119467</v>
+        <v>4070260</v>
       </c>
       <c r="Q96" s="1" t="n">
-        <v>119467</v>
+        <v>4378489</v>
       </c>
       <c r="R96" s="1" t="n">
-        <v>119467</v>
+        <v>4241303</v>
       </c>
       <c r="S96" s="1" t="n">
-        <v>119467</v>
+        <v>4070260</v>
       </c>
     </row>
     <row r="97">
@@ -7401,27 +7397,23 @@
       </c>
       <c r="B97" s="1" t="inlineStr">
         <is>
-          <t>지배기업 소유주지분</t>
+          <t>지배기업소유주지분</t>
         </is>
       </c>
       <c r="C97" s="1" t="inlineStr">
         <is>
-          <t>자본금</t>
-        </is>
-      </c>
-      <c r="D97" s="1" t="inlineStr">
-        <is>
-          <t>보통주자본금</t>
-        </is>
-      </c>
+          <t>기타자본항목</t>
+        </is>
+      </c>
+      <c r="D97" s="1" t="n"/>
       <c r="E97" s="1" t="n">
-        <v>778047</v>
+        <v>-1197084</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>778047</v>
+        <v>-1713928</v>
       </c>
       <c r="G97" s="1" t="n">
-        <v>778047</v>
+        <v>-1968385</v>
       </c>
       <c r="H97" s="7" t="inlineStr">
         <is>
@@ -7454,22 +7446,22 @@
         </is>
       </c>
       <c r="N97" s="1" t="n">
-        <v>778047</v>
+        <v>-1197084</v>
       </c>
       <c r="O97" s="1" t="n">
-        <v>778047</v>
+        <v>-1713928</v>
       </c>
       <c r="P97" s="1" t="n">
-        <v>778047</v>
+        <v>-1968385</v>
       </c>
       <c r="Q97" s="1" t="n">
-        <v>778047</v>
+        <v>-1197084</v>
       </c>
       <c r="R97" s="1" t="n">
-        <v>778047</v>
+        <v>-1713928</v>
       </c>
       <c r="S97" s="1" t="n">
-        <v>778047</v>
+        <v>-1968385</v>
       </c>
     </row>
     <row r="98">
@@ -7480,23 +7472,23 @@
       </c>
       <c r="B98" s="1" t="inlineStr">
         <is>
-          <t>지배기업 소유주지분</t>
+          <t>지배기업소유주지분</t>
         </is>
       </c>
       <c r="C98" s="1" t="inlineStr">
         <is>
-          <t>주식발행초과금</t>
+          <t>기타포괄손익누계액</t>
         </is>
       </c>
       <c r="D98" s="1" t="n"/>
       <c r="E98" s="1" t="n">
-        <v>4403893</v>
+        <v>-838892</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>4403893</v>
+        <v>-1620682</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>4403893</v>
+        <v>-1772601</v>
       </c>
       <c r="H98" s="7" t="inlineStr">
         <is>
@@ -7529,22 +7521,22 @@
         </is>
       </c>
       <c r="N98" s="1" t="n">
-        <v>4403893</v>
+        <v>-838892</v>
       </c>
       <c r="O98" s="1" t="n">
-        <v>4403893</v>
+        <v>-1620682</v>
       </c>
       <c r="P98" s="1" t="n">
-        <v>4403893</v>
+        <v>-1772601</v>
       </c>
       <c r="Q98" s="1" t="n">
-        <v>4403893</v>
+        <v>-838892</v>
       </c>
       <c r="R98" s="1" t="n">
-        <v>4403893</v>
+        <v>-1620682</v>
       </c>
       <c r="S98" s="1" t="n">
-        <v>4403893</v>
+        <v>-1772601</v>
       </c>
     </row>
     <row r="99">
@@ -7555,7 +7547,7 @@
       </c>
       <c r="B99" s="1" t="inlineStr">
         <is>
-          <t>지배기업 소유주지분</t>
+          <t>지배기업소유주지분</t>
         </is>
       </c>
       <c r="C99" s="1" t="inlineStr">
@@ -7565,13 +7557,13 @@
       </c>
       <c r="D99" s="1" t="n"/>
       <c r="E99" s="1" t="n">
-        <v>346652238</v>
+        <v>88665805</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>337946407</v>
+        <v>79953601</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>293064763</v>
+        <v>73167855</v>
       </c>
       <c r="H99" s="7" t="inlineStr">
         <is>
@@ -7604,22 +7596,22 @@
         </is>
       </c>
       <c r="N99" s="1" t="n">
-        <v>346652238</v>
+        <v>88665805</v>
       </c>
       <c r="O99" s="1" t="n">
-        <v>337946407</v>
+        <v>79953601</v>
       </c>
       <c r="P99" s="1" t="n">
-        <v>293064763</v>
+        <v>73167855</v>
       </c>
       <c r="Q99" s="1" t="n">
-        <v>346652238</v>
+        <v>88665805</v>
       </c>
       <c r="R99" s="1" t="n">
-        <v>337946407</v>
+        <v>79953601</v>
       </c>
       <c r="S99" s="1" t="n">
-        <v>293064763</v>
+        <v>73167855</v>
       </c>
     </row>
     <row r="100">
@@ -7630,71 +7622,55 @@
       </c>
       <c r="B100" s="1" t="inlineStr">
         <is>
-          <t>지배기업 소유주지분</t>
-        </is>
-      </c>
-      <c r="C100" s="1" t="inlineStr">
-        <is>
-          <t>기타자본항목</t>
-        </is>
-      </c>
+          <t>비지배지분</t>
+        </is>
+      </c>
+      <c r="C100" s="1" t="n"/>
       <c r="D100" s="1" t="n"/>
       <c r="E100" s="1" t="n">
-        <v>1280130</v>
+        <v>9312129</v>
       </c>
       <c r="F100" s="1" t="n">
-        <v>1938328</v>
+        <v>8547258</v>
       </c>
       <c r="G100" s="1" t="n">
-        <v>-2128473</v>
-      </c>
-      <c r="H100" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I100" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J100" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K100" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L100" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M100" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>7629667</v>
+      </c>
+      <c r="H100" s="1" t="n">
+        <v>1419707</v>
+      </c>
+      <c r="I100" s="1" t="n">
+        <v>1454860</v>
+      </c>
+      <c r="J100" s="1" t="n">
+        <v>1546434</v>
+      </c>
+      <c r="K100" s="1" t="n">
+        <v>10444090</v>
+      </c>
+      <c r="L100" s="1" t="n">
+        <v>9563462</v>
+      </c>
+      <c r="M100" s="1" t="n">
+        <v>8662234</v>
       </c>
       <c r="N100" s="1" t="n">
-        <v>1280130</v>
+        <v>21175926</v>
       </c>
       <c r="O100" s="1" t="n">
-        <v>1938328</v>
+        <v>19565580</v>
       </c>
       <c r="P100" s="1" t="n">
-        <v>-2128473</v>
+        <v>17838335</v>
       </c>
       <c r="Q100" s="1" t="n">
-        <v>1280130</v>
+        <v>7058642</v>
       </c>
       <c r="R100" s="1" t="n">
-        <v>1938328</v>
+        <v>6521860</v>
       </c>
       <c r="S100" s="1" t="n">
-        <v>-2128473</v>
+        <v>5946111.666666667</v>
       </c>
     </row>
     <row r="101">
@@ -7705,55 +7681,55 @@
       </c>
       <c r="B101" s="1" t="inlineStr">
         <is>
-          <t>비지배지분</t>
+          <t>자본총계</t>
         </is>
       </c>
       <c r="C101" s="1" t="n"/>
       <c r="D101" s="1" t="n"/>
       <c r="E101" s="1" t="n">
-        <v>10444090</v>
+        <v>101809440</v>
       </c>
       <c r="F101" s="1" t="n">
-        <v>9563462</v>
+        <v>90896545</v>
       </c>
       <c r="G101" s="1" t="n">
-        <v>8662234</v>
+        <v>82615789</v>
       </c>
       <c r="H101" s="1" t="n">
-        <v>9312129</v>
+        <v>37264750</v>
       </c>
       <c r="I101" s="1" t="n">
-        <v>8547258</v>
+        <v>42000256</v>
       </c>
       <c r="J101" s="1" t="n">
-        <v>7629667</v>
+        <v>65326706</v>
       </c>
       <c r="K101" s="1" t="n">
-        <v>1419707</v>
+        <v>363677865</v>
       </c>
       <c r="L101" s="1" t="n">
-        <v>1454860</v>
+        <v>354749604</v>
       </c>
       <c r="M101" s="1" t="n">
-        <v>1546434</v>
+        <v>304899931</v>
       </c>
       <c r="N101" s="1" t="n">
-        <v>21175926</v>
+        <v>502752055</v>
       </c>
       <c r="O101" s="1" t="n">
-        <v>19565580</v>
+        <v>487646405</v>
       </c>
       <c r="P101" s="1" t="n">
-        <v>17838335</v>
+        <v>452842426</v>
       </c>
       <c r="Q101" s="1" t="n">
-        <v>7058642</v>
+        <v>167584018.3333333</v>
       </c>
       <c r="R101" s="1" t="n">
-        <v>6521860</v>
+        <v>162548801.6666667</v>
       </c>
       <c r="S101" s="1" t="n">
-        <v>5946111.666666667</v>
+        <v>150947475.3333333</v>
       </c>
     </row>
     <row r="102">
@@ -7764,55 +7740,67 @@
       </c>
       <c r="B102" s="1" t="inlineStr">
         <is>
-          <t>자본총계</t>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
         </is>
       </c>
       <c r="C102" s="1" t="n"/>
       <c r="D102" s="1" t="n"/>
-      <c r="E102" s="1" t="n">
-        <v>363677865</v>
-      </c>
-      <c r="F102" s="1" t="n">
-        <v>354749604</v>
-      </c>
-      <c r="G102" s="1" t="n">
-        <v>304899931</v>
+      <c r="E102" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F102" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G102" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H102" s="1" t="n">
-        <v>101809440</v>
+        <v>35845043</v>
       </c>
       <c r="I102" s="1" t="n">
-        <v>90896545</v>
+        <v>40545396</v>
       </c>
       <c r="J102" s="1" t="n">
-        <v>82615789</v>
-      </c>
-      <c r="K102" s="1" t="n">
-        <v>37264750</v>
-      </c>
-      <c r="L102" s="1" t="n">
-        <v>42000256</v>
-      </c>
-      <c r="M102" s="1" t="n">
-        <v>65326706</v>
+        <v>63780272</v>
+      </c>
+      <c r="K102" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L102" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M102" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N102" s="1" t="n">
-        <v>502752055</v>
+        <v>35845043</v>
       </c>
       <c r="O102" s="1" t="n">
-        <v>487646405</v>
+        <v>40545396</v>
       </c>
       <c r="P102" s="1" t="n">
-        <v>452842426</v>
+        <v>63780272</v>
       </c>
       <c r="Q102" s="1" t="n">
-        <v>167584018.3333333</v>
+        <v>35845043</v>
       </c>
       <c r="R102" s="1" t="n">
-        <v>162548801.6666667</v>
+        <v>40545396</v>
       </c>
       <c r="S102" s="1" t="n">
-        <v>150947475.3333333</v>
+        <v>63780272</v>
       </c>
     </row>
     <row r="103">
@@ -7823,10 +7811,14 @@
       </c>
       <c r="B103" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
-        </is>
-      </c>
-      <c r="C103" s="1" t="n"/>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
+        </is>
+      </c>
+      <c r="C103" s="1" t="inlineStr">
+        <is>
+          <t>납입자본</t>
+        </is>
+      </c>
       <c r="D103" s="1" t="n"/>
       <c r="E103" s="7" t="inlineStr">
         <is>
@@ -7844,13 +7836,13 @@
         </is>
       </c>
       <c r="H103" s="1" t="n">
-        <v>92497311</v>
+        <v>4053578</v>
       </c>
       <c r="I103" s="1" t="n">
-        <v>82349287</v>
+        <v>4053578</v>
       </c>
       <c r="J103" s="1" t="n">
-        <v>74986122</v>
+        <v>4053578</v>
       </c>
       <c r="K103" s="7" t="inlineStr">
         <is>
@@ -7868,22 +7860,22 @@
         </is>
       </c>
       <c r="N103" s="1" t="n">
-        <v>92497311</v>
+        <v>4053578</v>
       </c>
       <c r="O103" s="1" t="n">
-        <v>82349287</v>
+        <v>4053578</v>
       </c>
       <c r="P103" s="1" t="n">
-        <v>74986122</v>
+        <v>4053578</v>
       </c>
       <c r="Q103" s="1" t="n">
-        <v>92497311</v>
+        <v>4053578</v>
       </c>
       <c r="R103" s="1" t="n">
-        <v>82349287</v>
+        <v>4053578</v>
       </c>
       <c r="S103" s="1" t="n">
-        <v>74986122</v>
+        <v>4053578</v>
       </c>
     </row>
     <row r="104">
@@ -7894,15 +7886,19 @@
       </c>
       <c r="B104" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
         </is>
       </c>
       <c r="C104" s="1" t="inlineStr">
         <is>
+          <t>납입자본</t>
+        </is>
+      </c>
+      <c r="D104" s="1" t="inlineStr">
+        <is>
           <t>자본금</t>
         </is>
       </c>
-      <c r="D104" s="1" t="n"/>
       <c r="E104" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -7919,13 +7915,13 @@
         </is>
       </c>
       <c r="H104" s="1" t="n">
-        <v>1488993</v>
+        <v>3209820</v>
       </c>
       <c r="I104" s="1" t="n">
-        <v>1488993</v>
+        <v>3209820</v>
       </c>
       <c r="J104" s="1" t="n">
-        <v>1488993</v>
+        <v>3209820</v>
       </c>
       <c r="K104" s="7" t="inlineStr">
         <is>
@@ -7943,22 +7939,22 @@
         </is>
       </c>
       <c r="N104" s="1" t="n">
-        <v>1488993</v>
+        <v>3209820</v>
       </c>
       <c r="O104" s="1" t="n">
-        <v>1488993</v>
+        <v>3209820</v>
       </c>
       <c r="P104" s="1" t="n">
-        <v>1488993</v>
+        <v>3209820</v>
       </c>
       <c r="Q104" s="1" t="n">
-        <v>1488993</v>
+        <v>3209820</v>
       </c>
       <c r="R104" s="1" t="n">
-        <v>1488993</v>
+        <v>3209820</v>
       </c>
       <c r="S104" s="1" t="n">
-        <v>1488993</v>
+        <v>3209820</v>
       </c>
     </row>
     <row r="105">
@@ -7969,15 +7965,19 @@
       </c>
       <c r="B105" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
         </is>
       </c>
       <c r="C105" s="1" t="inlineStr">
         <is>
-          <t>자본잉여금</t>
-        </is>
-      </c>
-      <c r="D105" s="1" t="n"/>
+          <t>납입자본</t>
+        </is>
+      </c>
+      <c r="D105" s="1" t="inlineStr">
+        <is>
+          <t>주식발행초과금</t>
+        </is>
+      </c>
       <c r="E105" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -7994,13 +7994,13 @@
         </is>
       </c>
       <c r="H105" s="1" t="n">
-        <v>4378489</v>
+        <v>843758</v>
       </c>
       <c r="I105" s="1" t="n">
-        <v>4241303</v>
+        <v>843758</v>
       </c>
       <c r="J105" s="1" t="n">
-        <v>4070260</v>
+        <v>843758</v>
       </c>
       <c r="K105" s="7" t="inlineStr">
         <is>
@@ -8018,22 +8018,22 @@
         </is>
       </c>
       <c r="N105" s="1" t="n">
-        <v>4378489</v>
+        <v>843758</v>
       </c>
       <c r="O105" s="1" t="n">
-        <v>4241303</v>
+        <v>843758</v>
       </c>
       <c r="P105" s="1" t="n">
-        <v>4070260</v>
+        <v>843758</v>
       </c>
       <c r="Q105" s="1" t="n">
-        <v>4378489</v>
+        <v>843758</v>
       </c>
       <c r="R105" s="1" t="n">
-        <v>4241303</v>
+        <v>843758</v>
       </c>
       <c r="S105" s="1" t="n">
-        <v>4070260</v>
+        <v>843758</v>
       </c>
     </row>
     <row r="106">
@@ -8044,12 +8044,12 @@
       </c>
       <c r="B106" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
         </is>
       </c>
       <c r="C106" s="1" t="inlineStr">
         <is>
-          <t>기타자본항목</t>
+          <t>이익잉여금(결손금)</t>
         </is>
       </c>
       <c r="D106" s="1" t="n"/>
@@ -8069,13 +8069,13 @@
         </is>
       </c>
       <c r="H106" s="1" t="n">
-        <v>-1197084</v>
+        <v>16338262</v>
       </c>
       <c r="I106" s="1" t="n">
-        <v>-1713928</v>
+        <v>21431300</v>
       </c>
       <c r="J106" s="1" t="n">
-        <v>-1968385</v>
+        <v>45258244</v>
       </c>
       <c r="K106" s="7" t="inlineStr">
         <is>
@@ -8093,22 +8093,22 @@
         </is>
       </c>
       <c r="N106" s="1" t="n">
-        <v>-1197084</v>
+        <v>16338262</v>
       </c>
       <c r="O106" s="1" t="n">
-        <v>-1713928</v>
+        <v>21431300</v>
       </c>
       <c r="P106" s="1" t="n">
-        <v>-1968385</v>
+        <v>45258244</v>
       </c>
       <c r="Q106" s="1" t="n">
-        <v>-1197084</v>
+        <v>16338262</v>
       </c>
       <c r="R106" s="1" t="n">
-        <v>-1713928</v>
+        <v>21431300</v>
       </c>
       <c r="S106" s="1" t="n">
-        <v>-1968385</v>
+        <v>45258244</v>
       </c>
     </row>
     <row r="107">
@@ -8119,15 +8119,19 @@
       </c>
       <c r="B107" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
         </is>
       </c>
       <c r="C107" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익누계액</t>
-        </is>
-      </c>
-      <c r="D107" s="1" t="n"/>
+          <t>이익잉여금(결손금)</t>
+        </is>
+      </c>
+      <c r="D107" s="1" t="inlineStr">
+        <is>
+          <t>이익준비금</t>
+        </is>
+      </c>
       <c r="E107" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -8144,13 +8148,13 @@
         </is>
       </c>
       <c r="H107" s="1" t="n">
-        <v>-838892</v>
+        <v>1604910</v>
       </c>
       <c r="I107" s="1" t="n">
-        <v>-1620682</v>
+        <v>1604910</v>
       </c>
       <c r="J107" s="1" t="n">
-        <v>-1772601</v>
+        <v>1604910</v>
       </c>
       <c r="K107" s="7" t="inlineStr">
         <is>
@@ -8168,22 +8172,22 @@
         </is>
       </c>
       <c r="N107" s="1" t="n">
-        <v>-838892</v>
+        <v>1604910</v>
       </c>
       <c r="O107" s="1" t="n">
-        <v>-1620682</v>
+        <v>1604910</v>
       </c>
       <c r="P107" s="1" t="n">
-        <v>-1772601</v>
+        <v>1604910</v>
       </c>
       <c r="Q107" s="1" t="n">
-        <v>-838892</v>
+        <v>1604910</v>
       </c>
       <c r="R107" s="1" t="n">
-        <v>-1620682</v>
+        <v>1604910</v>
       </c>
       <c r="S107" s="1" t="n">
-        <v>-1772601</v>
+        <v>1604910</v>
       </c>
     </row>
     <row r="108">
@@ -8194,15 +8198,19 @@
       </c>
       <c r="B108" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
         </is>
       </c>
       <c r="C108" s="1" t="inlineStr">
         <is>
-          <t>이익잉여금</t>
-        </is>
-      </c>
-      <c r="D108" s="1" t="n"/>
+          <t>이익잉여금(결손금)</t>
+        </is>
+      </c>
+      <c r="D108" s="1" t="inlineStr">
+        <is>
+          <t>임의적립금</t>
+        </is>
+      </c>
       <c r="E108" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -8219,13 +8227,13 @@
         </is>
       </c>
       <c r="H108" s="1" t="n">
-        <v>88665805</v>
+        <v>2812313</v>
       </c>
       <c r="I108" s="1" t="n">
-        <v>79953601</v>
+        <v>27782969</v>
       </c>
       <c r="J108" s="1" t="n">
-        <v>73167855</v>
+        <v>33282817</v>
       </c>
       <c r="K108" s="7" t="inlineStr">
         <is>
@@ -8243,22 +8251,22 @@
         </is>
       </c>
       <c r="N108" s="1" t="n">
-        <v>88665805</v>
+        <v>2812313</v>
       </c>
       <c r="O108" s="1" t="n">
-        <v>79953601</v>
+        <v>27782969</v>
       </c>
       <c r="P108" s="1" t="n">
-        <v>73167855</v>
+        <v>33282817</v>
       </c>
       <c r="Q108" s="1" t="n">
-        <v>88665805</v>
+        <v>2812313</v>
       </c>
       <c r="R108" s="1" t="n">
-        <v>79953601</v>
+        <v>27782969</v>
       </c>
       <c r="S108" s="1" t="n">
-        <v>73167855</v>
+        <v>33282817</v>
       </c>
     </row>
     <row r="109">
@@ -8272,8 +8280,16 @@
           <t>지배기업의 소유주에게 귀속되는 자본</t>
         </is>
       </c>
-      <c r="C109" s="1" t="n"/>
-      <c r="D109" s="1" t="n"/>
+      <c r="C109" s="1" t="inlineStr">
+        <is>
+          <t>이익잉여금(결손금)</t>
+        </is>
+      </c>
+      <c r="D109" s="1" t="inlineStr">
+        <is>
+          <t>미처분이익잉여금(미처리결손금)</t>
+        </is>
+      </c>
       <c r="E109" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -8289,47 +8305,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H109" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I109" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J109" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K109" s="1" t="n">
-        <v>35845043</v>
-      </c>
-      <c r="L109" s="1" t="n">
-        <v>40545396</v>
-      </c>
-      <c r="M109" s="1" t="n">
-        <v>63780272</v>
+      <c r="H109" s="1" t="n">
+        <v>11921039</v>
+      </c>
+      <c r="I109" s="1" t="n">
+        <v>-7956579</v>
+      </c>
+      <c r="J109" s="1" t="n">
+        <v>10370517</v>
+      </c>
+      <c r="K109" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L109" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M109" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N109" s="1" t="n">
-        <v>35845043</v>
+        <v>11921039</v>
       </c>
       <c r="O109" s="1" t="n">
-        <v>40545396</v>
+        <v>-7956579</v>
       </c>
       <c r="P109" s="1" t="n">
-        <v>63780272</v>
+        <v>10370517</v>
       </c>
       <c r="Q109" s="1" t="n">
-        <v>35845043</v>
+        <v>11921039</v>
       </c>
       <c r="R109" s="1" t="n">
-        <v>40545396</v>
+        <v>-7956579</v>
       </c>
       <c r="S109" s="1" t="n">
-        <v>63780272</v>
+        <v>10370517</v>
       </c>
     </row>
     <row r="110">
@@ -8345,7 +8361,7 @@
       </c>
       <c r="C110" s="1" t="inlineStr">
         <is>
-          <t>납입자본</t>
+          <t>기타자본구성요소</t>
         </is>
       </c>
       <c r="D110" s="1" t="n"/>
@@ -8364,47 +8380,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H110" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I110" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J110" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K110" s="1" t="n">
-        <v>4053578</v>
-      </c>
-      <c r="L110" s="1" t="n">
-        <v>4053578</v>
-      </c>
-      <c r="M110" s="1" t="n">
-        <v>4053578</v>
+      <c r="H110" s="1" t="n">
+        <v>15453203</v>
+      </c>
+      <c r="I110" s="1" t="n">
+        <v>15060518</v>
+      </c>
+      <c r="J110" s="1" t="n">
+        <v>14468450</v>
+      </c>
+      <c r="K110" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L110" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M110" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N110" s="1" t="n">
-        <v>4053578</v>
+        <v>15453203</v>
       </c>
       <c r="O110" s="1" t="n">
-        <v>4053578</v>
+        <v>15060518</v>
       </c>
       <c r="P110" s="1" t="n">
-        <v>4053578</v>
+        <v>14468450</v>
       </c>
       <c r="Q110" s="1" t="n">
-        <v>4053578</v>
+        <v>15453203</v>
       </c>
       <c r="R110" s="1" t="n">
-        <v>4053578</v>
+        <v>15060518</v>
       </c>
       <c r="S110" s="1" t="n">
-        <v>4053578</v>
+        <v>14468450</v>
       </c>
     </row>
     <row r="111">
@@ -8420,12 +8436,12 @@
       </c>
       <c r="C111" s="1" t="inlineStr">
         <is>
-          <t>납입자본</t>
+          <t>기타자본구성요소</t>
         </is>
       </c>
       <c r="D111" s="1" t="inlineStr">
         <is>
-          <t>자본금</t>
+          <t>기타자본잉여금</t>
         </is>
       </c>
       <c r="E111" s="7" t="inlineStr">
@@ -8443,47 +8459,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H111" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I111" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J111" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K111" s="1" t="n">
-        <v>3209820</v>
-      </c>
-      <c r="L111" s="1" t="n">
-        <v>3209820</v>
-      </c>
-      <c r="M111" s="1" t="n">
-        <v>3209820</v>
+      <c r="H111" s="1" t="n">
+        <v>1600801</v>
+      </c>
+      <c r="I111" s="1" t="n">
+        <v>1268569</v>
+      </c>
+      <c r="J111" s="1" t="n">
+        <v>1231109</v>
+      </c>
+      <c r="K111" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L111" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M111" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N111" s="1" t="n">
-        <v>3209820</v>
+        <v>1600801</v>
       </c>
       <c r="O111" s="1" t="n">
-        <v>3209820</v>
+        <v>1268569</v>
       </c>
       <c r="P111" s="1" t="n">
-        <v>3209820</v>
+        <v>1231109</v>
       </c>
       <c r="Q111" s="1" t="n">
-        <v>3209820</v>
+        <v>1600801</v>
       </c>
       <c r="R111" s="1" t="n">
-        <v>3209820</v>
+        <v>1268569</v>
       </c>
       <c r="S111" s="1" t="n">
-        <v>3209820</v>
+        <v>1231109</v>
       </c>
     </row>
     <row r="112">
@@ -8499,12 +8515,12 @@
       </c>
       <c r="C112" s="1" t="inlineStr">
         <is>
-          <t>납입자본</t>
+          <t>기타자본구성요소</t>
         </is>
       </c>
       <c r="D112" s="1" t="inlineStr">
         <is>
-          <t>주식발행초과금</t>
+          <t>기타포괄손익누계액</t>
         </is>
       </c>
       <c r="E112" s="7" t="inlineStr">
@@ -8522,47 +8538,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H112" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I112" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J112" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K112" s="1" t="n">
-        <v>843758</v>
-      </c>
-      <c r="L112" s="1" t="n">
-        <v>843758</v>
-      </c>
-      <c r="M112" s="1" t="n">
-        <v>843758</v>
+      <c r="H112" s="1" t="n">
+        <v>557430</v>
+      </c>
+      <c r="I112" s="1" t="n">
+        <v>496976</v>
+      </c>
+      <c r="J112" s="1" t="n">
+        <v>-57632</v>
+      </c>
+      <c r="K112" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L112" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M112" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N112" s="1" t="n">
-        <v>843758</v>
+        <v>557430</v>
       </c>
       <c r="O112" s="1" t="n">
-        <v>843758</v>
+        <v>496976</v>
       </c>
       <c r="P112" s="1" t="n">
-        <v>843758</v>
+        <v>-57632</v>
       </c>
       <c r="Q112" s="1" t="n">
-        <v>843758</v>
+        <v>557430</v>
       </c>
       <c r="R112" s="1" t="n">
-        <v>843758</v>
+        <v>496976</v>
       </c>
       <c r="S112" s="1" t="n">
-        <v>843758</v>
+        <v>-57632</v>
       </c>
     </row>
     <row r="113">
@@ -8578,10 +8594,14 @@
       </c>
       <c r="C113" s="1" t="inlineStr">
         <is>
-          <t>이익잉여금(결손금)</t>
-        </is>
-      </c>
-      <c r="D113" s="1" t="n"/>
+          <t>기타자본구성요소</t>
+        </is>
+      </c>
+      <c r="D113" s="1" t="inlineStr">
+        <is>
+          <t>기타자본</t>
+        </is>
+      </c>
       <c r="E113" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -8597,47 +8617,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H113" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I113" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J113" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K113" s="1" t="n">
-        <v>16338262</v>
-      </c>
-      <c r="L113" s="1" t="n">
-        <v>21431300</v>
-      </c>
-      <c r="M113" s="1" t="n">
-        <v>45258244</v>
+      <c r="H113" s="1" t="n">
+        <v>13294972</v>
+      </c>
+      <c r="I113" s="1" t="n">
+        <v>13294973</v>
+      </c>
+      <c r="J113" s="1" t="n">
+        <v>13294973</v>
+      </c>
+      <c r="K113" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L113" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M113" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N113" s="1" t="n">
-        <v>16338262</v>
+        <v>13294972</v>
       </c>
       <c r="O113" s="1" t="n">
-        <v>21431300</v>
+        <v>13294973</v>
       </c>
       <c r="P113" s="1" t="n">
-        <v>45258244</v>
+        <v>13294973</v>
       </c>
       <c r="Q113" s="1" t="n">
-        <v>16338262</v>
+        <v>13294972</v>
       </c>
       <c r="R113" s="1" t="n">
-        <v>21431300</v>
+        <v>13294973</v>
       </c>
       <c r="S113" s="1" t="n">
-        <v>45258244</v>
+        <v>13294973</v>
       </c>
     </row>
     <row r="114">
@@ -8648,19 +8668,11 @@
       </c>
       <c r="B114" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
-        </is>
-      </c>
-      <c r="C114" s="1" t="inlineStr">
-        <is>
-          <t>이익잉여금(결손금)</t>
-        </is>
-      </c>
-      <c r="D114" s="1" t="inlineStr">
-        <is>
-          <t>이익준비금</t>
-        </is>
-      </c>
+          <t>지배기업 소유주지분</t>
+        </is>
+      </c>
+      <c r="C114" s="1" t="n"/>
+      <c r="D114" s="1" t="n"/>
       <c r="E114" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -8692,31 +8704,31 @@
         </is>
       </c>
       <c r="K114" s="1" t="n">
-        <v>1604910</v>
+        <v>353233775</v>
       </c>
       <c r="L114" s="1" t="n">
-        <v>1604910</v>
+        <v>345186142</v>
       </c>
       <c r="M114" s="1" t="n">
-        <v>1604910</v>
+        <v>296237697</v>
       </c>
       <c r="N114" s="1" t="n">
-        <v>1604910</v>
+        <v>353233775</v>
       </c>
       <c r="O114" s="1" t="n">
-        <v>1604910</v>
+        <v>345186142</v>
       </c>
       <c r="P114" s="1" t="n">
-        <v>1604910</v>
+        <v>296237697</v>
       </c>
       <c r="Q114" s="1" t="n">
-        <v>1604910</v>
+        <v>353233775</v>
       </c>
       <c r="R114" s="1" t="n">
-        <v>1604910</v>
+        <v>345186142</v>
       </c>
       <c r="S114" s="1" t="n">
-        <v>1604910</v>
+        <v>296237697</v>
       </c>
     </row>
     <row r="115">
@@ -8727,19 +8739,15 @@
       </c>
       <c r="B115" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
+          <t>지배기업 소유주지분</t>
         </is>
       </c>
       <c r="C115" s="1" t="inlineStr">
         <is>
-          <t>이익잉여금(결손금)</t>
-        </is>
-      </c>
-      <c r="D115" s="1" t="inlineStr">
-        <is>
-          <t>임의적립금</t>
-        </is>
-      </c>
+          <t>자본금</t>
+        </is>
+      </c>
+      <c r="D115" s="1" t="n"/>
       <c r="E115" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -8771,31 +8779,31 @@
         </is>
       </c>
       <c r="K115" s="1" t="n">
-        <v>2812313</v>
+        <v>897514</v>
       </c>
       <c r="L115" s="1" t="n">
-        <v>27782969</v>
+        <v>897514</v>
       </c>
       <c r="M115" s="1" t="n">
-        <v>33282817</v>
+        <v>897514</v>
       </c>
       <c r="N115" s="1" t="n">
-        <v>2812313</v>
+        <v>897514</v>
       </c>
       <c r="O115" s="1" t="n">
-        <v>27782969</v>
+        <v>897514</v>
       </c>
       <c r="P115" s="1" t="n">
-        <v>33282817</v>
+        <v>897514</v>
       </c>
       <c r="Q115" s="1" t="n">
-        <v>2812313</v>
+        <v>897514</v>
       </c>
       <c r="R115" s="1" t="n">
-        <v>27782969</v>
+        <v>897514</v>
       </c>
       <c r="S115" s="1" t="n">
-        <v>33282817</v>
+        <v>897514</v>
       </c>
     </row>
     <row r="116">
@@ -8806,17 +8814,17 @@
       </c>
       <c r="B116" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
+          <t>지배기업 소유주지분</t>
         </is>
       </c>
       <c r="C116" s="1" t="inlineStr">
         <is>
-          <t>이익잉여금(결손금)</t>
+          <t>자본금</t>
         </is>
       </c>
       <c r="D116" s="1" t="inlineStr">
         <is>
-          <t>미처분이익잉여금(미처리결손금)</t>
+          <t>우선주자본금</t>
         </is>
       </c>
       <c r="E116" s="7" t="inlineStr">
@@ -8850,31 +8858,31 @@
         </is>
       </c>
       <c r="K116" s="1" t="n">
-        <v>11921039</v>
+        <v>119467</v>
       </c>
       <c r="L116" s="1" t="n">
-        <v>-7956579</v>
+        <v>119467</v>
       </c>
       <c r="M116" s="1" t="n">
-        <v>10370517</v>
+        <v>119467</v>
       </c>
       <c r="N116" s="1" t="n">
-        <v>11921039</v>
+        <v>119467</v>
       </c>
       <c r="O116" s="1" t="n">
-        <v>-7956579</v>
+        <v>119467</v>
       </c>
       <c r="P116" s="1" t="n">
-        <v>10370517</v>
+        <v>119467</v>
       </c>
       <c r="Q116" s="1" t="n">
-        <v>11921039</v>
+        <v>119467</v>
       </c>
       <c r="R116" s="1" t="n">
-        <v>-7956579</v>
+        <v>119467</v>
       </c>
       <c r="S116" s="1" t="n">
-        <v>10370517</v>
+        <v>119467</v>
       </c>
     </row>
     <row r="117">
@@ -8885,15 +8893,19 @@
       </c>
       <c r="B117" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
+          <t>지배기업 소유주지분</t>
         </is>
       </c>
       <c r="C117" s="1" t="inlineStr">
         <is>
-          <t>기타자본구성요소</t>
-        </is>
-      </c>
-      <c r="D117" s="1" t="n"/>
+          <t>자본금</t>
+        </is>
+      </c>
+      <c r="D117" s="1" t="inlineStr">
+        <is>
+          <t>보통주자본금</t>
+        </is>
+      </c>
       <c r="E117" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -8925,31 +8937,31 @@
         </is>
       </c>
       <c r="K117" s="1" t="n">
-        <v>15453203</v>
+        <v>778047</v>
       </c>
       <c r="L117" s="1" t="n">
-        <v>15060518</v>
+        <v>778047</v>
       </c>
       <c r="M117" s="1" t="n">
-        <v>14468450</v>
+        <v>778047</v>
       </c>
       <c r="N117" s="1" t="n">
-        <v>15453203</v>
+        <v>778047</v>
       </c>
       <c r="O117" s="1" t="n">
-        <v>15060518</v>
+        <v>778047</v>
       </c>
       <c r="P117" s="1" t="n">
-        <v>14468450</v>
+        <v>778047</v>
       </c>
       <c r="Q117" s="1" t="n">
-        <v>15453203</v>
+        <v>778047</v>
       </c>
       <c r="R117" s="1" t="n">
-        <v>15060518</v>
+        <v>778047</v>
       </c>
       <c r="S117" s="1" t="n">
-        <v>14468450</v>
+        <v>778047</v>
       </c>
     </row>
     <row r="118">
@@ -8960,19 +8972,15 @@
       </c>
       <c r="B118" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
+          <t>지배기업 소유주지분</t>
         </is>
       </c>
       <c r="C118" s="1" t="inlineStr">
         <is>
-          <t>기타자본구성요소</t>
-        </is>
-      </c>
-      <c r="D118" s="1" t="inlineStr">
-        <is>
-          <t>기타자본잉여금</t>
-        </is>
-      </c>
+          <t>주식발행초과금</t>
+        </is>
+      </c>
+      <c r="D118" s="1" t="n"/>
       <c r="E118" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -9004,31 +9012,31 @@
         </is>
       </c>
       <c r="K118" s="1" t="n">
-        <v>1600801</v>
+        <v>4403893</v>
       </c>
       <c r="L118" s="1" t="n">
-        <v>1268569</v>
+        <v>4403893</v>
       </c>
       <c r="M118" s="1" t="n">
-        <v>1231109</v>
+        <v>4403893</v>
       </c>
       <c r="N118" s="1" t="n">
-        <v>1600801</v>
+        <v>4403893</v>
       </c>
       <c r="O118" s="1" t="n">
-        <v>1268569</v>
+        <v>4403893</v>
       </c>
       <c r="P118" s="1" t="n">
-        <v>1231109</v>
+        <v>4403893</v>
       </c>
       <c r="Q118" s="1" t="n">
-        <v>1600801</v>
+        <v>4403893</v>
       </c>
       <c r="R118" s="1" t="n">
-        <v>1268569</v>
+        <v>4403893</v>
       </c>
       <c r="S118" s="1" t="n">
-        <v>1231109</v>
+        <v>4403893</v>
       </c>
     </row>
     <row r="119">
@@ -9039,19 +9047,15 @@
       </c>
       <c r="B119" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
+          <t>지배기업 소유주지분</t>
         </is>
       </c>
       <c r="C119" s="1" t="inlineStr">
         <is>
-          <t>기타자본구성요소</t>
-        </is>
-      </c>
-      <c r="D119" s="1" t="inlineStr">
-        <is>
-          <t>기타포괄손익누계액</t>
-        </is>
-      </c>
+          <t>이익잉여금</t>
+        </is>
+      </c>
+      <c r="D119" s="1" t="n"/>
       <c r="E119" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -9083,31 +9087,31 @@
         </is>
       </c>
       <c r="K119" s="1" t="n">
-        <v>557430</v>
+        <v>346652238</v>
       </c>
       <c r="L119" s="1" t="n">
-        <v>496976</v>
+        <v>337946407</v>
       </c>
       <c r="M119" s="1" t="n">
-        <v>-57632</v>
+        <v>293064763</v>
       </c>
       <c r="N119" s="1" t="n">
-        <v>557430</v>
+        <v>346652238</v>
       </c>
       <c r="O119" s="1" t="n">
-        <v>496976</v>
+        <v>337946407</v>
       </c>
       <c r="P119" s="1" t="n">
-        <v>-57632</v>
+        <v>293064763</v>
       </c>
       <c r="Q119" s="1" t="n">
-        <v>557430</v>
+        <v>346652238</v>
       </c>
       <c r="R119" s="1" t="n">
-        <v>496976</v>
+        <v>337946407</v>
       </c>
       <c r="S119" s="1" t="n">
-        <v>-57632</v>
+        <v>293064763</v>
       </c>
     </row>
     <row r="120">
@@ -9118,19 +9122,15 @@
       </c>
       <c r="B120" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
+          <t>지배기업 소유주지분</t>
         </is>
       </c>
       <c r="C120" s="1" t="inlineStr">
         <is>
-          <t>기타자본구성요소</t>
-        </is>
-      </c>
-      <c r="D120" s="1" t="inlineStr">
-        <is>
-          <t>기타자본</t>
-        </is>
-      </c>
+          <t>기타자본항목</t>
+        </is>
+      </c>
+      <c r="D120" s="1" t="n"/>
       <c r="E120" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -9162,50 +9162,50 @@
         </is>
       </c>
       <c r="K120" s="1" t="n">
-        <v>13294972</v>
+        <v>1280130</v>
       </c>
       <c r="L120" s="1" t="n">
-        <v>13294973</v>
+        <v>1938328</v>
       </c>
       <c r="M120" s="1" t="n">
-        <v>13294973</v>
+        <v>-2128473</v>
       </c>
       <c r="N120" s="1" t="n">
-        <v>13294972</v>
+        <v>1280130</v>
       </c>
       <c r="O120" s="1" t="n">
-        <v>13294973</v>
+        <v>1938328</v>
       </c>
       <c r="P120" s="1" t="n">
-        <v>13294973</v>
+        <v>-2128473</v>
       </c>
       <c r="Q120" s="1" t="n">
-        <v>13294972</v>
+        <v>1280130</v>
       </c>
       <c r="R120" s="1" t="n">
-        <v>13294973</v>
+        <v>1938328</v>
       </c>
       <c r="S120" s="1" t="n">
-        <v>13294973</v>
+        <v>-2128473</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>자본과부채총계</t>
+          <t>부채와자본총계</t>
         </is>
       </c>
       <c r="B121" s="1" t="n"/>
       <c r="C121" s="1" t="n"/>
       <c r="D121" s="1" t="n"/>
       <c r="E121" s="1" t="n">
-        <v>455905980</v>
+        <v>282463355</v>
       </c>
       <c r="F121" s="1" t="n">
-        <v>448424507</v>
+        <v>255742462</v>
       </c>
       <c r="G121" s="1" t="n">
-        <v>426621158</v>
+        <v>233946415</v>
       </c>
       <c r="H121" s="7" t="inlineStr">
         <is>
@@ -9222,38 +9222,44 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K121" s="1" t="n">
-        <v>239714965</v>
-      </c>
-      <c r="L121" s="1" t="n">
-        <v>234804994</v>
-      </c>
-      <c r="M121" s="1" t="n">
-        <v>211123727</v>
+      <c r="K121" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L121" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M121" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N121" s="1" t="n">
-        <v>695620945</v>
+        <v>282463355</v>
       </c>
       <c r="O121" s="1" t="n">
-        <v>683229501</v>
+        <v>255742462</v>
       </c>
       <c r="P121" s="1" t="n">
-        <v>637744885</v>
+        <v>233946415</v>
       </c>
       <c r="Q121" s="1" t="n">
-        <v>347810472.5</v>
+        <v>282463355</v>
       </c>
       <c r="R121" s="1" t="n">
-        <v>341614750.5</v>
+        <v>255742462</v>
       </c>
       <c r="S121" s="1" t="n">
-        <v>318872442.5</v>
+        <v>233946415</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>부채와자본총계</t>
+          <t>자본과부채총계</t>
         </is>
       </c>
       <c r="B122" s="1" t="n"/>
@@ -9275,46 +9281,40 @@
         </is>
       </c>
       <c r="H122" s="1" t="n">
-        <v>282463355</v>
+        <v>239714965</v>
       </c>
       <c r="I122" s="1" t="n">
-        <v>255742462</v>
+        <v>234804994</v>
       </c>
       <c r="J122" s="1" t="n">
-        <v>233946415</v>
-      </c>
-      <c r="K122" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L122" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M122" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>211123727</v>
+      </c>
+      <c r="K122" s="1" t="n">
+        <v>455905980</v>
+      </c>
+      <c r="L122" s="1" t="n">
+        <v>448424507</v>
+      </c>
+      <c r="M122" s="1" t="n">
+        <v>426621158</v>
       </c>
       <c r="N122" s="1" t="n">
-        <v>282463355</v>
+        <v>695620945</v>
       </c>
       <c r="O122" s="1" t="n">
-        <v>255742462</v>
+        <v>683229501</v>
       </c>
       <c r="P122" s="1" t="n">
-        <v>233946415</v>
+        <v>637744885</v>
       </c>
       <c r="Q122" s="1" t="n">
-        <v>282463355</v>
+        <v>347810472.5</v>
       </c>
       <c r="R122" s="1" t="n">
-        <v>255742462</v>
+        <v>341614750.5</v>
       </c>
       <c r="S122" s="1" t="n">
-        <v>233946415</v>
+        <v>318872442.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/연결 재무상태표.xlsx
+++ b/data/output/연결 재무상태표.xlsx
@@ -504,21 +504,21 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="4" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="4" t="inlineStr">
         <is>
-          <t>Kepco</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="4" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Kepco</t>
         </is>
       </c>
       <c r="L1" s="1" t="n"/>
@@ -739,31 +739,31 @@
       <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="n"/>
       <c r="E5" s="1" t="n">
+        <v>195936557</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>218470581</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>218163185</v>
+      </c>
+      <c r="H5" s="1" t="n">
         <v>101724717</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="I5" s="1" t="n">
         <v>96389273</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="J5" s="1" t="n">
         <v>88565366</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <v>29536215</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="L5" s="1" t="n">
         <v>29750545</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="M5" s="1" t="n">
         <v>22050845</v>
-      </c>
-      <c r="K5" s="1" t="n">
-        <v>195936557</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>218470581</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>218163185</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>327197489</v>
@@ -802,31 +802,31 @@
       </c>
       <c r="D6" s="1" t="n"/>
       <c r="E6" s="1" t="n">
+        <v>69080893</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>49680710</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>39031415</v>
+      </c>
+      <c r="H6" s="1" t="n">
         <v>19166619</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="I6" s="1" t="n">
         <v>20864879</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="J6" s="1" t="n">
         <v>12795554</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="K6" s="1" t="n">
         <v>4342887</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="L6" s="1" t="n">
         <v>3234780</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="M6" s="1" t="n">
         <v>2635238</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>69080893</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>49680710</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>39031415</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>92590399</v>
@@ -865,37 +865,37 @@
       </c>
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n">
+        <v>22690924</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>65102886</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>81708986</v>
+      </c>
+      <c r="H7" s="1" t="n">
         <v>7339968</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="I7" s="1" t="n">
         <v>5774597</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="J7" s="1" t="n">
         <v>6949333</v>
       </c>
-      <c r="H7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>22690924</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>65102886</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>81708986</v>
+      <c r="K7" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L7" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M7" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N7" s="1" t="n">
         <v>30030892</v>
@@ -929,18 +929,18 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>기타금융자산</t>
+          <t>단기상각후원가금융자산</t>
         </is>
       </c>
       <c r="D8" s="1" t="n"/>
       <c r="E8" s="1" t="n">
-        <v>2802611</v>
+        <v>608281</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>5934745</v>
+        <v>414610</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>12396646</v>
+        <v>3369034</v>
       </c>
       <c r="H8" s="7" t="inlineStr">
         <is>
@@ -973,22 +973,22 @@
         </is>
       </c>
       <c r="N8" s="1" t="n">
-        <v>2802611</v>
+        <v>608281</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>5934745</v>
+        <v>414610</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>12396646</v>
+        <v>3369034</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>2802611</v>
+        <v>608281</v>
       </c>
       <c r="R8" s="1" t="n">
-        <v>5934745</v>
+        <v>414610</v>
       </c>
       <c r="S8" s="1" t="n">
-        <v>12396646</v>
+        <v>3369034</v>
       </c>
     </row>
     <row r="9">
@@ -1004,18 +1004,18 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>매출채권</t>
+          <t>단기당기손익-공정가치금융자산</t>
         </is>
       </c>
       <c r="D9" s="1" t="n"/>
       <c r="E9" s="1" t="n">
-        <v>4682182</v>
+        <v>27112</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>4279057</v>
+        <v>29080</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>3147296</v>
+        <v>40757</v>
       </c>
       <c r="H9" s="7" t="inlineStr">
         <is>
@@ -1032,32 +1032,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K9" s="1" t="n">
-        <v>36647393</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>35721563</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>40713415</v>
+      <c r="K9" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L9" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M9" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N9" s="1" t="n">
-        <v>41329575</v>
+        <v>27112</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>40000620</v>
+        <v>29080</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>43860711</v>
+        <v>40757</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>20664787.5</v>
+        <v>27112</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>20000310</v>
+        <v>29080</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>21930355.5</v>
+        <v>40757</v>
       </c>
     </row>
     <row r="10">
@@ -1073,33 +1079,27 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>기타채권</t>
+          <t>매출채권</t>
         </is>
       </c>
       <c r="D10" s="1" t="n"/>
       <c r="E10" s="1" t="n">
-        <v>3431169</v>
+        <v>36647393</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>4458689</v>
+        <v>35721563</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>4220970</v>
-      </c>
-      <c r="H10" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>40713415</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>4682182</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>4279057</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>3147296</v>
       </c>
       <c r="K10" s="7" t="inlineStr">
         <is>
@@ -1117,22 +1117,22 @@
         </is>
       </c>
       <c r="N10" s="1" t="n">
-        <v>3431169</v>
+        <v>41329575</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>4458689</v>
+        <v>40000620</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>4220970</v>
+        <v>43860711</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>3431169</v>
+        <v>20664787.5</v>
       </c>
       <c r="R10" s="1" t="n">
-        <v>4458689</v>
+        <v>20000310</v>
       </c>
       <c r="S10" s="1" t="n">
-        <v>4220970</v>
+        <v>21930355.5</v>
       </c>
     </row>
     <row r="11">
@@ -1148,54 +1148,66 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>재고자산</t>
+          <t>미수금</t>
         </is>
       </c>
       <c r="D11" s="1" t="n"/>
       <c r="E11" s="1" t="n">
-        <v>17400346</v>
+        <v>6633248</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>14291216</v>
+        <v>6149209</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>11645641</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>8875615</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>9930732</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>7608182</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>51625874</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>52187866</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <v>41384404</v>
+        <v>4497257</v>
+      </c>
+      <c r="H11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N11" s="1" t="n">
-        <v>77901835</v>
+        <v>6633248</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>76409814</v>
+        <v>6149209</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>60638227</v>
+        <v>4497257</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>25967278.33333333</v>
+        <v>6633248</v>
       </c>
       <c r="R11" s="1" t="n">
-        <v>25469938</v>
+        <v>6149209</v>
       </c>
       <c r="S11" s="1" t="n">
-        <v>20212742.33333333</v>
+        <v>4497257</v>
       </c>
     </row>
     <row r="12">
@@ -1211,18 +1223,18 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>기타자산</t>
+          <t>선급비용</t>
         </is>
       </c>
       <c r="D12" s="1" t="n"/>
       <c r="E12" s="1" t="n">
-        <v>3150939</v>
+        <v>3366130</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>2640553</v>
+        <v>2867823</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>2081853</v>
+        <v>2336252</v>
       </c>
       <c r="H12" s="7" t="inlineStr">
         <is>
@@ -1255,22 +1267,22 @@
         </is>
       </c>
       <c r="N12" s="1" t="n">
-        <v>3150939</v>
+        <v>3366130</v>
       </c>
       <c r="O12" s="1" t="n">
-        <v>2640553</v>
+        <v>2867823</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>2081853</v>
+        <v>2336252</v>
       </c>
       <c r="Q12" s="1" t="n">
-        <v>3150939</v>
+        <v>3366130</v>
       </c>
       <c r="R12" s="1" t="n">
-        <v>2640553</v>
+        <v>2867823</v>
       </c>
       <c r="S12" s="1" t="n">
-        <v>2081853</v>
+        <v>2336252</v>
       </c>
     </row>
     <row r="13">
@@ -1286,60 +1298,54 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>당기법인세자산</t>
+          <t>재고자산</t>
         </is>
       </c>
       <c r="D13" s="1" t="n"/>
       <c r="E13" s="1" t="n">
-        <v>195696</v>
+        <v>51625874</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>85867</v>
+        <v>52187866</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>47346</v>
+        <v>41384404</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>69612</v>
+        <v>17400346</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>46619</v>
+        <v>14291216</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>41344</v>
-      </c>
-      <c r="K13" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L13" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M13" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>11645641</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>8875615</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>9930732</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>7608182</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>265308</v>
+        <v>77901835</v>
       </c>
       <c r="O13" s="1" t="n">
-        <v>132486</v>
+        <v>76409814</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>88690</v>
+        <v>60638227</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>132654</v>
+        <v>25967278.33333333</v>
       </c>
       <c r="R13" s="1" t="n">
-        <v>66243</v>
+        <v>25469938</v>
       </c>
       <c r="S13" s="1" t="n">
-        <v>44345</v>
+        <v>20212742.33333333</v>
       </c>
     </row>
     <row r="14">
@@ -1355,18 +1361,18 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>금융업채권</t>
+          <t>기타유동자산</t>
         </is>
       </c>
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="n">
-        <v>43120684</v>
+        <v>5038838</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>38037368</v>
+        <v>6316834</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>35252606</v>
+        <v>5081665</v>
       </c>
       <c r="H14" s="7" t="inlineStr">
         <is>
@@ -1399,22 +1405,22 @@
         </is>
       </c>
       <c r="N14" s="1" t="n">
-        <v>43120684</v>
+        <v>5038838</v>
       </c>
       <c r="O14" s="1" t="n">
-        <v>38037368</v>
+        <v>6316834</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>35252606</v>
+        <v>5081665</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>43120684</v>
+        <v>5038838</v>
       </c>
       <c r="R14" s="1" t="n">
-        <v>38037368</v>
+        <v>6316834</v>
       </c>
       <c r="S14" s="1" t="n">
-        <v>35252606</v>
+        <v>5081665</v>
       </c>
     </row>
     <row r="15">
@@ -1430,18 +1436,18 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>매각예정비유동자산</t>
+          <t>매각예정분류자산</t>
         </is>
       </c>
       <c r="D15" s="1" t="n"/>
       <c r="E15" s="1" t="n">
-        <v>434503</v>
+        <v>217864</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>22302</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>28121</v>
+        <v>0</v>
       </c>
       <c r="H15" s="7" t="inlineStr">
         <is>
@@ -1474,22 +1480,22 @@
         </is>
       </c>
       <c r="N15" s="1" t="n">
-        <v>434503</v>
+        <v>217864</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>22302</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>28121</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>434503</v>
+        <v>217864</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>22302</v>
+        <v>0</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>28121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1505,7 +1511,7 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>유동금융자산</t>
+          <t>기타금융자산</t>
         </is>
       </c>
       <c r="D16" s="1" t="n"/>
@@ -1525,13 +1531,13 @@
         </is>
       </c>
       <c r="H16" s="1" t="n">
-        <v>3107397</v>
+        <v>2802611</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>4286975</v>
+        <v>5934745</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>1868796</v>
+        <v>12396646</v>
       </c>
       <c r="K16" s="7" t="inlineStr">
         <is>
@@ -1549,22 +1555,22 @@
         </is>
       </c>
       <c r="N16" s="1" t="n">
-        <v>3107397</v>
+        <v>2802611</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>4286975</v>
+        <v>5934745</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>1868796</v>
+        <v>12396646</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>3107397</v>
+        <v>2802611</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>4286975</v>
+        <v>5934745</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>1868796</v>
+        <v>12396646</v>
       </c>
     </row>
     <row r="17">
@@ -1580,7 +1586,7 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>매출채권및기타채권</t>
+          <t>기타채권</t>
         </is>
       </c>
       <c r="D17" s="1" t="n"/>
@@ -1600,13 +1606,13 @@
         </is>
       </c>
       <c r="H17" s="1" t="n">
-        <v>11985735</v>
+        <v>3431169</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>10461822</v>
+        <v>4458689</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>8122415</v>
+        <v>4220970</v>
       </c>
       <c r="K17" s="7" t="inlineStr">
         <is>
@@ -1624,22 +1630,22 @@
         </is>
       </c>
       <c r="N17" s="1" t="n">
-        <v>11985735</v>
+        <v>3431169</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>10461822</v>
+        <v>4458689</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>8122415</v>
+        <v>4220970</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>11985735</v>
+        <v>3431169</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>10461822</v>
+        <v>4458689</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>8122415</v>
+        <v>4220970</v>
       </c>
     </row>
     <row r="18">
@@ -1655,7 +1661,7 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>유동비금융자산</t>
+          <t>기타자산</t>
         </is>
       </c>
       <c r="D18" s="1" t="n"/>
@@ -1675,13 +1681,13 @@
         </is>
       </c>
       <c r="H18" s="1" t="n">
-        <v>1109321</v>
+        <v>3150939</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>1744869</v>
+        <v>2640553</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>1758991</v>
+        <v>2081853</v>
       </c>
       <c r="K18" s="7" t="inlineStr">
         <is>
@@ -1699,22 +1705,22 @@
         </is>
       </c>
       <c r="N18" s="1" t="n">
-        <v>1109321</v>
+        <v>3150939</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>1744869</v>
+        <v>2640553</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>1758991</v>
+        <v>2081853</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>1109321</v>
+        <v>3150939</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>1744869</v>
+        <v>2640553</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>1758991</v>
+        <v>2081853</v>
       </c>
     </row>
     <row r="19">
@@ -1730,7 +1736,7 @@
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>매각예정자산</t>
+          <t>당기법인세자산</t>
         </is>
       </c>
       <c r="D19" s="1" t="n"/>
@@ -1750,46 +1756,40 @@
         </is>
       </c>
       <c r="H19" s="1" t="n">
-        <v>45648</v>
+        <v>195696</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>44748</v>
+        <v>85867</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>15879</v>
-      </c>
-      <c r="K19" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L19" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M19" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>47346</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>69612</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>46619</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>41344</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>45648</v>
+        <v>265308</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>44748</v>
+        <v>132486</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>15879</v>
+        <v>88690</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>45648</v>
+        <v>132654</v>
       </c>
       <c r="R19" s="1" t="n">
-        <v>44748</v>
+        <v>66243</v>
       </c>
       <c r="S19" s="1" t="n">
-        <v>15879</v>
+        <v>44345</v>
       </c>
     </row>
     <row r="20">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>단기상각후원가금융자산</t>
+          <t>금융업채권</t>
         </is>
       </c>
       <c r="D20" s="1" t="n"/>
@@ -1824,47 +1824,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H20" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I20" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J20" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>608281</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <v>414610</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <v>3369034</v>
+      <c r="H20" s="1" t="n">
+        <v>43120684</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>38037368</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>35252606</v>
+      </c>
+      <c r="K20" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L20" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M20" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N20" s="1" t="n">
-        <v>608281</v>
+        <v>43120684</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>414610</v>
+        <v>38037368</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>3369034</v>
+        <v>35252606</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>608281</v>
+        <v>43120684</v>
       </c>
       <c r="R20" s="1" t="n">
-        <v>414610</v>
+        <v>38037368</v>
       </c>
       <c r="S20" s="1" t="n">
-        <v>3369034</v>
+        <v>35252606</v>
       </c>
     </row>
     <row r="21">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>단기당기손익-공정가치금융자산</t>
+          <t>매각예정비유동자산</t>
         </is>
       </c>
       <c r="D21" s="1" t="n"/>
@@ -1899,47 +1899,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H21" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I21" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J21" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>27112</v>
-      </c>
-      <c r="L21" s="1" t="n">
-        <v>29080</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <v>40757</v>
+      <c r="H21" s="1" t="n">
+        <v>434503</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>22302</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>28121</v>
+      </c>
+      <c r="K21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N21" s="1" t="n">
-        <v>27112</v>
+        <v>434503</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>29080</v>
+        <v>22302</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>40757</v>
+        <v>28121</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>27112</v>
+        <v>434503</v>
       </c>
       <c r="R21" s="1" t="n">
-        <v>29080</v>
+        <v>22302</v>
       </c>
       <c r="S21" s="1" t="n">
-        <v>40757</v>
+        <v>28121</v>
       </c>
     </row>
     <row r="22">
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>미수금</t>
+          <t>유동금융자산</t>
         </is>
       </c>
       <c r="D22" s="1" t="n"/>
@@ -1990,31 +1990,31 @@
         </is>
       </c>
       <c r="K22" s="1" t="n">
-        <v>6633248</v>
+        <v>3107397</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>6149209</v>
+        <v>4286975</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>4497257</v>
+        <v>1868796</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>6633248</v>
+        <v>3107397</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>6149209</v>
+        <v>4286975</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>4497257</v>
+        <v>1868796</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>6633248</v>
+        <v>3107397</v>
       </c>
       <c r="R22" s="1" t="n">
-        <v>6149209</v>
+        <v>4286975</v>
       </c>
       <c r="S22" s="1" t="n">
-        <v>4497257</v>
+        <v>1868796</v>
       </c>
     </row>
     <row r="23">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>선급비용</t>
+          <t>매출채권및기타채권</t>
         </is>
       </c>
       <c r="D23" s="1" t="n"/>
@@ -2065,31 +2065,31 @@
         </is>
       </c>
       <c r="K23" s="1" t="n">
-        <v>3366130</v>
+        <v>11985735</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>2867823</v>
+        <v>10461822</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>2336252</v>
+        <v>8122415</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>3366130</v>
+        <v>11985735</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>2867823</v>
+        <v>10461822</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>2336252</v>
+        <v>8122415</v>
       </c>
       <c r="Q23" s="1" t="n">
-        <v>3366130</v>
+        <v>11985735</v>
       </c>
       <c r="R23" s="1" t="n">
-        <v>2867823</v>
+        <v>10461822</v>
       </c>
       <c r="S23" s="1" t="n">
-        <v>2336252</v>
+        <v>8122415</v>
       </c>
     </row>
     <row r="24">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>기타유동자산</t>
+          <t>유동비금융자산</t>
         </is>
       </c>
       <c r="D24" s="1" t="n"/>
@@ -2140,31 +2140,31 @@
         </is>
       </c>
       <c r="K24" s="1" t="n">
-        <v>5038838</v>
+        <v>1109321</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>6316834</v>
+        <v>1744869</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>5081665</v>
+        <v>1758991</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>5038838</v>
+        <v>1109321</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>6316834</v>
+        <v>1744869</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>5081665</v>
+        <v>1758991</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>5038838</v>
+        <v>1109321</v>
       </c>
       <c r="R24" s="1" t="n">
-        <v>6316834</v>
+        <v>1744869</v>
       </c>
       <c r="S24" s="1" t="n">
-        <v>5081665</v>
+        <v>1758991</v>
       </c>
     </row>
     <row r="25">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>매각예정분류자산</t>
+          <t>매각예정자산</t>
         </is>
       </c>
       <c r="D25" s="1" t="n"/>
@@ -2215,31 +2215,31 @@
         </is>
       </c>
       <c r="K25" s="1" t="n">
-        <v>217864</v>
+        <v>45648</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>0</v>
+        <v>44748</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>0</v>
+        <v>15879</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>217864</v>
+        <v>45648</v>
       </c>
       <c r="O25" s="1" t="n">
-        <v>0</v>
+        <v>44748</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>0</v>
+        <v>15879</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <v>217864</v>
+        <v>45648</v>
       </c>
       <c r="R25" s="1" t="n">
-        <v>0</v>
+        <v>44748</v>
       </c>
       <c r="S25" s="1" t="n">
-        <v>0</v>
+        <v>15879</v>
       </c>
     </row>
     <row r="26">
@@ -2256,31 +2256,31 @@
       <c r="C26" s="1" t="n"/>
       <c r="D26" s="1" t="n"/>
       <c r="E26" s="1" t="n">
+        <v>259969423</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>229953926</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>208457973</v>
+      </c>
+      <c r="H26" s="1" t="n">
         <v>180738638</v>
       </c>
-      <c r="F26" s="1" t="n">
+      <c r="I26" s="1" t="n">
         <v>159353189</v>
       </c>
-      <c r="G26" s="1" t="n">
+      <c r="J26" s="1" t="n">
         <v>145381049</v>
       </c>
-      <c r="H26" s="1" t="n">
+      <c r="K26" s="1" t="n">
         <v>210178750</v>
       </c>
-      <c r="I26" s="1" t="n">
+      <c r="L26" s="1" t="n">
         <v>205054449</v>
       </c>
-      <c r="J26" s="1" t="n">
+      <c r="M26" s="1" t="n">
         <v>189072882</v>
-      </c>
-      <c r="K26" s="1" t="n">
-        <v>259969423</v>
-      </c>
-      <c r="L26" s="1" t="n">
-        <v>229953926</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <v>208457973</v>
       </c>
       <c r="N26" s="1" t="n">
         <v>650886811</v>
@@ -2314,18 +2314,18 @@
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>장기금융상품</t>
+          <t>기타포괄손익-공정가치 측정 비유동금융자산</t>
         </is>
       </c>
       <c r="D27" s="1" t="n"/>
       <c r="E27" s="1" t="n">
-        <v>154966</v>
+        <v>7481297</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>112557</v>
+        <v>11397012</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>306410</v>
+        <v>13965839</v>
       </c>
       <c r="H27" s="7" t="inlineStr">
         <is>
@@ -2358,22 +2358,22 @@
         </is>
       </c>
       <c r="N27" s="1" t="n">
-        <v>154966</v>
+        <v>7481297</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>112557</v>
+        <v>11397012</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>306410</v>
+        <v>13965839</v>
       </c>
       <c r="Q27" s="1" t="n">
-        <v>154966</v>
+        <v>7481297</v>
       </c>
       <c r="R27" s="1" t="n">
-        <v>112557</v>
+        <v>11397012</v>
       </c>
       <c r="S27" s="1" t="n">
-        <v>306410</v>
+        <v>13965839</v>
       </c>
     </row>
     <row r="28">
@@ -2389,18 +2389,18 @@
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>기타금융자산</t>
+          <t>당기손익-공정가치금융자산</t>
         </is>
       </c>
       <c r="D28" s="1" t="n"/>
       <c r="E28" s="1" t="n">
-        <v>4423388</v>
+        <v>1431394</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>3889776</v>
+        <v>1405468</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>3539286</v>
+        <v>1525344</v>
       </c>
       <c r="H28" s="7" t="inlineStr">
         <is>
@@ -2433,22 +2433,22 @@
         </is>
       </c>
       <c r="N28" s="1" t="n">
-        <v>4423388</v>
+        <v>1431394</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>3889776</v>
+        <v>1405468</v>
       </c>
       <c r="P28" s="1" t="n">
-        <v>3539286</v>
+        <v>1525344</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>4423388</v>
+        <v>1431394</v>
       </c>
       <c r="R28" s="1" t="n">
-        <v>3889776</v>
+        <v>1405468</v>
       </c>
       <c r="S28" s="1" t="n">
-        <v>3539286</v>
+        <v>1525344</v>
       </c>
     </row>
     <row r="29">
@@ -2464,18 +2464,18 @@
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>장기성매출채권</t>
+          <t>관계종속기업투자자산-지분법</t>
         </is>
       </c>
       <c r="D29" s="1" t="n"/>
       <c r="E29" s="1" t="n">
-        <v>210979</v>
+        <v>11767444</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>179781</v>
+        <v>10893869</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>137157</v>
+        <v>8932251</v>
       </c>
       <c r="H29" s="7" t="inlineStr">
         <is>
@@ -2508,22 +2508,22 @@
         </is>
       </c>
       <c r="N29" s="1" t="n">
-        <v>210979</v>
+        <v>11767444</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>179781</v>
+        <v>10893869</v>
       </c>
       <c r="P29" s="1" t="n">
-        <v>137157</v>
+        <v>8932251</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>210979</v>
+        <v>11767444</v>
       </c>
       <c r="R29" s="1" t="n">
-        <v>179781</v>
+        <v>10893869</v>
       </c>
       <c r="S29" s="1" t="n">
-        <v>137157</v>
+        <v>8932251</v>
       </c>
     </row>
     <row r="30">
@@ -2539,66 +2539,54 @@
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>기타채권</t>
+          <t>유형자산</t>
         </is>
       </c>
       <c r="D30" s="1" t="n"/>
       <c r="E30" s="1" t="n">
-        <v>855015</v>
+        <v>187256262</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>821050</v>
+        <v>168045388</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>741168</v>
-      </c>
-      <c r="H30" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I30" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J30" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K30" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L30" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M30" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>149928539</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>38920900</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>36153190</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>35543083</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>179875535</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>177865308</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>173134638</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>855015</v>
+        <v>406052697</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>821050</v>
+        <v>382063886</v>
       </c>
       <c r="P30" s="1" t="n">
-        <v>741168</v>
+        <v>358606260</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>855015</v>
+        <v>135350899</v>
       </c>
       <c r="R30" s="1" t="n">
-        <v>821050</v>
+        <v>127354628.6666667</v>
       </c>
       <c r="S30" s="1" t="n">
-        <v>741168</v>
+        <v>119535420</v>
       </c>
     </row>
     <row r="31">
@@ -2614,33 +2602,27 @@
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>기타자산</t>
+          <t>무형자산</t>
         </is>
       </c>
       <c r="D31" s="1" t="n"/>
       <c r="E31" s="1" t="n">
-        <v>1970119</v>
+        <v>22741862</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>1550455</v>
+        <v>20217754</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>1191284</v>
-      </c>
-      <c r="H31" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I31" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J31" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>20236244</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>6218585</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>6102377</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>5846986</v>
       </c>
       <c r="K31" s="7" t="inlineStr">
         <is>
@@ -2658,22 +2640,22 @@
         </is>
       </c>
       <c r="N31" s="1" t="n">
-        <v>1970119</v>
+        <v>28960447</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>1550455</v>
+        <v>26320131</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>1191284</v>
+        <v>26083230</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>1970119</v>
+        <v>14480223.5</v>
       </c>
       <c r="R31" s="1" t="n">
-        <v>1550455</v>
+        <v>13160065.5</v>
       </c>
       <c r="S31" s="1" t="n">
-        <v>1191284</v>
+        <v>13041615</v>
       </c>
     </row>
     <row r="32">
@@ -2689,54 +2671,54 @@
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>유형자산</t>
+          <t>순확정급여자산</t>
         </is>
       </c>
       <c r="D32" s="1" t="n"/>
       <c r="E32" s="1" t="n">
-        <v>38920900</v>
+        <v>4905219</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>36153190</v>
+        <v>5851972</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>35543083</v>
+        <v>2809590</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>179875535</v>
+        <v>488181</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>177865308</v>
+        <v>837502</v>
       </c>
       <c r="J32" s="1" t="n">
-        <v>173134638</v>
+        <v>219721</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>187256262</v>
+        <v>70187</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>168045388</v>
+        <v>198626</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>149928539</v>
+        <v>20871</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>406052697</v>
+        <v>5463587</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>382063886</v>
+        <v>6888100</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>358606260</v>
+        <v>3050182</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>135350899</v>
+        <v>1821195.666666667</v>
       </c>
       <c r="R32" s="1" t="n">
-        <v>127354628.6666667</v>
+        <v>2296033.333333333</v>
       </c>
       <c r="S32" s="1" t="n">
-        <v>119535420</v>
+        <v>1016727.333333333</v>
       </c>
     </row>
     <row r="33">
@@ -2752,60 +2734,54 @@
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>투자부동산</t>
+          <t>이연법인세자산</t>
         </is>
       </c>
       <c r="D33" s="1" t="n"/>
       <c r="E33" s="1" t="n">
-        <v>146148</v>
+        <v>10211797</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>144450</v>
+        <v>5101318</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>156656</v>
+        <v>4261214</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>185527</v>
+        <v>3604977</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>208286</v>
+        <v>3237309</v>
       </c>
       <c r="J33" s="1" t="n">
-        <v>212784</v>
-      </c>
-      <c r="K33" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L33" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M33" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>2224833</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>13161802</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>10934375</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>1901992</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>331675</v>
+        <v>26978576</v>
       </c>
       <c r="O33" s="1" t="n">
-        <v>352736</v>
+        <v>19273002</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>369440</v>
+        <v>8388039</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>165837.5</v>
+        <v>8992858.666666666</v>
       </c>
       <c r="R33" s="1" t="n">
-        <v>176368</v>
+        <v>6424334</v>
       </c>
       <c r="S33" s="1" t="n">
-        <v>184720</v>
+        <v>2796013</v>
       </c>
     </row>
     <row r="34">
@@ -2821,18 +2797,18 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>무형자산</t>
+          <t>기타비유동자산</t>
         </is>
       </c>
       <c r="D34" s="1" t="n"/>
       <c r="E34" s="1" t="n">
-        <v>6218585</v>
+        <v>14174148</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>6102377</v>
+        <v>7041145</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>5846986</v>
+        <v>6798952</v>
       </c>
       <c r="H34" s="7" t="inlineStr">
         <is>
@@ -2849,32 +2825,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K34" s="1" t="n">
-        <v>22741862</v>
-      </c>
-      <c r="L34" s="1" t="n">
-        <v>20217754</v>
-      </c>
-      <c r="M34" s="1" t="n">
-        <v>20236244</v>
+      <c r="K34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N34" s="1" t="n">
-        <v>28960447</v>
+        <v>14174148</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>26320131</v>
+        <v>7041145</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>26083230</v>
+        <v>6798952</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <v>14480223.5</v>
+        <v>14174148</v>
       </c>
       <c r="R34" s="1" t="n">
-        <v>13160065.5</v>
+        <v>7041145</v>
       </c>
       <c r="S34" s="1" t="n">
-        <v>13041615</v>
+        <v>6798952</v>
       </c>
     </row>
     <row r="35">
@@ -2890,33 +2872,33 @@
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>공동기업 및 관계기업투자</t>
+          <t>장기금융상품</t>
         </is>
       </c>
       <c r="D35" s="1" t="n"/>
-      <c r="E35" s="1" t="n">
-        <v>28476142</v>
-      </c>
-      <c r="F35" s="1" t="n">
-        <v>25199437</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>22429117</v>
-      </c>
-      <c r="H35" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I35" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J35" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>154966</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>112557</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>306410</v>
       </c>
       <c r="K35" s="7" t="inlineStr">
         <is>
@@ -2934,22 +2916,22 @@
         </is>
       </c>
       <c r="N35" s="1" t="n">
-        <v>28476142</v>
+        <v>154966</v>
       </c>
       <c r="O35" s="1" t="n">
-        <v>25199437</v>
+        <v>112557</v>
       </c>
       <c r="P35" s="1" t="n">
-        <v>22429117</v>
+        <v>306410</v>
       </c>
       <c r="Q35" s="1" t="n">
-        <v>28476142</v>
+        <v>154966</v>
       </c>
       <c r="R35" s="1" t="n">
-        <v>25199437</v>
+        <v>112557</v>
       </c>
       <c r="S35" s="1" t="n">
-        <v>22429117</v>
+        <v>306410</v>
       </c>
     </row>
     <row r="36">
@@ -2965,54 +2947,66 @@
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>순확정급여자산</t>
+          <t>기타금융자산</t>
         </is>
       </c>
       <c r="D36" s="1" t="n"/>
-      <c r="E36" s="1" t="n">
-        <v>488181</v>
-      </c>
-      <c r="F36" s="1" t="n">
-        <v>837502</v>
-      </c>
-      <c r="G36" s="1" t="n">
-        <v>219721</v>
+      <c r="E36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H36" s="1" t="n">
-        <v>70187</v>
+        <v>4423388</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>198626</v>
+        <v>3889776</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>20871</v>
-      </c>
-      <c r="K36" s="1" t="n">
-        <v>4905219</v>
-      </c>
-      <c r="L36" s="1" t="n">
-        <v>5851972</v>
-      </c>
-      <c r="M36" s="1" t="n">
-        <v>2809590</v>
+        <v>3539286</v>
+      </c>
+      <c r="K36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N36" s="1" t="n">
-        <v>5463587</v>
+        <v>4423388</v>
       </c>
       <c r="O36" s="1" t="n">
-        <v>6888100</v>
+        <v>3889776</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>3050182</v>
+        <v>3539286</v>
       </c>
       <c r="Q36" s="1" t="n">
-        <v>1821195.666666667</v>
+        <v>4423388</v>
       </c>
       <c r="R36" s="1" t="n">
-        <v>2296033.333333333</v>
+        <v>3889776</v>
       </c>
       <c r="S36" s="1" t="n">
-        <v>1016727.333333333</v>
+        <v>3539286</v>
       </c>
     </row>
     <row r="37">
@@ -3028,54 +3022,66 @@
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>이연법인세자산</t>
+          <t>장기성매출채권</t>
         </is>
       </c>
       <c r="D37" s="1" t="n"/>
-      <c r="E37" s="1" t="n">
-        <v>3604977</v>
-      </c>
-      <c r="F37" s="1" t="n">
-        <v>3237309</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <v>2224833</v>
+      <c r="E37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H37" s="1" t="n">
-        <v>13161802</v>
+        <v>210979</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>10934375</v>
+        <v>179781</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>1901992</v>
-      </c>
-      <c r="K37" s="1" t="n">
-        <v>10211797</v>
-      </c>
-      <c r="L37" s="1" t="n">
-        <v>5101318</v>
-      </c>
-      <c r="M37" s="1" t="n">
-        <v>4261214</v>
+        <v>137157</v>
+      </c>
+      <c r="K37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N37" s="1" t="n">
-        <v>26978576</v>
+        <v>210979</v>
       </c>
       <c r="O37" s="1" t="n">
-        <v>19273002</v>
+        <v>179781</v>
       </c>
       <c r="P37" s="1" t="n">
-        <v>8388039</v>
+        <v>137157</v>
       </c>
       <c r="Q37" s="1" t="n">
-        <v>8992858.666666666</v>
+        <v>210979</v>
       </c>
       <c r="R37" s="1" t="n">
-        <v>6424334</v>
+        <v>179781</v>
       </c>
       <c r="S37" s="1" t="n">
-        <v>2796013</v>
+        <v>137157</v>
       </c>
     </row>
     <row r="38">
@@ -3091,33 +3097,33 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>금융업채권</t>
+          <t>기타채권</t>
         </is>
       </c>
       <c r="D38" s="1" t="n"/>
-      <c r="E38" s="1" t="n">
-        <v>64566977</v>
-      </c>
-      <c r="F38" s="1" t="n">
-        <v>52326478</v>
-      </c>
-      <c r="G38" s="1" t="n">
-        <v>45776526</v>
-      </c>
-      <c r="H38" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I38" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J38" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>855015</v>
+      </c>
+      <c r="I38" s="1" t="n">
+        <v>821050</v>
+      </c>
+      <c r="J38" s="1" t="n">
+        <v>741168</v>
       </c>
       <c r="K38" s="7" t="inlineStr">
         <is>
@@ -3135,22 +3141,22 @@
         </is>
       </c>
       <c r="N38" s="1" t="n">
-        <v>64566977</v>
+        <v>855015</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>52326478</v>
+        <v>821050</v>
       </c>
       <c r="P38" s="1" t="n">
-        <v>45776526</v>
+        <v>741168</v>
       </c>
       <c r="Q38" s="1" t="n">
-        <v>64566977</v>
+        <v>855015</v>
       </c>
       <c r="R38" s="1" t="n">
-        <v>52326478</v>
+        <v>821050</v>
       </c>
       <c r="S38" s="1" t="n">
-        <v>45776526</v>
+        <v>741168</v>
       </c>
     </row>
     <row r="39">
@@ -3166,33 +3172,33 @@
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>운용리스 자산</t>
+          <t>기타자산</t>
         </is>
       </c>
       <c r="D39" s="1" t="n"/>
-      <c r="E39" s="1" t="n">
-        <v>29664618</v>
-      </c>
-      <c r="F39" s="1" t="n">
-        <v>27681534</v>
-      </c>
-      <c r="G39" s="1" t="n">
-        <v>26327996</v>
-      </c>
-      <c r="H39" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I39" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J39" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E39" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>1970119</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>1550455</v>
+      </c>
+      <c r="J39" s="1" t="n">
+        <v>1191284</v>
       </c>
       <c r="K39" s="7" t="inlineStr">
         <is>
@@ -3210,22 +3216,22 @@
         </is>
       </c>
       <c r="N39" s="1" t="n">
-        <v>29664618</v>
+        <v>1970119</v>
       </c>
       <c r="O39" s="1" t="n">
-        <v>27681534</v>
+        <v>1550455</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>26327996</v>
+        <v>1191284</v>
       </c>
       <c r="Q39" s="1" t="n">
-        <v>29664618</v>
+        <v>1970119</v>
       </c>
       <c r="R39" s="1" t="n">
-        <v>27681534</v>
+        <v>1550455</v>
       </c>
       <c r="S39" s="1" t="n">
-        <v>26327996</v>
+        <v>1191284</v>
       </c>
     </row>
     <row r="40">
@@ -3241,66 +3247,60 @@
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>사용권자산</t>
+          <t>투자부동산</t>
         </is>
       </c>
       <c r="D40" s="1" t="n"/>
-      <c r="E40" s="1" t="n">
-        <v>1037643</v>
-      </c>
-      <c r="F40" s="1" t="n">
-        <v>1117293</v>
-      </c>
-      <c r="G40" s="1" t="n">
-        <v>940826</v>
-      </c>
-      <c r="H40" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I40" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J40" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K40" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L40" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M40" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>146148</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>144450</v>
+      </c>
+      <c r="J40" s="1" t="n">
+        <v>156656</v>
+      </c>
+      <c r="K40" s="1" t="n">
+        <v>185527</v>
+      </c>
+      <c r="L40" s="1" t="n">
+        <v>208286</v>
+      </c>
+      <c r="M40" s="1" t="n">
+        <v>212784</v>
       </c>
       <c r="N40" s="1" t="n">
-        <v>1037643</v>
+        <v>331675</v>
       </c>
       <c r="O40" s="1" t="n">
-        <v>1117293</v>
+        <v>352736</v>
       </c>
       <c r="P40" s="1" t="n">
-        <v>940826</v>
+        <v>369440</v>
       </c>
       <c r="Q40" s="1" t="n">
-        <v>1037643</v>
+        <v>165837.5</v>
       </c>
       <c r="R40" s="1" t="n">
-        <v>1117293</v>
+        <v>176368</v>
       </c>
       <c r="S40" s="1" t="n">
-        <v>940826</v>
+        <v>184720</v>
       </c>
     </row>
     <row r="41">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>비유동금융자산</t>
+          <t>공동기업 및 관계기업투자</t>
         </is>
       </c>
       <c r="D41" s="1" t="n"/>
@@ -3336,13 +3336,13 @@
         </is>
       </c>
       <c r="H41" s="1" t="n">
-        <v>3546214</v>
+        <v>28476142</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>3336835</v>
+        <v>25199437</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>2909810</v>
+        <v>22429117</v>
       </c>
       <c r="K41" s="7" t="inlineStr">
         <is>
@@ -3360,22 +3360,22 @@
         </is>
       </c>
       <c r="N41" s="1" t="n">
-        <v>3546214</v>
+        <v>28476142</v>
       </c>
       <c r="O41" s="1" t="n">
-        <v>3336835</v>
+        <v>25199437</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>2909810</v>
+        <v>22429117</v>
       </c>
       <c r="Q41" s="1" t="n">
-        <v>3546214</v>
+        <v>28476142</v>
       </c>
       <c r="R41" s="1" t="n">
-        <v>3336835</v>
+        <v>25199437</v>
       </c>
       <c r="S41" s="1" t="n">
-        <v>2909810</v>
+        <v>22429117</v>
       </c>
     </row>
     <row r="42">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>장기매출채권및기타채권</t>
+          <t>금융업채권</t>
         </is>
       </c>
       <c r="D42" s="1" t="n"/>
@@ -3411,13 +3411,13 @@
         </is>
       </c>
       <c r="H42" s="1" t="n">
-        <v>2193587</v>
+        <v>64566977</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>2153080</v>
+        <v>52326478</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>1906861</v>
+        <v>45776526</v>
       </c>
       <c r="K42" s="7" t="inlineStr">
         <is>
@@ -3435,22 +3435,22 @@
         </is>
       </c>
       <c r="N42" s="1" t="n">
-        <v>2193587</v>
+        <v>64566977</v>
       </c>
       <c r="O42" s="1" t="n">
-        <v>2153080</v>
+        <v>52326478</v>
       </c>
       <c r="P42" s="1" t="n">
-        <v>1906861</v>
+        <v>45776526</v>
       </c>
       <c r="Q42" s="1" t="n">
-        <v>2193587</v>
+        <v>64566977</v>
       </c>
       <c r="R42" s="1" t="n">
-        <v>2153080</v>
+        <v>52326478</v>
       </c>
       <c r="S42" s="1" t="n">
-        <v>1906861</v>
+        <v>45776526</v>
       </c>
     </row>
     <row r="43">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>영업권</t>
+          <t>운용리스 자산</t>
         </is>
       </c>
       <c r="D43" s="1" t="n"/>
@@ -3486,13 +3486,13 @@
         </is>
       </c>
       <c r="H43" s="1" t="n">
-        <v>99156</v>
+        <v>29664618</v>
       </c>
       <c r="I43" s="1" t="n">
-        <v>100093</v>
+        <v>27681534</v>
       </c>
       <c r="J43" s="1" t="n">
-        <v>105647</v>
+        <v>26327996</v>
       </c>
       <c r="K43" s="7" t="inlineStr">
         <is>
@@ -3510,22 +3510,22 @@
         </is>
       </c>
       <c r="N43" s="1" t="n">
-        <v>99156</v>
+        <v>29664618</v>
       </c>
       <c r="O43" s="1" t="n">
-        <v>100093</v>
+        <v>27681534</v>
       </c>
       <c r="P43" s="1" t="n">
-        <v>105647</v>
+        <v>26327996</v>
       </c>
       <c r="Q43" s="1" t="n">
-        <v>99156</v>
+        <v>29664618</v>
       </c>
       <c r="R43" s="1" t="n">
-        <v>100093</v>
+        <v>27681534</v>
       </c>
       <c r="S43" s="1" t="n">
-        <v>105647</v>
+        <v>26327996</v>
       </c>
     </row>
     <row r="44">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>영업권 이외의 무형자산</t>
+          <t>사용권자산</t>
         </is>
       </c>
       <c r="D44" s="1" t="n"/>
@@ -3561,13 +3561,13 @@
         </is>
       </c>
       <c r="H44" s="1" t="n">
-        <v>1033984</v>
+        <v>1037643</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>956664</v>
+        <v>1117293</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>1044077</v>
+        <v>940826</v>
       </c>
       <c r="K44" s="7" t="inlineStr">
         <is>
@@ -3585,22 +3585,22 @@
         </is>
       </c>
       <c r="N44" s="1" t="n">
-        <v>1033984</v>
+        <v>1037643</v>
       </c>
       <c r="O44" s="1" t="n">
-        <v>956664</v>
+        <v>1117293</v>
       </c>
       <c r="P44" s="1" t="n">
-        <v>1044077</v>
+        <v>940826</v>
       </c>
       <c r="Q44" s="1" t="n">
-        <v>1033984</v>
+        <v>1037643</v>
       </c>
       <c r="R44" s="1" t="n">
-        <v>956664</v>
+        <v>1117293</v>
       </c>
       <c r="S44" s="1" t="n">
-        <v>1044077</v>
+        <v>940826</v>
       </c>
     </row>
     <row r="45">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>관계기업투자지분</t>
+          <t>비유동금융자산</t>
         </is>
       </c>
       <c r="D45" s="1" t="n"/>
@@ -3635,47 +3635,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H45" s="1" t="n">
-        <v>6176889</v>
-      </c>
-      <c r="I45" s="1" t="n">
-        <v>5844464</v>
-      </c>
-      <c r="J45" s="1" t="n">
-        <v>5232373</v>
-      </c>
-      <c r="K45" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L45" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M45" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K45" s="1" t="n">
+        <v>3546214</v>
+      </c>
+      <c r="L45" s="1" t="n">
+        <v>3336835</v>
+      </c>
+      <c r="M45" s="1" t="n">
+        <v>2909810</v>
       </c>
       <c r="N45" s="1" t="n">
-        <v>6176889</v>
+        <v>3546214</v>
       </c>
       <c r="O45" s="1" t="n">
-        <v>5844464</v>
+        <v>3336835</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>5232373</v>
+        <v>2909810</v>
       </c>
       <c r="Q45" s="1" t="n">
-        <v>6176889</v>
+        <v>3546214</v>
       </c>
       <c r="R45" s="1" t="n">
-        <v>5844464</v>
+        <v>3336835</v>
       </c>
       <c r="S45" s="1" t="n">
-        <v>5232373</v>
+        <v>2909810</v>
       </c>
     </row>
     <row r="46">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>공동기업투자지분</t>
+          <t>장기매출채권및기타채권</t>
         </is>
       </c>
       <c r="D46" s="1" t="n"/>
@@ -3710,47 +3710,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H46" s="1" t="n">
-        <v>3485699</v>
-      </c>
-      <c r="I46" s="1" t="n">
-        <v>3147584</v>
-      </c>
-      <c r="J46" s="1" t="n">
-        <v>2239011</v>
-      </c>
-      <c r="K46" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L46" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M46" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K46" s="1" t="n">
+        <v>2193587</v>
+      </c>
+      <c r="L46" s="1" t="n">
+        <v>2153080</v>
+      </c>
+      <c r="M46" s="1" t="n">
+        <v>1906861</v>
       </c>
       <c r="N46" s="1" t="n">
-        <v>3485699</v>
+        <v>2193587</v>
       </c>
       <c r="O46" s="1" t="n">
-        <v>3147584</v>
+        <v>2153080</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>2239011</v>
+        <v>1906861</v>
       </c>
       <c r="Q46" s="1" t="n">
-        <v>3485699</v>
+        <v>2193587</v>
       </c>
       <c r="R46" s="1" t="n">
-        <v>3147584</v>
+        <v>2153080</v>
       </c>
       <c r="S46" s="1" t="n">
-        <v>2239011</v>
+        <v>1906861</v>
       </c>
     </row>
     <row r="47">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>비유동비금융자산</t>
+          <t>영업권</t>
         </is>
       </c>
       <c r="D47" s="1" t="n"/>
@@ -3785,47 +3785,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H47" s="1" t="n">
-        <v>350170</v>
-      </c>
-      <c r="I47" s="1" t="n">
-        <v>309134</v>
-      </c>
-      <c r="J47" s="1" t="n">
-        <v>364818</v>
-      </c>
-      <c r="K47" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L47" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M47" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K47" s="1" t="n">
+        <v>99156</v>
+      </c>
+      <c r="L47" s="1" t="n">
+        <v>100093</v>
+      </c>
+      <c r="M47" s="1" t="n">
+        <v>105647</v>
       </c>
       <c r="N47" s="1" t="n">
-        <v>350170</v>
+        <v>99156</v>
       </c>
       <c r="O47" s="1" t="n">
-        <v>309134</v>
+        <v>100093</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>364818</v>
+        <v>105647</v>
       </c>
       <c r="Q47" s="1" t="n">
-        <v>350170</v>
+        <v>99156</v>
       </c>
       <c r="R47" s="1" t="n">
-        <v>309134</v>
+        <v>100093</v>
       </c>
       <c r="S47" s="1" t="n">
-        <v>364818</v>
+        <v>105647</v>
       </c>
     </row>
     <row r="48">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익-공정가치 측정 비유동금융자산</t>
+          <t>영업권 이외의 무형자산</t>
         </is>
       </c>
       <c r="D48" s="1" t="n"/>
@@ -3876,31 +3876,31 @@
         </is>
       </c>
       <c r="K48" s="1" t="n">
-        <v>7481297</v>
+        <v>1033984</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>11397012</v>
+        <v>956664</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>13965839</v>
+        <v>1044077</v>
       </c>
       <c r="N48" s="1" t="n">
-        <v>7481297</v>
+        <v>1033984</v>
       </c>
       <c r="O48" s="1" t="n">
-        <v>11397012</v>
+        <v>956664</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>13965839</v>
+        <v>1044077</v>
       </c>
       <c r="Q48" s="1" t="n">
-        <v>7481297</v>
+        <v>1033984</v>
       </c>
       <c r="R48" s="1" t="n">
-        <v>11397012</v>
+        <v>956664</v>
       </c>
       <c r="S48" s="1" t="n">
-        <v>13965839</v>
+        <v>1044077</v>
       </c>
     </row>
     <row r="49">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>당기손익-공정가치금융자산</t>
+          <t>관계기업투자지분</t>
         </is>
       </c>
       <c r="D49" s="1" t="n"/>
@@ -3951,31 +3951,31 @@
         </is>
       </c>
       <c r="K49" s="1" t="n">
-        <v>1431394</v>
+        <v>6176889</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>1405468</v>
+        <v>5844464</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>1525344</v>
+        <v>5232373</v>
       </c>
       <c r="N49" s="1" t="n">
-        <v>1431394</v>
+        <v>6176889</v>
       </c>
       <c r="O49" s="1" t="n">
-        <v>1405468</v>
+        <v>5844464</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>1525344</v>
+        <v>5232373</v>
       </c>
       <c r="Q49" s="1" t="n">
-        <v>1431394</v>
+        <v>6176889</v>
       </c>
       <c r="R49" s="1" t="n">
-        <v>1405468</v>
+        <v>5844464</v>
       </c>
       <c r="S49" s="1" t="n">
-        <v>1525344</v>
+        <v>5232373</v>
       </c>
     </row>
     <row r="50">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>관계종속기업투자자산-지분법</t>
+          <t>공동기업투자지분</t>
         </is>
       </c>
       <c r="D50" s="1" t="n"/>
@@ -4026,31 +4026,31 @@
         </is>
       </c>
       <c r="K50" s="1" t="n">
-        <v>11767444</v>
+        <v>3485699</v>
       </c>
       <c r="L50" s="1" t="n">
-        <v>10893869</v>
+        <v>3147584</v>
       </c>
       <c r="M50" s="1" t="n">
-        <v>8932251</v>
+        <v>2239011</v>
       </c>
       <c r="N50" s="1" t="n">
-        <v>11767444</v>
+        <v>3485699</v>
       </c>
       <c r="O50" s="1" t="n">
-        <v>10893869</v>
+        <v>3147584</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>8932251</v>
+        <v>2239011</v>
       </c>
       <c r="Q50" s="1" t="n">
-        <v>11767444</v>
+        <v>3485699</v>
       </c>
       <c r="R50" s="1" t="n">
-        <v>10893869</v>
+        <v>3147584</v>
       </c>
       <c r="S50" s="1" t="n">
-        <v>8932251</v>
+        <v>2239011</v>
       </c>
     </row>
     <row r="51">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>기타비유동자산</t>
+          <t>비유동비금융자산</t>
         </is>
       </c>
       <c r="D51" s="1" t="n"/>
@@ -4101,31 +4101,31 @@
         </is>
       </c>
       <c r="K51" s="1" t="n">
-        <v>14174148</v>
+        <v>350170</v>
       </c>
       <c r="L51" s="1" t="n">
-        <v>7041145</v>
+        <v>309134</v>
       </c>
       <c r="M51" s="1" t="n">
-        <v>6798952</v>
+        <v>364818</v>
       </c>
       <c r="N51" s="1" t="n">
-        <v>14174148</v>
+        <v>350170</v>
       </c>
       <c r="O51" s="1" t="n">
-        <v>7041145</v>
+        <v>309134</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>6798952</v>
+        <v>364818</v>
       </c>
       <c r="Q51" s="1" t="n">
-        <v>14174148</v>
+        <v>350170</v>
       </c>
       <c r="R51" s="1" t="n">
-        <v>7041145</v>
+        <v>309134</v>
       </c>
       <c r="S51" s="1" t="n">
-        <v>6798952</v>
+        <v>364818</v>
       </c>
     </row>
     <row r="52">
@@ -4142,31 +4142,31 @@
       <c r="C52" s="1" t="n"/>
       <c r="D52" s="1" t="n"/>
       <c r="E52" s="1" t="n">
+        <v>455905980</v>
+      </c>
+      <c r="F52" s="1" t="n">
+        <v>448424507</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>426621158</v>
+      </c>
+      <c r="H52" s="1" t="n">
         <v>282463355</v>
       </c>
-      <c r="F52" s="1" t="n">
+      <c r="I52" s="1" t="n">
         <v>255742462</v>
       </c>
-      <c r="G52" s="1" t="n">
+      <c r="J52" s="1" t="n">
         <v>233946415</v>
       </c>
-      <c r="H52" s="1" t="n">
+      <c r="K52" s="1" t="n">
         <v>239714965</v>
       </c>
-      <c r="I52" s="1" t="n">
+      <c r="L52" s="1" t="n">
         <v>234804994</v>
       </c>
-      <c r="J52" s="1" t="n">
+      <c r="M52" s="1" t="n">
         <v>211123727</v>
-      </c>
-      <c r="K52" s="1" t="n">
-        <v>455905980</v>
-      </c>
-      <c r="L52" s="1" t="n">
-        <v>448424507</v>
-      </c>
-      <c r="M52" s="1" t="n">
-        <v>426621158</v>
       </c>
       <c r="N52" s="1" t="n">
         <v>978084300</v>
@@ -4286,31 +4286,31 @@
       <c r="C54" s="1" t="n"/>
       <c r="D54" s="1" t="n"/>
       <c r="E54" s="1" t="n">
+        <v>75719452</v>
+      </c>
+      <c r="F54" s="1" t="n">
+        <v>78344852</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>88117133</v>
+      </c>
+      <c r="H54" s="1" t="n">
         <v>73362103</v>
       </c>
-      <c r="F54" s="1" t="n">
+      <c r="I54" s="1" t="n">
         <v>74236472</v>
       </c>
-      <c r="G54" s="1" t="n">
+      <c r="J54" s="1" t="n">
         <v>64236787</v>
       </c>
-      <c r="H54" s="1" t="n">
+      <c r="K54" s="1" t="n">
         <v>61248421</v>
       </c>
-      <c r="I54" s="1" t="n">
+      <c r="L54" s="1" t="n">
         <v>44518577</v>
       </c>
-      <c r="J54" s="1" t="n">
+      <c r="M54" s="1" t="n">
         <v>31732220</v>
-      </c>
-      <c r="K54" s="1" t="n">
-        <v>75719452</v>
-      </c>
-      <c r="L54" s="1" t="n">
-        <v>78344852</v>
-      </c>
-      <c r="M54" s="1" t="n">
-        <v>88117133</v>
       </c>
       <c r="N54" s="1" t="n">
         <v>210329976</v>
@@ -4349,37 +4349,37 @@
       </c>
       <c r="D55" s="1" t="n"/>
       <c r="E55" s="1" t="n">
+        <v>11319824</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>10644686</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>13453351</v>
+      </c>
+      <c r="H55" s="1" t="n">
         <v>10952046</v>
       </c>
-      <c r="F55" s="1" t="n">
+      <c r="I55" s="1" t="n">
         <v>10797065</v>
       </c>
-      <c r="G55" s="1" t="n">
+      <c r="J55" s="1" t="n">
         <v>9155255</v>
       </c>
-      <c r="H55" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I55" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J55" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K55" s="1" t="n">
-        <v>11319824</v>
-      </c>
-      <c r="L55" s="1" t="n">
-        <v>10644686</v>
-      </c>
-      <c r="M55" s="1" t="n">
-        <v>13453351</v>
+      <c r="K55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N55" s="1" t="n">
         <v>22271870</v>
@@ -4413,60 +4413,60 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>미지급금</t>
+          <t>단기차입금</t>
         </is>
       </c>
       <c r="D56" s="1" t="n"/>
       <c r="E56" s="1" t="n">
-        <v>8642808</v>
+        <v>7114601</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>8277891</v>
+        <v>5147315</v>
       </c>
       <c r="G56" s="1" t="n">
-        <v>6335645</v>
-      </c>
-      <c r="H56" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I56" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J56" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K56" s="1" t="n">
-        <v>15324119</v>
-      </c>
-      <c r="L56" s="1" t="n">
-        <v>17592366</v>
-      </c>
-      <c r="M56" s="1" t="n">
-        <v>15584866</v>
+        <v>13687793</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>9035548</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>11366480</v>
+      </c>
+      <c r="J56" s="1" t="n">
+        <v>13087836</v>
+      </c>
+      <c r="K56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N56" s="1" t="n">
-        <v>23966927</v>
+        <v>16150149</v>
       </c>
       <c r="O56" s="1" t="n">
-        <v>25870257</v>
+        <v>16513795</v>
       </c>
       <c r="P56" s="1" t="n">
-        <v>21920511</v>
+        <v>26775629</v>
       </c>
       <c r="Q56" s="1" t="n">
-        <v>11983463.5</v>
+        <v>8075074.5</v>
       </c>
       <c r="R56" s="1" t="n">
-        <v>12935128.5</v>
+        <v>8256897.5</v>
       </c>
       <c r="S56" s="1" t="n">
-        <v>10960255.5</v>
+        <v>13387814.5</v>
       </c>
     </row>
     <row r="57">
@@ -4482,60 +4482,60 @@
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>단기차입금</t>
+          <t>미지급금</t>
         </is>
       </c>
       <c r="D57" s="1" t="n"/>
       <c r="E57" s="1" t="n">
-        <v>9035548</v>
+        <v>15324119</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>11366480</v>
+        <v>17592366</v>
       </c>
       <c r="G57" s="1" t="n">
-        <v>13087836</v>
-      </c>
-      <c r="H57" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I57" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J57" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K57" s="1" t="n">
-        <v>7114601</v>
-      </c>
-      <c r="L57" s="1" t="n">
-        <v>5147315</v>
-      </c>
-      <c r="M57" s="1" t="n">
-        <v>13687793</v>
+        <v>15584866</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>8642808</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>8277891</v>
+      </c>
+      <c r="J57" s="1" t="n">
+        <v>6335645</v>
+      </c>
+      <c r="K57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N57" s="1" t="n">
-        <v>16150149</v>
+        <v>23966927</v>
       </c>
       <c r="O57" s="1" t="n">
-        <v>16513795</v>
+        <v>25870257</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>26775629</v>
+        <v>21920511</v>
       </c>
       <c r="Q57" s="1" t="n">
-        <v>8075074.5</v>
+        <v>11983463.5</v>
       </c>
       <c r="R57" s="1" t="n">
-        <v>8256897.5</v>
+        <v>12935128.5</v>
       </c>
       <c r="S57" s="1" t="n">
-        <v>13387814.5</v>
+        <v>10960255.5</v>
       </c>
     </row>
     <row r="58">
@@ -4551,18 +4551,18 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>유동성장기부채</t>
+          <t>선수금</t>
         </is>
       </c>
       <c r="D58" s="1" t="n"/>
       <c r="E58" s="1" t="n">
-        <v>25109158</v>
+        <v>1492602</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>25574131</v>
+        <v>1314934</v>
       </c>
       <c r="G58" s="1" t="n">
-        <v>20578902</v>
+        <v>1224812</v>
       </c>
       <c r="H58" s="7" t="inlineStr">
         <is>
@@ -4579,32 +4579,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K58" s="1" t="n">
-        <v>1308875</v>
-      </c>
-      <c r="L58" s="1" t="n">
-        <v>1089162</v>
-      </c>
-      <c r="M58" s="1" t="n">
-        <v>1329968</v>
+      <c r="K58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N58" s="1" t="n">
-        <v>26418033</v>
+        <v>1492602</v>
       </c>
       <c r="O58" s="1" t="n">
-        <v>26663293</v>
+        <v>1314934</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>21908870</v>
+        <v>1224812</v>
       </c>
       <c r="Q58" s="1" t="n">
-        <v>13209016.5</v>
+        <v>1492602</v>
       </c>
       <c r="R58" s="1" t="n">
-        <v>13331646.5</v>
+        <v>1314934</v>
       </c>
       <c r="S58" s="1" t="n">
-        <v>10954435</v>
+        <v>1224812</v>
       </c>
     </row>
     <row r="59">
@@ -4620,54 +4626,66 @@
       </c>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>당기법인세부채</t>
+          <t>예수금</t>
         </is>
       </c>
       <c r="D59" s="1" t="n"/>
       <c r="E59" s="1" t="n">
-        <v>1324720</v>
+        <v>892441</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>1008506</v>
+        <v>1298244</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>751929</v>
-      </c>
-      <c r="H59" s="1" t="n">
-        <v>482934</v>
-      </c>
-      <c r="I59" s="1" t="n">
-        <v>429604</v>
-      </c>
-      <c r="J59" s="1" t="n">
-        <v>229460</v>
-      </c>
-      <c r="K59" s="1" t="n">
-        <v>3358715</v>
-      </c>
-      <c r="L59" s="1" t="n">
-        <v>4250397</v>
-      </c>
-      <c r="M59" s="1" t="n">
-        <v>6749149</v>
+        <v>1294052</v>
+      </c>
+      <c r="H59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N59" s="1" t="n">
-        <v>5166369</v>
+        <v>892441</v>
       </c>
       <c r="O59" s="1" t="n">
-        <v>5688507</v>
+        <v>1298244</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>7730538</v>
+        <v>1294052</v>
       </c>
       <c r="Q59" s="1" t="n">
-        <v>1722123</v>
+        <v>892441</v>
       </c>
       <c r="R59" s="1" t="n">
-        <v>1896169</v>
+        <v>1298244</v>
       </c>
       <c r="S59" s="1" t="n">
-        <v>2576846</v>
+        <v>1294052</v>
       </c>
     </row>
     <row r="60">
@@ -4683,18 +4701,18 @@
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>충당부채</t>
+          <t>미지급비용</t>
         </is>
       </c>
       <c r="D60" s="1" t="n"/>
       <c r="E60" s="1" t="n">
-        <v>7316877</v>
+        <v>26013273</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>8102596</v>
+        <v>29211487</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>6664647</v>
+        <v>27928031</v>
       </c>
       <c r="H60" s="7" t="inlineStr">
         <is>
@@ -4711,32 +4729,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K60" s="1" t="n">
-        <v>6524876</v>
-      </c>
-      <c r="L60" s="1" t="n">
-        <v>5844907</v>
-      </c>
-      <c r="M60" s="1" t="n">
-        <v>5372872</v>
+      <c r="K60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N60" s="1" t="n">
-        <v>13841753</v>
+        <v>26013273</v>
       </c>
       <c r="O60" s="1" t="n">
-        <v>13947503</v>
+        <v>29211487</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>12037519</v>
+        <v>27928031</v>
       </c>
       <c r="Q60" s="1" t="n">
-        <v>6920876.5</v>
+        <v>26013273</v>
       </c>
       <c r="R60" s="1" t="n">
-        <v>6973751.5</v>
+        <v>29211487</v>
       </c>
       <c r="S60" s="1" t="n">
-        <v>6018759.5</v>
+        <v>27928031</v>
       </c>
     </row>
     <row r="61">
@@ -4752,66 +4776,54 @@
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>기타금융부채</t>
+          <t>당기법인세부채</t>
         </is>
       </c>
       <c r="D61" s="1" t="n"/>
       <c r="E61" s="1" t="n">
-        <v>56712</v>
+        <v>3358715</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>99144</v>
+        <v>4250397</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>55187</v>
-      </c>
-      <c r="H61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>6749149</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>1324720</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>1008506</v>
+      </c>
+      <c r="J61" s="1" t="n">
+        <v>751929</v>
+      </c>
+      <c r="K61" s="1" t="n">
+        <v>482934</v>
+      </c>
+      <c r="L61" s="1" t="n">
+        <v>429604</v>
+      </c>
+      <c r="M61" s="1" t="n">
+        <v>229460</v>
       </c>
       <c r="N61" s="1" t="n">
-        <v>56712</v>
+        <v>5166369</v>
       </c>
       <c r="O61" s="1" t="n">
-        <v>99144</v>
+        <v>5688507</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>55187</v>
+        <v>7730538</v>
       </c>
       <c r="Q61" s="1" t="n">
-        <v>56712</v>
+        <v>1722123</v>
       </c>
       <c r="R61" s="1" t="n">
-        <v>99144</v>
+        <v>1896169</v>
       </c>
       <c r="S61" s="1" t="n">
-        <v>55187</v>
+        <v>2576846</v>
       </c>
     </row>
     <row r="62">
@@ -4827,33 +4839,27 @@
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>기타부채</t>
+          <t>유동성장기부채</t>
         </is>
       </c>
       <c r="D62" s="1" t="n"/>
       <c r="E62" s="1" t="n">
-        <v>10577033</v>
+        <v>1308875</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>8600241</v>
+        <v>1089162</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>7440120</v>
-      </c>
-      <c r="H62" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I62" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J62" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1329968</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>25109158</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>25574131</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <v>20578902</v>
       </c>
       <c r="K62" s="7" t="inlineStr">
         <is>
@@ -4871,22 +4877,22 @@
         </is>
       </c>
       <c r="N62" s="1" t="n">
-        <v>10577033</v>
+        <v>26418033</v>
       </c>
       <c r="O62" s="1" t="n">
-        <v>8600241</v>
+        <v>26663293</v>
       </c>
       <c r="P62" s="1" t="n">
-        <v>7440120</v>
+        <v>21908870</v>
       </c>
       <c r="Q62" s="1" t="n">
-        <v>10577033</v>
+        <v>13209016.5</v>
       </c>
       <c r="R62" s="1" t="n">
-        <v>8600241</v>
+        <v>13331646.5</v>
       </c>
       <c r="S62" s="1" t="n">
-        <v>7440120</v>
+        <v>10954435</v>
       </c>
     </row>
     <row r="63">
@@ -4902,33 +4908,27 @@
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>리스부채</t>
+          <t>충당부채</t>
         </is>
       </c>
       <c r="D63" s="1" t="n"/>
       <c r="E63" s="1" t="n">
-        <v>224350</v>
+        <v>6524876</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>405053</v>
+        <v>5844907</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>167266</v>
-      </c>
-      <c r="H63" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I63" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J63" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>5372872</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>7316877</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>8102596</v>
+      </c>
+      <c r="J63" s="1" t="n">
+        <v>6664647</v>
       </c>
       <c r="K63" s="7" t="inlineStr">
         <is>
@@ -4946,22 +4946,22 @@
         </is>
       </c>
       <c r="N63" s="1" t="n">
-        <v>224350</v>
+        <v>13841753</v>
       </c>
       <c r="O63" s="1" t="n">
-        <v>405053</v>
+        <v>13947503</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>167266</v>
+        <v>12037519</v>
       </c>
       <c r="Q63" s="1" t="n">
-        <v>224350</v>
+        <v>6920876.5</v>
       </c>
       <c r="R63" s="1" t="n">
-        <v>405053</v>
+        <v>6973751.5</v>
       </c>
       <c r="S63" s="1" t="n">
-        <v>167266</v>
+        <v>6018759.5</v>
       </c>
     </row>
     <row r="64">
@@ -4977,20 +4977,18 @@
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>매각예정비유동부채</t>
+          <t>기타 유동부채</t>
         </is>
       </c>
       <c r="D64" s="1" t="n"/>
       <c r="E64" s="1" t="n">
-        <v>122851</v>
+        <v>2308472</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>5365</v>
-      </c>
-      <c r="G64" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1951354</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>1492239</v>
       </c>
       <c r="H64" s="7" t="inlineStr">
         <is>
@@ -5023,26 +5021,22 @@
         </is>
       </c>
       <c r="N64" s="1" t="n">
-        <v>122851</v>
+        <v>2308472</v>
       </c>
       <c r="O64" s="1" t="n">
-        <v>5365</v>
-      </c>
-      <c r="P64" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1951354</v>
+      </c>
+      <c r="P64" s="1" t="n">
+        <v>1492239</v>
       </c>
       <c r="Q64" s="1" t="n">
-        <v>122851</v>
+        <v>2308472</v>
       </c>
       <c r="R64" s="1" t="n">
-        <v>5365</v>
-      </c>
-      <c r="S64" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1951354</v>
+      </c>
+      <c r="S64" s="1" t="n">
+        <v>1492239</v>
       </c>
     </row>
     <row r="65">
@@ -5058,33 +5052,33 @@
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>매입채무및기타채무</t>
+          <t>매각예정분류부채</t>
         </is>
       </c>
       <c r="D65" s="1" t="n"/>
-      <c r="E65" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F65" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G65" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H65" s="1" t="n">
-        <v>9089973</v>
-      </c>
-      <c r="I65" s="1" t="n">
-        <v>11983549</v>
-      </c>
-      <c r="J65" s="1" t="n">
-        <v>8153426</v>
+      <c r="E65" s="1" t="n">
+        <v>61654</v>
+      </c>
+      <c r="F65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K65" s="7" t="inlineStr">
         <is>
@@ -5102,22 +5096,22 @@
         </is>
       </c>
       <c r="N65" s="1" t="n">
-        <v>9089973</v>
+        <v>61654</v>
       </c>
       <c r="O65" s="1" t="n">
-        <v>11983549</v>
+        <v>0</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>8153426</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="1" t="n">
-        <v>9089973</v>
+        <v>61654</v>
       </c>
       <c r="R65" s="1" t="n">
-        <v>11983549</v>
+        <v>0</v>
       </c>
       <c r="S65" s="1" t="n">
-        <v>8153426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -5133,7 +5127,7 @@
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>유동금융부채</t>
+          <t>기타금융부채</t>
         </is>
       </c>
       <c r="D66" s="1" t="n"/>
@@ -5153,13 +5147,13 @@
         </is>
       </c>
       <c r="H66" s="1" t="n">
-        <v>41139726</v>
+        <v>56712</v>
       </c>
       <c r="I66" s="1" t="n">
-        <v>22703996</v>
+        <v>99144</v>
       </c>
       <c r="J66" s="1" t="n">
-        <v>14037125</v>
+        <v>55187</v>
       </c>
       <c r="K66" s="7" t="inlineStr">
         <is>
@@ -5177,22 +5171,22 @@
         </is>
       </c>
       <c r="N66" s="1" t="n">
-        <v>41139726</v>
+        <v>56712</v>
       </c>
       <c r="O66" s="1" t="n">
-        <v>22703996</v>
+        <v>99144</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>14037125</v>
+        <v>55187</v>
       </c>
       <c r="Q66" s="1" t="n">
-        <v>41139726</v>
+        <v>56712</v>
       </c>
       <c r="R66" s="1" t="n">
-        <v>22703996</v>
+        <v>99144</v>
       </c>
       <c r="S66" s="1" t="n">
-        <v>14037125</v>
+        <v>55187</v>
       </c>
     </row>
     <row r="67">
@@ -5208,7 +5202,7 @@
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>유동비금융부채</t>
+          <t>기타부채</t>
         </is>
       </c>
       <c r="D67" s="1" t="n"/>
@@ -5228,13 +5222,13 @@
         </is>
       </c>
       <c r="H67" s="1" t="n">
-        <v>7881663</v>
+        <v>10577033</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>6974377</v>
+        <v>8600241</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>6466333</v>
+        <v>7440120</v>
       </c>
       <c r="K67" s="7" t="inlineStr">
         <is>
@@ -5252,22 +5246,22 @@
         </is>
       </c>
       <c r="N67" s="1" t="n">
-        <v>7881663</v>
+        <v>10577033</v>
       </c>
       <c r="O67" s="1" t="n">
-        <v>6974377</v>
+        <v>8600241</v>
       </c>
       <c r="P67" s="1" t="n">
-        <v>6466333</v>
+        <v>7440120</v>
       </c>
       <c r="Q67" s="1" t="n">
-        <v>7881663</v>
+        <v>10577033</v>
       </c>
       <c r="R67" s="1" t="n">
-        <v>6974377</v>
+        <v>8600241</v>
       </c>
       <c r="S67" s="1" t="n">
-        <v>6466333</v>
+        <v>7440120</v>
       </c>
     </row>
     <row r="68">
@@ -5283,7 +5277,7 @@
       </c>
       <c r="C68" s="1" t="inlineStr">
         <is>
-          <t>유동충당부채</t>
+          <t>리스부채</t>
         </is>
       </c>
       <c r="D68" s="1" t="n"/>
@@ -5303,13 +5297,13 @@
         </is>
       </c>
       <c r="H68" s="1" t="n">
-        <v>2654125</v>
+        <v>224350</v>
       </c>
       <c r="I68" s="1" t="n">
-        <v>2427051</v>
+        <v>405053</v>
       </c>
       <c r="J68" s="1" t="n">
-        <v>2845876</v>
+        <v>167266</v>
       </c>
       <c r="K68" s="7" t="inlineStr">
         <is>
@@ -5327,22 +5321,22 @@
         </is>
       </c>
       <c r="N68" s="1" t="n">
-        <v>2654125</v>
+        <v>224350</v>
       </c>
       <c r="O68" s="1" t="n">
-        <v>2427051</v>
+        <v>405053</v>
       </c>
       <c r="P68" s="1" t="n">
-        <v>2845876</v>
+        <v>167266</v>
       </c>
       <c r="Q68" s="1" t="n">
-        <v>2654125</v>
+        <v>224350</v>
       </c>
       <c r="R68" s="1" t="n">
-        <v>2427051</v>
+        <v>405053</v>
       </c>
       <c r="S68" s="1" t="n">
-        <v>2845876</v>
+        <v>167266</v>
       </c>
     </row>
     <row r="69">
@@ -5358,7 +5352,7 @@
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>선수금</t>
+          <t>매각예정비유동부채</t>
         </is>
       </c>
       <c r="D69" s="1" t="n"/>
@@ -5377,47 +5371,53 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H69" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I69" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>122851</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>5365</v>
       </c>
       <c r="J69" s="7" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K69" s="1" t="n">
-        <v>1492602</v>
-      </c>
-      <c r="L69" s="1" t="n">
-        <v>1314934</v>
-      </c>
-      <c r="M69" s="1" t="n">
-        <v>1224812</v>
+      <c r="K69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N69" s="1" t="n">
-        <v>1492602</v>
+        <v>122851</v>
       </c>
       <c r="O69" s="1" t="n">
-        <v>1314934</v>
-      </c>
-      <c r="P69" s="1" t="n">
-        <v>1224812</v>
+        <v>5365</v>
+      </c>
+      <c r="P69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Q69" s="1" t="n">
-        <v>1492602</v>
+        <v>122851</v>
       </c>
       <c r="R69" s="1" t="n">
-        <v>1314934</v>
-      </c>
-      <c r="S69" s="1" t="n">
-        <v>1224812</v>
+        <v>5365</v>
+      </c>
+      <c r="S69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>예수금</t>
+          <t>매입채무및기타채무</t>
         </is>
       </c>
       <c r="D70" s="1" t="n"/>
@@ -5468,31 +5468,31 @@
         </is>
       </c>
       <c r="K70" s="1" t="n">
-        <v>892441</v>
+        <v>9089973</v>
       </c>
       <c r="L70" s="1" t="n">
-        <v>1298244</v>
+        <v>11983549</v>
       </c>
       <c r="M70" s="1" t="n">
-        <v>1294052</v>
+        <v>8153426</v>
       </c>
       <c r="N70" s="1" t="n">
-        <v>892441</v>
+        <v>9089973</v>
       </c>
       <c r="O70" s="1" t="n">
-        <v>1298244</v>
+        <v>11983549</v>
       </c>
       <c r="P70" s="1" t="n">
-        <v>1294052</v>
+        <v>8153426</v>
       </c>
       <c r="Q70" s="1" t="n">
-        <v>892441</v>
+        <v>9089973</v>
       </c>
       <c r="R70" s="1" t="n">
-        <v>1298244</v>
+        <v>11983549</v>
       </c>
       <c r="S70" s="1" t="n">
-        <v>1294052</v>
+        <v>8153426</v>
       </c>
     </row>
     <row r="71">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>미지급비용</t>
+          <t>유동금융부채</t>
         </is>
       </c>
       <c r="D71" s="1" t="n"/>
@@ -5543,31 +5543,31 @@
         </is>
       </c>
       <c r="K71" s="1" t="n">
-        <v>26013273</v>
+        <v>41139726</v>
       </c>
       <c r="L71" s="1" t="n">
-        <v>29211487</v>
+        <v>22703996</v>
       </c>
       <c r="M71" s="1" t="n">
-        <v>27928031</v>
+        <v>14037125</v>
       </c>
       <c r="N71" s="1" t="n">
-        <v>26013273</v>
+        <v>41139726</v>
       </c>
       <c r="O71" s="1" t="n">
-        <v>29211487</v>
+        <v>22703996</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>27928031</v>
+        <v>14037125</v>
       </c>
       <c r="Q71" s="1" t="n">
-        <v>26013273</v>
+        <v>41139726</v>
       </c>
       <c r="R71" s="1" t="n">
-        <v>29211487</v>
+        <v>22703996</v>
       </c>
       <c r="S71" s="1" t="n">
-        <v>27928031</v>
+        <v>14037125</v>
       </c>
     </row>
     <row r="72">
@@ -5583,7 +5583,7 @@
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>기타 유동부채</t>
+          <t>유동비금융부채</t>
         </is>
       </c>
       <c r="D72" s="1" t="n"/>
@@ -5618,31 +5618,31 @@
         </is>
       </c>
       <c r="K72" s="1" t="n">
-        <v>2308472</v>
+        <v>7881663</v>
       </c>
       <c r="L72" s="1" t="n">
-        <v>1951354</v>
+        <v>6974377</v>
       </c>
       <c r="M72" s="1" t="n">
-        <v>1492239</v>
+        <v>6466333</v>
       </c>
       <c r="N72" s="1" t="n">
-        <v>2308472</v>
+        <v>7881663</v>
       </c>
       <c r="O72" s="1" t="n">
-        <v>1951354</v>
+        <v>6974377</v>
       </c>
       <c r="P72" s="1" t="n">
-        <v>1492239</v>
+        <v>6466333</v>
       </c>
       <c r="Q72" s="1" t="n">
-        <v>2308472</v>
+        <v>7881663</v>
       </c>
       <c r="R72" s="1" t="n">
-        <v>1951354</v>
+        <v>6974377</v>
       </c>
       <c r="S72" s="1" t="n">
-        <v>1492239</v>
+        <v>6466333</v>
       </c>
     </row>
     <row r="73">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>매각예정분류부채</t>
+          <t>유동충당부채</t>
         </is>
       </c>
       <c r="D73" s="1" t="n"/>
@@ -5693,31 +5693,31 @@
         </is>
       </c>
       <c r="K73" s="1" t="n">
-        <v>61654</v>
+        <v>2654125</v>
       </c>
       <c r="L73" s="1" t="n">
-        <v>0</v>
+        <v>2427051</v>
       </c>
       <c r="M73" s="1" t="n">
-        <v>0</v>
+        <v>2845876</v>
       </c>
       <c r="N73" s="1" t="n">
-        <v>61654</v>
+        <v>2654125</v>
       </c>
       <c r="O73" s="1" t="n">
-        <v>0</v>
+        <v>2427051</v>
       </c>
       <c r="P73" s="1" t="n">
-        <v>0</v>
+        <v>2845876</v>
       </c>
       <c r="Q73" s="1" t="n">
-        <v>61654</v>
+        <v>2654125</v>
       </c>
       <c r="R73" s="1" t="n">
-        <v>0</v>
+        <v>2427051</v>
       </c>
       <c r="S73" s="1" t="n">
-        <v>0</v>
+        <v>2845876</v>
       </c>
     </row>
     <row r="74">
@@ -5734,31 +5734,31 @@
       <c r="C74" s="1" t="n"/>
       <c r="D74" s="1" t="n"/>
       <c r="E74" s="1" t="n">
+        <v>16508663</v>
+      </c>
+      <c r="F74" s="1" t="n">
+        <v>15330051</v>
+      </c>
+      <c r="G74" s="1" t="n">
+        <v>33604094</v>
+      </c>
+      <c r="H74" s="1" t="n">
         <v>107291812</v>
       </c>
-      <c r="F74" s="1" t="n">
+      <c r="I74" s="1" t="n">
         <v>90609445</v>
       </c>
-      <c r="G74" s="1" t="n">
+      <c r="J74" s="1" t="n">
         <v>87093839</v>
       </c>
-      <c r="H74" s="1" t="n">
+      <c r="K74" s="1" t="n">
         <v>141201794</v>
       </c>
-      <c r="I74" s="1" t="n">
+      <c r="L74" s="1" t="n">
         <v>148286161</v>
       </c>
-      <c r="J74" s="1" t="n">
+      <c r="M74" s="1" t="n">
         <v>114064801</v>
-      </c>
-      <c r="K74" s="1" t="n">
-        <v>16508663</v>
-      </c>
-      <c r="L74" s="1" t="n">
-        <v>15330051</v>
-      </c>
-      <c r="M74" s="1" t="n">
-        <v>33604094</v>
       </c>
       <c r="N74" s="1" t="n">
         <v>265002269</v>
@@ -5792,33 +5792,27 @@
       </c>
       <c r="C75" s="1" t="inlineStr">
         <is>
-          <t>장기성미지급금</t>
+          <t>사채</t>
         </is>
       </c>
       <c r="D75" s="1" t="n"/>
       <c r="E75" s="1" t="n">
-        <v>616011</v>
+        <v>537618</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>726115</v>
+        <v>536093</v>
       </c>
       <c r="G75" s="1" t="n">
-        <v>769487</v>
-      </c>
-      <c r="H75" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I75" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J75" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>508232</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>73033493</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>62960060</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <v>63458809</v>
       </c>
       <c r="K75" s="7" t="inlineStr">
         <is>
@@ -5836,22 +5830,22 @@
         </is>
       </c>
       <c r="N75" s="1" t="n">
-        <v>616011</v>
+        <v>73571111</v>
       </c>
       <c r="O75" s="1" t="n">
-        <v>726115</v>
+        <v>63496153</v>
       </c>
       <c r="P75" s="1" t="n">
-        <v>769487</v>
+        <v>63967041</v>
       </c>
       <c r="Q75" s="1" t="n">
-        <v>616011</v>
+        <v>36785555.5</v>
       </c>
       <c r="R75" s="1" t="n">
-        <v>726115</v>
+        <v>31748076.5</v>
       </c>
       <c r="S75" s="1" t="n">
-        <v>769487</v>
+        <v>31983520.5</v>
       </c>
     </row>
     <row r="76">
@@ -5867,60 +5861,60 @@
       </c>
       <c r="C76" s="1" t="inlineStr">
         <is>
-          <t>사채</t>
+          <t>장기차입금</t>
         </is>
       </c>
       <c r="D76" s="1" t="n"/>
       <c r="E76" s="1" t="n">
-        <v>73033493</v>
+        <v>3724850</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>62960060</v>
+        <v>3560672</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>63458809</v>
-      </c>
-      <c r="H76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K76" s="1" t="n">
-        <v>537618</v>
-      </c>
-      <c r="L76" s="1" t="n">
-        <v>536093</v>
-      </c>
-      <c r="M76" s="1" t="n">
-        <v>508232</v>
+        <v>2866156</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>17569760</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>12285149</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <v>10667731</v>
+      </c>
+      <c r="K76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N76" s="1" t="n">
-        <v>73571111</v>
+        <v>21294610</v>
       </c>
       <c r="O76" s="1" t="n">
-        <v>63496153</v>
+        <v>15845821</v>
       </c>
       <c r="P76" s="1" t="n">
-        <v>63967041</v>
+        <v>13533887</v>
       </c>
       <c r="Q76" s="1" t="n">
-        <v>36785555.5</v>
+        <v>10647305</v>
       </c>
       <c r="R76" s="1" t="n">
-        <v>31748076.5</v>
+        <v>7922910.5</v>
       </c>
       <c r="S76" s="1" t="n">
-        <v>31983520.5</v>
+        <v>6766943.5</v>
       </c>
     </row>
     <row r="77">
@@ -5936,18 +5930,18 @@
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>장기차입금</t>
+          <t>장기미지급금</t>
         </is>
       </c>
       <c r="D77" s="1" t="n"/>
       <c r="E77" s="1" t="n">
-        <v>17569760</v>
+        <v>5488283</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>12285149</v>
+        <v>2753305</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>10667731</v>
+        <v>2991440</v>
       </c>
       <c r="H77" s="7" t="inlineStr">
         <is>
@@ -5964,32 +5958,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K77" s="1" t="n">
-        <v>3724850</v>
-      </c>
-      <c r="L77" s="1" t="n">
-        <v>3560672</v>
-      </c>
-      <c r="M77" s="1" t="n">
-        <v>2866156</v>
+      <c r="K77" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L77" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M77" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N77" s="1" t="n">
-        <v>21294610</v>
+        <v>5488283</v>
       </c>
       <c r="O77" s="1" t="n">
-        <v>15845821</v>
+        <v>2753305</v>
       </c>
       <c r="P77" s="1" t="n">
-        <v>13533887</v>
+        <v>2991440</v>
       </c>
       <c r="Q77" s="1" t="n">
-        <v>10647305</v>
+        <v>5488283</v>
       </c>
       <c r="R77" s="1" t="n">
-        <v>7922910.5</v>
+        <v>2753305</v>
       </c>
       <c r="S77" s="1" t="n">
-        <v>6766943.5</v>
+        <v>2991440</v>
       </c>
     </row>
     <row r="78">
@@ -6010,37 +6010,37 @@
       </c>
       <c r="D78" s="1" t="n"/>
       <c r="E78" s="1" t="n">
+        <v>456557</v>
+      </c>
+      <c r="F78" s="1" t="n">
+        <v>268370</v>
+      </c>
+      <c r="G78" s="1" t="n">
+        <v>465884</v>
+      </c>
+      <c r="H78" s="1" t="n">
         <v>77268</v>
       </c>
-      <c r="F78" s="1" t="n">
+      <c r="I78" s="1" t="n">
         <v>61861</v>
       </c>
-      <c r="G78" s="1" t="n">
+      <c r="J78" s="1" t="n">
         <v>79165</v>
       </c>
-      <c r="H78" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I78" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J78" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K78" s="1" t="n">
-        <v>456557</v>
-      </c>
-      <c r="L78" s="1" t="n">
-        <v>268370</v>
-      </c>
-      <c r="M78" s="1" t="n">
-        <v>465884</v>
+      <c r="K78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N78" s="1" t="n">
         <v>533825</v>
@@ -6074,66 +6074,54 @@
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>충당부채</t>
+          <t>이연법인세부채</t>
         </is>
       </c>
       <c r="D79" s="1" t="n"/>
       <c r="E79" s="1" t="n">
-        <v>4333841</v>
+        <v>620549</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>4327985</v>
+        <v>5111332</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>4214137</v>
-      </c>
-      <c r="H79" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I79" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J79" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K79" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L79" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M79" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>23198205</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>5438976</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>5027741</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>3689328</v>
+      </c>
+      <c r="K79" s="1" t="n">
+        <v>5163135</v>
+      </c>
+      <c r="L79" s="1" t="n">
+        <v>6457103</v>
+      </c>
+      <c r="M79" s="1" t="n">
+        <v>7100938</v>
       </c>
       <c r="N79" s="1" t="n">
-        <v>4333841</v>
+        <v>11222660</v>
       </c>
       <c r="O79" s="1" t="n">
-        <v>4327985</v>
+        <v>16596176</v>
       </c>
       <c r="P79" s="1" t="n">
-        <v>4214137</v>
+        <v>33988471</v>
       </c>
       <c r="Q79" s="1" t="n">
-        <v>4333841</v>
+        <v>3740886.666666667</v>
       </c>
       <c r="R79" s="1" t="n">
-        <v>4327985</v>
+        <v>5532058.666666667</v>
       </c>
       <c r="S79" s="1" t="n">
-        <v>4214137</v>
+        <v>11329490.33333333</v>
       </c>
     </row>
     <row r="80">
@@ -6149,18 +6137,18 @@
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>기타금융부채</t>
+          <t>장기충당부채</t>
         </is>
       </c>
       <c r="D80" s="1" t="n"/>
       <c r="E80" s="1" t="n">
-        <v>176399</v>
+        <v>2878450</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>262518</v>
+        <v>1928518</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>87258</v>
+        <v>2306994</v>
       </c>
       <c r="H80" s="7" t="inlineStr">
         <is>
@@ -6193,22 +6181,22 @@
         </is>
       </c>
       <c r="N80" s="1" t="n">
-        <v>176399</v>
+        <v>2878450</v>
       </c>
       <c r="O80" s="1" t="n">
-        <v>262518</v>
+        <v>1928518</v>
       </c>
       <c r="P80" s="1" t="n">
-        <v>87258</v>
+        <v>2306994</v>
       </c>
       <c r="Q80" s="1" t="n">
-        <v>176399</v>
+        <v>2878450</v>
       </c>
       <c r="R80" s="1" t="n">
-        <v>262518</v>
+        <v>1928518</v>
       </c>
       <c r="S80" s="1" t="n">
-        <v>87258</v>
+        <v>2306994</v>
       </c>
     </row>
     <row r="81">
@@ -6224,18 +6212,18 @@
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>기타부채</t>
+          <t>기타 비유동 부채</t>
         </is>
       </c>
       <c r="D81" s="1" t="n"/>
       <c r="E81" s="1" t="n">
-        <v>5212012</v>
+        <v>2802356</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>4252265</v>
+        <v>1171761</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>3344618</v>
+        <v>1267183</v>
       </c>
       <c r="H81" s="7" t="inlineStr">
         <is>
@@ -6268,22 +6256,22 @@
         </is>
       </c>
       <c r="N81" s="1" t="n">
-        <v>5212012</v>
+        <v>2802356</v>
       </c>
       <c r="O81" s="1" t="n">
-        <v>4252265</v>
+        <v>1171761</v>
       </c>
       <c r="P81" s="1" t="n">
-        <v>3344618</v>
+        <v>1267183</v>
       </c>
       <c r="Q81" s="1" t="n">
-        <v>5212012</v>
+        <v>2802356</v>
       </c>
       <c r="R81" s="1" t="n">
-        <v>4252265</v>
+        <v>1171761</v>
       </c>
       <c r="S81" s="1" t="n">
-        <v>3344618</v>
+        <v>1267183</v>
       </c>
     </row>
     <row r="82">
@@ -6299,54 +6287,66 @@
       </c>
       <c r="C82" s="1" t="inlineStr">
         <is>
-          <t>이연법인세부채</t>
+          <t>장기성미지급금</t>
         </is>
       </c>
       <c r="D82" s="1" t="n"/>
-      <c r="E82" s="1" t="n">
-        <v>5438976</v>
-      </c>
-      <c r="F82" s="1" t="n">
-        <v>5027741</v>
-      </c>
-      <c r="G82" s="1" t="n">
-        <v>3689328</v>
+      <c r="E82" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F82" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G82" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H82" s="1" t="n">
-        <v>5163135</v>
+        <v>616011</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>6457103</v>
+        <v>726115</v>
       </c>
       <c r="J82" s="1" t="n">
-        <v>7100938</v>
-      </c>
-      <c r="K82" s="1" t="n">
-        <v>620549</v>
-      </c>
-      <c r="L82" s="1" t="n">
-        <v>5111332</v>
-      </c>
-      <c r="M82" s="1" t="n">
-        <v>23198205</v>
+        <v>769487</v>
+      </c>
+      <c r="K82" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L82" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M82" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N82" s="1" t="n">
-        <v>11222660</v>
+        <v>616011</v>
       </c>
       <c r="O82" s="1" t="n">
-        <v>16596176</v>
+        <v>726115</v>
       </c>
       <c r="P82" s="1" t="n">
-        <v>33988471</v>
+        <v>769487</v>
       </c>
       <c r="Q82" s="1" t="n">
-        <v>3740886.666666667</v>
+        <v>616011</v>
       </c>
       <c r="R82" s="1" t="n">
-        <v>5532058.666666667</v>
+        <v>726115</v>
       </c>
       <c r="S82" s="1" t="n">
-        <v>11329490.33333333</v>
+        <v>769487</v>
       </c>
     </row>
     <row r="83">
@@ -6362,33 +6362,33 @@
       </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>리스부채</t>
+          <t>충당부채</t>
         </is>
       </c>
       <c r="D83" s="1" t="n"/>
-      <c r="E83" s="1" t="n">
-        <v>834052</v>
-      </c>
-      <c r="F83" s="1" t="n">
-        <v>705751</v>
-      </c>
-      <c r="G83" s="1" t="n">
-        <v>783306</v>
-      </c>
-      <c r="H83" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I83" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J83" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E83" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F83" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G83" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H83" s="1" t="n">
+        <v>4333841</v>
+      </c>
+      <c r="I83" s="1" t="n">
+        <v>4327985</v>
+      </c>
+      <c r="J83" s="1" t="n">
+        <v>4214137</v>
       </c>
       <c r="K83" s="7" t="inlineStr">
         <is>
@@ -6406,22 +6406,22 @@
         </is>
       </c>
       <c r="N83" s="1" t="n">
-        <v>834052</v>
+        <v>4333841</v>
       </c>
       <c r="O83" s="1" t="n">
-        <v>705751</v>
+        <v>4327985</v>
       </c>
       <c r="P83" s="1" t="n">
-        <v>783306</v>
+        <v>4214137</v>
       </c>
       <c r="Q83" s="1" t="n">
-        <v>834052</v>
+        <v>4333841</v>
       </c>
       <c r="R83" s="1" t="n">
-        <v>705751</v>
+        <v>4327985</v>
       </c>
       <c r="S83" s="1" t="n">
-        <v>783306</v>
+        <v>4214137</v>
       </c>
     </row>
     <row r="84">
@@ -6437,7 +6437,7 @@
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>장기매입채무 및 기타비유동채무</t>
+          <t>기타금융부채</t>
         </is>
       </c>
       <c r="D84" s="1" t="n"/>
@@ -6457,13 +6457,13 @@
         </is>
       </c>
       <c r="H84" s="1" t="n">
-        <v>4981957</v>
+        <v>176399</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>5638914</v>
+        <v>262518</v>
       </c>
       <c r="J84" s="1" t="n">
-        <v>5996498</v>
+        <v>87258</v>
       </c>
       <c r="K84" s="7" t="inlineStr">
         <is>
@@ -6481,22 +6481,22 @@
         </is>
       </c>
       <c r="N84" s="1" t="n">
-        <v>4981957</v>
+        <v>176399</v>
       </c>
       <c r="O84" s="1" t="n">
-        <v>5638914</v>
+        <v>262518</v>
       </c>
       <c r="P84" s="1" t="n">
-        <v>5996498</v>
+        <v>87258</v>
       </c>
       <c r="Q84" s="1" t="n">
-        <v>4981957</v>
+        <v>176399</v>
       </c>
       <c r="R84" s="1" t="n">
-        <v>5638914</v>
+        <v>262518</v>
       </c>
       <c r="S84" s="1" t="n">
-        <v>5996498</v>
+        <v>87258</v>
       </c>
     </row>
     <row r="85">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="C85" s="1" t="inlineStr">
         <is>
-          <t>비유동금융부채</t>
+          <t>기타부채</t>
         </is>
       </c>
       <c r="D85" s="1" t="n"/>
@@ -6532,13 +6532,13 @@
         </is>
       </c>
       <c r="H85" s="1" t="n">
-        <v>92944338</v>
+        <v>5212012</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>98334120</v>
+        <v>4252265</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>66570419</v>
+        <v>3344618</v>
       </c>
       <c r="K85" s="7" t="inlineStr">
         <is>
@@ -6556,22 +6556,22 @@
         </is>
       </c>
       <c r="N85" s="1" t="n">
-        <v>92944338</v>
+        <v>5212012</v>
       </c>
       <c r="O85" s="1" t="n">
-        <v>98334120</v>
+        <v>4252265</v>
       </c>
       <c r="P85" s="1" t="n">
-        <v>66570419</v>
+        <v>3344618</v>
       </c>
       <c r="Q85" s="1" t="n">
-        <v>92944338</v>
+        <v>5212012</v>
       </c>
       <c r="R85" s="1" t="n">
-        <v>98334120</v>
+        <v>4252265</v>
       </c>
       <c r="S85" s="1" t="n">
-        <v>66570419</v>
+        <v>3344618</v>
       </c>
     </row>
     <row r="86">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t>비유동비금융부채</t>
+          <t>리스부채</t>
         </is>
       </c>
       <c r="D86" s="1" t="n"/>
@@ -6607,13 +6607,13 @@
         </is>
       </c>
       <c r="H86" s="1" t="n">
-        <v>11196000</v>
+        <v>834052</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>10662661</v>
+        <v>705751</v>
       </c>
       <c r="J86" s="1" t="n">
-        <v>10216364</v>
+        <v>783306</v>
       </c>
       <c r="K86" s="7" t="inlineStr">
         <is>
@@ -6631,22 +6631,22 @@
         </is>
       </c>
       <c r="N86" s="1" t="n">
-        <v>11196000</v>
+        <v>834052</v>
       </c>
       <c r="O86" s="1" t="n">
-        <v>10662661</v>
+        <v>705751</v>
       </c>
       <c r="P86" s="1" t="n">
-        <v>10216364</v>
+        <v>783306</v>
       </c>
       <c r="Q86" s="1" t="n">
-        <v>11196000</v>
+        <v>834052</v>
       </c>
       <c r="R86" s="1" t="n">
-        <v>10662661</v>
+        <v>705751</v>
       </c>
       <c r="S86" s="1" t="n">
-        <v>10216364</v>
+        <v>783306</v>
       </c>
     </row>
     <row r="87">
@@ -6662,7 +6662,7 @@
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>종업원급여채무</t>
+          <t>장기매입채무 및 기타비유동채무</t>
         </is>
       </c>
       <c r="D87" s="1" t="n"/>
@@ -6681,47 +6681,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H87" s="1" t="n">
-        <v>1035320</v>
-      </c>
-      <c r="I87" s="1" t="n">
-        <v>828721</v>
-      </c>
-      <c r="J87" s="1" t="n">
-        <v>1679158</v>
-      </c>
-      <c r="K87" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L87" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M87" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H87" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I87" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J87" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K87" s="1" t="n">
+        <v>4981957</v>
+      </c>
+      <c r="L87" s="1" t="n">
+        <v>5638914</v>
+      </c>
+      <c r="M87" s="1" t="n">
+        <v>5996498</v>
       </c>
       <c r="N87" s="1" t="n">
-        <v>1035320</v>
+        <v>4981957</v>
       </c>
       <c r="O87" s="1" t="n">
-        <v>828721</v>
+        <v>5638914</v>
       </c>
       <c r="P87" s="1" t="n">
-        <v>1679158</v>
+        <v>5996498</v>
       </c>
       <c r="Q87" s="1" t="n">
-        <v>1035320</v>
+        <v>4981957</v>
       </c>
       <c r="R87" s="1" t="n">
-        <v>828721</v>
+        <v>5638914</v>
       </c>
       <c r="S87" s="1" t="n">
-        <v>1679158</v>
+        <v>5996498</v>
       </c>
     </row>
     <row r="88">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="C88" s="1" t="inlineStr">
         <is>
-          <t>비유동충당부채</t>
+          <t>비유동금융부채</t>
         </is>
       </c>
       <c r="D88" s="1" t="n"/>
@@ -6756,47 +6756,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H88" s="1" t="n">
-        <v>25881044</v>
-      </c>
-      <c r="I88" s="1" t="n">
-        <v>26364642</v>
-      </c>
-      <c r="J88" s="1" t="n">
-        <v>22501424</v>
-      </c>
-      <c r="K88" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L88" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M88" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H88" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I88" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J88" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K88" s="1" t="n">
+        <v>92944338</v>
+      </c>
+      <c r="L88" s="1" t="n">
+        <v>98334120</v>
+      </c>
+      <c r="M88" s="1" t="n">
+        <v>66570419</v>
       </c>
       <c r="N88" s="1" t="n">
-        <v>25881044</v>
+        <v>92944338</v>
       </c>
       <c r="O88" s="1" t="n">
-        <v>26364642</v>
+        <v>98334120</v>
       </c>
       <c r="P88" s="1" t="n">
-        <v>22501424</v>
+        <v>66570419</v>
       </c>
       <c r="Q88" s="1" t="n">
-        <v>25881044</v>
+        <v>92944338</v>
       </c>
       <c r="R88" s="1" t="n">
-        <v>26364642</v>
+        <v>98334120</v>
       </c>
       <c r="S88" s="1" t="n">
-        <v>22501424</v>
+        <v>66570419</v>
       </c>
     </row>
     <row r="89">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>장기미지급금</t>
+          <t>비유동비금융부채</t>
         </is>
       </c>
       <c r="D89" s="1" t="n"/>
@@ -6847,31 +6847,31 @@
         </is>
       </c>
       <c r="K89" s="1" t="n">
-        <v>5488283</v>
+        <v>11196000</v>
       </c>
       <c r="L89" s="1" t="n">
-        <v>2753305</v>
+        <v>10662661</v>
       </c>
       <c r="M89" s="1" t="n">
-        <v>2991440</v>
+        <v>10216364</v>
       </c>
       <c r="N89" s="1" t="n">
-        <v>5488283</v>
+        <v>11196000</v>
       </c>
       <c r="O89" s="1" t="n">
-        <v>2753305</v>
+        <v>10662661</v>
       </c>
       <c r="P89" s="1" t="n">
-        <v>2991440</v>
+        <v>10216364</v>
       </c>
       <c r="Q89" s="1" t="n">
-        <v>5488283</v>
+        <v>11196000</v>
       </c>
       <c r="R89" s="1" t="n">
-        <v>2753305</v>
+        <v>10662661</v>
       </c>
       <c r="S89" s="1" t="n">
-        <v>2991440</v>
+        <v>10216364</v>
       </c>
     </row>
     <row r="90">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
-          <t>장기충당부채</t>
+          <t>종업원급여채무</t>
         </is>
       </c>
       <c r="D90" s="1" t="n"/>
@@ -6922,31 +6922,31 @@
         </is>
       </c>
       <c r="K90" s="1" t="n">
-        <v>2878450</v>
+        <v>1035320</v>
       </c>
       <c r="L90" s="1" t="n">
-        <v>1928518</v>
+        <v>828721</v>
       </c>
       <c r="M90" s="1" t="n">
-        <v>2306994</v>
+        <v>1679158</v>
       </c>
       <c r="N90" s="1" t="n">
-        <v>2878450</v>
+        <v>1035320</v>
       </c>
       <c r="O90" s="1" t="n">
-        <v>1928518</v>
+        <v>828721</v>
       </c>
       <c r="P90" s="1" t="n">
-        <v>2306994</v>
+        <v>1679158</v>
       </c>
       <c r="Q90" s="1" t="n">
-        <v>2878450</v>
+        <v>1035320</v>
       </c>
       <c r="R90" s="1" t="n">
-        <v>1928518</v>
+        <v>828721</v>
       </c>
       <c r="S90" s="1" t="n">
-        <v>2306994</v>
+        <v>1679158</v>
       </c>
     </row>
     <row r="91">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="C91" s="1" t="inlineStr">
         <is>
-          <t>기타 비유동 부채</t>
+          <t>비유동충당부채</t>
         </is>
       </c>
       <c r="D91" s="1" t="n"/>
@@ -6997,31 +6997,31 @@
         </is>
       </c>
       <c r="K91" s="1" t="n">
-        <v>2802356</v>
+        <v>25881044</v>
       </c>
       <c r="L91" s="1" t="n">
-        <v>1171761</v>
+        <v>26364642</v>
       </c>
       <c r="M91" s="1" t="n">
-        <v>1267183</v>
+        <v>22501424</v>
       </c>
       <c r="N91" s="1" t="n">
-        <v>2802356</v>
+        <v>25881044</v>
       </c>
       <c r="O91" s="1" t="n">
-        <v>1171761</v>
+        <v>26364642</v>
       </c>
       <c r="P91" s="1" t="n">
-        <v>1267183</v>
+        <v>22501424</v>
       </c>
       <c r="Q91" s="1" t="n">
-        <v>2802356</v>
+        <v>25881044</v>
       </c>
       <c r="R91" s="1" t="n">
-        <v>1171761</v>
+        <v>26364642</v>
       </c>
       <c r="S91" s="1" t="n">
-        <v>1267183</v>
+        <v>22501424</v>
       </c>
     </row>
     <row r="92">
@@ -7038,31 +7038,31 @@
       <c r="C92" s="1" t="n"/>
       <c r="D92" s="1" t="n"/>
       <c r="E92" s="1" t="n">
+        <v>92228115</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <v>93674903</v>
+      </c>
+      <c r="G92" s="1" t="n">
+        <v>121721227</v>
+      </c>
+      <c r="H92" s="1" t="n">
         <v>180653915</v>
       </c>
-      <c r="F92" s="1" t="n">
+      <c r="I92" s="1" t="n">
         <v>164845917</v>
       </c>
-      <c r="G92" s="1" t="n">
+      <c r="J92" s="1" t="n">
         <v>151330626</v>
       </c>
-      <c r="H92" s="1" t="n">
+      <c r="K92" s="1" t="n">
         <v>202450215</v>
       </c>
-      <c r="I92" s="1" t="n">
+      <c r="L92" s="1" t="n">
         <v>192804738</v>
       </c>
-      <c r="J92" s="1" t="n">
+      <c r="M92" s="1" t="n">
         <v>145797021</v>
-      </c>
-      <c r="K92" s="1" t="n">
-        <v>92228115</v>
-      </c>
-      <c r="L92" s="1" t="n">
-        <v>93674903</v>
-      </c>
-      <c r="M92" s="1" t="n">
-        <v>121721227</v>
       </c>
       <c r="N92" s="1" t="n">
         <v>475332245</v>
@@ -7176,19 +7176,19 @@
       </c>
       <c r="B94" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
+          <t>지배기업 소유주지분</t>
         </is>
       </c>
       <c r="C94" s="1" t="n"/>
       <c r="D94" s="1" t="n"/>
       <c r="E94" s="1" t="n">
-        <v>92497311</v>
+        <v>353233775</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>82349287</v>
+        <v>345186142</v>
       </c>
       <c r="G94" s="1" t="n">
-        <v>74986122</v>
+        <v>296237697</v>
       </c>
       <c r="H94" s="7" t="inlineStr">
         <is>
@@ -7221,22 +7221,22 @@
         </is>
       </c>
       <c r="N94" s="1" t="n">
-        <v>92497311</v>
+        <v>353233775</v>
       </c>
       <c r="O94" s="1" t="n">
-        <v>82349287</v>
+        <v>345186142</v>
       </c>
       <c r="P94" s="1" t="n">
-        <v>74986122</v>
+        <v>296237697</v>
       </c>
       <c r="Q94" s="1" t="n">
-        <v>92497311</v>
+        <v>353233775</v>
       </c>
       <c r="R94" s="1" t="n">
-        <v>82349287</v>
+        <v>345186142</v>
       </c>
       <c r="S94" s="1" t="n">
-        <v>74986122</v>
+        <v>296237697</v>
       </c>
     </row>
     <row r="95">
@@ -7247,7 +7247,7 @@
       </c>
       <c r="B95" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
+          <t>지배기업 소유주지분</t>
         </is>
       </c>
       <c r="C95" s="1" t="inlineStr">
@@ -7257,13 +7257,13 @@
       </c>
       <c r="D95" s="1" t="n"/>
       <c r="E95" s="1" t="n">
-        <v>1488993</v>
+        <v>897514</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>1488993</v>
+        <v>897514</v>
       </c>
       <c r="G95" s="1" t="n">
-        <v>1488993</v>
+        <v>897514</v>
       </c>
       <c r="H95" s="7" t="inlineStr">
         <is>
@@ -7296,22 +7296,22 @@
         </is>
       </c>
       <c r="N95" s="1" t="n">
-        <v>1488993</v>
+        <v>897514</v>
       </c>
       <c r="O95" s="1" t="n">
-        <v>1488993</v>
+        <v>897514</v>
       </c>
       <c r="P95" s="1" t="n">
-        <v>1488993</v>
+        <v>897514</v>
       </c>
       <c r="Q95" s="1" t="n">
-        <v>1488993</v>
+        <v>897514</v>
       </c>
       <c r="R95" s="1" t="n">
-        <v>1488993</v>
+        <v>897514</v>
       </c>
       <c r="S95" s="1" t="n">
-        <v>1488993</v>
+        <v>897514</v>
       </c>
     </row>
     <row r="96">
@@ -7322,23 +7322,27 @@
       </c>
       <c r="B96" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
+          <t>지배기업 소유주지분</t>
         </is>
       </c>
       <c r="C96" s="1" t="inlineStr">
         <is>
-          <t>자본잉여금</t>
-        </is>
-      </c>
-      <c r="D96" s="1" t="n"/>
+          <t>자본금</t>
+        </is>
+      </c>
+      <c r="D96" s="1" t="inlineStr">
+        <is>
+          <t>우선주자본금</t>
+        </is>
+      </c>
       <c r="E96" s="1" t="n">
-        <v>4378489</v>
+        <v>119467</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>4241303</v>
+        <v>119467</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>4070260</v>
+        <v>119467</v>
       </c>
       <c r="H96" s="7" t="inlineStr">
         <is>
@@ -7371,22 +7375,22 @@
         </is>
       </c>
       <c r="N96" s="1" t="n">
-        <v>4378489</v>
+        <v>119467</v>
       </c>
       <c r="O96" s="1" t="n">
-        <v>4241303</v>
+        <v>119467</v>
       </c>
       <c r="P96" s="1" t="n">
-        <v>4070260</v>
+        <v>119467</v>
       </c>
       <c r="Q96" s="1" t="n">
-        <v>4378489</v>
+        <v>119467</v>
       </c>
       <c r="R96" s="1" t="n">
-        <v>4241303</v>
+        <v>119467</v>
       </c>
       <c r="S96" s="1" t="n">
-        <v>4070260</v>
+        <v>119467</v>
       </c>
     </row>
     <row r="97">
@@ -7397,23 +7401,27 @@
       </c>
       <c r="B97" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
+          <t>지배기업 소유주지분</t>
         </is>
       </c>
       <c r="C97" s="1" t="inlineStr">
         <is>
-          <t>기타자본항목</t>
-        </is>
-      </c>
-      <c r="D97" s="1" t="n"/>
+          <t>자본금</t>
+        </is>
+      </c>
+      <c r="D97" s="1" t="inlineStr">
+        <is>
+          <t>보통주자본금</t>
+        </is>
+      </c>
       <c r="E97" s="1" t="n">
-        <v>-1197084</v>
+        <v>778047</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>-1713928</v>
+        <v>778047</v>
       </c>
       <c r="G97" s="1" t="n">
-        <v>-1968385</v>
+        <v>778047</v>
       </c>
       <c r="H97" s="7" t="inlineStr">
         <is>
@@ -7446,22 +7454,22 @@
         </is>
       </c>
       <c r="N97" s="1" t="n">
-        <v>-1197084</v>
+        <v>778047</v>
       </c>
       <c r="O97" s="1" t="n">
-        <v>-1713928</v>
+        <v>778047</v>
       </c>
       <c r="P97" s="1" t="n">
-        <v>-1968385</v>
+        <v>778047</v>
       </c>
       <c r="Q97" s="1" t="n">
-        <v>-1197084</v>
+        <v>778047</v>
       </c>
       <c r="R97" s="1" t="n">
-        <v>-1713928</v>
+        <v>778047</v>
       </c>
       <c r="S97" s="1" t="n">
-        <v>-1968385</v>
+        <v>778047</v>
       </c>
     </row>
     <row r="98">
@@ -7472,23 +7480,23 @@
       </c>
       <c r="B98" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
+          <t>지배기업 소유주지분</t>
         </is>
       </c>
       <c r="C98" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익누계액</t>
+          <t>주식발행초과금</t>
         </is>
       </c>
       <c r="D98" s="1" t="n"/>
       <c r="E98" s="1" t="n">
-        <v>-838892</v>
+        <v>4403893</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>-1620682</v>
+        <v>4403893</v>
       </c>
       <c r="G98" s="1" t="n">
-        <v>-1772601</v>
+        <v>4403893</v>
       </c>
       <c r="H98" s="7" t="inlineStr">
         <is>
@@ -7521,22 +7529,22 @@
         </is>
       </c>
       <c r="N98" s="1" t="n">
-        <v>-838892</v>
+        <v>4403893</v>
       </c>
       <c r="O98" s="1" t="n">
-        <v>-1620682</v>
+        <v>4403893</v>
       </c>
       <c r="P98" s="1" t="n">
-        <v>-1772601</v>
+        <v>4403893</v>
       </c>
       <c r="Q98" s="1" t="n">
-        <v>-838892</v>
+        <v>4403893</v>
       </c>
       <c r="R98" s="1" t="n">
-        <v>-1620682</v>
+        <v>4403893</v>
       </c>
       <c r="S98" s="1" t="n">
-        <v>-1772601</v>
+        <v>4403893</v>
       </c>
     </row>
     <row r="99">
@@ -7547,7 +7555,7 @@
       </c>
       <c r="B99" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
+          <t>지배기업 소유주지분</t>
         </is>
       </c>
       <c r="C99" s="1" t="inlineStr">
@@ -7557,13 +7565,13 @@
       </c>
       <c r="D99" s="1" t="n"/>
       <c r="E99" s="1" t="n">
-        <v>88665805</v>
+        <v>346652238</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>79953601</v>
+        <v>337946407</v>
       </c>
       <c r="G99" s="1" t="n">
-        <v>73167855</v>
+        <v>293064763</v>
       </c>
       <c r="H99" s="7" t="inlineStr">
         <is>
@@ -7596,22 +7604,22 @@
         </is>
       </c>
       <c r="N99" s="1" t="n">
-        <v>88665805</v>
+        <v>346652238</v>
       </c>
       <c r="O99" s="1" t="n">
-        <v>79953601</v>
+        <v>337946407</v>
       </c>
       <c r="P99" s="1" t="n">
-        <v>73167855</v>
+        <v>293064763</v>
       </c>
       <c r="Q99" s="1" t="n">
-        <v>88665805</v>
+        <v>346652238</v>
       </c>
       <c r="R99" s="1" t="n">
-        <v>79953601</v>
+        <v>337946407</v>
       </c>
       <c r="S99" s="1" t="n">
-        <v>73167855</v>
+        <v>293064763</v>
       </c>
     </row>
     <row r="100">
@@ -7622,55 +7630,71 @@
       </c>
       <c r="B100" s="1" t="inlineStr">
         <is>
-          <t>비지배지분</t>
-        </is>
-      </c>
-      <c r="C100" s="1" t="n"/>
+          <t>지배기업 소유주지분</t>
+        </is>
+      </c>
+      <c r="C100" s="1" t="inlineStr">
+        <is>
+          <t>기타자본항목</t>
+        </is>
+      </c>
       <c r="D100" s="1" t="n"/>
       <c r="E100" s="1" t="n">
-        <v>9312129</v>
+        <v>1280130</v>
       </c>
       <c r="F100" s="1" t="n">
-        <v>8547258</v>
+        <v>1938328</v>
       </c>
       <c r="G100" s="1" t="n">
-        <v>7629667</v>
-      </c>
-      <c r="H100" s="1" t="n">
-        <v>1419707</v>
-      </c>
-      <c r="I100" s="1" t="n">
-        <v>1454860</v>
-      </c>
-      <c r="J100" s="1" t="n">
-        <v>1546434</v>
-      </c>
-      <c r="K100" s="1" t="n">
-        <v>10444090</v>
-      </c>
-      <c r="L100" s="1" t="n">
-        <v>9563462</v>
-      </c>
-      <c r="M100" s="1" t="n">
-        <v>8662234</v>
+        <v>-2128473</v>
+      </c>
+      <c r="H100" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I100" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J100" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K100" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L100" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M100" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N100" s="1" t="n">
-        <v>21175926</v>
+        <v>1280130</v>
       </c>
       <c r="O100" s="1" t="n">
-        <v>19565580</v>
+        <v>1938328</v>
       </c>
       <c r="P100" s="1" t="n">
-        <v>17838335</v>
+        <v>-2128473</v>
       </c>
       <c r="Q100" s="1" t="n">
-        <v>7058642</v>
+        <v>1280130</v>
       </c>
       <c r="R100" s="1" t="n">
-        <v>6521860</v>
+        <v>1938328</v>
       </c>
       <c r="S100" s="1" t="n">
-        <v>5946111.666666667</v>
+        <v>-2128473</v>
       </c>
     </row>
     <row r="101">
@@ -7681,55 +7705,55 @@
       </c>
       <c r="B101" s="1" t="inlineStr">
         <is>
-          <t>자본총계</t>
+          <t>비지배지분</t>
         </is>
       </c>
       <c r="C101" s="1" t="n"/>
       <c r="D101" s="1" t="n"/>
       <c r="E101" s="1" t="n">
-        <v>101809440</v>
+        <v>10444090</v>
       </c>
       <c r="F101" s="1" t="n">
-        <v>90896545</v>
+        <v>9563462</v>
       </c>
       <c r="G101" s="1" t="n">
-        <v>82615789</v>
+        <v>8662234</v>
       </c>
       <c r="H101" s="1" t="n">
-        <v>37264750</v>
+        <v>9312129</v>
       </c>
       <c r="I101" s="1" t="n">
-        <v>42000256</v>
+        <v>8547258</v>
       </c>
       <c r="J101" s="1" t="n">
-        <v>65326706</v>
+        <v>7629667</v>
       </c>
       <c r="K101" s="1" t="n">
-        <v>363677865</v>
+        <v>1419707</v>
       </c>
       <c r="L101" s="1" t="n">
-        <v>354749604</v>
+        <v>1454860</v>
       </c>
       <c r="M101" s="1" t="n">
-        <v>304899931</v>
+        <v>1546434</v>
       </c>
       <c r="N101" s="1" t="n">
-        <v>502752055</v>
+        <v>21175926</v>
       </c>
       <c r="O101" s="1" t="n">
-        <v>487646405</v>
+        <v>19565580</v>
       </c>
       <c r="P101" s="1" t="n">
-        <v>452842426</v>
+        <v>17838335</v>
       </c>
       <c r="Q101" s="1" t="n">
-        <v>167584018.3333333</v>
+        <v>7058642</v>
       </c>
       <c r="R101" s="1" t="n">
-        <v>162548801.6666667</v>
+        <v>6521860</v>
       </c>
       <c r="S101" s="1" t="n">
-        <v>150947475.3333333</v>
+        <v>5946111.666666667</v>
       </c>
     </row>
     <row r="102">
@@ -7740,67 +7764,55 @@
       </c>
       <c r="B102" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
+          <t>자본총계</t>
         </is>
       </c>
       <c r="C102" s="1" t="n"/>
       <c r="D102" s="1" t="n"/>
-      <c r="E102" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F102" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G102" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E102" s="1" t="n">
+        <v>363677865</v>
+      </c>
+      <c r="F102" s="1" t="n">
+        <v>354749604</v>
+      </c>
+      <c r="G102" s="1" t="n">
+        <v>304899931</v>
       </c>
       <c r="H102" s="1" t="n">
-        <v>35845043</v>
+        <v>101809440</v>
       </c>
       <c r="I102" s="1" t="n">
-        <v>40545396</v>
+        <v>90896545</v>
       </c>
       <c r="J102" s="1" t="n">
-        <v>63780272</v>
-      </c>
-      <c r="K102" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L102" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M102" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>82615789</v>
+      </c>
+      <c r="K102" s="1" t="n">
+        <v>37264750</v>
+      </c>
+      <c r="L102" s="1" t="n">
+        <v>42000256</v>
+      </c>
+      <c r="M102" s="1" t="n">
+        <v>65326706</v>
       </c>
       <c r="N102" s="1" t="n">
-        <v>35845043</v>
+        <v>502752055</v>
       </c>
       <c r="O102" s="1" t="n">
-        <v>40545396</v>
+        <v>487646405</v>
       </c>
       <c r="P102" s="1" t="n">
-        <v>63780272</v>
+        <v>452842426</v>
       </c>
       <c r="Q102" s="1" t="n">
-        <v>35845043</v>
+        <v>167584018.3333333</v>
       </c>
       <c r="R102" s="1" t="n">
-        <v>40545396</v>
+        <v>162548801.6666667</v>
       </c>
       <c r="S102" s="1" t="n">
-        <v>63780272</v>
+        <v>150947475.3333333</v>
       </c>
     </row>
     <row r="103">
@@ -7811,14 +7823,10 @@
       </c>
       <c r="B103" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
-        </is>
-      </c>
-      <c r="C103" s="1" t="inlineStr">
-        <is>
-          <t>납입자본</t>
-        </is>
-      </c>
+          <t>지배기업소유주지분</t>
+        </is>
+      </c>
+      <c r="C103" s="1" t="n"/>
       <c r="D103" s="1" t="n"/>
       <c r="E103" s="7" t="inlineStr">
         <is>
@@ -7836,13 +7844,13 @@
         </is>
       </c>
       <c r="H103" s="1" t="n">
-        <v>4053578</v>
+        <v>92497311</v>
       </c>
       <c r="I103" s="1" t="n">
-        <v>4053578</v>
+        <v>82349287</v>
       </c>
       <c r="J103" s="1" t="n">
-        <v>4053578</v>
+        <v>74986122</v>
       </c>
       <c r="K103" s="7" t="inlineStr">
         <is>
@@ -7860,22 +7868,22 @@
         </is>
       </c>
       <c r="N103" s="1" t="n">
-        <v>4053578</v>
+        <v>92497311</v>
       </c>
       <c r="O103" s="1" t="n">
-        <v>4053578</v>
+        <v>82349287</v>
       </c>
       <c r="P103" s="1" t="n">
-        <v>4053578</v>
+        <v>74986122</v>
       </c>
       <c r="Q103" s="1" t="n">
-        <v>4053578</v>
+        <v>92497311</v>
       </c>
       <c r="R103" s="1" t="n">
-        <v>4053578</v>
+        <v>82349287</v>
       </c>
       <c r="S103" s="1" t="n">
-        <v>4053578</v>
+        <v>74986122</v>
       </c>
     </row>
     <row r="104">
@@ -7886,19 +7894,15 @@
       </c>
       <c r="B104" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
+          <t>지배기업소유주지분</t>
         </is>
       </c>
       <c r="C104" s="1" t="inlineStr">
         <is>
-          <t>납입자본</t>
-        </is>
-      </c>
-      <c r="D104" s="1" t="inlineStr">
-        <is>
           <t>자본금</t>
         </is>
       </c>
+      <c r="D104" s="1" t="n"/>
       <c r="E104" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -7915,13 +7919,13 @@
         </is>
       </c>
       <c r="H104" s="1" t="n">
-        <v>3209820</v>
+        <v>1488993</v>
       </c>
       <c r="I104" s="1" t="n">
-        <v>3209820</v>
+        <v>1488993</v>
       </c>
       <c r="J104" s="1" t="n">
-        <v>3209820</v>
+        <v>1488993</v>
       </c>
       <c r="K104" s="7" t="inlineStr">
         <is>
@@ -7939,22 +7943,22 @@
         </is>
       </c>
       <c r="N104" s="1" t="n">
-        <v>3209820</v>
+        <v>1488993</v>
       </c>
       <c r="O104" s="1" t="n">
-        <v>3209820</v>
+        <v>1488993</v>
       </c>
       <c r="P104" s="1" t="n">
-        <v>3209820</v>
+        <v>1488993</v>
       </c>
       <c r="Q104" s="1" t="n">
-        <v>3209820</v>
+        <v>1488993</v>
       </c>
       <c r="R104" s="1" t="n">
-        <v>3209820</v>
+        <v>1488993</v>
       </c>
       <c r="S104" s="1" t="n">
-        <v>3209820</v>
+        <v>1488993</v>
       </c>
     </row>
     <row r="105">
@@ -7965,19 +7969,15 @@
       </c>
       <c r="B105" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
+          <t>지배기업소유주지분</t>
         </is>
       </c>
       <c r="C105" s="1" t="inlineStr">
         <is>
-          <t>납입자본</t>
-        </is>
-      </c>
-      <c r="D105" s="1" t="inlineStr">
-        <is>
-          <t>주식발행초과금</t>
-        </is>
-      </c>
+          <t>자본잉여금</t>
+        </is>
+      </c>
+      <c r="D105" s="1" t="n"/>
       <c r="E105" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -7994,13 +7994,13 @@
         </is>
       </c>
       <c r="H105" s="1" t="n">
-        <v>843758</v>
+        <v>4378489</v>
       </c>
       <c r="I105" s="1" t="n">
-        <v>843758</v>
+        <v>4241303</v>
       </c>
       <c r="J105" s="1" t="n">
-        <v>843758</v>
+        <v>4070260</v>
       </c>
       <c r="K105" s="7" t="inlineStr">
         <is>
@@ -8018,22 +8018,22 @@
         </is>
       </c>
       <c r="N105" s="1" t="n">
-        <v>843758</v>
+        <v>4378489</v>
       </c>
       <c r="O105" s="1" t="n">
-        <v>843758</v>
+        <v>4241303</v>
       </c>
       <c r="P105" s="1" t="n">
-        <v>843758</v>
+        <v>4070260</v>
       </c>
       <c r="Q105" s="1" t="n">
-        <v>843758</v>
+        <v>4378489</v>
       </c>
       <c r="R105" s="1" t="n">
-        <v>843758</v>
+        <v>4241303</v>
       </c>
       <c r="S105" s="1" t="n">
-        <v>843758</v>
+        <v>4070260</v>
       </c>
     </row>
     <row r="106">
@@ -8044,12 +8044,12 @@
       </c>
       <c r="B106" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
+          <t>지배기업소유주지분</t>
         </is>
       </c>
       <c r="C106" s="1" t="inlineStr">
         <is>
-          <t>이익잉여금(결손금)</t>
+          <t>기타자본항목</t>
         </is>
       </c>
       <c r="D106" s="1" t="n"/>
@@ -8069,13 +8069,13 @@
         </is>
       </c>
       <c r="H106" s="1" t="n">
-        <v>16338262</v>
+        <v>-1197084</v>
       </c>
       <c r="I106" s="1" t="n">
-        <v>21431300</v>
+        <v>-1713928</v>
       </c>
       <c r="J106" s="1" t="n">
-        <v>45258244</v>
+        <v>-1968385</v>
       </c>
       <c r="K106" s="7" t="inlineStr">
         <is>
@@ -8093,22 +8093,22 @@
         </is>
       </c>
       <c r="N106" s="1" t="n">
-        <v>16338262</v>
+        <v>-1197084</v>
       </c>
       <c r="O106" s="1" t="n">
-        <v>21431300</v>
+        <v>-1713928</v>
       </c>
       <c r="P106" s="1" t="n">
-        <v>45258244</v>
+        <v>-1968385</v>
       </c>
       <c r="Q106" s="1" t="n">
-        <v>16338262</v>
+        <v>-1197084</v>
       </c>
       <c r="R106" s="1" t="n">
-        <v>21431300</v>
+        <v>-1713928</v>
       </c>
       <c r="S106" s="1" t="n">
-        <v>45258244</v>
+        <v>-1968385</v>
       </c>
     </row>
     <row r="107">
@@ -8119,19 +8119,15 @@
       </c>
       <c r="B107" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
+          <t>지배기업소유주지분</t>
         </is>
       </c>
       <c r="C107" s="1" t="inlineStr">
         <is>
-          <t>이익잉여금(결손금)</t>
-        </is>
-      </c>
-      <c r="D107" s="1" t="inlineStr">
-        <is>
-          <t>이익준비금</t>
-        </is>
-      </c>
+          <t>기타포괄손익누계액</t>
+        </is>
+      </c>
+      <c r="D107" s="1" t="n"/>
       <c r="E107" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -8148,13 +8144,13 @@
         </is>
       </c>
       <c r="H107" s="1" t="n">
-        <v>1604910</v>
+        <v>-838892</v>
       </c>
       <c r="I107" s="1" t="n">
-        <v>1604910</v>
+        <v>-1620682</v>
       </c>
       <c r="J107" s="1" t="n">
-        <v>1604910</v>
+        <v>-1772601</v>
       </c>
       <c r="K107" s="7" t="inlineStr">
         <is>
@@ -8172,22 +8168,22 @@
         </is>
       </c>
       <c r="N107" s="1" t="n">
-        <v>1604910</v>
+        <v>-838892</v>
       </c>
       <c r="O107" s="1" t="n">
-        <v>1604910</v>
+        <v>-1620682</v>
       </c>
       <c r="P107" s="1" t="n">
-        <v>1604910</v>
+        <v>-1772601</v>
       </c>
       <c r="Q107" s="1" t="n">
-        <v>1604910</v>
+        <v>-838892</v>
       </c>
       <c r="R107" s="1" t="n">
-        <v>1604910</v>
+        <v>-1620682</v>
       </c>
       <c r="S107" s="1" t="n">
-        <v>1604910</v>
+        <v>-1772601</v>
       </c>
     </row>
     <row r="108">
@@ -8198,19 +8194,15 @@
       </c>
       <c r="B108" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
+          <t>지배기업소유주지분</t>
         </is>
       </c>
       <c r="C108" s="1" t="inlineStr">
         <is>
-          <t>이익잉여금(결손금)</t>
-        </is>
-      </c>
-      <c r="D108" s="1" t="inlineStr">
-        <is>
-          <t>임의적립금</t>
-        </is>
-      </c>
+          <t>이익잉여금</t>
+        </is>
+      </c>
+      <c r="D108" s="1" t="n"/>
       <c r="E108" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -8227,13 +8219,13 @@
         </is>
       </c>
       <c r="H108" s="1" t="n">
-        <v>2812313</v>
+        <v>88665805</v>
       </c>
       <c r="I108" s="1" t="n">
-        <v>27782969</v>
+        <v>79953601</v>
       </c>
       <c r="J108" s="1" t="n">
-        <v>33282817</v>
+        <v>73167855</v>
       </c>
       <c r="K108" s="7" t="inlineStr">
         <is>
@@ -8251,22 +8243,22 @@
         </is>
       </c>
       <c r="N108" s="1" t="n">
-        <v>2812313</v>
+        <v>88665805</v>
       </c>
       <c r="O108" s="1" t="n">
-        <v>27782969</v>
+        <v>79953601</v>
       </c>
       <c r="P108" s="1" t="n">
-        <v>33282817</v>
+        <v>73167855</v>
       </c>
       <c r="Q108" s="1" t="n">
-        <v>2812313</v>
+        <v>88665805</v>
       </c>
       <c r="R108" s="1" t="n">
-        <v>27782969</v>
+        <v>79953601</v>
       </c>
       <c r="S108" s="1" t="n">
-        <v>33282817</v>
+        <v>73167855</v>
       </c>
     </row>
     <row r="109">
@@ -8280,16 +8272,8 @@
           <t>지배기업의 소유주에게 귀속되는 자본</t>
         </is>
       </c>
-      <c r="C109" s="1" t="inlineStr">
-        <is>
-          <t>이익잉여금(결손금)</t>
-        </is>
-      </c>
-      <c r="D109" s="1" t="inlineStr">
-        <is>
-          <t>미처분이익잉여금(미처리결손금)</t>
-        </is>
-      </c>
+      <c r="C109" s="1" t="n"/>
+      <c r="D109" s="1" t="n"/>
       <c r="E109" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -8305,47 +8289,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H109" s="1" t="n">
-        <v>11921039</v>
-      </c>
-      <c r="I109" s="1" t="n">
-        <v>-7956579</v>
-      </c>
-      <c r="J109" s="1" t="n">
-        <v>10370517</v>
-      </c>
-      <c r="K109" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L109" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M109" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H109" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I109" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J109" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K109" s="1" t="n">
+        <v>35845043</v>
+      </c>
+      <c r="L109" s="1" t="n">
+        <v>40545396</v>
+      </c>
+      <c r="M109" s="1" t="n">
+        <v>63780272</v>
       </c>
       <c r="N109" s="1" t="n">
-        <v>11921039</v>
+        <v>35845043</v>
       </c>
       <c r="O109" s="1" t="n">
-        <v>-7956579</v>
+        <v>40545396</v>
       </c>
       <c r="P109" s="1" t="n">
-        <v>10370517</v>
+        <v>63780272</v>
       </c>
       <c r="Q109" s="1" t="n">
-        <v>11921039</v>
+        <v>35845043</v>
       </c>
       <c r="R109" s="1" t="n">
-        <v>-7956579</v>
+        <v>40545396</v>
       </c>
       <c r="S109" s="1" t="n">
-        <v>10370517</v>
+        <v>63780272</v>
       </c>
     </row>
     <row r="110">
@@ -8361,7 +8345,7 @@
       </c>
       <c r="C110" s="1" t="inlineStr">
         <is>
-          <t>기타자본구성요소</t>
+          <t>납입자본</t>
         </is>
       </c>
       <c r="D110" s="1" t="n"/>
@@ -8380,47 +8364,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H110" s="1" t="n">
-        <v>15453203</v>
-      </c>
-      <c r="I110" s="1" t="n">
-        <v>15060518</v>
-      </c>
-      <c r="J110" s="1" t="n">
-        <v>14468450</v>
-      </c>
-      <c r="K110" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L110" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M110" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H110" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I110" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J110" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K110" s="1" t="n">
+        <v>4053578</v>
+      </c>
+      <c r="L110" s="1" t="n">
+        <v>4053578</v>
+      </c>
+      <c r="M110" s="1" t="n">
+        <v>4053578</v>
       </c>
       <c r="N110" s="1" t="n">
-        <v>15453203</v>
+        <v>4053578</v>
       </c>
       <c r="O110" s="1" t="n">
-        <v>15060518</v>
+        <v>4053578</v>
       </c>
       <c r="P110" s="1" t="n">
-        <v>14468450</v>
+        <v>4053578</v>
       </c>
       <c r="Q110" s="1" t="n">
-        <v>15453203</v>
+        <v>4053578</v>
       </c>
       <c r="R110" s="1" t="n">
-        <v>15060518</v>
+        <v>4053578</v>
       </c>
       <c r="S110" s="1" t="n">
-        <v>14468450</v>
+        <v>4053578</v>
       </c>
     </row>
     <row r="111">
@@ -8436,12 +8420,12 @@
       </c>
       <c r="C111" s="1" t="inlineStr">
         <is>
-          <t>기타자본구성요소</t>
+          <t>납입자본</t>
         </is>
       </c>
       <c r="D111" s="1" t="inlineStr">
         <is>
-          <t>기타자본잉여금</t>
+          <t>자본금</t>
         </is>
       </c>
       <c r="E111" s="7" t="inlineStr">
@@ -8459,47 +8443,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H111" s="1" t="n">
-        <v>1600801</v>
-      </c>
-      <c r="I111" s="1" t="n">
-        <v>1268569</v>
-      </c>
-      <c r="J111" s="1" t="n">
-        <v>1231109</v>
-      </c>
-      <c r="K111" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L111" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M111" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H111" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I111" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J111" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K111" s="1" t="n">
+        <v>3209820</v>
+      </c>
+      <c r="L111" s="1" t="n">
+        <v>3209820</v>
+      </c>
+      <c r="M111" s="1" t="n">
+        <v>3209820</v>
       </c>
       <c r="N111" s="1" t="n">
-        <v>1600801</v>
+        <v>3209820</v>
       </c>
       <c r="O111" s="1" t="n">
-        <v>1268569</v>
+        <v>3209820</v>
       </c>
       <c r="P111" s="1" t="n">
-        <v>1231109</v>
+        <v>3209820</v>
       </c>
       <c r="Q111" s="1" t="n">
-        <v>1600801</v>
+        <v>3209820</v>
       </c>
       <c r="R111" s="1" t="n">
-        <v>1268569</v>
+        <v>3209820</v>
       </c>
       <c r="S111" s="1" t="n">
-        <v>1231109</v>
+        <v>3209820</v>
       </c>
     </row>
     <row r="112">
@@ -8515,12 +8499,12 @@
       </c>
       <c r="C112" s="1" t="inlineStr">
         <is>
-          <t>기타자본구성요소</t>
+          <t>납입자본</t>
         </is>
       </c>
       <c r="D112" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익누계액</t>
+          <t>주식발행초과금</t>
         </is>
       </c>
       <c r="E112" s="7" t="inlineStr">
@@ -8538,47 +8522,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H112" s="1" t="n">
-        <v>557430</v>
-      </c>
-      <c r="I112" s="1" t="n">
-        <v>496976</v>
-      </c>
-      <c r="J112" s="1" t="n">
-        <v>-57632</v>
-      </c>
-      <c r="K112" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L112" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M112" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H112" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I112" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J112" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K112" s="1" t="n">
+        <v>843758</v>
+      </c>
+      <c r="L112" s="1" t="n">
+        <v>843758</v>
+      </c>
+      <c r="M112" s="1" t="n">
+        <v>843758</v>
       </c>
       <c r="N112" s="1" t="n">
-        <v>557430</v>
+        <v>843758</v>
       </c>
       <c r="O112" s="1" t="n">
-        <v>496976</v>
+        <v>843758</v>
       </c>
       <c r="P112" s="1" t="n">
-        <v>-57632</v>
+        <v>843758</v>
       </c>
       <c r="Q112" s="1" t="n">
-        <v>557430</v>
+        <v>843758</v>
       </c>
       <c r="R112" s="1" t="n">
-        <v>496976</v>
+        <v>843758</v>
       </c>
       <c r="S112" s="1" t="n">
-        <v>-57632</v>
+        <v>843758</v>
       </c>
     </row>
     <row r="113">
@@ -8594,14 +8578,10 @@
       </c>
       <c r="C113" s="1" t="inlineStr">
         <is>
-          <t>기타자본구성요소</t>
-        </is>
-      </c>
-      <c r="D113" s="1" t="inlineStr">
-        <is>
-          <t>기타자본</t>
-        </is>
-      </c>
+          <t>이익잉여금(결손금)</t>
+        </is>
+      </c>
+      <c r="D113" s="1" t="n"/>
       <c r="E113" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -8617,47 +8597,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H113" s="1" t="n">
-        <v>13294972</v>
-      </c>
-      <c r="I113" s="1" t="n">
-        <v>13294973</v>
-      </c>
-      <c r="J113" s="1" t="n">
-        <v>13294973</v>
-      </c>
-      <c r="K113" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L113" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M113" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H113" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I113" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J113" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K113" s="1" t="n">
+        <v>16338262</v>
+      </c>
+      <c r="L113" s="1" t="n">
+        <v>21431300</v>
+      </c>
+      <c r="M113" s="1" t="n">
+        <v>45258244</v>
       </c>
       <c r="N113" s="1" t="n">
-        <v>13294972</v>
+        <v>16338262</v>
       </c>
       <c r="O113" s="1" t="n">
-        <v>13294973</v>
+        <v>21431300</v>
       </c>
       <c r="P113" s="1" t="n">
-        <v>13294973</v>
+        <v>45258244</v>
       </c>
       <c r="Q113" s="1" t="n">
-        <v>13294972</v>
+        <v>16338262</v>
       </c>
       <c r="R113" s="1" t="n">
-        <v>13294973</v>
+        <v>21431300</v>
       </c>
       <c r="S113" s="1" t="n">
-        <v>13294973</v>
+        <v>45258244</v>
       </c>
     </row>
     <row r="114">
@@ -8668,11 +8648,19 @@
       </c>
       <c r="B114" s="1" t="inlineStr">
         <is>
-          <t>지배기업 소유주지분</t>
-        </is>
-      </c>
-      <c r="C114" s="1" t="n"/>
-      <c r="D114" s="1" t="n"/>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
+        </is>
+      </c>
+      <c r="C114" s="1" t="inlineStr">
+        <is>
+          <t>이익잉여금(결손금)</t>
+        </is>
+      </c>
+      <c r="D114" s="1" t="inlineStr">
+        <is>
+          <t>이익준비금</t>
+        </is>
+      </c>
       <c r="E114" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -8704,31 +8692,31 @@
         </is>
       </c>
       <c r="K114" s="1" t="n">
-        <v>353233775</v>
+        <v>1604910</v>
       </c>
       <c r="L114" s="1" t="n">
-        <v>345186142</v>
+        <v>1604910</v>
       </c>
       <c r="M114" s="1" t="n">
-        <v>296237697</v>
+        <v>1604910</v>
       </c>
       <c r="N114" s="1" t="n">
-        <v>353233775</v>
+        <v>1604910</v>
       </c>
       <c r="O114" s="1" t="n">
-        <v>345186142</v>
+        <v>1604910</v>
       </c>
       <c r="P114" s="1" t="n">
-        <v>296237697</v>
+        <v>1604910</v>
       </c>
       <c r="Q114" s="1" t="n">
-        <v>353233775</v>
+        <v>1604910</v>
       </c>
       <c r="R114" s="1" t="n">
-        <v>345186142</v>
+        <v>1604910</v>
       </c>
       <c r="S114" s="1" t="n">
-        <v>296237697</v>
+        <v>1604910</v>
       </c>
     </row>
     <row r="115">
@@ -8739,15 +8727,19 @@
       </c>
       <c r="B115" s="1" t="inlineStr">
         <is>
-          <t>지배기업 소유주지분</t>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
         </is>
       </c>
       <c r="C115" s="1" t="inlineStr">
         <is>
-          <t>자본금</t>
-        </is>
-      </c>
-      <c r="D115" s="1" t="n"/>
+          <t>이익잉여금(결손금)</t>
+        </is>
+      </c>
+      <c r="D115" s="1" t="inlineStr">
+        <is>
+          <t>임의적립금</t>
+        </is>
+      </c>
       <c r="E115" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -8779,31 +8771,31 @@
         </is>
       </c>
       <c r="K115" s="1" t="n">
-        <v>897514</v>
+        <v>2812313</v>
       </c>
       <c r="L115" s="1" t="n">
-        <v>897514</v>
+        <v>27782969</v>
       </c>
       <c r="M115" s="1" t="n">
-        <v>897514</v>
+        <v>33282817</v>
       </c>
       <c r="N115" s="1" t="n">
-        <v>897514</v>
+        <v>2812313</v>
       </c>
       <c r="O115" s="1" t="n">
-        <v>897514</v>
+        <v>27782969</v>
       </c>
       <c r="P115" s="1" t="n">
-        <v>897514</v>
+        <v>33282817</v>
       </c>
       <c r="Q115" s="1" t="n">
-        <v>897514</v>
+        <v>2812313</v>
       </c>
       <c r="R115" s="1" t="n">
-        <v>897514</v>
+        <v>27782969</v>
       </c>
       <c r="S115" s="1" t="n">
-        <v>897514</v>
+        <v>33282817</v>
       </c>
     </row>
     <row r="116">
@@ -8814,17 +8806,17 @@
       </c>
       <c r="B116" s="1" t="inlineStr">
         <is>
-          <t>지배기업 소유주지분</t>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
         </is>
       </c>
       <c r="C116" s="1" t="inlineStr">
         <is>
-          <t>자본금</t>
+          <t>이익잉여금(결손금)</t>
         </is>
       </c>
       <c r="D116" s="1" t="inlineStr">
         <is>
-          <t>우선주자본금</t>
+          <t>미처분이익잉여금(미처리결손금)</t>
         </is>
       </c>
       <c r="E116" s="7" t="inlineStr">
@@ -8858,31 +8850,31 @@
         </is>
       </c>
       <c r="K116" s="1" t="n">
-        <v>119467</v>
+        <v>11921039</v>
       </c>
       <c r="L116" s="1" t="n">
-        <v>119467</v>
+        <v>-7956579</v>
       </c>
       <c r="M116" s="1" t="n">
-        <v>119467</v>
+        <v>10370517</v>
       </c>
       <c r="N116" s="1" t="n">
-        <v>119467</v>
+        <v>11921039</v>
       </c>
       <c r="O116" s="1" t="n">
-        <v>119467</v>
+        <v>-7956579</v>
       </c>
       <c r="P116" s="1" t="n">
-        <v>119467</v>
+        <v>10370517</v>
       </c>
       <c r="Q116" s="1" t="n">
-        <v>119467</v>
+        <v>11921039</v>
       </c>
       <c r="R116" s="1" t="n">
-        <v>119467</v>
+        <v>-7956579</v>
       </c>
       <c r="S116" s="1" t="n">
-        <v>119467</v>
+        <v>10370517</v>
       </c>
     </row>
     <row r="117">
@@ -8893,19 +8885,15 @@
       </c>
       <c r="B117" s="1" t="inlineStr">
         <is>
-          <t>지배기업 소유주지분</t>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
         </is>
       </c>
       <c r="C117" s="1" t="inlineStr">
         <is>
-          <t>자본금</t>
-        </is>
-      </c>
-      <c r="D117" s="1" t="inlineStr">
-        <is>
-          <t>보통주자본금</t>
-        </is>
-      </c>
+          <t>기타자본구성요소</t>
+        </is>
+      </c>
+      <c r="D117" s="1" t="n"/>
       <c r="E117" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -8937,31 +8925,31 @@
         </is>
       </c>
       <c r="K117" s="1" t="n">
-        <v>778047</v>
+        <v>15453203</v>
       </c>
       <c r="L117" s="1" t="n">
-        <v>778047</v>
+        <v>15060518</v>
       </c>
       <c r="M117" s="1" t="n">
-        <v>778047</v>
+        <v>14468450</v>
       </c>
       <c r="N117" s="1" t="n">
-        <v>778047</v>
+        <v>15453203</v>
       </c>
       <c r="O117" s="1" t="n">
-        <v>778047</v>
+        <v>15060518</v>
       </c>
       <c r="P117" s="1" t="n">
-        <v>778047</v>
+        <v>14468450</v>
       </c>
       <c r="Q117" s="1" t="n">
-        <v>778047</v>
+        <v>15453203</v>
       </c>
       <c r="R117" s="1" t="n">
-        <v>778047</v>
+        <v>15060518</v>
       </c>
       <c r="S117" s="1" t="n">
-        <v>778047</v>
+        <v>14468450</v>
       </c>
     </row>
     <row r="118">
@@ -8972,15 +8960,19 @@
       </c>
       <c r="B118" s="1" t="inlineStr">
         <is>
-          <t>지배기업 소유주지분</t>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
         </is>
       </c>
       <c r="C118" s="1" t="inlineStr">
         <is>
-          <t>주식발행초과금</t>
-        </is>
-      </c>
-      <c r="D118" s="1" t="n"/>
+          <t>기타자본구성요소</t>
+        </is>
+      </c>
+      <c r="D118" s="1" t="inlineStr">
+        <is>
+          <t>기타자본잉여금</t>
+        </is>
+      </c>
       <c r="E118" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -9012,31 +9004,31 @@
         </is>
       </c>
       <c r="K118" s="1" t="n">
-        <v>4403893</v>
+        <v>1600801</v>
       </c>
       <c r="L118" s="1" t="n">
-        <v>4403893</v>
+        <v>1268569</v>
       </c>
       <c r="M118" s="1" t="n">
-        <v>4403893</v>
+        <v>1231109</v>
       </c>
       <c r="N118" s="1" t="n">
-        <v>4403893</v>
+        <v>1600801</v>
       </c>
       <c r="O118" s="1" t="n">
-        <v>4403893</v>
+        <v>1268569</v>
       </c>
       <c r="P118" s="1" t="n">
-        <v>4403893</v>
+        <v>1231109</v>
       </c>
       <c r="Q118" s="1" t="n">
-        <v>4403893</v>
+        <v>1600801</v>
       </c>
       <c r="R118" s="1" t="n">
-        <v>4403893</v>
+        <v>1268569</v>
       </c>
       <c r="S118" s="1" t="n">
-        <v>4403893</v>
+        <v>1231109</v>
       </c>
     </row>
     <row r="119">
@@ -9047,15 +9039,19 @@
       </c>
       <c r="B119" s="1" t="inlineStr">
         <is>
-          <t>지배기업 소유주지분</t>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
         </is>
       </c>
       <c r="C119" s="1" t="inlineStr">
         <is>
-          <t>이익잉여금</t>
-        </is>
-      </c>
-      <c r="D119" s="1" t="n"/>
+          <t>기타자본구성요소</t>
+        </is>
+      </c>
+      <c r="D119" s="1" t="inlineStr">
+        <is>
+          <t>기타포괄손익누계액</t>
+        </is>
+      </c>
       <c r="E119" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -9087,31 +9083,31 @@
         </is>
       </c>
       <c r="K119" s="1" t="n">
-        <v>346652238</v>
+        <v>557430</v>
       </c>
       <c r="L119" s="1" t="n">
-        <v>337946407</v>
+        <v>496976</v>
       </c>
       <c r="M119" s="1" t="n">
-        <v>293064763</v>
+        <v>-57632</v>
       </c>
       <c r="N119" s="1" t="n">
-        <v>346652238</v>
+        <v>557430</v>
       </c>
       <c r="O119" s="1" t="n">
-        <v>337946407</v>
+        <v>496976</v>
       </c>
       <c r="P119" s="1" t="n">
-        <v>293064763</v>
+        <v>-57632</v>
       </c>
       <c r="Q119" s="1" t="n">
-        <v>346652238</v>
+        <v>557430</v>
       </c>
       <c r="R119" s="1" t="n">
-        <v>337946407</v>
+        <v>496976</v>
       </c>
       <c r="S119" s="1" t="n">
-        <v>293064763</v>
+        <v>-57632</v>
       </c>
     </row>
     <row r="120">
@@ -9122,15 +9118,19 @@
       </c>
       <c r="B120" s="1" t="inlineStr">
         <is>
-          <t>지배기업 소유주지분</t>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
         </is>
       </c>
       <c r="C120" s="1" t="inlineStr">
         <is>
-          <t>기타자본항목</t>
-        </is>
-      </c>
-      <c r="D120" s="1" t="n"/>
+          <t>기타자본구성요소</t>
+        </is>
+      </c>
+      <c r="D120" s="1" t="inlineStr">
+        <is>
+          <t>기타자본</t>
+        </is>
+      </c>
       <c r="E120" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -9162,50 +9162,50 @@
         </is>
       </c>
       <c r="K120" s="1" t="n">
-        <v>1280130</v>
+        <v>13294972</v>
       </c>
       <c r="L120" s="1" t="n">
-        <v>1938328</v>
+        <v>13294973</v>
       </c>
       <c r="M120" s="1" t="n">
-        <v>-2128473</v>
+        <v>13294973</v>
       </c>
       <c r="N120" s="1" t="n">
-        <v>1280130</v>
+        <v>13294972</v>
       </c>
       <c r="O120" s="1" t="n">
-        <v>1938328</v>
+        <v>13294973</v>
       </c>
       <c r="P120" s="1" t="n">
-        <v>-2128473</v>
+        <v>13294973</v>
       </c>
       <c r="Q120" s="1" t="n">
-        <v>1280130</v>
+        <v>13294972</v>
       </c>
       <c r="R120" s="1" t="n">
-        <v>1938328</v>
+        <v>13294973</v>
       </c>
       <c r="S120" s="1" t="n">
-        <v>-2128473</v>
+        <v>13294973</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>부채와자본총계</t>
+          <t>자본과부채총계</t>
         </is>
       </c>
       <c r="B121" s="1" t="n"/>
       <c r="C121" s="1" t="n"/>
       <c r="D121" s="1" t="n"/>
       <c r="E121" s="1" t="n">
-        <v>282463355</v>
+        <v>455905980</v>
       </c>
       <c r="F121" s="1" t="n">
-        <v>255742462</v>
+        <v>448424507</v>
       </c>
       <c r="G121" s="1" t="n">
-        <v>233946415</v>
+        <v>426621158</v>
       </c>
       <c r="H121" s="7" t="inlineStr">
         <is>
@@ -9222,44 +9222,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K121" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L121" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M121" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K121" s="1" t="n">
+        <v>239714965</v>
+      </c>
+      <c r="L121" s="1" t="n">
+        <v>234804994</v>
+      </c>
+      <c r="M121" s="1" t="n">
+        <v>211123727</v>
       </c>
       <c r="N121" s="1" t="n">
-        <v>282463355</v>
+        <v>695620945</v>
       </c>
       <c r="O121" s="1" t="n">
-        <v>255742462</v>
+        <v>683229501</v>
       </c>
       <c r="P121" s="1" t="n">
-        <v>233946415</v>
+        <v>637744885</v>
       </c>
       <c r="Q121" s="1" t="n">
-        <v>282463355</v>
+        <v>347810472.5</v>
       </c>
       <c r="R121" s="1" t="n">
-        <v>255742462</v>
+        <v>341614750.5</v>
       </c>
       <c r="S121" s="1" t="n">
-        <v>233946415</v>
+        <v>318872442.5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>자본과부채총계</t>
+          <t>부채와자본총계</t>
         </is>
       </c>
       <c r="B122" s="1" t="n"/>
@@ -9281,40 +9275,46 @@
         </is>
       </c>
       <c r="H122" s="1" t="n">
-        <v>239714965</v>
+        <v>282463355</v>
       </c>
       <c r="I122" s="1" t="n">
-        <v>234804994</v>
+        <v>255742462</v>
       </c>
       <c r="J122" s="1" t="n">
-        <v>211123727</v>
-      </c>
-      <c r="K122" s="1" t="n">
-        <v>455905980</v>
-      </c>
-      <c r="L122" s="1" t="n">
-        <v>448424507</v>
-      </c>
-      <c r="M122" s="1" t="n">
-        <v>426621158</v>
+        <v>233946415</v>
+      </c>
+      <c r="K122" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L122" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M122" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N122" s="1" t="n">
-        <v>695620945</v>
+        <v>282463355</v>
       </c>
       <c r="O122" s="1" t="n">
-        <v>683229501</v>
+        <v>255742462</v>
       </c>
       <c r="P122" s="1" t="n">
-        <v>637744885</v>
+        <v>233946415</v>
       </c>
       <c r="Q122" s="1" t="n">
-        <v>347810472.5</v>
+        <v>282463355</v>
       </c>
       <c r="R122" s="1" t="n">
-        <v>341614750.5</v>
+        <v>255742462</v>
       </c>
       <c r="S122" s="1" t="n">
-        <v>318872442.5</v>
+        <v>233946415</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/연결 재무상태표.xlsx
+++ b/data/output/연결 재무상태표.xlsx
@@ -468,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:S122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
   <cols>
     <col width="14.6" customWidth="1" min="1" max="1"/>
     <col width="36.2" customWidth="1" min="2" max="2"/>
-    <col width="30.8" customWidth="1" min="3" max="3"/>
+    <col width="41.6" customWidth="1" min="3" max="3"/>
     <col width="30.8" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
@@ -489,9 +489,12 @@
     <col width="11" customWidth="1" min="11" max="11"/>
     <col width="11" customWidth="1" min="12" max="12"/>
     <col width="11" customWidth="1" min="13" max="13"/>
-    <col width="13" customWidth="1" min="14" max="14"/>
-    <col width="13" customWidth="1" min="15" max="15"/>
-    <col width="13" customWidth="1" min="16" max="16"/>
+    <col width="11" customWidth="1" min="14" max="14"/>
+    <col width="11" customWidth="1" min="15" max="15"/>
+    <col width="11" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
+    <col width="20" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -501,32 +504,39 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="4" t="inlineStr">
         <is>
-          <t>Hyundai</t>
+          <t>Samsung</t>
         </is>
       </c>
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="n"/>
       <c r="H1" s="4" t="inlineStr">
         <is>
-          <t>Kepco</t>
+          <t>Hyundai</t>
         </is>
       </c>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="4" t="inlineStr">
         <is>
-          <t>Sum</t>
+          <t>Kepco</t>
         </is>
       </c>
       <c r="L1" s="1" t="n"/>
       <c r="M1" s="1" t="n"/>
       <c r="N1" s="4" t="inlineStr">
         <is>
-          <t>Average</t>
+          <t>Sum</t>
         </is>
       </c>
       <c r="O1" s="1" t="n"/>
       <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="4" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n"/>
@@ -589,6 +599,21 @@
         </is>
       </c>
       <c r="P2" s="5" t="inlineStr">
+        <is>
+          <t>2021년</t>
+        </is>
+      </c>
+      <c r="Q2" s="5" t="inlineStr">
+        <is>
+          <t>2023년</t>
+        </is>
+      </c>
+      <c r="R2" s="5" t="inlineStr">
+        <is>
+          <t>2022년</t>
+        </is>
+      </c>
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>2021년</t>
         </is>
@@ -611,6 +636,9 @@
       <c r="N3" s="6" t="n"/>
       <c r="O3" s="6" t="n"/>
       <c r="P3" s="6" t="n"/>
+      <c r="Q3" s="6" t="n"/>
+      <c r="R3" s="6" t="n"/>
+      <c r="S3" s="6" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -681,6 +709,21 @@
           <t>-</t>
         </is>
       </c>
+      <c r="Q4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S4" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -696,40 +739,49 @@
       <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="n"/>
       <c r="E5" s="1" t="n">
+        <v>195936557</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>218470581</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>218163185</v>
+      </c>
+      <c r="H5" s="1" t="n">
         <v>101724717</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="I5" s="1" t="n">
         <v>96389273</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="J5" s="1" t="n">
         <v>88565366</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <v>29536215</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="L5" s="1" t="n">
         <v>29750545</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="M5" s="1" t="n">
         <v>22050845</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <v>131260932</v>
-      </c>
-      <c r="L5" s="1" t="n">
-        <v>126139818</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>110616211</v>
-      </c>
       <c r="N5" s="1" t="n">
-        <v>65630466</v>
+        <v>327197489</v>
       </c>
       <c r="O5" s="1" t="n">
-        <v>63069909</v>
+        <v>344610399</v>
       </c>
       <c r="P5" s="1" t="n">
-        <v>55308105.5</v>
+        <v>328779396</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>109065829.6666667</v>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>114870133</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>109593132</v>
       </c>
     </row>
     <row r="6">
@@ -750,40 +802,49 @@
       </c>
       <c r="D6" s="1" t="n"/>
       <c r="E6" s="1" t="n">
+        <v>69080893</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>49680710</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>39031415</v>
+      </c>
+      <c r="H6" s="1" t="n">
         <v>19166619</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="I6" s="1" t="n">
         <v>20864879</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="J6" s="1" t="n">
         <v>12795554</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="K6" s="1" t="n">
         <v>4342887</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="L6" s="1" t="n">
         <v>3234780</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="M6" s="1" t="n">
         <v>2635238</v>
       </c>
-      <c r="K6" s="1" t="n">
-        <v>23509506</v>
-      </c>
-      <c r="L6" s="1" t="n">
-        <v>24099659</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>15430792</v>
-      </c>
       <c r="N6" s="1" t="n">
-        <v>11754753</v>
+        <v>92590399</v>
       </c>
       <c r="O6" s="1" t="n">
-        <v>12049829.5</v>
+        <v>73780369</v>
       </c>
       <c r="P6" s="1" t="n">
-        <v>7715396</v>
+        <v>54462207</v>
+      </c>
+      <c r="Q6" s="1" t="n">
+        <v>30863466.33333333</v>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>24593456.33333333</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>18154069</v>
       </c>
     </row>
     <row r="7">
@@ -804,46 +865,55 @@
       </c>
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n">
+        <v>22690924</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>65102886</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>81708986</v>
+      </c>
+      <c r="H7" s="1" t="n">
         <v>7339968</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="I7" s="1" t="n">
         <v>5774597</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="J7" s="1" t="n">
         <v>6949333</v>
       </c>
-      <c r="H7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J7" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="n">
-        <v>7339968</v>
-      </c>
-      <c r="L7" s="1" t="n">
-        <v>5774597</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>6949333</v>
+      <c r="K7" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L7" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M7" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N7" s="1" t="n">
-        <v>7339968</v>
+        <v>30030892</v>
       </c>
       <c r="O7" s="1" t="n">
-        <v>5774597</v>
+        <v>70877483</v>
       </c>
       <c r="P7" s="1" t="n">
-        <v>6949333</v>
+        <v>88658319</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>15015446</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>35438741.5</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>44329159.5</v>
       </c>
     </row>
     <row r="8">
@@ -859,18 +929,18 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>기타금융자산</t>
+          <t>단기상각후원가금융자산</t>
         </is>
       </c>
       <c r="D8" s="1" t="n"/>
       <c r="E8" s="1" t="n">
-        <v>2802611</v>
+        <v>608281</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>5934745</v>
+        <v>414610</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>12396646</v>
+        <v>3369034</v>
       </c>
       <c r="H8" s="7" t="inlineStr">
         <is>
@@ -887,23 +957,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K8" s="1" t="n">
-        <v>2802611</v>
-      </c>
-      <c r="L8" s="1" t="n">
-        <v>5934745</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>12396646</v>
+      <c r="K8" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L8" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M8" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N8" s="1" t="n">
-        <v>2802611</v>
+        <v>608281</v>
       </c>
       <c r="O8" s="1" t="n">
-        <v>5934745</v>
+        <v>414610</v>
       </c>
       <c r="P8" s="1" t="n">
-        <v>12396646</v>
+        <v>3369034</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>608281</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>414610</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>3369034</v>
       </c>
     </row>
     <row r="9">
@@ -919,18 +1004,18 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>매출채권</t>
+          <t>단기당기손익-공정가치금융자산</t>
         </is>
       </c>
       <c r="D9" s="1" t="n"/>
       <c r="E9" s="1" t="n">
-        <v>4682182</v>
+        <v>27112</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>4279057</v>
+        <v>29080</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>3147296</v>
+        <v>40757</v>
       </c>
       <c r="H9" s="7" t="inlineStr">
         <is>
@@ -947,23 +1032,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K9" s="1" t="n">
-        <v>4682182</v>
-      </c>
-      <c r="L9" s="1" t="n">
-        <v>4279057</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>3147296</v>
+      <c r="K9" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L9" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M9" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N9" s="1" t="n">
-        <v>4682182</v>
+        <v>27112</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>4279057</v>
+        <v>29080</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>3147296</v>
+        <v>40757</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>27112</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>29080</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>40757</v>
       </c>
     </row>
     <row r="10">
@@ -979,51 +1079,60 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>기타채권</t>
+          <t>매출채권</t>
         </is>
       </c>
       <c r="D10" s="1" t="n"/>
       <c r="E10" s="1" t="n">
-        <v>3431169</v>
+        <v>36647393</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>4458689</v>
+        <v>35721563</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>4220970</v>
-      </c>
-      <c r="H10" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="n">
-        <v>3431169</v>
-      </c>
-      <c r="L10" s="1" t="n">
-        <v>4458689</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>4220970</v>
+        <v>40713415</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>4682182</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>4279057</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>3147296</v>
+      </c>
+      <c r="K10" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M10" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N10" s="1" t="n">
-        <v>3431169</v>
+        <v>41329575</v>
       </c>
       <c r="O10" s="1" t="n">
-        <v>4458689</v>
+        <v>40000620</v>
       </c>
       <c r="P10" s="1" t="n">
-        <v>4220970</v>
+        <v>43860711</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>20664787.5</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>20000310</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>21930355.5</v>
       </c>
     </row>
     <row r="11">
@@ -1039,45 +1148,66 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>재고자산</t>
+          <t>미수금</t>
         </is>
       </c>
       <c r="D11" s="1" t="n"/>
       <c r="E11" s="1" t="n">
-        <v>17400346</v>
+        <v>6633248</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>14291216</v>
+        <v>6149209</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>11645641</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <v>8875615</v>
-      </c>
-      <c r="I11" s="1" t="n">
-        <v>9930732</v>
-      </c>
-      <c r="J11" s="1" t="n">
-        <v>7608182</v>
-      </c>
-      <c r="K11" s="1" t="n">
-        <v>26275961</v>
-      </c>
-      <c r="L11" s="1" t="n">
-        <v>24221948</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <v>19253823</v>
+        <v>4497257</v>
+      </c>
+      <c r="H11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M11" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N11" s="1" t="n">
-        <v>13137980.5</v>
+        <v>6633248</v>
       </c>
       <c r="O11" s="1" t="n">
-        <v>12110974</v>
+        <v>6149209</v>
       </c>
       <c r="P11" s="1" t="n">
-        <v>9626911.5</v>
+        <v>4497257</v>
+      </c>
+      <c r="Q11" s="1" t="n">
+        <v>6633248</v>
+      </c>
+      <c r="R11" s="1" t="n">
+        <v>6149209</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>4497257</v>
       </c>
     </row>
     <row r="12">
@@ -1093,18 +1223,18 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>기타자산</t>
+          <t>선급비용</t>
         </is>
       </c>
       <c r="D12" s="1" t="n"/>
       <c r="E12" s="1" t="n">
-        <v>3150939</v>
+        <v>3366130</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>2640553</v>
+        <v>2867823</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>2081853</v>
+        <v>2336252</v>
       </c>
       <c r="H12" s="7" t="inlineStr">
         <is>
@@ -1121,23 +1251,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K12" s="1" t="n">
-        <v>3150939</v>
-      </c>
-      <c r="L12" s="1" t="n">
-        <v>2640553</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <v>2081853</v>
+      <c r="K12" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N12" s="1" t="n">
-        <v>3150939</v>
+        <v>3366130</v>
       </c>
       <c r="O12" s="1" t="n">
-        <v>2640553</v>
+        <v>2867823</v>
       </c>
       <c r="P12" s="1" t="n">
-        <v>2081853</v>
+        <v>2336252</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>3366130</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>2867823</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>2336252</v>
       </c>
     </row>
     <row r="13">
@@ -1153,45 +1298,54 @@
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>당기법인세자산</t>
+          <t>재고자산</t>
         </is>
       </c>
       <c r="D13" s="1" t="n"/>
       <c r="E13" s="1" t="n">
-        <v>195696</v>
+        <v>51625874</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>85867</v>
+        <v>52187866</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>47346</v>
+        <v>41384404</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>69612</v>
+        <v>17400346</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>46619</v>
+        <v>14291216</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>41344</v>
+        <v>11645641</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>265308</v>
+        <v>8875615</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>132486</v>
+        <v>9930732</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>88690</v>
+        <v>7608182</v>
       </c>
       <c r="N13" s="1" t="n">
-        <v>132654</v>
+        <v>77901835</v>
       </c>
       <c r="O13" s="1" t="n">
-        <v>66243</v>
+        <v>76409814</v>
       </c>
       <c r="P13" s="1" t="n">
-        <v>44345</v>
+        <v>60638227</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>25967278.33333333</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>25469938</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>20212742.33333333</v>
       </c>
     </row>
     <row r="14">
@@ -1207,18 +1361,18 @@
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>금융업채권</t>
+          <t>기타유동자산</t>
         </is>
       </c>
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="n">
-        <v>43120684</v>
+        <v>5038838</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>38037368</v>
+        <v>6316834</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>35252606</v>
+        <v>5081665</v>
       </c>
       <c r="H14" s="7" t="inlineStr">
         <is>
@@ -1235,23 +1389,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K14" s="1" t="n">
-        <v>43120684</v>
-      </c>
-      <c r="L14" s="1" t="n">
-        <v>38037368</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>35252606</v>
+      <c r="K14" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L14" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M14" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N14" s="1" t="n">
-        <v>43120684</v>
+        <v>5038838</v>
       </c>
       <c r="O14" s="1" t="n">
-        <v>38037368</v>
+        <v>6316834</v>
       </c>
       <c r="P14" s="1" t="n">
-        <v>35252606</v>
+        <v>5081665</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>5038838</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>6316834</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>5081665</v>
       </c>
     </row>
     <row r="15">
@@ -1267,18 +1436,18 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>매각예정비유동자산</t>
+          <t>매각예정분류자산</t>
         </is>
       </c>
       <c r="D15" s="1" t="n"/>
       <c r="E15" s="1" t="n">
-        <v>434503</v>
+        <v>217864</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>22302</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>28121</v>
+        <v>0</v>
       </c>
       <c r="H15" s="7" t="inlineStr">
         <is>
@@ -1295,23 +1464,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K15" s="1" t="n">
-        <v>434503</v>
-      </c>
-      <c r="L15" s="1" t="n">
-        <v>22302</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <v>28121</v>
+      <c r="K15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M15" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N15" s="1" t="n">
-        <v>434503</v>
+        <v>217864</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>22302</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>28121</v>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>217864</v>
+      </c>
+      <c r="R15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1327,7 +1511,7 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>유동금융자산</t>
+          <t>기타금융자산</t>
         </is>
       </c>
       <c r="D16" s="1" t="n"/>
@@ -1347,31 +1531,46 @@
         </is>
       </c>
       <c r="H16" s="1" t="n">
-        <v>3107397</v>
+        <v>2802611</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>4286975</v>
+        <v>5934745</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>1868796</v>
-      </c>
-      <c r="K16" s="1" t="n">
-        <v>3107397</v>
-      </c>
-      <c r="L16" s="1" t="n">
-        <v>4286975</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <v>1868796</v>
+        <v>12396646</v>
+      </c>
+      <c r="K16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M16" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N16" s="1" t="n">
-        <v>3107397</v>
+        <v>2802611</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>4286975</v>
+        <v>5934745</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>1868796</v>
+        <v>12396646</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>2802611</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>5934745</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>12396646</v>
       </c>
     </row>
     <row r="17">
@@ -1387,7 +1586,7 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>매출채권및기타채권</t>
+          <t>기타채권</t>
         </is>
       </c>
       <c r="D17" s="1" t="n"/>
@@ -1407,31 +1606,46 @@
         </is>
       </c>
       <c r="H17" s="1" t="n">
-        <v>11985735</v>
+        <v>3431169</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>10461822</v>
+        <v>4458689</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>8122415</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>11985735</v>
-      </c>
-      <c r="L17" s="1" t="n">
-        <v>10461822</v>
-      </c>
-      <c r="M17" s="1" t="n">
-        <v>8122415</v>
+        <v>4220970</v>
+      </c>
+      <c r="K17" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L17" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M17" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N17" s="1" t="n">
-        <v>11985735</v>
+        <v>3431169</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>10461822</v>
+        <v>4458689</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>8122415</v>
+        <v>4220970</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>3431169</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>4458689</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>4220970</v>
       </c>
     </row>
     <row r="18">
@@ -1447,7 +1661,7 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>유동비금융자산</t>
+          <t>기타자산</t>
         </is>
       </c>
       <c r="D18" s="1" t="n"/>
@@ -1467,31 +1681,46 @@
         </is>
       </c>
       <c r="H18" s="1" t="n">
-        <v>1109321</v>
+        <v>3150939</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>1744869</v>
+        <v>2640553</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>1758991</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>1109321</v>
-      </c>
-      <c r="L18" s="1" t="n">
-        <v>1744869</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <v>1758991</v>
+        <v>2081853</v>
+      </c>
+      <c r="K18" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L18" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M18" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N18" s="1" t="n">
-        <v>1109321</v>
+        <v>3150939</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>1744869</v>
+        <v>2640553</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>1758991</v>
+        <v>2081853</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>3150939</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>2640553</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>2081853</v>
       </c>
     </row>
     <row r="19">
@@ -1507,7 +1736,7 @@
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>매각예정자산</t>
+          <t>당기법인세자산</t>
         </is>
       </c>
       <c r="D19" s="1" t="n"/>
@@ -1527,31 +1756,40 @@
         </is>
       </c>
       <c r="H19" s="1" t="n">
-        <v>45648</v>
+        <v>195696</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>44748</v>
+        <v>85867</v>
       </c>
       <c r="J19" s="1" t="n">
-        <v>15879</v>
+        <v>47346</v>
       </c>
       <c r="K19" s="1" t="n">
-        <v>45648</v>
+        <v>69612</v>
       </c>
       <c r="L19" s="1" t="n">
-        <v>44748</v>
+        <v>46619</v>
       </c>
       <c r="M19" s="1" t="n">
-        <v>15879</v>
+        <v>41344</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>45648</v>
+        <v>265308</v>
       </c>
       <c r="O19" s="1" t="n">
-        <v>44748</v>
+        <v>132486</v>
       </c>
       <c r="P19" s="1" t="n">
-        <v>15879</v>
+        <v>88690</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>132654</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>66243</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>44345</v>
       </c>
     </row>
     <row r="20">
@@ -1562,46 +1800,71 @@
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>비유동자산</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="n"/>
+          <t>유동자산</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>금융업채권</t>
+        </is>
+      </c>
       <c r="D20" s="1" t="n"/>
-      <c r="E20" s="1" t="n">
-        <v>180738638</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>159353189</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>145381049</v>
+      <c r="E20" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H20" s="1" t="n">
-        <v>210178750</v>
+        <v>43120684</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>205054449</v>
+        <v>38037368</v>
       </c>
       <c r="J20" s="1" t="n">
-        <v>189072882</v>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>390917388</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <v>364407638</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <v>334453931</v>
+        <v>35252606</v>
+      </c>
+      <c r="K20" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L20" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M20" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N20" s="1" t="n">
-        <v>195458694</v>
+        <v>43120684</v>
       </c>
       <c r="O20" s="1" t="n">
-        <v>182203819</v>
+        <v>38037368</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>167226965.5</v>
+        <v>35252606</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>43120684</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>38037368</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>35252606</v>
       </c>
     </row>
     <row r="21">
@@ -1612,56 +1875,71 @@
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>비유동자산</t>
+          <t>유동자산</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>장기금융상품</t>
+          <t>매각예정비유동자산</t>
         </is>
       </c>
       <c r="D21" s="1" t="n"/>
-      <c r="E21" s="1" t="n">
-        <v>154966</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>112557</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>306410</v>
-      </c>
-      <c r="H21" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I21" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J21" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>154966</v>
-      </c>
-      <c r="L21" s="1" t="n">
-        <v>112557</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <v>306410</v>
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>434503</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>22302</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>28121</v>
+      </c>
+      <c r="K21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M21" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N21" s="1" t="n">
-        <v>154966</v>
+        <v>434503</v>
       </c>
       <c r="O21" s="1" t="n">
-        <v>112557</v>
+        <v>22302</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>306410</v>
+        <v>28121</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>434503</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>22302</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>28121</v>
       </c>
     </row>
     <row r="22">
@@ -1672,23 +1950,29 @@
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>비유동자산</t>
+          <t>유동자산</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>기타금융자산</t>
+          <t>유동금융자산</t>
         </is>
       </c>
       <c r="D22" s="1" t="n"/>
-      <c r="E22" s="1" t="n">
-        <v>4423388</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>3889776</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>3539286</v>
+      <c r="E22" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H22" s="7" t="inlineStr">
         <is>
@@ -1706,22 +1990,31 @@
         </is>
       </c>
       <c r="K22" s="1" t="n">
-        <v>4423388</v>
+        <v>3107397</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>3889776</v>
+        <v>4286975</v>
       </c>
       <c r="M22" s="1" t="n">
-        <v>3539286</v>
+        <v>1868796</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>4423388</v>
+        <v>3107397</v>
       </c>
       <c r="O22" s="1" t="n">
-        <v>3889776</v>
+        <v>4286975</v>
       </c>
       <c r="P22" s="1" t="n">
-        <v>3539286</v>
+        <v>1868796</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>3107397</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>4286975</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>1868796</v>
       </c>
     </row>
     <row r="23">
@@ -1732,23 +2025,29 @@
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>비유동자산</t>
+          <t>유동자산</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>장기성매출채권</t>
+          <t>매출채권및기타채권</t>
         </is>
       </c>
       <c r="D23" s="1" t="n"/>
-      <c r="E23" s="1" t="n">
-        <v>210979</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>179781</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>137157</v>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F23" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H23" s="7" t="inlineStr">
         <is>
@@ -1766,22 +2065,31 @@
         </is>
       </c>
       <c r="K23" s="1" t="n">
-        <v>210979</v>
+        <v>11985735</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>179781</v>
+        <v>10461822</v>
       </c>
       <c r="M23" s="1" t="n">
-        <v>137157</v>
+        <v>8122415</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>210979</v>
+        <v>11985735</v>
       </c>
       <c r="O23" s="1" t="n">
-        <v>179781</v>
+        <v>10461822</v>
       </c>
       <c r="P23" s="1" t="n">
-        <v>137157</v>
+        <v>8122415</v>
+      </c>
+      <c r="Q23" s="1" t="n">
+        <v>11985735</v>
+      </c>
+      <c r="R23" s="1" t="n">
+        <v>10461822</v>
+      </c>
+      <c r="S23" s="1" t="n">
+        <v>8122415</v>
       </c>
     </row>
     <row r="24">
@@ -1792,23 +2100,29 @@
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>비유동자산</t>
+          <t>유동자산</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>기타채권</t>
+          <t>유동비금융자산</t>
         </is>
       </c>
       <c r="D24" s="1" t="n"/>
-      <c r="E24" s="1" t="n">
-        <v>855015</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>821050</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>741168</v>
+      <c r="E24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H24" s="7" t="inlineStr">
         <is>
@@ -1826,22 +2140,31 @@
         </is>
       </c>
       <c r="K24" s="1" t="n">
-        <v>855015</v>
+        <v>1109321</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>821050</v>
+        <v>1744869</v>
       </c>
       <c r="M24" s="1" t="n">
-        <v>741168</v>
+        <v>1758991</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>855015</v>
+        <v>1109321</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>821050</v>
+        <v>1744869</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>741168</v>
+        <v>1758991</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>1109321</v>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>1744869</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>1758991</v>
       </c>
     </row>
     <row r="25">
@@ -1852,23 +2175,29 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>비유동자산</t>
+          <t>유동자산</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>기타자산</t>
+          <t>매각예정자산</t>
         </is>
       </c>
       <c r="D25" s="1" t="n"/>
-      <c r="E25" s="1" t="n">
-        <v>1970119</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>1550455</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>1191284</v>
+      <c r="E25" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F25" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H25" s="7" t="inlineStr">
         <is>
@@ -1886,22 +2215,31 @@
         </is>
       </c>
       <c r="K25" s="1" t="n">
-        <v>1970119</v>
+        <v>45648</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>1550455</v>
+        <v>44748</v>
       </c>
       <c r="M25" s="1" t="n">
-        <v>1191284</v>
+        <v>15879</v>
       </c>
       <c r="N25" s="1" t="n">
-        <v>1970119</v>
+        <v>45648</v>
       </c>
       <c r="O25" s="1" t="n">
-        <v>1550455</v>
+        <v>44748</v>
       </c>
       <c r="P25" s="1" t="n">
-        <v>1191284</v>
+        <v>15879</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>45648</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>44748</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>15879</v>
       </c>
     </row>
     <row r="26">
@@ -1915,47 +2253,52 @@
           <t>비유동자산</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>유형자산</t>
-        </is>
-      </c>
+      <c r="C26" s="1" t="n"/>
       <c r="D26" s="1" t="n"/>
       <c r="E26" s="1" t="n">
-        <v>38920900</v>
+        <v>259969423</v>
       </c>
       <c r="F26" s="1" t="n">
-        <v>36153190</v>
+        <v>229953926</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>35543083</v>
+        <v>208457973</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>179875535</v>
+        <v>180738638</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>177865308</v>
+        <v>159353189</v>
       </c>
       <c r="J26" s="1" t="n">
-        <v>173134638</v>
+        <v>145381049</v>
       </c>
       <c r="K26" s="1" t="n">
-        <v>218796435</v>
+        <v>210178750</v>
       </c>
       <c r="L26" s="1" t="n">
-        <v>214018498</v>
+        <v>205054449</v>
       </c>
       <c r="M26" s="1" t="n">
-        <v>208677721</v>
+        <v>189072882</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>109398217.5</v>
+        <v>650886811</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>107009249</v>
+        <v>594361564</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>104338860.5</v>
+        <v>542911904</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>216962270.3333333</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>198120521.3333333</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>180970634.6666667</v>
       </c>
     </row>
     <row r="27">
@@ -1971,45 +2314,66 @@
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>투자부동산</t>
+          <t>기타포괄손익-공정가치 측정 비유동금융자산</t>
         </is>
       </c>
       <c r="D27" s="1" t="n"/>
       <c r="E27" s="1" t="n">
-        <v>146148</v>
+        <v>7481297</v>
       </c>
       <c r="F27" s="1" t="n">
-        <v>144450</v>
+        <v>11397012</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>156656</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>185527</v>
-      </c>
-      <c r="I27" s="1" t="n">
-        <v>208286</v>
-      </c>
-      <c r="J27" s="1" t="n">
-        <v>212784</v>
-      </c>
-      <c r="K27" s="1" t="n">
-        <v>331675</v>
-      </c>
-      <c r="L27" s="1" t="n">
-        <v>352736</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <v>369440</v>
+        <v>13965839</v>
+      </c>
+      <c r="H27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M27" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N27" s="1" t="n">
-        <v>165837.5</v>
+        <v>7481297</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>176368</v>
+        <v>11397012</v>
       </c>
       <c r="P27" s="1" t="n">
-        <v>184720</v>
+        <v>13965839</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>7481297</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>11397012</v>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>13965839</v>
       </c>
     </row>
     <row r="28">
@@ -2025,18 +2389,18 @@
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>무형자산</t>
+          <t>당기손익-공정가치금융자산</t>
         </is>
       </c>
       <c r="D28" s="1" t="n"/>
       <c r="E28" s="1" t="n">
-        <v>6218585</v>
+        <v>1431394</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>6102377</v>
+        <v>1405468</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>5846986</v>
+        <v>1525344</v>
       </c>
       <c r="H28" s="7" t="inlineStr">
         <is>
@@ -2053,23 +2417,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K28" s="1" t="n">
-        <v>6218585</v>
-      </c>
-      <c r="L28" s="1" t="n">
-        <v>6102377</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <v>5846986</v>
+      <c r="K28" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L28" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M28" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N28" s="1" t="n">
-        <v>6218585</v>
+        <v>1431394</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>6102377</v>
+        <v>1405468</v>
       </c>
       <c r="P28" s="1" t="n">
-        <v>5846986</v>
+        <v>1525344</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>1431394</v>
+      </c>
+      <c r="R28" s="1" t="n">
+        <v>1405468</v>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>1525344</v>
       </c>
     </row>
     <row r="29">
@@ -2085,18 +2464,18 @@
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>공동기업 및 관계기업투자</t>
+          <t>관계종속기업투자자산-지분법</t>
         </is>
       </c>
       <c r="D29" s="1" t="n"/>
       <c r="E29" s="1" t="n">
-        <v>28476142</v>
+        <v>11767444</v>
       </c>
       <c r="F29" s="1" t="n">
-        <v>25199437</v>
+        <v>10893869</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>22429117</v>
+        <v>8932251</v>
       </c>
       <c r="H29" s="7" t="inlineStr">
         <is>
@@ -2113,23 +2492,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K29" s="1" t="n">
-        <v>28476142</v>
-      </c>
-      <c r="L29" s="1" t="n">
-        <v>25199437</v>
-      </c>
-      <c r="M29" s="1" t="n">
-        <v>22429117</v>
+      <c r="K29" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L29" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M29" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N29" s="1" t="n">
-        <v>28476142</v>
+        <v>11767444</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>25199437</v>
+        <v>10893869</v>
       </c>
       <c r="P29" s="1" t="n">
-        <v>22429117</v>
+        <v>8932251</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>11767444</v>
+      </c>
+      <c r="R29" s="1" t="n">
+        <v>10893869</v>
+      </c>
+      <c r="S29" s="1" t="n">
+        <v>8932251</v>
       </c>
     </row>
     <row r="30">
@@ -2145,45 +2539,54 @@
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>순확정급여자산</t>
+          <t>유형자산</t>
         </is>
       </c>
       <c r="D30" s="1" t="n"/>
       <c r="E30" s="1" t="n">
-        <v>488181</v>
+        <v>187256262</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>837502</v>
+        <v>168045388</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>219721</v>
+        <v>149928539</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>70187</v>
+        <v>38920900</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>198626</v>
+        <v>36153190</v>
       </c>
       <c r="J30" s="1" t="n">
-        <v>20871</v>
+        <v>35543083</v>
       </c>
       <c r="K30" s="1" t="n">
-        <v>558368</v>
+        <v>179875535</v>
       </c>
       <c r="L30" s="1" t="n">
-        <v>1036128</v>
+        <v>177865308</v>
       </c>
       <c r="M30" s="1" t="n">
-        <v>240592</v>
+        <v>173134638</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>279184</v>
+        <v>406052697</v>
       </c>
       <c r="O30" s="1" t="n">
-        <v>518064</v>
+        <v>382063886</v>
       </c>
       <c r="P30" s="1" t="n">
-        <v>120296</v>
+        <v>358606260</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>135350899</v>
+      </c>
+      <c r="R30" s="1" t="n">
+        <v>127354628.6666667</v>
+      </c>
+      <c r="S30" s="1" t="n">
+        <v>119535420</v>
       </c>
     </row>
     <row r="31">
@@ -2199,45 +2602,60 @@
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>이연법인세자산</t>
+          <t>무형자산</t>
         </is>
       </c>
       <c r="D31" s="1" t="n"/>
       <c r="E31" s="1" t="n">
-        <v>3604977</v>
+        <v>22741862</v>
       </c>
       <c r="F31" s="1" t="n">
-        <v>3237309</v>
+        <v>20217754</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>2224833</v>
+        <v>20236244</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>13161802</v>
+        <v>6218585</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>10934375</v>
+        <v>6102377</v>
       </c>
       <c r="J31" s="1" t="n">
-        <v>1901992</v>
-      </c>
-      <c r="K31" s="1" t="n">
-        <v>16766779</v>
-      </c>
-      <c r="L31" s="1" t="n">
-        <v>14171684</v>
-      </c>
-      <c r="M31" s="1" t="n">
-        <v>4126825</v>
+        <v>5846986</v>
+      </c>
+      <c r="K31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M31" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N31" s="1" t="n">
-        <v>8383389.5</v>
+        <v>28960447</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>7085842</v>
+        <v>26320131</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>2063412.5</v>
+        <v>26083230</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>14480223.5</v>
+      </c>
+      <c r="R31" s="1" t="n">
+        <v>13160065.5</v>
+      </c>
+      <c r="S31" s="1" t="n">
+        <v>13041615</v>
       </c>
     </row>
     <row r="32">
@@ -2253,51 +2671,54 @@
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>금융업채권</t>
+          <t>순확정급여자산</t>
         </is>
       </c>
       <c r="D32" s="1" t="n"/>
       <c r="E32" s="1" t="n">
-        <v>64566977</v>
+        <v>4905219</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>52326478</v>
+        <v>5851972</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>45776526</v>
-      </c>
-      <c r="H32" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I32" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J32" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>2809590</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>488181</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>837502</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>219721</v>
       </c>
       <c r="K32" s="1" t="n">
-        <v>64566977</v>
+        <v>70187</v>
       </c>
       <c r="L32" s="1" t="n">
-        <v>52326478</v>
+        <v>198626</v>
       </c>
       <c r="M32" s="1" t="n">
-        <v>45776526</v>
+        <v>20871</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>64566977</v>
+        <v>5463587</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>52326478</v>
+        <v>6888100</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>45776526</v>
+        <v>3050182</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>1821195.666666667</v>
+      </c>
+      <c r="R32" s="1" t="n">
+        <v>2296033.333333333</v>
+      </c>
+      <c r="S32" s="1" t="n">
+        <v>1016727.333333333</v>
       </c>
     </row>
     <row r="33">
@@ -2313,51 +2734,54 @@
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>운용리스 자산</t>
+          <t>이연법인세자산</t>
         </is>
       </c>
       <c r="D33" s="1" t="n"/>
       <c r="E33" s="1" t="n">
-        <v>29664618</v>
+        <v>10211797</v>
       </c>
       <c r="F33" s="1" t="n">
-        <v>27681534</v>
+        <v>5101318</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>26327996</v>
-      </c>
-      <c r="H33" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I33" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J33" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>4261214</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>3604977</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>3237309</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>2224833</v>
       </c>
       <c r="K33" s="1" t="n">
-        <v>29664618</v>
+        <v>13161802</v>
       </c>
       <c r="L33" s="1" t="n">
-        <v>27681534</v>
+        <v>10934375</v>
       </c>
       <c r="M33" s="1" t="n">
-        <v>26327996</v>
+        <v>1901992</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>29664618</v>
+        <v>26978576</v>
       </c>
       <c r="O33" s="1" t="n">
-        <v>27681534</v>
+        <v>19273002</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>26327996</v>
+        <v>8388039</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <v>8992858.666666666</v>
+      </c>
+      <c r="R33" s="1" t="n">
+        <v>6424334</v>
+      </c>
+      <c r="S33" s="1" t="n">
+        <v>2796013</v>
       </c>
     </row>
     <row r="34">
@@ -2373,18 +2797,18 @@
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>사용권자산</t>
+          <t>기타비유동자산</t>
         </is>
       </c>
       <c r="D34" s="1" t="n"/>
       <c r="E34" s="1" t="n">
-        <v>1037643</v>
+        <v>14174148</v>
       </c>
       <c r="F34" s="1" t="n">
-        <v>1117293</v>
+        <v>7041145</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>940826</v>
+        <v>6798952</v>
       </c>
       <c r="H34" s="7" t="inlineStr">
         <is>
@@ -2401,23 +2825,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K34" s="1" t="n">
-        <v>1037643</v>
-      </c>
-      <c r="L34" s="1" t="n">
-        <v>1117293</v>
-      </c>
-      <c r="M34" s="1" t="n">
-        <v>940826</v>
+      <c r="K34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M34" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N34" s="1" t="n">
-        <v>1037643</v>
+        <v>14174148</v>
       </c>
       <c r="O34" s="1" t="n">
-        <v>1117293</v>
+        <v>7041145</v>
       </c>
       <c r="P34" s="1" t="n">
-        <v>940826</v>
+        <v>6798952</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>14174148</v>
+      </c>
+      <c r="R34" s="1" t="n">
+        <v>7041145</v>
+      </c>
+      <c r="S34" s="1" t="n">
+        <v>6798952</v>
       </c>
     </row>
     <row r="35">
@@ -2433,7 +2872,7 @@
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>비유동금융자산</t>
+          <t>장기금융상품</t>
         </is>
       </c>
       <c r="D35" s="1" t="n"/>
@@ -2453,31 +2892,46 @@
         </is>
       </c>
       <c r="H35" s="1" t="n">
-        <v>3546214</v>
+        <v>154966</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>3336835</v>
+        <v>112557</v>
       </c>
       <c r="J35" s="1" t="n">
-        <v>2909810</v>
-      </c>
-      <c r="K35" s="1" t="n">
-        <v>3546214</v>
-      </c>
-      <c r="L35" s="1" t="n">
-        <v>3336835</v>
-      </c>
-      <c r="M35" s="1" t="n">
-        <v>2909810</v>
+        <v>306410</v>
+      </c>
+      <c r="K35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M35" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N35" s="1" t="n">
-        <v>3546214</v>
+        <v>154966</v>
       </c>
       <c r="O35" s="1" t="n">
-        <v>3336835</v>
+        <v>112557</v>
       </c>
       <c r="P35" s="1" t="n">
-        <v>2909810</v>
+        <v>306410</v>
+      </c>
+      <c r="Q35" s="1" t="n">
+        <v>154966</v>
+      </c>
+      <c r="R35" s="1" t="n">
+        <v>112557</v>
+      </c>
+      <c r="S35" s="1" t="n">
+        <v>306410</v>
       </c>
     </row>
     <row r="36">
@@ -2493,7 +2947,7 @@
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>장기매출채권및기타채권</t>
+          <t>기타금융자산</t>
         </is>
       </c>
       <c r="D36" s="1" t="n"/>
@@ -2513,31 +2967,46 @@
         </is>
       </c>
       <c r="H36" s="1" t="n">
-        <v>2193587</v>
+        <v>4423388</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>2153080</v>
+        <v>3889776</v>
       </c>
       <c r="J36" s="1" t="n">
-        <v>1906861</v>
-      </c>
-      <c r="K36" s="1" t="n">
-        <v>2193587</v>
-      </c>
-      <c r="L36" s="1" t="n">
-        <v>2153080</v>
-      </c>
-      <c r="M36" s="1" t="n">
-        <v>1906861</v>
+        <v>3539286</v>
+      </c>
+      <c r="K36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M36" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N36" s="1" t="n">
-        <v>2193587</v>
+        <v>4423388</v>
       </c>
       <c r="O36" s="1" t="n">
-        <v>2153080</v>
+        <v>3889776</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>1906861</v>
+        <v>3539286</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>4423388</v>
+      </c>
+      <c r="R36" s="1" t="n">
+        <v>3889776</v>
+      </c>
+      <c r="S36" s="1" t="n">
+        <v>3539286</v>
       </c>
     </row>
     <row r="37">
@@ -2553,7 +3022,7 @@
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>영업권</t>
+          <t>장기성매출채권</t>
         </is>
       </c>
       <c r="D37" s="1" t="n"/>
@@ -2573,31 +3042,46 @@
         </is>
       </c>
       <c r="H37" s="1" t="n">
-        <v>99156</v>
+        <v>210979</v>
       </c>
       <c r="I37" s="1" t="n">
-        <v>100093</v>
+        <v>179781</v>
       </c>
       <c r="J37" s="1" t="n">
-        <v>105647</v>
-      </c>
-      <c r="K37" s="1" t="n">
-        <v>99156</v>
-      </c>
-      <c r="L37" s="1" t="n">
-        <v>100093</v>
-      </c>
-      <c r="M37" s="1" t="n">
-        <v>105647</v>
+        <v>137157</v>
+      </c>
+      <c r="K37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M37" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N37" s="1" t="n">
-        <v>99156</v>
+        <v>210979</v>
       </c>
       <c r="O37" s="1" t="n">
-        <v>100093</v>
+        <v>179781</v>
       </c>
       <c r="P37" s="1" t="n">
-        <v>105647</v>
+        <v>137157</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>210979</v>
+      </c>
+      <c r="R37" s="1" t="n">
+        <v>179781</v>
+      </c>
+      <c r="S37" s="1" t="n">
+        <v>137157</v>
       </c>
     </row>
     <row r="38">
@@ -2613,7 +3097,7 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>영업권 이외의 무형자산</t>
+          <t>기타채권</t>
         </is>
       </c>
       <c r="D38" s="1" t="n"/>
@@ -2633,31 +3117,46 @@
         </is>
       </c>
       <c r="H38" s="1" t="n">
-        <v>1033984</v>
+        <v>855015</v>
       </c>
       <c r="I38" s="1" t="n">
-        <v>956664</v>
+        <v>821050</v>
       </c>
       <c r="J38" s="1" t="n">
-        <v>1044077</v>
-      </c>
-      <c r="K38" s="1" t="n">
-        <v>1033984</v>
-      </c>
-      <c r="L38" s="1" t="n">
-        <v>956664</v>
-      </c>
-      <c r="M38" s="1" t="n">
-        <v>1044077</v>
+        <v>741168</v>
+      </c>
+      <c r="K38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M38" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N38" s="1" t="n">
-        <v>1033984</v>
+        <v>855015</v>
       </c>
       <c r="O38" s="1" t="n">
-        <v>956664</v>
+        <v>821050</v>
       </c>
       <c r="P38" s="1" t="n">
-        <v>1044077</v>
+        <v>741168</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>855015</v>
+      </c>
+      <c r="R38" s="1" t="n">
+        <v>821050</v>
+      </c>
+      <c r="S38" s="1" t="n">
+        <v>741168</v>
       </c>
     </row>
     <row r="39">
@@ -2673,7 +3172,7 @@
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>관계기업투자지분</t>
+          <t>기타자산</t>
         </is>
       </c>
       <c r="D39" s="1" t="n"/>
@@ -2693,31 +3192,46 @@
         </is>
       </c>
       <c r="H39" s="1" t="n">
-        <v>6176889</v>
+        <v>1970119</v>
       </c>
       <c r="I39" s="1" t="n">
-        <v>5844464</v>
+        <v>1550455</v>
       </c>
       <c r="J39" s="1" t="n">
-        <v>5232373</v>
-      </c>
-      <c r="K39" s="1" t="n">
-        <v>6176889</v>
-      </c>
-      <c r="L39" s="1" t="n">
-        <v>5844464</v>
-      </c>
-      <c r="M39" s="1" t="n">
-        <v>5232373</v>
+        <v>1191284</v>
+      </c>
+      <c r="K39" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L39" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M39" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N39" s="1" t="n">
-        <v>6176889</v>
+        <v>1970119</v>
       </c>
       <c r="O39" s="1" t="n">
-        <v>5844464</v>
+        <v>1550455</v>
       </c>
       <c r="P39" s="1" t="n">
-        <v>5232373</v>
+        <v>1191284</v>
+      </c>
+      <c r="Q39" s="1" t="n">
+        <v>1970119</v>
+      </c>
+      <c r="R39" s="1" t="n">
+        <v>1550455</v>
+      </c>
+      <c r="S39" s="1" t="n">
+        <v>1191284</v>
       </c>
     </row>
     <row r="40">
@@ -2733,7 +3247,7 @@
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>공동기업투자지분</t>
+          <t>투자부동산</t>
         </is>
       </c>
       <c r="D40" s="1" t="n"/>
@@ -2753,31 +3267,40 @@
         </is>
       </c>
       <c r="H40" s="1" t="n">
-        <v>3485699</v>
+        <v>146148</v>
       </c>
       <c r="I40" s="1" t="n">
-        <v>3147584</v>
+        <v>144450</v>
       </c>
       <c r="J40" s="1" t="n">
-        <v>2239011</v>
+        <v>156656</v>
       </c>
       <c r="K40" s="1" t="n">
-        <v>3485699</v>
+        <v>185527</v>
       </c>
       <c r="L40" s="1" t="n">
-        <v>3147584</v>
+        <v>208286</v>
       </c>
       <c r="M40" s="1" t="n">
-        <v>2239011</v>
+        <v>212784</v>
       </c>
       <c r="N40" s="1" t="n">
-        <v>3485699</v>
+        <v>331675</v>
       </c>
       <c r="O40" s="1" t="n">
-        <v>3147584</v>
+        <v>352736</v>
       </c>
       <c r="P40" s="1" t="n">
-        <v>2239011</v>
+        <v>369440</v>
+      </c>
+      <c r="Q40" s="1" t="n">
+        <v>165837.5</v>
+      </c>
+      <c r="R40" s="1" t="n">
+        <v>176368</v>
+      </c>
+      <c r="S40" s="1" t="n">
+        <v>184720</v>
       </c>
     </row>
     <row r="41">
@@ -2793,7 +3316,7 @@
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>비유동비금융자산</t>
+          <t>공동기업 및 관계기업투자</t>
         </is>
       </c>
       <c r="D41" s="1" t="n"/>
@@ -2813,31 +3336,46 @@
         </is>
       </c>
       <c r="H41" s="1" t="n">
-        <v>350170</v>
+        <v>28476142</v>
       </c>
       <c r="I41" s="1" t="n">
-        <v>309134</v>
+        <v>25199437</v>
       </c>
       <c r="J41" s="1" t="n">
-        <v>364818</v>
-      </c>
-      <c r="K41" s="1" t="n">
-        <v>350170</v>
-      </c>
-      <c r="L41" s="1" t="n">
-        <v>309134</v>
-      </c>
-      <c r="M41" s="1" t="n">
-        <v>364818</v>
+        <v>22429117</v>
+      </c>
+      <c r="K41" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L41" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M41" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N41" s="1" t="n">
-        <v>350170</v>
+        <v>28476142</v>
       </c>
       <c r="O41" s="1" t="n">
-        <v>309134</v>
+        <v>25199437</v>
       </c>
       <c r="P41" s="1" t="n">
-        <v>364818</v>
+        <v>22429117</v>
+      </c>
+      <c r="Q41" s="1" t="n">
+        <v>28476142</v>
+      </c>
+      <c r="R41" s="1" t="n">
+        <v>25199437</v>
+      </c>
+      <c r="S41" s="1" t="n">
+        <v>22429117</v>
       </c>
     </row>
     <row r="42">
@@ -2848,56 +3386,89 @@
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>자산총계</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="n"/>
+          <t>비유동자산</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>금융업채권</t>
+        </is>
+      </c>
       <c r="D42" s="1" t="n"/>
-      <c r="E42" s="1" t="n">
-        <v>282463355</v>
-      </c>
-      <c r="F42" s="1" t="n">
-        <v>255742462</v>
-      </c>
-      <c r="G42" s="1" t="n">
-        <v>233946415</v>
+      <c r="E42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H42" s="1" t="n">
-        <v>239714965</v>
+        <v>64566977</v>
       </c>
       <c r="I42" s="1" t="n">
-        <v>234804994</v>
+        <v>52326478</v>
       </c>
       <c r="J42" s="1" t="n">
-        <v>211123727</v>
-      </c>
-      <c r="K42" s="1" t="n">
-        <v>522178320</v>
-      </c>
-      <c r="L42" s="1" t="n">
-        <v>490547456</v>
-      </c>
-      <c r="M42" s="1" t="n">
-        <v>445070142</v>
+        <v>45776526</v>
+      </c>
+      <c r="K42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M42" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N42" s="1" t="n">
-        <v>261089160</v>
+        <v>64566977</v>
       </c>
       <c r="O42" s="1" t="n">
-        <v>245273728</v>
+        <v>52326478</v>
       </c>
       <c r="P42" s="1" t="n">
-        <v>222535071</v>
+        <v>45776526</v>
+      </c>
+      <c r="Q42" s="1" t="n">
+        <v>64566977</v>
+      </c>
+      <c r="R42" s="1" t="n">
+        <v>52326478</v>
+      </c>
+      <c r="S42" s="1" t="n">
+        <v>45776526</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>부채</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="n"/>
+          <t>자산</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>비유동자산</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>운용리스 자산</t>
+        </is>
+      </c>
       <c r="D43" s="1" t="n"/>
       <c r="E43" s="7" t="inlineStr">
         <is>
@@ -2914,20 +3485,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H43" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I43" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J43" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>29664618</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>27681534</v>
+      </c>
+      <c r="J43" s="1" t="n">
+        <v>26327996</v>
       </c>
       <c r="K43" s="7" t="inlineStr">
         <is>
@@ -2944,97 +3509,131 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N43" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O43" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P43" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N43" s="1" t="n">
+        <v>29664618</v>
+      </c>
+      <c r="O43" s="1" t="n">
+        <v>27681534</v>
+      </c>
+      <c r="P43" s="1" t="n">
+        <v>26327996</v>
+      </c>
+      <c r="Q43" s="1" t="n">
+        <v>29664618</v>
+      </c>
+      <c r="R43" s="1" t="n">
+        <v>27681534</v>
+      </c>
+      <c r="S43" s="1" t="n">
+        <v>26327996</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>부채</t>
+          <t>자산</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>유동부채</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="n"/>
+          <t>비유동자산</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr">
+        <is>
+          <t>사용권자산</t>
+        </is>
+      </c>
       <c r="D44" s="1" t="n"/>
-      <c r="E44" s="1" t="n">
-        <v>73362103</v>
-      </c>
-      <c r="F44" s="1" t="n">
-        <v>74236472</v>
-      </c>
-      <c r="G44" s="1" t="n">
-        <v>64236787</v>
+      <c r="E44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H44" s="1" t="n">
-        <v>61248421</v>
+        <v>1037643</v>
       </c>
       <c r="I44" s="1" t="n">
-        <v>44518577</v>
+        <v>1117293</v>
       </c>
       <c r="J44" s="1" t="n">
-        <v>31732220</v>
-      </c>
-      <c r="K44" s="1" t="n">
-        <v>134610524</v>
-      </c>
-      <c r="L44" s="1" t="n">
-        <v>118755049</v>
-      </c>
-      <c r="M44" s="1" t="n">
-        <v>95969007</v>
+        <v>940826</v>
+      </c>
+      <c r="K44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M44" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N44" s="1" t="n">
-        <v>67305262</v>
+        <v>1037643</v>
       </c>
       <c r="O44" s="1" t="n">
-        <v>59377524.5</v>
+        <v>1117293</v>
       </c>
       <c r="P44" s="1" t="n">
-        <v>47984503.5</v>
+        <v>940826</v>
+      </c>
+      <c r="Q44" s="1" t="n">
+        <v>1037643</v>
+      </c>
+      <c r="R44" s="1" t="n">
+        <v>1117293</v>
+      </c>
+      <c r="S44" s="1" t="n">
+        <v>940826</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>부채</t>
+          <t>자산</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>유동부채</t>
+          <t>비유동자산</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>매입채무</t>
+          <t>비유동금융자산</t>
         </is>
       </c>
       <c r="D45" s="1" t="n"/>
-      <c r="E45" s="1" t="n">
-        <v>10952046</v>
-      </c>
-      <c r="F45" s="1" t="n">
-        <v>10797065</v>
-      </c>
-      <c r="G45" s="1" t="n">
-        <v>9155255</v>
+      <c r="E45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G45" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H45" s="7" t="inlineStr">
         <is>
@@ -3052,49 +3651,64 @@
         </is>
       </c>
       <c r="K45" s="1" t="n">
-        <v>10952046</v>
+        <v>3546214</v>
       </c>
       <c r="L45" s="1" t="n">
-        <v>10797065</v>
+        <v>3336835</v>
       </c>
       <c r="M45" s="1" t="n">
-        <v>9155255</v>
+        <v>2909810</v>
       </c>
       <c r="N45" s="1" t="n">
-        <v>10952046</v>
+        <v>3546214</v>
       </c>
       <c r="O45" s="1" t="n">
-        <v>10797065</v>
+        <v>3336835</v>
       </c>
       <c r="P45" s="1" t="n">
-        <v>9155255</v>
+        <v>2909810</v>
+      </c>
+      <c r="Q45" s="1" t="n">
+        <v>3546214</v>
+      </c>
+      <c r="R45" s="1" t="n">
+        <v>3336835</v>
+      </c>
+      <c r="S45" s="1" t="n">
+        <v>2909810</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>부채</t>
+          <t>자산</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>유동부채</t>
+          <t>비유동자산</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>미지급금</t>
+          <t>장기매출채권및기타채권</t>
         </is>
       </c>
       <c r="D46" s="1" t="n"/>
-      <c r="E46" s="1" t="n">
-        <v>8642808</v>
-      </c>
-      <c r="F46" s="1" t="n">
-        <v>8277891</v>
-      </c>
-      <c r="G46" s="1" t="n">
-        <v>6335645</v>
+      <c r="E46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G46" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H46" s="7" t="inlineStr">
         <is>
@@ -3112,49 +3726,64 @@
         </is>
       </c>
       <c r="K46" s="1" t="n">
-        <v>8642808</v>
+        <v>2193587</v>
       </c>
       <c r="L46" s="1" t="n">
-        <v>8277891</v>
+        <v>2153080</v>
       </c>
       <c r="M46" s="1" t="n">
-        <v>6335645</v>
+        <v>1906861</v>
       </c>
       <c r="N46" s="1" t="n">
-        <v>8642808</v>
+        <v>2193587</v>
       </c>
       <c r="O46" s="1" t="n">
-        <v>8277891</v>
+        <v>2153080</v>
       </c>
       <c r="P46" s="1" t="n">
-        <v>6335645</v>
+        <v>1906861</v>
+      </c>
+      <c r="Q46" s="1" t="n">
+        <v>2193587</v>
+      </c>
+      <c r="R46" s="1" t="n">
+        <v>2153080</v>
+      </c>
+      <c r="S46" s="1" t="n">
+        <v>1906861</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>부채</t>
+          <t>자산</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>유동부채</t>
+          <t>비유동자산</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>단기차입금</t>
+          <t>영업권</t>
         </is>
       </c>
       <c r="D47" s="1" t="n"/>
-      <c r="E47" s="1" t="n">
-        <v>9035548</v>
-      </c>
-      <c r="F47" s="1" t="n">
-        <v>11366480</v>
-      </c>
-      <c r="G47" s="1" t="n">
-        <v>13087836</v>
+      <c r="E47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H47" s="7" t="inlineStr">
         <is>
@@ -3172,49 +3801,64 @@
         </is>
       </c>
       <c r="K47" s="1" t="n">
-        <v>9035548</v>
+        <v>99156</v>
       </c>
       <c r="L47" s="1" t="n">
-        <v>11366480</v>
+        <v>100093</v>
       </c>
       <c r="M47" s="1" t="n">
-        <v>13087836</v>
+        <v>105647</v>
       </c>
       <c r="N47" s="1" t="n">
-        <v>9035548</v>
+        <v>99156</v>
       </c>
       <c r="O47" s="1" t="n">
-        <v>11366480</v>
+        <v>100093</v>
       </c>
       <c r="P47" s="1" t="n">
-        <v>13087836</v>
+        <v>105647</v>
+      </c>
+      <c r="Q47" s="1" t="n">
+        <v>99156</v>
+      </c>
+      <c r="R47" s="1" t="n">
+        <v>100093</v>
+      </c>
+      <c r="S47" s="1" t="n">
+        <v>105647</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>부채</t>
+          <t>자산</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>유동부채</t>
+          <t>비유동자산</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>유동성장기부채</t>
+          <t>영업권 이외의 무형자산</t>
         </is>
       </c>
       <c r="D48" s="1" t="n"/>
-      <c r="E48" s="1" t="n">
-        <v>25109158</v>
-      </c>
-      <c r="F48" s="1" t="n">
-        <v>25574131</v>
-      </c>
-      <c r="G48" s="1" t="n">
-        <v>20578902</v>
+      <c r="E48" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F48" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H48" s="7" t="inlineStr">
         <is>
@@ -3232,103 +3876,139 @@
         </is>
       </c>
       <c r="K48" s="1" t="n">
-        <v>25109158</v>
+        <v>1033984</v>
       </c>
       <c r="L48" s="1" t="n">
-        <v>25574131</v>
+        <v>956664</v>
       </c>
       <c r="M48" s="1" t="n">
-        <v>20578902</v>
+        <v>1044077</v>
       </c>
       <c r="N48" s="1" t="n">
-        <v>25109158</v>
+        <v>1033984</v>
       </c>
       <c r="O48" s="1" t="n">
-        <v>25574131</v>
+        <v>956664</v>
       </c>
       <c r="P48" s="1" t="n">
-        <v>20578902</v>
+        <v>1044077</v>
+      </c>
+      <c r="Q48" s="1" t="n">
+        <v>1033984</v>
+      </c>
+      <c r="R48" s="1" t="n">
+        <v>956664</v>
+      </c>
+      <c r="S48" s="1" t="n">
+        <v>1044077</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>부채</t>
+          <t>자산</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>유동부채</t>
+          <t>비유동자산</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>당기법인세부채</t>
+          <t>관계기업투자지분</t>
         </is>
       </c>
       <c r="D49" s="1" t="n"/>
-      <c r="E49" s="1" t="n">
-        <v>1324720</v>
-      </c>
-      <c r="F49" s="1" t="n">
-        <v>1008506</v>
-      </c>
-      <c r="G49" s="1" t="n">
-        <v>751929</v>
-      </c>
-      <c r="H49" s="1" t="n">
-        <v>482934</v>
-      </c>
-      <c r="I49" s="1" t="n">
-        <v>429604</v>
-      </c>
-      <c r="J49" s="1" t="n">
-        <v>229460</v>
+      <c r="E49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J49" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K49" s="1" t="n">
-        <v>1807654</v>
+        <v>6176889</v>
       </c>
       <c r="L49" s="1" t="n">
-        <v>1438110</v>
+        <v>5844464</v>
       </c>
       <c r="M49" s="1" t="n">
-        <v>981389</v>
+        <v>5232373</v>
       </c>
       <c r="N49" s="1" t="n">
-        <v>903827</v>
+        <v>6176889</v>
       </c>
       <c r="O49" s="1" t="n">
-        <v>719055</v>
+        <v>5844464</v>
       </c>
       <c r="P49" s="1" t="n">
-        <v>490694.5</v>
+        <v>5232373</v>
+      </c>
+      <c r="Q49" s="1" t="n">
+        <v>6176889</v>
+      </c>
+      <c r="R49" s="1" t="n">
+        <v>5844464</v>
+      </c>
+      <c r="S49" s="1" t="n">
+        <v>5232373</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>부채</t>
+          <t>자산</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>유동부채</t>
+          <t>비유동자산</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>충당부채</t>
+          <t>공동기업투자지분</t>
         </is>
       </c>
       <c r="D50" s="1" t="n"/>
-      <c r="E50" s="1" t="n">
-        <v>7316877</v>
-      </c>
-      <c r="F50" s="1" t="n">
-        <v>8102596</v>
-      </c>
-      <c r="G50" s="1" t="n">
-        <v>6664647</v>
+      <c r="E50" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F50" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G50" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H50" s="7" t="inlineStr">
         <is>
@@ -3346,49 +4026,64 @@
         </is>
       </c>
       <c r="K50" s="1" t="n">
-        <v>7316877</v>
+        <v>3485699</v>
       </c>
       <c r="L50" s="1" t="n">
-        <v>8102596</v>
+        <v>3147584</v>
       </c>
       <c r="M50" s="1" t="n">
-        <v>6664647</v>
+        <v>2239011</v>
       </c>
       <c r="N50" s="1" t="n">
-        <v>7316877</v>
+        <v>3485699</v>
       </c>
       <c r="O50" s="1" t="n">
-        <v>8102596</v>
+        <v>3147584</v>
       </c>
       <c r="P50" s="1" t="n">
-        <v>6664647</v>
+        <v>2239011</v>
+      </c>
+      <c r="Q50" s="1" t="n">
+        <v>3485699</v>
+      </c>
+      <c r="R50" s="1" t="n">
+        <v>3147584</v>
+      </c>
+      <c r="S50" s="1" t="n">
+        <v>2239011</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>부채</t>
+          <t>자산</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>유동부채</t>
+          <t>비유동자산</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>기타금융부채</t>
+          <t>비유동비금융자산</t>
         </is>
       </c>
       <c r="D51" s="1" t="n"/>
-      <c r="E51" s="1" t="n">
-        <v>56712</v>
-      </c>
-      <c r="F51" s="1" t="n">
-        <v>99144</v>
-      </c>
-      <c r="G51" s="1" t="n">
-        <v>55187</v>
+      <c r="E51" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F51" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G51" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H51" s="7" t="inlineStr">
         <is>
@@ -3406,82 +4101,90 @@
         </is>
       </c>
       <c r="K51" s="1" t="n">
-        <v>56712</v>
+        <v>350170</v>
       </c>
       <c r="L51" s="1" t="n">
-        <v>99144</v>
+        <v>309134</v>
       </c>
       <c r="M51" s="1" t="n">
-        <v>55187</v>
+        <v>364818</v>
       </c>
       <c r="N51" s="1" t="n">
-        <v>56712</v>
+        <v>350170</v>
       </c>
       <c r="O51" s="1" t="n">
-        <v>99144</v>
+        <v>309134</v>
       </c>
       <c r="P51" s="1" t="n">
-        <v>55187</v>
+        <v>364818</v>
+      </c>
+      <c r="Q51" s="1" t="n">
+        <v>350170</v>
+      </c>
+      <c r="R51" s="1" t="n">
+        <v>309134</v>
+      </c>
+      <c r="S51" s="1" t="n">
+        <v>364818</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>부채</t>
+          <t>자산</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>유동부채</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t>기타부채</t>
-        </is>
-      </c>
+          <t>자산총계</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="n"/>
       <c r="D52" s="1" t="n"/>
       <c r="E52" s="1" t="n">
-        <v>10577033</v>
+        <v>455905980</v>
       </c>
       <c r="F52" s="1" t="n">
-        <v>8600241</v>
+        <v>448424507</v>
       </c>
       <c r="G52" s="1" t="n">
-        <v>7440120</v>
-      </c>
-      <c r="H52" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I52" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J52" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>426621158</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>282463355</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>255742462</v>
+      </c>
+      <c r="J52" s="1" t="n">
+        <v>233946415</v>
       </c>
       <c r="K52" s="1" t="n">
-        <v>10577033</v>
+        <v>239714965</v>
       </c>
       <c r="L52" s="1" t="n">
-        <v>8600241</v>
+        <v>234804994</v>
       </c>
       <c r="M52" s="1" t="n">
-        <v>7440120</v>
+        <v>211123727</v>
       </c>
       <c r="N52" s="1" t="n">
-        <v>10577033</v>
+        <v>978084300</v>
       </c>
       <c r="O52" s="1" t="n">
-        <v>8600241</v>
+        <v>938971963</v>
       </c>
       <c r="P52" s="1" t="n">
-        <v>7440120</v>
+        <v>871691300</v>
+      </c>
+      <c r="Q52" s="1" t="n">
+        <v>326028100</v>
+      </c>
+      <c r="R52" s="1" t="n">
+        <v>312990654.3333333</v>
+      </c>
+      <c r="S52" s="1" t="n">
+        <v>290563766.6666667</v>
       </c>
     </row>
     <row r="53">
@@ -3490,25 +4193,23 @@
           <t>부채</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>유동부채</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t>리스부채</t>
-        </is>
-      </c>
+      <c r="B53" s="1" t="n"/>
+      <c r="C53" s="1" t="n"/>
       <c r="D53" s="1" t="n"/>
-      <c r="E53" s="1" t="n">
-        <v>224350</v>
-      </c>
-      <c r="F53" s="1" t="n">
-        <v>405053</v>
-      </c>
-      <c r="G53" s="1" t="n">
-        <v>167266</v>
+      <c r="E53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H53" s="7" t="inlineStr">
         <is>
@@ -3525,23 +4226,50 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K53" s="1" t="n">
-        <v>224350</v>
-      </c>
-      <c r="L53" s="1" t="n">
-        <v>405053</v>
-      </c>
-      <c r="M53" s="1" t="n">
-        <v>167266</v>
-      </c>
-      <c r="N53" s="1" t="n">
-        <v>224350</v>
-      </c>
-      <c r="O53" s="1" t="n">
-        <v>405053</v>
-      </c>
-      <c r="P53" s="1" t="n">
-        <v>167266</v>
+      <c r="K53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S53" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -3555,59 +4283,52 @@
           <t>유동부채</t>
         </is>
       </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t>매각예정비유동부채</t>
-        </is>
-      </c>
+      <c r="C54" s="1" t="n"/>
       <c r="D54" s="1" t="n"/>
       <c r="E54" s="1" t="n">
-        <v>122851</v>
+        <v>75719452</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>5365</v>
-      </c>
-      <c r="G54" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H54" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I54" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J54" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>78344852</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>88117133</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>73362103</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>74236472</v>
+      </c>
+      <c r="J54" s="1" t="n">
+        <v>64236787</v>
       </c>
       <c r="K54" s="1" t="n">
-        <v>122851</v>
+        <v>61248421</v>
       </c>
       <c r="L54" s="1" t="n">
-        <v>5365</v>
-      </c>
-      <c r="M54" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>44518577</v>
+      </c>
+      <c r="M54" s="1" t="n">
+        <v>31732220</v>
       </c>
       <c r="N54" s="1" t="n">
-        <v>122851</v>
+        <v>210329976</v>
       </c>
       <c r="O54" s="1" t="n">
-        <v>5365</v>
-      </c>
-      <c r="P54" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>197099901</v>
+      </c>
+      <c r="P54" s="1" t="n">
+        <v>184086140</v>
+      </c>
+      <c r="Q54" s="1" t="n">
+        <v>70109992</v>
+      </c>
+      <c r="R54" s="1" t="n">
+        <v>65699967</v>
+      </c>
+      <c r="S54" s="1" t="n">
+        <v>61362046.66666666</v>
       </c>
     </row>
     <row r="55">
@@ -3623,51 +4344,60 @@
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>매입채무및기타채무</t>
+          <t>매입채무</t>
         </is>
       </c>
       <c r="D55" s="1" t="n"/>
-      <c r="E55" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F55" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G55" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E55" s="1" t="n">
+        <v>11319824</v>
+      </c>
+      <c r="F55" s="1" t="n">
+        <v>10644686</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>13453351</v>
       </c>
       <c r="H55" s="1" t="n">
-        <v>9089973</v>
+        <v>10952046</v>
       </c>
       <c r="I55" s="1" t="n">
-        <v>11983549</v>
+        <v>10797065</v>
       </c>
       <c r="J55" s="1" t="n">
-        <v>8153426</v>
-      </c>
-      <c r="K55" s="1" t="n">
-        <v>9089973</v>
-      </c>
-      <c r="L55" s="1" t="n">
-        <v>11983549</v>
-      </c>
-      <c r="M55" s="1" t="n">
-        <v>8153426</v>
+        <v>9155255</v>
+      </c>
+      <c r="K55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M55" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N55" s="1" t="n">
-        <v>9089973</v>
+        <v>22271870</v>
       </c>
       <c r="O55" s="1" t="n">
-        <v>11983549</v>
+        <v>21441751</v>
       </c>
       <c r="P55" s="1" t="n">
-        <v>8153426</v>
+        <v>22608606</v>
+      </c>
+      <c r="Q55" s="1" t="n">
+        <v>11135935</v>
+      </c>
+      <c r="R55" s="1" t="n">
+        <v>10720875.5</v>
+      </c>
+      <c r="S55" s="1" t="n">
+        <v>11304303</v>
       </c>
     </row>
     <row r="56">
@@ -3683,51 +4413,60 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>유동금융부채</t>
+          <t>단기차입금</t>
         </is>
       </c>
       <c r="D56" s="1" t="n"/>
-      <c r="E56" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F56" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G56" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E56" s="1" t="n">
+        <v>7114601</v>
+      </c>
+      <c r="F56" s="1" t="n">
+        <v>5147315</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>13687793</v>
       </c>
       <c r="H56" s="1" t="n">
-        <v>41139726</v>
+        <v>9035548</v>
       </c>
       <c r="I56" s="1" t="n">
-        <v>22703996</v>
+        <v>11366480</v>
       </c>
       <c r="J56" s="1" t="n">
-        <v>14037125</v>
-      </c>
-      <c r="K56" s="1" t="n">
-        <v>41139726</v>
-      </c>
-      <c r="L56" s="1" t="n">
-        <v>22703996</v>
-      </c>
-      <c r="M56" s="1" t="n">
-        <v>14037125</v>
+        <v>13087836</v>
+      </c>
+      <c r="K56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M56" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N56" s="1" t="n">
-        <v>41139726</v>
+        <v>16150149</v>
       </c>
       <c r="O56" s="1" t="n">
-        <v>22703996</v>
+        <v>16513795</v>
       </c>
       <c r="P56" s="1" t="n">
-        <v>14037125</v>
+        <v>26775629</v>
+      </c>
+      <c r="Q56" s="1" t="n">
+        <v>8075074.5</v>
+      </c>
+      <c r="R56" s="1" t="n">
+        <v>8256897.5</v>
+      </c>
+      <c r="S56" s="1" t="n">
+        <v>13387814.5</v>
       </c>
     </row>
     <row r="57">
@@ -3743,51 +4482,60 @@
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>유동비금융부채</t>
+          <t>미지급금</t>
         </is>
       </c>
       <c r="D57" s="1" t="n"/>
-      <c r="E57" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F57" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G57" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E57" s="1" t="n">
+        <v>15324119</v>
+      </c>
+      <c r="F57" s="1" t="n">
+        <v>17592366</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>15584866</v>
       </c>
       <c r="H57" s="1" t="n">
-        <v>7881663</v>
+        <v>8642808</v>
       </c>
       <c r="I57" s="1" t="n">
-        <v>6974377</v>
+        <v>8277891</v>
       </c>
       <c r="J57" s="1" t="n">
-        <v>6466333</v>
-      </c>
-      <c r="K57" s="1" t="n">
-        <v>7881663</v>
-      </c>
-      <c r="L57" s="1" t="n">
-        <v>6974377</v>
-      </c>
-      <c r="M57" s="1" t="n">
-        <v>6466333</v>
+        <v>6335645</v>
+      </c>
+      <c r="K57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M57" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N57" s="1" t="n">
-        <v>7881663</v>
+        <v>23966927</v>
       </c>
       <c r="O57" s="1" t="n">
-        <v>6974377</v>
+        <v>25870257</v>
       </c>
       <c r="P57" s="1" t="n">
-        <v>6466333</v>
+        <v>21920511</v>
+      </c>
+      <c r="Q57" s="1" t="n">
+        <v>11983463.5</v>
+      </c>
+      <c r="R57" s="1" t="n">
+        <v>12935128.5</v>
+      </c>
+      <c r="S57" s="1" t="n">
+        <v>10960255.5</v>
       </c>
     </row>
     <row r="58">
@@ -3803,51 +4551,66 @@
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>유동충당부채</t>
+          <t>선수금</t>
         </is>
       </c>
       <c r="D58" s="1" t="n"/>
-      <c r="E58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G58" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H58" s="1" t="n">
-        <v>2654125</v>
-      </c>
-      <c r="I58" s="1" t="n">
-        <v>2427051</v>
-      </c>
-      <c r="J58" s="1" t="n">
-        <v>2845876</v>
-      </c>
-      <c r="K58" s="1" t="n">
-        <v>2654125</v>
-      </c>
-      <c r="L58" s="1" t="n">
-        <v>2427051</v>
-      </c>
-      <c r="M58" s="1" t="n">
-        <v>2845876</v>
+      <c r="E58" s="1" t="n">
+        <v>1492602</v>
+      </c>
+      <c r="F58" s="1" t="n">
+        <v>1314934</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>1224812</v>
+      </c>
+      <c r="H58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M58" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N58" s="1" t="n">
-        <v>2654125</v>
+        <v>1492602</v>
       </c>
       <c r="O58" s="1" t="n">
-        <v>2427051</v>
+        <v>1314934</v>
       </c>
       <c r="P58" s="1" t="n">
-        <v>2845876</v>
+        <v>1224812</v>
+      </c>
+      <c r="Q58" s="1" t="n">
+        <v>1492602</v>
+      </c>
+      <c r="R58" s="1" t="n">
+        <v>1314934</v>
+      </c>
+      <c r="S58" s="1" t="n">
+        <v>1224812</v>
       </c>
     </row>
     <row r="59">
@@ -3858,46 +4621,71 @@
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>비유동부채</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="n"/>
+          <t>유동부채</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>예수금</t>
+        </is>
+      </c>
       <c r="D59" s="1" t="n"/>
       <c r="E59" s="1" t="n">
-        <v>107291812</v>
+        <v>892441</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>90609445</v>
+        <v>1298244</v>
       </c>
       <c r="G59" s="1" t="n">
-        <v>87093839</v>
-      </c>
-      <c r="H59" s="1" t="n">
-        <v>141201794</v>
-      </c>
-      <c r="I59" s="1" t="n">
-        <v>148286161</v>
-      </c>
-      <c r="J59" s="1" t="n">
-        <v>114064801</v>
-      </c>
-      <c r="K59" s="1" t="n">
-        <v>248493606</v>
-      </c>
-      <c r="L59" s="1" t="n">
-        <v>238895606</v>
-      </c>
-      <c r="M59" s="1" t="n">
-        <v>201158640</v>
+        <v>1294052</v>
+      </c>
+      <c r="H59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M59" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N59" s="1" t="n">
-        <v>124246803</v>
+        <v>892441</v>
       </c>
       <c r="O59" s="1" t="n">
-        <v>119447803</v>
+        <v>1298244</v>
       </c>
       <c r="P59" s="1" t="n">
-        <v>100579320</v>
+        <v>1294052</v>
+      </c>
+      <c r="Q59" s="1" t="n">
+        <v>892441</v>
+      </c>
+      <c r="R59" s="1" t="n">
+        <v>1298244</v>
+      </c>
+      <c r="S59" s="1" t="n">
+        <v>1294052</v>
       </c>
     </row>
     <row r="60">
@@ -3908,23 +4696,23 @@
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>비유동부채</t>
+          <t>유동부채</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>장기성미지급금</t>
+          <t>미지급비용</t>
         </is>
       </c>
       <c r="D60" s="1" t="n"/>
       <c r="E60" s="1" t="n">
-        <v>616011</v>
+        <v>26013273</v>
       </c>
       <c r="F60" s="1" t="n">
-        <v>726115</v>
+        <v>29211487</v>
       </c>
       <c r="G60" s="1" t="n">
-        <v>769487</v>
+        <v>27928031</v>
       </c>
       <c r="H60" s="7" t="inlineStr">
         <is>
@@ -3941,23 +4729,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K60" s="1" t="n">
-        <v>616011</v>
-      </c>
-      <c r="L60" s="1" t="n">
-        <v>726115</v>
-      </c>
-      <c r="M60" s="1" t="n">
-        <v>769487</v>
+      <c r="K60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M60" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N60" s="1" t="n">
-        <v>616011</v>
+        <v>26013273</v>
       </c>
       <c r="O60" s="1" t="n">
-        <v>726115</v>
+        <v>29211487</v>
       </c>
       <c r="P60" s="1" t="n">
-        <v>769487</v>
+        <v>27928031</v>
+      </c>
+      <c r="Q60" s="1" t="n">
+        <v>26013273</v>
+      </c>
+      <c r="R60" s="1" t="n">
+        <v>29211487</v>
+      </c>
+      <c r="S60" s="1" t="n">
+        <v>27928031</v>
       </c>
     </row>
     <row r="61">
@@ -3968,56 +4771,59 @@
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>비유동부채</t>
+          <t>유동부채</t>
         </is>
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>사채</t>
+          <t>당기법인세부채</t>
         </is>
       </c>
       <c r="D61" s="1" t="n"/>
       <c r="E61" s="1" t="n">
-        <v>73033493</v>
+        <v>3358715</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>62960060</v>
+        <v>4250397</v>
       </c>
       <c r="G61" s="1" t="n">
-        <v>63458809</v>
-      </c>
-      <c r="H61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J61" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>6749149</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>1324720</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>1008506</v>
+      </c>
+      <c r="J61" s="1" t="n">
+        <v>751929</v>
       </c>
       <c r="K61" s="1" t="n">
-        <v>73033493</v>
+        <v>482934</v>
       </c>
       <c r="L61" s="1" t="n">
-        <v>62960060</v>
+        <v>429604</v>
       </c>
       <c r="M61" s="1" t="n">
-        <v>63458809</v>
+        <v>229460</v>
       </c>
       <c r="N61" s="1" t="n">
-        <v>73033493</v>
+        <v>5166369</v>
       </c>
       <c r="O61" s="1" t="n">
-        <v>62960060</v>
+        <v>5688507</v>
       </c>
       <c r="P61" s="1" t="n">
-        <v>63458809</v>
+        <v>7730538</v>
+      </c>
+      <c r="Q61" s="1" t="n">
+        <v>1722123</v>
+      </c>
+      <c r="R61" s="1" t="n">
+        <v>1896169</v>
+      </c>
+      <c r="S61" s="1" t="n">
+        <v>2576846</v>
       </c>
     </row>
     <row r="62">
@@ -4028,56 +4834,65 @@
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>비유동부채</t>
+          <t>유동부채</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>장기차입금</t>
+          <t>유동성장기부채</t>
         </is>
       </c>
       <c r="D62" s="1" t="n"/>
       <c r="E62" s="1" t="n">
-        <v>17569760</v>
+        <v>1308875</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>12285149</v>
+        <v>1089162</v>
       </c>
       <c r="G62" s="1" t="n">
-        <v>10667731</v>
-      </c>
-      <c r="H62" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I62" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J62" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K62" s="1" t="n">
-        <v>17569760</v>
-      </c>
-      <c r="L62" s="1" t="n">
-        <v>12285149</v>
-      </c>
-      <c r="M62" s="1" t="n">
-        <v>10667731</v>
+        <v>1329968</v>
+      </c>
+      <c r="H62" s="1" t="n">
+        <v>25109158</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>25574131</v>
+      </c>
+      <c r="J62" s="1" t="n">
+        <v>20578902</v>
+      </c>
+      <c r="K62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M62" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N62" s="1" t="n">
-        <v>17569760</v>
+        <v>26418033</v>
       </c>
       <c r="O62" s="1" t="n">
-        <v>12285149</v>
+        <v>26663293</v>
       </c>
       <c r="P62" s="1" t="n">
-        <v>10667731</v>
+        <v>21908870</v>
+      </c>
+      <c r="Q62" s="1" t="n">
+        <v>13209016.5</v>
+      </c>
+      <c r="R62" s="1" t="n">
+        <v>13331646.5</v>
+      </c>
+      <c r="S62" s="1" t="n">
+        <v>10954435</v>
       </c>
     </row>
     <row r="63">
@@ -4088,56 +4903,65 @@
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>비유동부채</t>
+          <t>유동부채</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>순확정급여부채</t>
+          <t>충당부채</t>
         </is>
       </c>
       <c r="D63" s="1" t="n"/>
       <c r="E63" s="1" t="n">
-        <v>77268</v>
+        <v>6524876</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>61861</v>
+        <v>5844907</v>
       </c>
       <c r="G63" s="1" t="n">
-        <v>79165</v>
-      </c>
-      <c r="H63" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I63" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J63" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K63" s="1" t="n">
-        <v>77268</v>
-      </c>
-      <c r="L63" s="1" t="n">
-        <v>61861</v>
-      </c>
-      <c r="M63" s="1" t="n">
-        <v>79165</v>
+        <v>5372872</v>
+      </c>
+      <c r="H63" s="1" t="n">
+        <v>7316877</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>8102596</v>
+      </c>
+      <c r="J63" s="1" t="n">
+        <v>6664647</v>
+      </c>
+      <c r="K63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M63" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N63" s="1" t="n">
-        <v>77268</v>
+        <v>13841753</v>
       </c>
       <c r="O63" s="1" t="n">
-        <v>61861</v>
+        <v>13947503</v>
       </c>
       <c r="P63" s="1" t="n">
-        <v>79165</v>
+        <v>12037519</v>
+      </c>
+      <c r="Q63" s="1" t="n">
+        <v>6920876.5</v>
+      </c>
+      <c r="R63" s="1" t="n">
+        <v>6973751.5</v>
+      </c>
+      <c r="S63" s="1" t="n">
+        <v>6018759.5</v>
       </c>
     </row>
     <row r="64">
@@ -4148,23 +4972,23 @@
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>비유동부채</t>
+          <t>유동부채</t>
         </is>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>충당부채</t>
+          <t>기타 유동부채</t>
         </is>
       </c>
       <c r="D64" s="1" t="n"/>
       <c r="E64" s="1" t="n">
-        <v>4333841</v>
+        <v>2308472</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>4327985</v>
+        <v>1951354</v>
       </c>
       <c r="G64" s="1" t="n">
-        <v>4214137</v>
+        <v>1492239</v>
       </c>
       <c r="H64" s="7" t="inlineStr">
         <is>
@@ -4181,23 +5005,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K64" s="1" t="n">
-        <v>4333841</v>
-      </c>
-      <c r="L64" s="1" t="n">
-        <v>4327985</v>
-      </c>
-      <c r="M64" s="1" t="n">
-        <v>4214137</v>
+      <c r="K64" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L64" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M64" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N64" s="1" t="n">
-        <v>4333841</v>
+        <v>2308472</v>
       </c>
       <c r="O64" s="1" t="n">
-        <v>4327985</v>
+        <v>1951354</v>
       </c>
       <c r="P64" s="1" t="n">
-        <v>4214137</v>
+        <v>1492239</v>
+      </c>
+      <c r="Q64" s="1" t="n">
+        <v>2308472</v>
+      </c>
+      <c r="R64" s="1" t="n">
+        <v>1951354</v>
+      </c>
+      <c r="S64" s="1" t="n">
+        <v>1492239</v>
       </c>
     </row>
     <row r="65">
@@ -4208,23 +5047,23 @@
       </c>
       <c r="B65" s="1" t="inlineStr">
         <is>
-          <t>비유동부채</t>
+          <t>유동부채</t>
         </is>
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>기타금융부채</t>
+          <t>매각예정분류부채</t>
         </is>
       </c>
       <c r="D65" s="1" t="n"/>
       <c r="E65" s="1" t="n">
-        <v>176399</v>
+        <v>61654</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>262518</v>
+        <v>0</v>
       </c>
       <c r="G65" s="1" t="n">
-        <v>87258</v>
+        <v>0</v>
       </c>
       <c r="H65" s="7" t="inlineStr">
         <is>
@@ -4241,23 +5080,38 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K65" s="1" t="n">
-        <v>176399</v>
-      </c>
-      <c r="L65" s="1" t="n">
-        <v>262518</v>
-      </c>
-      <c r="M65" s="1" t="n">
-        <v>87258</v>
+      <c r="K65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M65" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N65" s="1" t="n">
-        <v>176399</v>
+        <v>61654</v>
       </c>
       <c r="O65" s="1" t="n">
-        <v>262518</v>
+        <v>0</v>
       </c>
       <c r="P65" s="1" t="n">
-        <v>87258</v>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1" t="n">
+        <v>61654</v>
+      </c>
+      <c r="R65" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -4268,56 +5122,71 @@
       </c>
       <c r="B66" s="1" t="inlineStr">
         <is>
-          <t>비유동부채</t>
+          <t>유동부채</t>
         </is>
       </c>
       <c r="C66" s="1" t="inlineStr">
         <is>
-          <t>기타부채</t>
+          <t>기타금융부채</t>
         </is>
       </c>
       <c r="D66" s="1" t="n"/>
-      <c r="E66" s="1" t="n">
-        <v>5212012</v>
-      </c>
-      <c r="F66" s="1" t="n">
-        <v>4252265</v>
-      </c>
-      <c r="G66" s="1" t="n">
-        <v>3344618</v>
-      </c>
-      <c r="H66" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I66" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J66" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K66" s="1" t="n">
-        <v>5212012</v>
-      </c>
-      <c r="L66" s="1" t="n">
-        <v>4252265</v>
-      </c>
-      <c r="M66" s="1" t="n">
-        <v>3344618</v>
+      <c r="E66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="1" t="n">
+        <v>56712</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>99144</v>
+      </c>
+      <c r="J66" s="1" t="n">
+        <v>55187</v>
+      </c>
+      <c r="K66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M66" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N66" s="1" t="n">
-        <v>5212012</v>
+        <v>56712</v>
       </c>
       <c r="O66" s="1" t="n">
-        <v>4252265</v>
+        <v>99144</v>
       </c>
       <c r="P66" s="1" t="n">
-        <v>3344618</v>
+        <v>55187</v>
+      </c>
+      <c r="Q66" s="1" t="n">
+        <v>56712</v>
+      </c>
+      <c r="R66" s="1" t="n">
+        <v>99144</v>
+      </c>
+      <c r="S66" s="1" t="n">
+        <v>55187</v>
       </c>
     </row>
     <row r="67">
@@ -4328,50 +5197,71 @@
       </c>
       <c r="B67" s="1" t="inlineStr">
         <is>
-          <t>비유동부채</t>
+          <t>유동부채</t>
         </is>
       </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>이연법인세부채</t>
+          <t>기타부채</t>
         </is>
       </c>
       <c r="D67" s="1" t="n"/>
-      <c r="E67" s="1" t="n">
-        <v>5438976</v>
-      </c>
-      <c r="F67" s="1" t="n">
-        <v>5027741</v>
-      </c>
-      <c r="G67" s="1" t="n">
-        <v>3689328</v>
+      <c r="E67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H67" s="1" t="n">
-        <v>5163135</v>
+        <v>10577033</v>
       </c>
       <c r="I67" s="1" t="n">
-        <v>6457103</v>
+        <v>8600241</v>
       </c>
       <c r="J67" s="1" t="n">
-        <v>7100938</v>
-      </c>
-      <c r="K67" s="1" t="n">
-        <v>10602111</v>
-      </c>
-      <c r="L67" s="1" t="n">
-        <v>11484844</v>
-      </c>
-      <c r="M67" s="1" t="n">
-        <v>10790266</v>
+        <v>7440120</v>
+      </c>
+      <c r="K67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M67" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N67" s="1" t="n">
-        <v>5301055.5</v>
+        <v>10577033</v>
       </c>
       <c r="O67" s="1" t="n">
-        <v>5742422</v>
+        <v>8600241</v>
       </c>
       <c r="P67" s="1" t="n">
-        <v>5395133</v>
+        <v>7440120</v>
+      </c>
+      <c r="Q67" s="1" t="n">
+        <v>10577033</v>
+      </c>
+      <c r="R67" s="1" t="n">
+        <v>8600241</v>
+      </c>
+      <c r="S67" s="1" t="n">
+        <v>7440120</v>
       </c>
     </row>
     <row r="68">
@@ -4382,7 +5272,7 @@
       </c>
       <c r="B68" s="1" t="inlineStr">
         <is>
-          <t>비유동부채</t>
+          <t>유동부채</t>
         </is>
       </c>
       <c r="C68" s="1" t="inlineStr">
@@ -4391,47 +5281,62 @@
         </is>
       </c>
       <c r="D68" s="1" t="n"/>
-      <c r="E68" s="1" t="n">
-        <v>834052</v>
-      </c>
-      <c r="F68" s="1" t="n">
-        <v>705751</v>
-      </c>
-      <c r="G68" s="1" t="n">
-        <v>783306</v>
-      </c>
-      <c r="H68" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I68" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J68" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K68" s="1" t="n">
-        <v>834052</v>
-      </c>
-      <c r="L68" s="1" t="n">
-        <v>705751</v>
-      </c>
-      <c r="M68" s="1" t="n">
-        <v>783306</v>
+      <c r="E68" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F68" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G68" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H68" s="1" t="n">
+        <v>224350</v>
+      </c>
+      <c r="I68" s="1" t="n">
+        <v>405053</v>
+      </c>
+      <c r="J68" s="1" t="n">
+        <v>167266</v>
+      </c>
+      <c r="K68" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L68" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M68" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N68" s="1" t="n">
-        <v>834052</v>
+        <v>224350</v>
       </c>
       <c r="O68" s="1" t="n">
-        <v>705751</v>
+        <v>405053</v>
       </c>
       <c r="P68" s="1" t="n">
-        <v>783306</v>
+        <v>167266</v>
+      </c>
+      <c r="Q68" s="1" t="n">
+        <v>224350</v>
+      </c>
+      <c r="R68" s="1" t="n">
+        <v>405053</v>
+      </c>
+      <c r="S68" s="1" t="n">
+        <v>167266</v>
       </c>
     </row>
     <row r="69">
@@ -4442,12 +5347,12 @@
       </c>
       <c r="B69" s="1" t="inlineStr">
         <is>
-          <t>비유동부채</t>
+          <t>유동부채</t>
         </is>
       </c>
       <c r="C69" s="1" t="inlineStr">
         <is>
-          <t>장기매입채무 및 기타비유동채무</t>
+          <t>매각예정비유동부채</t>
         </is>
       </c>
       <c r="D69" s="1" t="n"/>
@@ -4467,31 +5372,52 @@
         </is>
       </c>
       <c r="H69" s="1" t="n">
-        <v>4981957</v>
+        <v>122851</v>
       </c>
       <c r="I69" s="1" t="n">
-        <v>5638914</v>
-      </c>
-      <c r="J69" s="1" t="n">
-        <v>5996498</v>
-      </c>
-      <c r="K69" s="1" t="n">
-        <v>4981957</v>
-      </c>
-      <c r="L69" s="1" t="n">
-        <v>5638914</v>
-      </c>
-      <c r="M69" s="1" t="n">
-        <v>5996498</v>
+        <v>5365</v>
+      </c>
+      <c r="J69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N69" s="1" t="n">
-        <v>4981957</v>
+        <v>122851</v>
       </c>
       <c r="O69" s="1" t="n">
-        <v>5638914</v>
-      </c>
-      <c r="P69" s="1" t="n">
-        <v>5996498</v>
+        <v>5365</v>
+      </c>
+      <c r="P69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q69" s="1" t="n">
+        <v>122851</v>
+      </c>
+      <c r="R69" s="1" t="n">
+        <v>5365</v>
+      </c>
+      <c r="S69" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="70">
@@ -4502,12 +5428,12 @@
       </c>
       <c r="B70" s="1" t="inlineStr">
         <is>
-          <t>비유동부채</t>
+          <t>유동부채</t>
         </is>
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>비유동금융부채</t>
+          <t>매입채무및기타채무</t>
         </is>
       </c>
       <c r="D70" s="1" t="n"/>
@@ -4526,32 +5452,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H70" s="1" t="n">
-        <v>92944338</v>
-      </c>
-      <c r="I70" s="1" t="n">
-        <v>98334120</v>
-      </c>
-      <c r="J70" s="1" t="n">
-        <v>66570419</v>
+      <c r="H70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J70" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K70" s="1" t="n">
-        <v>92944338</v>
+        <v>9089973</v>
       </c>
       <c r="L70" s="1" t="n">
-        <v>98334120</v>
+        <v>11983549</v>
       </c>
       <c r="M70" s="1" t="n">
-        <v>66570419</v>
+        <v>8153426</v>
       </c>
       <c r="N70" s="1" t="n">
-        <v>92944338</v>
+        <v>9089973</v>
       </c>
       <c r="O70" s="1" t="n">
-        <v>98334120</v>
+        <v>11983549</v>
       </c>
       <c r="P70" s="1" t="n">
-        <v>66570419</v>
+        <v>8153426</v>
+      </c>
+      <c r="Q70" s="1" t="n">
+        <v>9089973</v>
+      </c>
+      <c r="R70" s="1" t="n">
+        <v>11983549</v>
+      </c>
+      <c r="S70" s="1" t="n">
+        <v>8153426</v>
       </c>
     </row>
     <row r="71">
@@ -4562,12 +5503,12 @@
       </c>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>비유동부채</t>
+          <t>유동부채</t>
         </is>
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>비유동비금융부채</t>
+          <t>유동금융부채</t>
         </is>
       </c>
       <c r="D71" s="1" t="n"/>
@@ -4586,32 +5527,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H71" s="1" t="n">
-        <v>11196000</v>
-      </c>
-      <c r="I71" s="1" t="n">
-        <v>10662661</v>
-      </c>
-      <c r="J71" s="1" t="n">
-        <v>10216364</v>
+      <c r="H71" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I71" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J71" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K71" s="1" t="n">
-        <v>11196000</v>
+        <v>41139726</v>
       </c>
       <c r="L71" s="1" t="n">
-        <v>10662661</v>
+        <v>22703996</v>
       </c>
       <c r="M71" s="1" t="n">
-        <v>10216364</v>
+        <v>14037125</v>
       </c>
       <c r="N71" s="1" t="n">
-        <v>11196000</v>
+        <v>41139726</v>
       </c>
       <c r="O71" s="1" t="n">
-        <v>10662661</v>
+        <v>22703996</v>
       </c>
       <c r="P71" s="1" t="n">
-        <v>10216364</v>
+        <v>14037125</v>
+      </c>
+      <c r="Q71" s="1" t="n">
+        <v>41139726</v>
+      </c>
+      <c r="R71" s="1" t="n">
+        <v>22703996</v>
+      </c>
+      <c r="S71" s="1" t="n">
+        <v>14037125</v>
       </c>
     </row>
     <row r="72">
@@ -4622,12 +5578,12 @@
       </c>
       <c r="B72" s="1" t="inlineStr">
         <is>
-          <t>비유동부채</t>
+          <t>유동부채</t>
         </is>
       </c>
       <c r="C72" s="1" t="inlineStr">
         <is>
-          <t>종업원급여채무</t>
+          <t>유동비금융부채</t>
         </is>
       </c>
       <c r="D72" s="1" t="n"/>
@@ -4646,32 +5602,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H72" s="1" t="n">
-        <v>1035320</v>
-      </c>
-      <c r="I72" s="1" t="n">
-        <v>828721</v>
-      </c>
-      <c r="J72" s="1" t="n">
-        <v>1679158</v>
+      <c r="H72" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J72" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K72" s="1" t="n">
-        <v>1035320</v>
+        <v>7881663</v>
       </c>
       <c r="L72" s="1" t="n">
-        <v>828721</v>
+        <v>6974377</v>
       </c>
       <c r="M72" s="1" t="n">
-        <v>1679158</v>
+        <v>6466333</v>
       </c>
       <c r="N72" s="1" t="n">
-        <v>1035320</v>
+        <v>7881663</v>
       </c>
       <c r="O72" s="1" t="n">
-        <v>828721</v>
+        <v>6974377</v>
       </c>
       <c r="P72" s="1" t="n">
-        <v>1679158</v>
+        <v>6466333</v>
+      </c>
+      <c r="Q72" s="1" t="n">
+        <v>7881663</v>
+      </c>
+      <c r="R72" s="1" t="n">
+        <v>6974377</v>
+      </c>
+      <c r="S72" s="1" t="n">
+        <v>6466333</v>
       </c>
     </row>
     <row r="73">
@@ -4682,12 +5653,12 @@
       </c>
       <c r="B73" s="1" t="inlineStr">
         <is>
-          <t>비유동부채</t>
+          <t>유동부채</t>
         </is>
       </c>
       <c r="C73" s="1" t="inlineStr">
         <is>
-          <t>비유동충당부채</t>
+          <t>유동충당부채</t>
         </is>
       </c>
       <c r="D73" s="1" t="n"/>
@@ -4706,32 +5677,47 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H73" s="1" t="n">
-        <v>25881044</v>
-      </c>
-      <c r="I73" s="1" t="n">
-        <v>26364642</v>
-      </c>
-      <c r="J73" s="1" t="n">
-        <v>22501424</v>
+      <c r="H73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J73" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K73" s="1" t="n">
-        <v>25881044</v>
+        <v>2654125</v>
       </c>
       <c r="L73" s="1" t="n">
-        <v>26364642</v>
+        <v>2427051</v>
       </c>
       <c r="M73" s="1" t="n">
-        <v>22501424</v>
+        <v>2845876</v>
       </c>
       <c r="N73" s="1" t="n">
-        <v>25881044</v>
+        <v>2654125</v>
       </c>
       <c r="O73" s="1" t="n">
-        <v>26364642</v>
+        <v>2427051</v>
       </c>
       <c r="P73" s="1" t="n">
-        <v>22501424</v>
+        <v>2845876</v>
+      </c>
+      <c r="Q73" s="1" t="n">
+        <v>2654125</v>
+      </c>
+      <c r="R73" s="1" t="n">
+        <v>2427051</v>
+      </c>
+      <c r="S73" s="1" t="n">
+        <v>2845876</v>
       </c>
     </row>
     <row r="74">
@@ -4742,86 +5728,91 @@
       </c>
       <c r="B74" s="1" t="inlineStr">
         <is>
-          <t>부채총계</t>
+          <t>비유동부채</t>
         </is>
       </c>
       <c r="C74" s="1" t="n"/>
       <c r="D74" s="1" t="n"/>
       <c r="E74" s="1" t="n">
-        <v>180653915</v>
+        <v>16508663</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>164845917</v>
+        <v>15330051</v>
       </c>
       <c r="G74" s="1" t="n">
-        <v>151330626</v>
+        <v>33604094</v>
       </c>
       <c r="H74" s="1" t="n">
-        <v>202450215</v>
+        <v>107291812</v>
       </c>
       <c r="I74" s="1" t="n">
-        <v>192804738</v>
+        <v>90609445</v>
       </c>
       <c r="J74" s="1" t="n">
-        <v>145797021</v>
+        <v>87093839</v>
       </c>
       <c r="K74" s="1" t="n">
-        <v>383104130</v>
+        <v>141201794</v>
       </c>
       <c r="L74" s="1" t="n">
-        <v>357650655</v>
+        <v>148286161</v>
       </c>
       <c r="M74" s="1" t="n">
-        <v>297127647</v>
+        <v>114064801</v>
       </c>
       <c r="N74" s="1" t="n">
-        <v>191552065</v>
+        <v>265002269</v>
       </c>
       <c r="O74" s="1" t="n">
-        <v>178825327.5</v>
+        <v>254225657</v>
       </c>
       <c r="P74" s="1" t="n">
-        <v>148563823.5</v>
+        <v>234762734</v>
+      </c>
+      <c r="Q74" s="1" t="n">
+        <v>88334089.66666667</v>
+      </c>
+      <c r="R74" s="1" t="n">
+        <v>84741885.66666667</v>
+      </c>
+      <c r="S74" s="1" t="n">
+        <v>78254244.66666667</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>자본</t>
-        </is>
-      </c>
-      <c r="B75" s="1" t="n"/>
-      <c r="C75" s="1" t="n"/>
+          <t>부채</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>비유동부채</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>사채</t>
+        </is>
+      </c>
       <c r="D75" s="1" t="n"/>
-      <c r="E75" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F75" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G75" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H75" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I75" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J75" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E75" s="1" t="n">
+        <v>537618</v>
+      </c>
+      <c r="F75" s="1" t="n">
+        <v>536093</v>
+      </c>
+      <c r="G75" s="1" t="n">
+        <v>508232</v>
+      </c>
+      <c r="H75" s="1" t="n">
+        <v>73033493</v>
+      </c>
+      <c r="I75" s="1" t="n">
+        <v>62960060</v>
+      </c>
+      <c r="J75" s="1" t="n">
+        <v>63458809</v>
       </c>
       <c r="K75" s="7" t="inlineStr">
         <is>
@@ -4838,103 +5829,119 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N75" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O75" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P75" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="N75" s="1" t="n">
+        <v>73571111</v>
+      </c>
+      <c r="O75" s="1" t="n">
+        <v>63496153</v>
+      </c>
+      <c r="P75" s="1" t="n">
+        <v>63967041</v>
+      </c>
+      <c r="Q75" s="1" t="n">
+        <v>36785555.5</v>
+      </c>
+      <c r="R75" s="1" t="n">
+        <v>31748076.5</v>
+      </c>
+      <c r="S75" s="1" t="n">
+        <v>31983520.5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>자본</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
-        </is>
-      </c>
-      <c r="C76" s="1" t="n"/>
+          <t>비유동부채</t>
+        </is>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>장기차입금</t>
+        </is>
+      </c>
       <c r="D76" s="1" t="n"/>
       <c r="E76" s="1" t="n">
-        <v>92497311</v>
+        <v>3724850</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>82349287</v>
+        <v>3560672</v>
       </c>
       <c r="G76" s="1" t="n">
-        <v>74986122</v>
-      </c>
-      <c r="H76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J76" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K76" s="1" t="n">
-        <v>92497311</v>
-      </c>
-      <c r="L76" s="1" t="n">
-        <v>82349287</v>
-      </c>
-      <c r="M76" s="1" t="n">
-        <v>74986122</v>
+        <v>2866156</v>
+      </c>
+      <c r="H76" s="1" t="n">
+        <v>17569760</v>
+      </c>
+      <c r="I76" s="1" t="n">
+        <v>12285149</v>
+      </c>
+      <c r="J76" s="1" t="n">
+        <v>10667731</v>
+      </c>
+      <c r="K76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M76" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N76" s="1" t="n">
-        <v>92497311</v>
+        <v>21294610</v>
       </c>
       <c r="O76" s="1" t="n">
-        <v>82349287</v>
+        <v>15845821</v>
       </c>
       <c r="P76" s="1" t="n">
-        <v>74986122</v>
+        <v>13533887</v>
+      </c>
+      <c r="Q76" s="1" t="n">
+        <v>10647305</v>
+      </c>
+      <c r="R76" s="1" t="n">
+        <v>7922910.5</v>
+      </c>
+      <c r="S76" s="1" t="n">
+        <v>6766943.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>자본</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
+          <t>비유동부채</t>
         </is>
       </c>
       <c r="C77" s="1" t="inlineStr">
         <is>
-          <t>자본금</t>
+          <t>장기미지급금</t>
         </is>
       </c>
       <c r="D77" s="1" t="n"/>
       <c r="E77" s="1" t="n">
-        <v>1488993</v>
+        <v>5488283</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>1488993</v>
+        <v>2753305</v>
       </c>
       <c r="G77" s="1" t="n">
-        <v>1488993</v>
+        <v>2991440</v>
       </c>
       <c r="H77" s="7" t="inlineStr">
         <is>
@@ -4951,170 +5958,197 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K77" s="1" t="n">
-        <v>1488993</v>
-      </c>
-      <c r="L77" s="1" t="n">
-        <v>1488993</v>
-      </c>
-      <c r="M77" s="1" t="n">
-        <v>1488993</v>
+      <c r="K77" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L77" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M77" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N77" s="1" t="n">
-        <v>1488993</v>
+        <v>5488283</v>
       </c>
       <c r="O77" s="1" t="n">
-        <v>1488993</v>
+        <v>2753305</v>
       </c>
       <c r="P77" s="1" t="n">
-        <v>1488993</v>
+        <v>2991440</v>
+      </c>
+      <c r="Q77" s="1" t="n">
+        <v>5488283</v>
+      </c>
+      <c r="R77" s="1" t="n">
+        <v>2753305</v>
+      </c>
+      <c r="S77" s="1" t="n">
+        <v>2991440</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>자본</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
+          <t>비유동부채</t>
         </is>
       </c>
       <c r="C78" s="1" t="inlineStr">
         <is>
-          <t>자본잉여금</t>
+          <t>순확정급여부채</t>
         </is>
       </c>
       <c r="D78" s="1" t="n"/>
       <c r="E78" s="1" t="n">
-        <v>4378489</v>
+        <v>456557</v>
       </c>
       <c r="F78" s="1" t="n">
-        <v>4241303</v>
+        <v>268370</v>
       </c>
       <c r="G78" s="1" t="n">
-        <v>4070260</v>
-      </c>
-      <c r="H78" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I78" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J78" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K78" s="1" t="n">
-        <v>4378489</v>
-      </c>
-      <c r="L78" s="1" t="n">
-        <v>4241303</v>
-      </c>
-      <c r="M78" s="1" t="n">
-        <v>4070260</v>
+        <v>465884</v>
+      </c>
+      <c r="H78" s="1" t="n">
+        <v>77268</v>
+      </c>
+      <c r="I78" s="1" t="n">
+        <v>61861</v>
+      </c>
+      <c r="J78" s="1" t="n">
+        <v>79165</v>
+      </c>
+      <c r="K78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M78" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N78" s="1" t="n">
-        <v>4378489</v>
+        <v>533825</v>
       </c>
       <c r="O78" s="1" t="n">
-        <v>4241303</v>
+        <v>330231</v>
       </c>
       <c r="P78" s="1" t="n">
-        <v>4070260</v>
+        <v>545049</v>
+      </c>
+      <c r="Q78" s="1" t="n">
+        <v>266912.5</v>
+      </c>
+      <c r="R78" s="1" t="n">
+        <v>165115.5</v>
+      </c>
+      <c r="S78" s="1" t="n">
+        <v>272524.5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>자본</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B79" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
+          <t>비유동부채</t>
         </is>
       </c>
       <c r="C79" s="1" t="inlineStr">
         <is>
-          <t>기타자본항목</t>
+          <t>이연법인세부채</t>
         </is>
       </c>
       <c r="D79" s="1" t="n"/>
       <c r="E79" s="1" t="n">
-        <v>-1197084</v>
+        <v>620549</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>-1713928</v>
+        <v>5111332</v>
       </c>
       <c r="G79" s="1" t="n">
-        <v>-1968385</v>
-      </c>
-      <c r="H79" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I79" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J79" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>23198205</v>
+      </c>
+      <c r="H79" s="1" t="n">
+        <v>5438976</v>
+      </c>
+      <c r="I79" s="1" t="n">
+        <v>5027741</v>
+      </c>
+      <c r="J79" s="1" t="n">
+        <v>3689328</v>
       </c>
       <c r="K79" s="1" t="n">
-        <v>-1197084</v>
+        <v>5163135</v>
       </c>
       <c r="L79" s="1" t="n">
-        <v>-1713928</v>
+        <v>6457103</v>
       </c>
       <c r="M79" s="1" t="n">
-        <v>-1968385</v>
+        <v>7100938</v>
       </c>
       <c r="N79" s="1" t="n">
-        <v>-1197084</v>
+        <v>11222660</v>
       </c>
       <c r="O79" s="1" t="n">
-        <v>-1713928</v>
+        <v>16596176</v>
       </c>
       <c r="P79" s="1" t="n">
-        <v>-1968385</v>
+        <v>33988471</v>
+      </c>
+      <c r="Q79" s="1" t="n">
+        <v>3740886.666666667</v>
+      </c>
+      <c r="R79" s="1" t="n">
+        <v>5532058.666666667</v>
+      </c>
+      <c r="S79" s="1" t="n">
+        <v>11329490.33333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>자본</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
+          <t>비유동부채</t>
         </is>
       </c>
       <c r="C80" s="1" t="inlineStr">
         <is>
-          <t>기타포괄손익누계액</t>
+          <t>장기충당부채</t>
         </is>
       </c>
       <c r="D80" s="1" t="n"/>
       <c r="E80" s="1" t="n">
-        <v>-838892</v>
+        <v>2878450</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>-1620682</v>
+        <v>1928518</v>
       </c>
       <c r="G80" s="1" t="n">
-        <v>-1772601</v>
+        <v>2306994</v>
       </c>
       <c r="H80" s="7" t="inlineStr">
         <is>
@@ -5131,50 +6165,65 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K80" s="1" t="n">
-        <v>-838892</v>
-      </c>
-      <c r="L80" s="1" t="n">
-        <v>-1620682</v>
-      </c>
-      <c r="M80" s="1" t="n">
-        <v>-1772601</v>
+      <c r="K80" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L80" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M80" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N80" s="1" t="n">
-        <v>-838892</v>
+        <v>2878450</v>
       </c>
       <c r="O80" s="1" t="n">
-        <v>-1620682</v>
+        <v>1928518</v>
       </c>
       <c r="P80" s="1" t="n">
-        <v>-1772601</v>
+        <v>2306994</v>
+      </c>
+      <c r="Q80" s="1" t="n">
+        <v>2878450</v>
+      </c>
+      <c r="R80" s="1" t="n">
+        <v>1928518</v>
+      </c>
+      <c r="S80" s="1" t="n">
+        <v>2306994</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>자본</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr">
         <is>
-          <t>지배기업소유주지분</t>
+          <t>비유동부채</t>
         </is>
       </c>
       <c r="C81" s="1" t="inlineStr">
         <is>
-          <t>이익잉여금</t>
+          <t>기타 비유동 부채</t>
         </is>
       </c>
       <c r="D81" s="1" t="n"/>
       <c r="E81" s="1" t="n">
-        <v>88665805</v>
+        <v>2802356</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>79953601</v>
+        <v>1171761</v>
       </c>
       <c r="G81" s="1" t="n">
-        <v>73167855</v>
+        <v>1267183</v>
       </c>
       <c r="H81" s="7" t="inlineStr">
         <is>
@@ -5191,137 +6240,206 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K81" s="1" t="n">
-        <v>88665805</v>
-      </c>
-      <c r="L81" s="1" t="n">
-        <v>79953601</v>
-      </c>
-      <c r="M81" s="1" t="n">
-        <v>73167855</v>
+      <c r="K81" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L81" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M81" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N81" s="1" t="n">
-        <v>88665805</v>
+        <v>2802356</v>
       </c>
       <c r="O81" s="1" t="n">
-        <v>79953601</v>
+        <v>1171761</v>
       </c>
       <c r="P81" s="1" t="n">
-        <v>73167855</v>
+        <v>1267183</v>
+      </c>
+      <c r="Q81" s="1" t="n">
+        <v>2802356</v>
+      </c>
+      <c r="R81" s="1" t="n">
+        <v>1171761</v>
+      </c>
+      <c r="S81" s="1" t="n">
+        <v>1267183</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>자본</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr">
         <is>
-          <t>비지배지분</t>
-        </is>
-      </c>
-      <c r="C82" s="1" t="n"/>
+          <t>비유동부채</t>
+        </is>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>장기성미지급금</t>
+        </is>
+      </c>
       <c r="D82" s="1" t="n"/>
-      <c r="E82" s="1" t="n">
-        <v>9312129</v>
-      </c>
-      <c r="F82" s="1" t="n">
-        <v>8547258</v>
-      </c>
-      <c r="G82" s="1" t="n">
-        <v>7629667</v>
+      <c r="E82" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F82" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G82" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H82" s="1" t="n">
-        <v>1419707</v>
+        <v>616011</v>
       </c>
       <c r="I82" s="1" t="n">
-        <v>1454860</v>
+        <v>726115</v>
       </c>
       <c r="J82" s="1" t="n">
-        <v>1546434</v>
-      </c>
-      <c r="K82" s="1" t="n">
-        <v>10731836</v>
-      </c>
-      <c r="L82" s="1" t="n">
-        <v>10002118</v>
-      </c>
-      <c r="M82" s="1" t="n">
-        <v>9176101</v>
+        <v>769487</v>
+      </c>
+      <c r="K82" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L82" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M82" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N82" s="1" t="n">
-        <v>5365918</v>
+        <v>616011</v>
       </c>
       <c r="O82" s="1" t="n">
-        <v>5001059</v>
+        <v>726115</v>
       </c>
       <c r="P82" s="1" t="n">
-        <v>4588050.5</v>
+        <v>769487</v>
+      </c>
+      <c r="Q82" s="1" t="n">
+        <v>616011</v>
+      </c>
+      <c r="R82" s="1" t="n">
+        <v>726115</v>
+      </c>
+      <c r="S82" s="1" t="n">
+        <v>769487</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>자본</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B83" s="1" t="inlineStr">
         <is>
-          <t>자본총계</t>
-        </is>
-      </c>
-      <c r="C83" s="1" t="n"/>
+          <t>비유동부채</t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>충당부채</t>
+        </is>
+      </c>
       <c r="D83" s="1" t="n"/>
-      <c r="E83" s="1" t="n">
-        <v>101809440</v>
-      </c>
-      <c r="F83" s="1" t="n">
-        <v>90896545</v>
-      </c>
-      <c r="G83" s="1" t="n">
-        <v>82615789</v>
+      <c r="E83" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F83" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G83" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="H83" s="1" t="n">
-        <v>37264750</v>
+        <v>4333841</v>
       </c>
       <c r="I83" s="1" t="n">
-        <v>42000256</v>
+        <v>4327985</v>
       </c>
       <c r="J83" s="1" t="n">
-        <v>65326706</v>
-      </c>
-      <c r="K83" s="1" t="n">
-        <v>139074190</v>
-      </c>
-      <c r="L83" s="1" t="n">
-        <v>132896801</v>
-      </c>
-      <c r="M83" s="1" t="n">
-        <v>147942495</v>
+        <v>4214137</v>
+      </c>
+      <c r="K83" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L83" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M83" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N83" s="1" t="n">
-        <v>69537095</v>
+        <v>4333841</v>
       </c>
       <c r="O83" s="1" t="n">
-        <v>66448400.5</v>
+        <v>4327985</v>
       </c>
       <c r="P83" s="1" t="n">
-        <v>73971247.5</v>
+        <v>4214137</v>
+      </c>
+      <c r="Q83" s="1" t="n">
+        <v>4333841</v>
+      </c>
+      <c r="R83" s="1" t="n">
+        <v>4327985</v>
+      </c>
+      <c r="S83" s="1" t="n">
+        <v>4214137</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>자본</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B84" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
-        </is>
-      </c>
-      <c r="C84" s="1" t="n"/>
+          <t>비유동부채</t>
+        </is>
+      </c>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>기타금융부채</t>
+        </is>
+      </c>
       <c r="D84" s="1" t="n"/>
       <c r="E84" s="7" t="inlineStr">
         <is>
@@ -5339,47 +6457,62 @@
         </is>
       </c>
       <c r="H84" s="1" t="n">
-        <v>35845043</v>
+        <v>176399</v>
       </c>
       <c r="I84" s="1" t="n">
-        <v>40545396</v>
+        <v>262518</v>
       </c>
       <c r="J84" s="1" t="n">
-        <v>63780272</v>
-      </c>
-      <c r="K84" s="1" t="n">
-        <v>35845043</v>
-      </c>
-      <c r="L84" s="1" t="n">
-        <v>40545396</v>
-      </c>
-      <c r="M84" s="1" t="n">
-        <v>63780272</v>
+        <v>87258</v>
+      </c>
+      <c r="K84" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L84" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M84" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N84" s="1" t="n">
-        <v>35845043</v>
+        <v>176399</v>
       </c>
       <c r="O84" s="1" t="n">
-        <v>40545396</v>
+        <v>262518</v>
       </c>
       <c r="P84" s="1" t="n">
-        <v>63780272</v>
+        <v>87258</v>
+      </c>
+      <c r="Q84" s="1" t="n">
+        <v>176399</v>
+      </c>
+      <c r="R84" s="1" t="n">
+        <v>262518</v>
+      </c>
+      <c r="S84" s="1" t="n">
+        <v>87258</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>자본</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B85" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
+          <t>비유동부채</t>
         </is>
       </c>
       <c r="C85" s="1" t="inlineStr">
         <is>
-          <t>납입자본</t>
+          <t>기타부채</t>
         </is>
       </c>
       <c r="D85" s="1" t="n"/>
@@ -5399,54 +6532,65 @@
         </is>
       </c>
       <c r="H85" s="1" t="n">
-        <v>4053578</v>
+        <v>5212012</v>
       </c>
       <c r="I85" s="1" t="n">
-        <v>4053578</v>
+        <v>4252265</v>
       </c>
       <c r="J85" s="1" t="n">
-        <v>4053578</v>
-      </c>
-      <c r="K85" s="1" t="n">
-        <v>4053578</v>
-      </c>
-      <c r="L85" s="1" t="n">
-        <v>4053578</v>
-      </c>
-      <c r="M85" s="1" t="n">
-        <v>4053578</v>
+        <v>3344618</v>
+      </c>
+      <c r="K85" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L85" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M85" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N85" s="1" t="n">
-        <v>4053578</v>
+        <v>5212012</v>
       </c>
       <c r="O85" s="1" t="n">
-        <v>4053578</v>
+        <v>4252265</v>
       </c>
       <c r="P85" s="1" t="n">
-        <v>4053578</v>
+        <v>3344618</v>
+      </c>
+      <c r="Q85" s="1" t="n">
+        <v>5212012</v>
+      </c>
+      <c r="R85" s="1" t="n">
+        <v>4252265</v>
+      </c>
+      <c r="S85" s="1" t="n">
+        <v>3344618</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>자본</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
+          <t>비유동부채</t>
         </is>
       </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t>납입자본</t>
-        </is>
-      </c>
-      <c r="D86" s="1" t="inlineStr">
-        <is>
-          <t>자본금</t>
-        </is>
-      </c>
+          <t>리스부채</t>
+        </is>
+      </c>
+      <c r="D86" s="1" t="n"/>
       <c r="E86" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -5463,54 +6607,65 @@
         </is>
       </c>
       <c r="H86" s="1" t="n">
-        <v>3209820</v>
+        <v>834052</v>
       </c>
       <c r="I86" s="1" t="n">
-        <v>3209820</v>
+        <v>705751</v>
       </c>
       <c r="J86" s="1" t="n">
-        <v>3209820</v>
-      </c>
-      <c r="K86" s="1" t="n">
-        <v>3209820</v>
-      </c>
-      <c r="L86" s="1" t="n">
-        <v>3209820</v>
-      </c>
-      <c r="M86" s="1" t="n">
-        <v>3209820</v>
+        <v>783306</v>
+      </c>
+      <c r="K86" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L86" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M86" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N86" s="1" t="n">
-        <v>3209820</v>
+        <v>834052</v>
       </c>
       <c r="O86" s="1" t="n">
-        <v>3209820</v>
+        <v>705751</v>
       </c>
       <c r="P86" s="1" t="n">
-        <v>3209820</v>
+        <v>783306</v>
+      </c>
+      <c r="Q86" s="1" t="n">
+        <v>834052</v>
+      </c>
+      <c r="R86" s="1" t="n">
+        <v>705751</v>
+      </c>
+      <c r="S86" s="1" t="n">
+        <v>783306</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>자본</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B87" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
+          <t>비유동부채</t>
         </is>
       </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>납입자본</t>
-        </is>
-      </c>
-      <c r="D87" s="1" t="inlineStr">
-        <is>
-          <t>주식발행초과금</t>
-        </is>
-      </c>
+          <t>장기매입채무 및 기타비유동채무</t>
+        </is>
+      </c>
+      <c r="D87" s="1" t="n"/>
       <c r="E87" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -5526,48 +6681,63 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H87" s="1" t="n">
-        <v>843758</v>
-      </c>
-      <c r="I87" s="1" t="n">
-        <v>843758</v>
-      </c>
-      <c r="J87" s="1" t="n">
-        <v>843758</v>
+      <c r="H87" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I87" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J87" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K87" s="1" t="n">
-        <v>843758</v>
+        <v>4981957</v>
       </c>
       <c r="L87" s="1" t="n">
-        <v>843758</v>
+        <v>5638914</v>
       </c>
       <c r="M87" s="1" t="n">
-        <v>843758</v>
+        <v>5996498</v>
       </c>
       <c r="N87" s="1" t="n">
-        <v>843758</v>
+        <v>4981957</v>
       </c>
       <c r="O87" s="1" t="n">
-        <v>843758</v>
+        <v>5638914</v>
       </c>
       <c r="P87" s="1" t="n">
-        <v>843758</v>
+        <v>5996498</v>
+      </c>
+      <c r="Q87" s="1" t="n">
+        <v>4981957</v>
+      </c>
+      <c r="R87" s="1" t="n">
+        <v>5638914</v>
+      </c>
+      <c r="S87" s="1" t="n">
+        <v>5996498</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>자본</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B88" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
+          <t>비유동부채</t>
         </is>
       </c>
       <c r="C88" s="1" t="inlineStr">
         <is>
-          <t>이익잉여금(결손금)</t>
+          <t>비유동금융부채</t>
         </is>
       </c>
       <c r="D88" s="1" t="n"/>
@@ -5586,55 +6756,66 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H88" s="1" t="n">
-        <v>16338262</v>
-      </c>
-      <c r="I88" s="1" t="n">
-        <v>21431300</v>
-      </c>
-      <c r="J88" s="1" t="n">
-        <v>45258244</v>
+      <c r="H88" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I88" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J88" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K88" s="1" t="n">
-        <v>16338262</v>
+        <v>92944338</v>
       </c>
       <c r="L88" s="1" t="n">
-        <v>21431300</v>
+        <v>98334120</v>
       </c>
       <c r="M88" s="1" t="n">
-        <v>45258244</v>
+        <v>66570419</v>
       </c>
       <c r="N88" s="1" t="n">
-        <v>16338262</v>
+        <v>92944338</v>
       </c>
       <c r="O88" s="1" t="n">
-        <v>21431300</v>
+        <v>98334120</v>
       </c>
       <c r="P88" s="1" t="n">
-        <v>45258244</v>
+        <v>66570419</v>
+      </c>
+      <c r="Q88" s="1" t="n">
+        <v>92944338</v>
+      </c>
+      <c r="R88" s="1" t="n">
+        <v>98334120</v>
+      </c>
+      <c r="S88" s="1" t="n">
+        <v>66570419</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>자본</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B89" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
+          <t>비유동부채</t>
         </is>
       </c>
       <c r="C89" s="1" t="inlineStr">
         <is>
-          <t>이익잉여금(결손금)</t>
-        </is>
-      </c>
-      <c r="D89" s="1" t="inlineStr">
-        <is>
-          <t>이익준비금</t>
-        </is>
-      </c>
+          <t>비유동비금융부채</t>
+        </is>
+      </c>
+      <c r="D89" s="1" t="n"/>
       <c r="E89" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -5650,55 +6831,66 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H89" s="1" t="n">
-        <v>1604910</v>
-      </c>
-      <c r="I89" s="1" t="n">
-        <v>1604910</v>
-      </c>
-      <c r="J89" s="1" t="n">
-        <v>1604910</v>
+      <c r="H89" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I89" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J89" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K89" s="1" t="n">
-        <v>1604910</v>
+        <v>11196000</v>
       </c>
       <c r="L89" s="1" t="n">
-        <v>1604910</v>
+        <v>10662661</v>
       </c>
       <c r="M89" s="1" t="n">
-        <v>1604910</v>
+        <v>10216364</v>
       </c>
       <c r="N89" s="1" t="n">
-        <v>1604910</v>
+        <v>11196000</v>
       </c>
       <c r="O89" s="1" t="n">
-        <v>1604910</v>
+        <v>10662661</v>
       </c>
       <c r="P89" s="1" t="n">
-        <v>1604910</v>
+        <v>10216364</v>
+      </c>
+      <c r="Q89" s="1" t="n">
+        <v>11196000</v>
+      </c>
+      <c r="R89" s="1" t="n">
+        <v>10662661</v>
+      </c>
+      <c r="S89" s="1" t="n">
+        <v>10216364</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>자본</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B90" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
+          <t>비유동부채</t>
         </is>
       </c>
       <c r="C90" s="1" t="inlineStr">
         <is>
-          <t>이익잉여금(결손금)</t>
-        </is>
-      </c>
-      <c r="D90" s="1" t="inlineStr">
-        <is>
-          <t>임의적립금</t>
-        </is>
-      </c>
+          <t>종업원급여채무</t>
+        </is>
+      </c>
+      <c r="D90" s="1" t="n"/>
       <c r="E90" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -5714,55 +6906,66 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H90" s="1" t="n">
-        <v>2812313</v>
-      </c>
-      <c r="I90" s="1" t="n">
-        <v>27782969</v>
-      </c>
-      <c r="J90" s="1" t="n">
-        <v>33282817</v>
+      <c r="H90" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I90" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J90" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K90" s="1" t="n">
-        <v>2812313</v>
+        <v>1035320</v>
       </c>
       <c r="L90" s="1" t="n">
-        <v>27782969</v>
+        <v>828721</v>
       </c>
       <c r="M90" s="1" t="n">
-        <v>33282817</v>
+        <v>1679158</v>
       </c>
       <c r="N90" s="1" t="n">
-        <v>2812313</v>
+        <v>1035320</v>
       </c>
       <c r="O90" s="1" t="n">
-        <v>27782969</v>
+        <v>828721</v>
       </c>
       <c r="P90" s="1" t="n">
-        <v>33282817</v>
+        <v>1679158</v>
+      </c>
+      <c r="Q90" s="1" t="n">
+        <v>1035320</v>
+      </c>
+      <c r="R90" s="1" t="n">
+        <v>828721</v>
+      </c>
+      <c r="S90" s="1" t="n">
+        <v>1679158</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>자본</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B91" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
+          <t>비유동부채</t>
         </is>
       </c>
       <c r="C91" s="1" t="inlineStr">
         <is>
-          <t>이익잉여금(결손금)</t>
-        </is>
-      </c>
-      <c r="D91" s="1" t="inlineStr">
-        <is>
-          <t>미처분이익잉여금(미처리결손금)</t>
-        </is>
-      </c>
+          <t>비유동충당부채</t>
+        </is>
+      </c>
+      <c r="D91" s="1" t="n"/>
       <c r="E91" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -5778,92 +6981,106 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H91" s="1" t="n">
-        <v>11921039</v>
-      </c>
-      <c r="I91" s="1" t="n">
-        <v>-7956579</v>
-      </c>
-      <c r="J91" s="1" t="n">
-        <v>10370517</v>
+      <c r="H91" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I91" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J91" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="K91" s="1" t="n">
-        <v>11921039</v>
+        <v>25881044</v>
       </c>
       <c r="L91" s="1" t="n">
-        <v>-7956579</v>
+        <v>26364642</v>
       </c>
       <c r="M91" s="1" t="n">
-        <v>10370517</v>
+        <v>22501424</v>
       </c>
       <c r="N91" s="1" t="n">
-        <v>11921039</v>
+        <v>25881044</v>
       </c>
       <c r="O91" s="1" t="n">
-        <v>-7956579</v>
+        <v>26364642</v>
       </c>
       <c r="P91" s="1" t="n">
-        <v>10370517</v>
+        <v>22501424</v>
+      </c>
+      <c r="Q91" s="1" t="n">
+        <v>25881044</v>
+      </c>
+      <c r="R91" s="1" t="n">
+        <v>26364642</v>
+      </c>
+      <c r="S91" s="1" t="n">
+        <v>22501424</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>자본</t>
+          <t>부채</t>
         </is>
       </c>
       <c r="B92" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
-        </is>
-      </c>
-      <c r="C92" s="1" t="inlineStr">
-        <is>
-          <t>기타자본구성요소</t>
-        </is>
-      </c>
+          <t>부채총계</t>
+        </is>
+      </c>
+      <c r="C92" s="1" t="n"/>
       <c r="D92" s="1" t="n"/>
-      <c r="E92" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F92" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G92" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="E92" s="1" t="n">
+        <v>92228115</v>
+      </c>
+      <c r="F92" s="1" t="n">
+        <v>93674903</v>
+      </c>
+      <c r="G92" s="1" t="n">
+        <v>121721227</v>
       </c>
       <c r="H92" s="1" t="n">
-        <v>15453203</v>
+        <v>180653915</v>
       </c>
       <c r="I92" s="1" t="n">
-        <v>15060518</v>
+        <v>164845917</v>
       </c>
       <c r="J92" s="1" t="n">
-        <v>14468450</v>
+        <v>151330626</v>
       </c>
       <c r="K92" s="1" t="n">
-        <v>15453203</v>
+        <v>202450215</v>
       </c>
       <c r="L92" s="1" t="n">
-        <v>15060518</v>
+        <v>192804738</v>
       </c>
       <c r="M92" s="1" t="n">
-        <v>14468450</v>
+        <v>145797021</v>
       </c>
       <c r="N92" s="1" t="n">
-        <v>15453203</v>
+        <v>475332245</v>
       </c>
       <c r="O92" s="1" t="n">
-        <v>15060518</v>
+        <v>451325558</v>
       </c>
       <c r="P92" s="1" t="n">
-        <v>14468450</v>
+        <v>418848874</v>
+      </c>
+      <c r="Q92" s="1" t="n">
+        <v>158444081.6666667</v>
+      </c>
+      <c r="R92" s="1" t="n">
+        <v>150441852.6666667</v>
+      </c>
+      <c r="S92" s="1" t="n">
+        <v>139616291.3333333</v>
       </c>
     </row>
     <row r="93">
@@ -5872,21 +7089,9 @@
           <t>자본</t>
         </is>
       </c>
-      <c r="B93" s="1" t="inlineStr">
-        <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
-        </is>
-      </c>
-      <c r="C93" s="1" t="inlineStr">
-        <is>
-          <t>기타자본구성요소</t>
-        </is>
-      </c>
-      <c r="D93" s="1" t="inlineStr">
-        <is>
-          <t>기타자본잉여금</t>
-        </is>
-      </c>
+      <c r="B93" s="1" t="n"/>
+      <c r="C93" s="1" t="n"/>
+      <c r="D93" s="1" t="n"/>
       <c r="E93" s="7" t="inlineStr">
         <is>
           <t>-</t>
@@ -5902,32 +7107,65 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H93" s="1" t="n">
-        <v>1600801</v>
-      </c>
-      <c r="I93" s="1" t="n">
-        <v>1268569</v>
-      </c>
-      <c r="J93" s="1" t="n">
-        <v>1231109</v>
-      </c>
-      <c r="K93" s="1" t="n">
-        <v>1600801</v>
-      </c>
-      <c r="L93" s="1" t="n">
-        <v>1268569</v>
-      </c>
-      <c r="M93" s="1" t="n">
-        <v>1231109</v>
-      </c>
-      <c r="N93" s="1" t="n">
-        <v>1600801</v>
-      </c>
-      <c r="O93" s="1" t="n">
-        <v>1268569</v>
-      </c>
-      <c r="P93" s="1" t="n">
-        <v>1231109</v>
+      <c r="H93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="Q93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="R93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="S93" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -5938,60 +7176,67 @@
       </c>
       <c r="B94" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
-        </is>
-      </c>
-      <c r="C94" s="1" t="inlineStr">
-        <is>
-          <t>기타자본구성요소</t>
-        </is>
-      </c>
-      <c r="D94" s="1" t="inlineStr">
-        <is>
-          <t>기타포괄손익누계액</t>
-        </is>
-      </c>
-      <c r="E94" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F94" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G94" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H94" s="1" t="n">
-        <v>557430</v>
-      </c>
-      <c r="I94" s="1" t="n">
-        <v>496976</v>
-      </c>
-      <c r="J94" s="1" t="n">
-        <v>-57632</v>
-      </c>
-      <c r="K94" s="1" t="n">
-        <v>557430</v>
-      </c>
-      <c r="L94" s="1" t="n">
-        <v>496976</v>
-      </c>
-      <c r="M94" s="1" t="n">
-        <v>-57632</v>
+          <t>지배기업 소유주지분</t>
+        </is>
+      </c>
+      <c r="C94" s="1" t="n"/>
+      <c r="D94" s="1" t="n"/>
+      <c r="E94" s="1" t="n">
+        <v>353233775</v>
+      </c>
+      <c r="F94" s="1" t="n">
+        <v>345186142</v>
+      </c>
+      <c r="G94" s="1" t="n">
+        <v>296237697</v>
+      </c>
+      <c r="H94" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I94" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J94" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K94" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L94" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M94" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N94" s="1" t="n">
-        <v>557430</v>
+        <v>353233775</v>
       </c>
       <c r="O94" s="1" t="n">
-        <v>496976</v>
+        <v>345186142</v>
       </c>
       <c r="P94" s="1" t="n">
-        <v>-57632</v>
+        <v>296237697</v>
+      </c>
+      <c r="Q94" s="1" t="n">
+        <v>353233775</v>
+      </c>
+      <c r="R94" s="1" t="n">
+        <v>345186142</v>
+      </c>
+      <c r="S94" s="1" t="n">
+        <v>296237697</v>
       </c>
     </row>
     <row r="95">
@@ -6002,79 +7247,102 @@
       </c>
       <c r="B95" s="1" t="inlineStr">
         <is>
-          <t>지배기업의 소유주에게 귀속되는 자본</t>
+          <t>지배기업 소유주지분</t>
         </is>
       </c>
       <c r="C95" s="1" t="inlineStr">
         <is>
-          <t>기타자본구성요소</t>
-        </is>
-      </c>
-      <c r="D95" s="1" t="inlineStr">
-        <is>
-          <t>기타자본</t>
-        </is>
-      </c>
-      <c r="E95" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F95" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G95" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H95" s="1" t="n">
-        <v>13294972</v>
-      </c>
-      <c r="I95" s="1" t="n">
-        <v>13294973</v>
-      </c>
-      <c r="J95" s="1" t="n">
-        <v>13294973</v>
-      </c>
-      <c r="K95" s="1" t="n">
-        <v>13294972</v>
-      </c>
-      <c r="L95" s="1" t="n">
-        <v>13294973</v>
-      </c>
-      <c r="M95" s="1" t="n">
-        <v>13294973</v>
+          <t>자본금</t>
+        </is>
+      </c>
+      <c r="D95" s="1" t="n"/>
+      <c r="E95" s="1" t="n">
+        <v>897514</v>
+      </c>
+      <c r="F95" s="1" t="n">
+        <v>897514</v>
+      </c>
+      <c r="G95" s="1" t="n">
+        <v>897514</v>
+      </c>
+      <c r="H95" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I95" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J95" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K95" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L95" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M95" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N95" s="1" t="n">
-        <v>13294972</v>
+        <v>897514</v>
       </c>
       <c r="O95" s="1" t="n">
-        <v>13294973</v>
+        <v>897514</v>
       </c>
       <c r="P95" s="1" t="n">
-        <v>13294973</v>
+        <v>897514</v>
+      </c>
+      <c r="Q95" s="1" t="n">
+        <v>897514</v>
+      </c>
+      <c r="R95" s="1" t="n">
+        <v>897514</v>
+      </c>
+      <c r="S95" s="1" t="n">
+        <v>897514</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>부채와자본총계</t>
-        </is>
-      </c>
-      <c r="B96" s="1" t="n"/>
-      <c r="C96" s="1" t="n"/>
-      <c r="D96" s="1" t="n"/>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>지배기업 소유주지분</t>
+        </is>
+      </c>
+      <c r="C96" s="1" t="inlineStr">
+        <is>
+          <t>자본금</t>
+        </is>
+      </c>
+      <c r="D96" s="1" t="inlineStr">
+        <is>
+          <t>우선주자본금</t>
+        </is>
+      </c>
       <c r="E96" s="1" t="n">
-        <v>282463355</v>
+        <v>119467</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>255742462</v>
+        <v>119467</v>
       </c>
       <c r="G96" s="1" t="n">
-        <v>233946415</v>
+        <v>119467</v>
       </c>
       <c r="H96" s="7" t="inlineStr">
         <is>
@@ -6091,83 +7359,1971 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K96" s="1" t="n">
-        <v>282463355</v>
-      </c>
-      <c r="L96" s="1" t="n">
-        <v>255742462</v>
-      </c>
-      <c r="M96" s="1" t="n">
-        <v>233946415</v>
+      <c r="K96" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L96" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M96" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="N96" s="1" t="n">
-        <v>282463355</v>
+        <v>119467</v>
       </c>
       <c r="O96" s="1" t="n">
-        <v>255742462</v>
+        <v>119467</v>
       </c>
       <c r="P96" s="1" t="n">
-        <v>233946415</v>
+        <v>119467</v>
+      </c>
+      <c r="Q96" s="1" t="n">
+        <v>119467</v>
+      </c>
+      <c r="R96" s="1" t="n">
+        <v>119467</v>
+      </c>
+      <c r="S96" s="1" t="n">
+        <v>119467</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>지배기업 소유주지분</t>
+        </is>
+      </c>
+      <c r="C97" s="1" t="inlineStr">
+        <is>
+          <t>자본금</t>
+        </is>
+      </c>
+      <c r="D97" s="1" t="inlineStr">
+        <is>
+          <t>보통주자본금</t>
+        </is>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>778047</v>
+      </c>
+      <c r="F97" s="1" t="n">
+        <v>778047</v>
+      </c>
+      <c r="G97" s="1" t="n">
+        <v>778047</v>
+      </c>
+      <c r="H97" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I97" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J97" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K97" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L97" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M97" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N97" s="1" t="n">
+        <v>778047</v>
+      </c>
+      <c r="O97" s="1" t="n">
+        <v>778047</v>
+      </c>
+      <c r="P97" s="1" t="n">
+        <v>778047</v>
+      </c>
+      <c r="Q97" s="1" t="n">
+        <v>778047</v>
+      </c>
+      <c r="R97" s="1" t="n">
+        <v>778047</v>
+      </c>
+      <c r="S97" s="1" t="n">
+        <v>778047</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>지배기업 소유주지분</t>
+        </is>
+      </c>
+      <c r="C98" s="1" t="inlineStr">
+        <is>
+          <t>주식발행초과금</t>
+        </is>
+      </c>
+      <c r="D98" s="1" t="n"/>
+      <c r="E98" s="1" t="n">
+        <v>4403893</v>
+      </c>
+      <c r="F98" s="1" t="n">
+        <v>4403893</v>
+      </c>
+      <c r="G98" s="1" t="n">
+        <v>4403893</v>
+      </c>
+      <c r="H98" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I98" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J98" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K98" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L98" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M98" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N98" s="1" t="n">
+        <v>4403893</v>
+      </c>
+      <c r="O98" s="1" t="n">
+        <v>4403893</v>
+      </c>
+      <c r="P98" s="1" t="n">
+        <v>4403893</v>
+      </c>
+      <c r="Q98" s="1" t="n">
+        <v>4403893</v>
+      </c>
+      <c r="R98" s="1" t="n">
+        <v>4403893</v>
+      </c>
+      <c r="S98" s="1" t="n">
+        <v>4403893</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>지배기업 소유주지분</t>
+        </is>
+      </c>
+      <c r="C99" s="1" t="inlineStr">
+        <is>
+          <t>이익잉여금</t>
+        </is>
+      </c>
+      <c r="D99" s="1" t="n"/>
+      <c r="E99" s="1" t="n">
+        <v>346652238</v>
+      </c>
+      <c r="F99" s="1" t="n">
+        <v>337946407</v>
+      </c>
+      <c r="G99" s="1" t="n">
+        <v>293064763</v>
+      </c>
+      <c r="H99" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I99" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J99" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K99" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L99" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M99" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N99" s="1" t="n">
+        <v>346652238</v>
+      </c>
+      <c r="O99" s="1" t="n">
+        <v>337946407</v>
+      </c>
+      <c r="P99" s="1" t="n">
+        <v>293064763</v>
+      </c>
+      <c r="Q99" s="1" t="n">
+        <v>346652238</v>
+      </c>
+      <c r="R99" s="1" t="n">
+        <v>337946407</v>
+      </c>
+      <c r="S99" s="1" t="n">
+        <v>293064763</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>지배기업 소유주지분</t>
+        </is>
+      </c>
+      <c r="C100" s="1" t="inlineStr">
+        <is>
+          <t>기타자본항목</t>
+        </is>
+      </c>
+      <c r="D100" s="1" t="n"/>
+      <c r="E100" s="1" t="n">
+        <v>1280130</v>
+      </c>
+      <c r="F100" s="1" t="n">
+        <v>1938328</v>
+      </c>
+      <c r="G100" s="1" t="n">
+        <v>-2128473</v>
+      </c>
+      <c r="H100" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I100" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J100" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K100" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L100" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M100" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N100" s="1" t="n">
+        <v>1280130</v>
+      </c>
+      <c r="O100" s="1" t="n">
+        <v>1938328</v>
+      </c>
+      <c r="P100" s="1" t="n">
+        <v>-2128473</v>
+      </c>
+      <c r="Q100" s="1" t="n">
+        <v>1280130</v>
+      </c>
+      <c r="R100" s="1" t="n">
+        <v>1938328</v>
+      </c>
+      <c r="S100" s="1" t="n">
+        <v>-2128473</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>비지배지분</t>
+        </is>
+      </c>
+      <c r="C101" s="1" t="n"/>
+      <c r="D101" s="1" t="n"/>
+      <c r="E101" s="1" t="n">
+        <v>10444090</v>
+      </c>
+      <c r="F101" s="1" t="n">
+        <v>9563462</v>
+      </c>
+      <c r="G101" s="1" t="n">
+        <v>8662234</v>
+      </c>
+      <c r="H101" s="1" t="n">
+        <v>9312129</v>
+      </c>
+      <c r="I101" s="1" t="n">
+        <v>8547258</v>
+      </c>
+      <c r="J101" s="1" t="n">
+        <v>7629667</v>
+      </c>
+      <c r="K101" s="1" t="n">
+        <v>1419707</v>
+      </c>
+      <c r="L101" s="1" t="n">
+        <v>1454860</v>
+      </c>
+      <c r="M101" s="1" t="n">
+        <v>1546434</v>
+      </c>
+      <c r="N101" s="1" t="n">
+        <v>21175926</v>
+      </c>
+      <c r="O101" s="1" t="n">
+        <v>19565580</v>
+      </c>
+      <c r="P101" s="1" t="n">
+        <v>17838335</v>
+      </c>
+      <c r="Q101" s="1" t="n">
+        <v>7058642</v>
+      </c>
+      <c r="R101" s="1" t="n">
+        <v>6521860</v>
+      </c>
+      <c r="S101" s="1" t="n">
+        <v>5946111.666666667</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>자본총계</t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="n"/>
+      <c r="D102" s="1" t="n"/>
+      <c r="E102" s="1" t="n">
+        <v>363677865</v>
+      </c>
+      <c r="F102" s="1" t="n">
+        <v>354749604</v>
+      </c>
+      <c r="G102" s="1" t="n">
+        <v>304899931</v>
+      </c>
+      <c r="H102" s="1" t="n">
+        <v>101809440</v>
+      </c>
+      <c r="I102" s="1" t="n">
+        <v>90896545</v>
+      </c>
+      <c r="J102" s="1" t="n">
+        <v>82615789</v>
+      </c>
+      <c r="K102" s="1" t="n">
+        <v>37264750</v>
+      </c>
+      <c r="L102" s="1" t="n">
+        <v>42000256</v>
+      </c>
+      <c r="M102" s="1" t="n">
+        <v>65326706</v>
+      </c>
+      <c r="N102" s="1" t="n">
+        <v>502752055</v>
+      </c>
+      <c r="O102" s="1" t="n">
+        <v>487646405</v>
+      </c>
+      <c r="P102" s="1" t="n">
+        <v>452842426</v>
+      </c>
+      <c r="Q102" s="1" t="n">
+        <v>167584018.3333333</v>
+      </c>
+      <c r="R102" s="1" t="n">
+        <v>162548801.6666667</v>
+      </c>
+      <c r="S102" s="1" t="n">
+        <v>150947475.3333333</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="inlineStr">
+        <is>
+          <t>지배기업소유주지분</t>
+        </is>
+      </c>
+      <c r="C103" s="1" t="n"/>
+      <c r="D103" s="1" t="n"/>
+      <c r="E103" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F103" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G103" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H103" s="1" t="n">
+        <v>92497311</v>
+      </c>
+      <c r="I103" s="1" t="n">
+        <v>82349287</v>
+      </c>
+      <c r="J103" s="1" t="n">
+        <v>74986122</v>
+      </c>
+      <c r="K103" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L103" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M103" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N103" s="1" t="n">
+        <v>92497311</v>
+      </c>
+      <c r="O103" s="1" t="n">
+        <v>82349287</v>
+      </c>
+      <c r="P103" s="1" t="n">
+        <v>74986122</v>
+      </c>
+      <c r="Q103" s="1" t="n">
+        <v>92497311</v>
+      </c>
+      <c r="R103" s="1" t="n">
+        <v>82349287</v>
+      </c>
+      <c r="S103" s="1" t="n">
+        <v>74986122</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>지배기업소유주지분</t>
+        </is>
+      </c>
+      <c r="C104" s="1" t="inlineStr">
+        <is>
+          <t>자본금</t>
+        </is>
+      </c>
+      <c r="D104" s="1" t="n"/>
+      <c r="E104" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F104" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G104" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H104" s="1" t="n">
+        <v>1488993</v>
+      </c>
+      <c r="I104" s="1" t="n">
+        <v>1488993</v>
+      </c>
+      <c r="J104" s="1" t="n">
+        <v>1488993</v>
+      </c>
+      <c r="K104" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L104" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M104" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N104" s="1" t="n">
+        <v>1488993</v>
+      </c>
+      <c r="O104" s="1" t="n">
+        <v>1488993</v>
+      </c>
+      <c r="P104" s="1" t="n">
+        <v>1488993</v>
+      </c>
+      <c r="Q104" s="1" t="n">
+        <v>1488993</v>
+      </c>
+      <c r="R104" s="1" t="n">
+        <v>1488993</v>
+      </c>
+      <c r="S104" s="1" t="n">
+        <v>1488993</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>지배기업소유주지분</t>
+        </is>
+      </c>
+      <c r="C105" s="1" t="inlineStr">
+        <is>
+          <t>자본잉여금</t>
+        </is>
+      </c>
+      <c r="D105" s="1" t="n"/>
+      <c r="E105" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F105" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G105" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H105" s="1" t="n">
+        <v>4378489</v>
+      </c>
+      <c r="I105" s="1" t="n">
+        <v>4241303</v>
+      </c>
+      <c r="J105" s="1" t="n">
+        <v>4070260</v>
+      </c>
+      <c r="K105" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L105" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M105" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N105" s="1" t="n">
+        <v>4378489</v>
+      </c>
+      <c r="O105" s="1" t="n">
+        <v>4241303</v>
+      </c>
+      <c r="P105" s="1" t="n">
+        <v>4070260</v>
+      </c>
+      <c r="Q105" s="1" t="n">
+        <v>4378489</v>
+      </c>
+      <c r="R105" s="1" t="n">
+        <v>4241303</v>
+      </c>
+      <c r="S105" s="1" t="n">
+        <v>4070260</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>지배기업소유주지분</t>
+        </is>
+      </c>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>기타자본항목</t>
+        </is>
+      </c>
+      <c r="D106" s="1" t="n"/>
+      <c r="E106" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F106" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G106" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H106" s="1" t="n">
+        <v>-1197084</v>
+      </c>
+      <c r="I106" s="1" t="n">
+        <v>-1713928</v>
+      </c>
+      <c r="J106" s="1" t="n">
+        <v>-1968385</v>
+      </c>
+      <c r="K106" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L106" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M106" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N106" s="1" t="n">
+        <v>-1197084</v>
+      </c>
+      <c r="O106" s="1" t="n">
+        <v>-1713928</v>
+      </c>
+      <c r="P106" s="1" t="n">
+        <v>-1968385</v>
+      </c>
+      <c r="Q106" s="1" t="n">
+        <v>-1197084</v>
+      </c>
+      <c r="R106" s="1" t="n">
+        <v>-1713928</v>
+      </c>
+      <c r="S106" s="1" t="n">
+        <v>-1968385</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>지배기업소유주지분</t>
+        </is>
+      </c>
+      <c r="C107" s="1" t="inlineStr">
+        <is>
+          <t>기타포괄손익누계액</t>
+        </is>
+      </c>
+      <c r="D107" s="1" t="n"/>
+      <c r="E107" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F107" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G107" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H107" s="1" t="n">
+        <v>-838892</v>
+      </c>
+      <c r="I107" s="1" t="n">
+        <v>-1620682</v>
+      </c>
+      <c r="J107" s="1" t="n">
+        <v>-1772601</v>
+      </c>
+      <c r="K107" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L107" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M107" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N107" s="1" t="n">
+        <v>-838892</v>
+      </c>
+      <c r="O107" s="1" t="n">
+        <v>-1620682</v>
+      </c>
+      <c r="P107" s="1" t="n">
+        <v>-1772601</v>
+      </c>
+      <c r="Q107" s="1" t="n">
+        <v>-838892</v>
+      </c>
+      <c r="R107" s="1" t="n">
+        <v>-1620682</v>
+      </c>
+      <c r="S107" s="1" t="n">
+        <v>-1772601</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t>지배기업소유주지분</t>
+        </is>
+      </c>
+      <c r="C108" s="1" t="inlineStr">
+        <is>
+          <t>이익잉여금</t>
+        </is>
+      </c>
+      <c r="D108" s="1" t="n"/>
+      <c r="E108" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F108" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G108" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H108" s="1" t="n">
+        <v>88665805</v>
+      </c>
+      <c r="I108" s="1" t="n">
+        <v>79953601</v>
+      </c>
+      <c r="J108" s="1" t="n">
+        <v>73167855</v>
+      </c>
+      <c r="K108" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L108" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M108" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N108" s="1" t="n">
+        <v>88665805</v>
+      </c>
+      <c r="O108" s="1" t="n">
+        <v>79953601</v>
+      </c>
+      <c r="P108" s="1" t="n">
+        <v>73167855</v>
+      </c>
+      <c r="Q108" s="1" t="n">
+        <v>88665805</v>
+      </c>
+      <c r="R108" s="1" t="n">
+        <v>79953601</v>
+      </c>
+      <c r="S108" s="1" t="n">
+        <v>73167855</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="inlineStr">
+        <is>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
+        </is>
+      </c>
+      <c r="C109" s="1" t="n"/>
+      <c r="D109" s="1" t="n"/>
+      <c r="E109" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F109" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G109" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H109" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I109" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J109" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K109" s="1" t="n">
+        <v>35845043</v>
+      </c>
+      <c r="L109" s="1" t="n">
+        <v>40545396</v>
+      </c>
+      <c r="M109" s="1" t="n">
+        <v>63780272</v>
+      </c>
+      <c r="N109" s="1" t="n">
+        <v>35845043</v>
+      </c>
+      <c r="O109" s="1" t="n">
+        <v>40545396</v>
+      </c>
+      <c r="P109" s="1" t="n">
+        <v>63780272</v>
+      </c>
+      <c r="Q109" s="1" t="n">
+        <v>35845043</v>
+      </c>
+      <c r="R109" s="1" t="n">
+        <v>40545396</v>
+      </c>
+      <c r="S109" s="1" t="n">
+        <v>63780272</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
+        </is>
+      </c>
+      <c r="C110" s="1" t="inlineStr">
+        <is>
+          <t>납입자본</t>
+        </is>
+      </c>
+      <c r="D110" s="1" t="n"/>
+      <c r="E110" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F110" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G110" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H110" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I110" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J110" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K110" s="1" t="n">
+        <v>4053578</v>
+      </c>
+      <c r="L110" s="1" t="n">
+        <v>4053578</v>
+      </c>
+      <c r="M110" s="1" t="n">
+        <v>4053578</v>
+      </c>
+      <c r="N110" s="1" t="n">
+        <v>4053578</v>
+      </c>
+      <c r="O110" s="1" t="n">
+        <v>4053578</v>
+      </c>
+      <c r="P110" s="1" t="n">
+        <v>4053578</v>
+      </c>
+      <c r="Q110" s="1" t="n">
+        <v>4053578</v>
+      </c>
+      <c r="R110" s="1" t="n">
+        <v>4053578</v>
+      </c>
+      <c r="S110" s="1" t="n">
+        <v>4053578</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
+        </is>
+      </c>
+      <c r="C111" s="1" t="inlineStr">
+        <is>
+          <t>납입자본</t>
+        </is>
+      </c>
+      <c r="D111" s="1" t="inlineStr">
+        <is>
+          <t>자본금</t>
+        </is>
+      </c>
+      <c r="E111" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F111" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G111" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H111" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I111" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J111" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K111" s="1" t="n">
+        <v>3209820</v>
+      </c>
+      <c r="L111" s="1" t="n">
+        <v>3209820</v>
+      </c>
+      <c r="M111" s="1" t="n">
+        <v>3209820</v>
+      </c>
+      <c r="N111" s="1" t="n">
+        <v>3209820</v>
+      </c>
+      <c r="O111" s="1" t="n">
+        <v>3209820</v>
+      </c>
+      <c r="P111" s="1" t="n">
+        <v>3209820</v>
+      </c>
+      <c r="Q111" s="1" t="n">
+        <v>3209820</v>
+      </c>
+      <c r="R111" s="1" t="n">
+        <v>3209820</v>
+      </c>
+      <c r="S111" s="1" t="n">
+        <v>3209820</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="inlineStr">
+        <is>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
+        </is>
+      </c>
+      <c r="C112" s="1" t="inlineStr">
+        <is>
+          <t>납입자본</t>
+        </is>
+      </c>
+      <c r="D112" s="1" t="inlineStr">
+        <is>
+          <t>주식발행초과금</t>
+        </is>
+      </c>
+      <c r="E112" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F112" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G112" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H112" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I112" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J112" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K112" s="1" t="n">
+        <v>843758</v>
+      </c>
+      <c r="L112" s="1" t="n">
+        <v>843758</v>
+      </c>
+      <c r="M112" s="1" t="n">
+        <v>843758</v>
+      </c>
+      <c r="N112" s="1" t="n">
+        <v>843758</v>
+      </c>
+      <c r="O112" s="1" t="n">
+        <v>843758</v>
+      </c>
+      <c r="P112" s="1" t="n">
+        <v>843758</v>
+      </c>
+      <c r="Q112" s="1" t="n">
+        <v>843758</v>
+      </c>
+      <c r="R112" s="1" t="n">
+        <v>843758</v>
+      </c>
+      <c r="S112" s="1" t="n">
+        <v>843758</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
+        </is>
+      </c>
+      <c r="C113" s="1" t="inlineStr">
+        <is>
+          <t>이익잉여금(결손금)</t>
+        </is>
+      </c>
+      <c r="D113" s="1" t="n"/>
+      <c r="E113" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F113" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G113" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H113" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I113" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J113" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K113" s="1" t="n">
+        <v>16338262</v>
+      </c>
+      <c r="L113" s="1" t="n">
+        <v>21431300</v>
+      </c>
+      <c r="M113" s="1" t="n">
+        <v>45258244</v>
+      </c>
+      <c r="N113" s="1" t="n">
+        <v>16338262</v>
+      </c>
+      <c r="O113" s="1" t="n">
+        <v>21431300</v>
+      </c>
+      <c r="P113" s="1" t="n">
+        <v>45258244</v>
+      </c>
+      <c r="Q113" s="1" t="n">
+        <v>16338262</v>
+      </c>
+      <c r="R113" s="1" t="n">
+        <v>21431300</v>
+      </c>
+      <c r="S113" s="1" t="n">
+        <v>45258244</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="inlineStr">
+        <is>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
+        </is>
+      </c>
+      <c r="C114" s="1" t="inlineStr">
+        <is>
+          <t>이익잉여금(결손금)</t>
+        </is>
+      </c>
+      <c r="D114" s="1" t="inlineStr">
+        <is>
+          <t>이익준비금</t>
+        </is>
+      </c>
+      <c r="E114" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F114" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G114" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H114" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I114" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J114" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K114" s="1" t="n">
+        <v>1604910</v>
+      </c>
+      <c r="L114" s="1" t="n">
+        <v>1604910</v>
+      </c>
+      <c r="M114" s="1" t="n">
+        <v>1604910</v>
+      </c>
+      <c r="N114" s="1" t="n">
+        <v>1604910</v>
+      </c>
+      <c r="O114" s="1" t="n">
+        <v>1604910</v>
+      </c>
+      <c r="P114" s="1" t="n">
+        <v>1604910</v>
+      </c>
+      <c r="Q114" s="1" t="n">
+        <v>1604910</v>
+      </c>
+      <c r="R114" s="1" t="n">
+        <v>1604910</v>
+      </c>
+      <c r="S114" s="1" t="n">
+        <v>1604910</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="inlineStr">
+        <is>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
+        </is>
+      </c>
+      <c r="C115" s="1" t="inlineStr">
+        <is>
+          <t>이익잉여금(결손금)</t>
+        </is>
+      </c>
+      <c r="D115" s="1" t="inlineStr">
+        <is>
+          <t>임의적립금</t>
+        </is>
+      </c>
+      <c r="E115" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F115" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G115" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H115" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I115" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J115" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K115" s="1" t="n">
+        <v>2812313</v>
+      </c>
+      <c r="L115" s="1" t="n">
+        <v>27782969</v>
+      </c>
+      <c r="M115" s="1" t="n">
+        <v>33282817</v>
+      </c>
+      <c r="N115" s="1" t="n">
+        <v>2812313</v>
+      </c>
+      <c r="O115" s="1" t="n">
+        <v>27782969</v>
+      </c>
+      <c r="P115" s="1" t="n">
+        <v>33282817</v>
+      </c>
+      <c r="Q115" s="1" t="n">
+        <v>2812313</v>
+      </c>
+      <c r="R115" s="1" t="n">
+        <v>27782969</v>
+      </c>
+      <c r="S115" s="1" t="n">
+        <v>33282817</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="inlineStr">
+        <is>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
+        </is>
+      </c>
+      <c r="C116" s="1" t="inlineStr">
+        <is>
+          <t>이익잉여금(결손금)</t>
+        </is>
+      </c>
+      <c r="D116" s="1" t="inlineStr">
+        <is>
+          <t>미처분이익잉여금(미처리결손금)</t>
+        </is>
+      </c>
+      <c r="E116" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F116" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G116" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H116" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I116" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J116" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K116" s="1" t="n">
+        <v>11921039</v>
+      </c>
+      <c r="L116" s="1" t="n">
+        <v>-7956579</v>
+      </c>
+      <c r="M116" s="1" t="n">
+        <v>10370517</v>
+      </c>
+      <c r="N116" s="1" t="n">
+        <v>11921039</v>
+      </c>
+      <c r="O116" s="1" t="n">
+        <v>-7956579</v>
+      </c>
+      <c r="P116" s="1" t="n">
+        <v>10370517</v>
+      </c>
+      <c r="Q116" s="1" t="n">
+        <v>11921039</v>
+      </c>
+      <c r="R116" s="1" t="n">
+        <v>-7956579</v>
+      </c>
+      <c r="S116" s="1" t="n">
+        <v>10370517</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
+        </is>
+      </c>
+      <c r="C117" s="1" t="inlineStr">
+        <is>
+          <t>기타자본구성요소</t>
+        </is>
+      </c>
+      <c r="D117" s="1" t="n"/>
+      <c r="E117" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F117" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G117" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H117" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I117" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J117" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K117" s="1" t="n">
+        <v>15453203</v>
+      </c>
+      <c r="L117" s="1" t="n">
+        <v>15060518</v>
+      </c>
+      <c r="M117" s="1" t="n">
+        <v>14468450</v>
+      </c>
+      <c r="N117" s="1" t="n">
+        <v>15453203</v>
+      </c>
+      <c r="O117" s="1" t="n">
+        <v>15060518</v>
+      </c>
+      <c r="P117" s="1" t="n">
+        <v>14468450</v>
+      </c>
+      <c r="Q117" s="1" t="n">
+        <v>15453203</v>
+      </c>
+      <c r="R117" s="1" t="n">
+        <v>15060518</v>
+      </c>
+      <c r="S117" s="1" t="n">
+        <v>14468450</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="inlineStr">
+        <is>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
+        </is>
+      </c>
+      <c r="C118" s="1" t="inlineStr">
+        <is>
+          <t>기타자본구성요소</t>
+        </is>
+      </c>
+      <c r="D118" s="1" t="inlineStr">
+        <is>
+          <t>기타자본잉여금</t>
+        </is>
+      </c>
+      <c r="E118" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F118" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G118" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H118" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I118" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J118" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K118" s="1" t="n">
+        <v>1600801</v>
+      </c>
+      <c r="L118" s="1" t="n">
+        <v>1268569</v>
+      </c>
+      <c r="M118" s="1" t="n">
+        <v>1231109</v>
+      </c>
+      <c r="N118" s="1" t="n">
+        <v>1600801</v>
+      </c>
+      <c r="O118" s="1" t="n">
+        <v>1268569</v>
+      </c>
+      <c r="P118" s="1" t="n">
+        <v>1231109</v>
+      </c>
+      <c r="Q118" s="1" t="n">
+        <v>1600801</v>
+      </c>
+      <c r="R118" s="1" t="n">
+        <v>1268569</v>
+      </c>
+      <c r="S118" s="1" t="n">
+        <v>1231109</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="inlineStr">
+        <is>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
+        </is>
+      </c>
+      <c r="C119" s="1" t="inlineStr">
+        <is>
+          <t>기타자본구성요소</t>
+        </is>
+      </c>
+      <c r="D119" s="1" t="inlineStr">
+        <is>
+          <t>기타포괄손익누계액</t>
+        </is>
+      </c>
+      <c r="E119" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F119" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G119" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H119" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I119" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J119" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K119" s="1" t="n">
+        <v>557430</v>
+      </c>
+      <c r="L119" s="1" t="n">
+        <v>496976</v>
+      </c>
+      <c r="M119" s="1" t="n">
+        <v>-57632</v>
+      </c>
+      <c r="N119" s="1" t="n">
+        <v>557430</v>
+      </c>
+      <c r="O119" s="1" t="n">
+        <v>496976</v>
+      </c>
+      <c r="P119" s="1" t="n">
+        <v>-57632</v>
+      </c>
+      <c r="Q119" s="1" t="n">
+        <v>557430</v>
+      </c>
+      <c r="R119" s="1" t="n">
+        <v>496976</v>
+      </c>
+      <c r="S119" s="1" t="n">
+        <v>-57632</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>자본</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="inlineStr">
+        <is>
+          <t>지배기업의 소유주에게 귀속되는 자본</t>
+        </is>
+      </c>
+      <c r="C120" s="1" t="inlineStr">
+        <is>
+          <t>기타자본구성요소</t>
+        </is>
+      </c>
+      <c r="D120" s="1" t="inlineStr">
+        <is>
+          <t>기타자본</t>
+        </is>
+      </c>
+      <c r="E120" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F120" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G120" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H120" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I120" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J120" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K120" s="1" t="n">
+        <v>13294972</v>
+      </c>
+      <c r="L120" s="1" t="n">
+        <v>13294973</v>
+      </c>
+      <c r="M120" s="1" t="n">
+        <v>13294973</v>
+      </c>
+      <c r="N120" s="1" t="n">
+        <v>13294972</v>
+      </c>
+      <c r="O120" s="1" t="n">
+        <v>13294973</v>
+      </c>
+      <c r="P120" s="1" t="n">
+        <v>13294973</v>
+      </c>
+      <c r="Q120" s="1" t="n">
+        <v>13294972</v>
+      </c>
+      <c r="R120" s="1" t="n">
+        <v>13294973</v>
+      </c>
+      <c r="S120" s="1" t="n">
+        <v>13294973</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
           <t>자본과부채총계</t>
         </is>
       </c>
-      <c r="B97" s="1" t="n"/>
-      <c r="C97" s="1" t="n"/>
-      <c r="D97" s="1" t="n"/>
-      <c r="E97" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F97" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G97" s="7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H97" s="1" t="n">
+      <c r="B121" s="1" t="n"/>
+      <c r="C121" s="1" t="n"/>
+      <c r="D121" s="1" t="n"/>
+      <c r="E121" s="1" t="n">
+        <v>455905980</v>
+      </c>
+      <c r="F121" s="1" t="n">
+        <v>448424507</v>
+      </c>
+      <c r="G121" s="1" t="n">
+        <v>426621158</v>
+      </c>
+      <c r="H121" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I121" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J121" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K121" s="1" t="n">
         <v>239714965</v>
       </c>
-      <c r="I97" s="1" t="n">
+      <c r="L121" s="1" t="n">
         <v>234804994</v>
       </c>
-      <c r="J97" s="1" t="n">
+      <c r="M121" s="1" t="n">
         <v>211123727</v>
       </c>
-      <c r="K97" s="1" t="n">
-        <v>239714965</v>
-      </c>
-      <c r="L97" s="1" t="n">
-        <v>234804994</v>
-      </c>
-      <c r="M97" s="1" t="n">
-        <v>211123727</v>
-      </c>
-      <c r="N97" s="1" t="n">
-        <v>239714965</v>
-      </c>
-      <c r="O97" s="1" t="n">
-        <v>234804994</v>
-      </c>
-      <c r="P97" s="1" t="n">
-        <v>211123727</v>
+      <c r="N121" s="1" t="n">
+        <v>695620945</v>
+      </c>
+      <c r="O121" s="1" t="n">
+        <v>683229501</v>
+      </c>
+      <c r="P121" s="1" t="n">
+        <v>637744885</v>
+      </c>
+      <c r="Q121" s="1" t="n">
+        <v>347810472.5</v>
+      </c>
+      <c r="R121" s="1" t="n">
+        <v>341614750.5</v>
+      </c>
+      <c r="S121" s="1" t="n">
+        <v>318872442.5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>부채와자본총계</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="n"/>
+      <c r="C122" s="1" t="n"/>
+      <c r="D122" s="1" t="n"/>
+      <c r="E122" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F122" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G122" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H122" s="1" t="n">
+        <v>282463355</v>
+      </c>
+      <c r="I122" s="1" t="n">
+        <v>255742462</v>
+      </c>
+      <c r="J122" s="1" t="n">
+        <v>233946415</v>
+      </c>
+      <c r="K122" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L122" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M122" s="7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N122" s="1" t="n">
+        <v>282463355</v>
+      </c>
+      <c r="O122" s="1" t="n">
+        <v>255742462</v>
+      </c>
+      <c r="P122" s="1" t="n">
+        <v>233946415</v>
+      </c>
+      <c r="Q122" s="1" t="n">
+        <v>282463355</v>
+      </c>
+      <c r="R122" s="1" t="n">
+        <v>255742462</v>
+      </c>
+      <c r="S122" s="1" t="n">
+        <v>233946415</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="K1:M1"/>
   </mergeCells>
